--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -510,34 +510,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.599142382862974</v>
+        <v>-8.054006323023474</v>
       </c>
       <c r="C2" t="n">
-        <v>113.9263506821746</v>
+        <v>113.2681537196942</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.990467520849355</v>
+        <v>-8.040133938783949</v>
       </c>
       <c r="E2" t="n">
-        <v>113.2896869236626</v>
+        <v>113.4064233507766</v>
       </c>
       <c r="F2" t="n">
-        <v>238.1424251803819</v>
+        <v>84.223863327611</v>
       </c>
       <c r="G2" t="n">
-        <v>82.54067787911146</v>
+        <v>15.30144130316699</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1525673963753145</v>
+        <v>0.1524269381722099</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.990467520849355</v>
+        <v>-8.040133938783949</v>
       </c>
       <c r="J2" t="n">
-        <v>113.2896869236626</v>
+        <v>113.4064233507766</v>
       </c>
       <c r="K2" t="n">
-        <v>238.1424251803819</v>
+        <v>84.223863327611</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -554,34 +554,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.669368021741986</v>
+        <v>-7.785119331814355</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1368863788483</v>
+        <v>113.1989959430346</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.945829030793581</v>
+        <v>-7.89938381243222</v>
       </c>
       <c r="E3" t="n">
-        <v>113.4223778325897</v>
+        <v>113.3488373387365</v>
       </c>
       <c r="F3" t="n">
-        <v>314.3653616968281</v>
+        <v>127.5981558492271</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.97921150034649</v>
+        <v>20.82963187745056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1545266028305428</v>
+        <v>0.1561668143644553</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.945829030793581</v>
+        <v>-7.89938381243222</v>
       </c>
       <c r="J3" t="n">
-        <v>113.4223778325897</v>
+        <v>113.3488373387365</v>
       </c>
       <c r="K3" t="n">
-        <v>314.3653616968281</v>
+        <v>127.5981558492271</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -598,34 +598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.862023026523619</v>
+        <v>-7.785119331814355</v>
       </c>
       <c r="C4" t="n">
-        <v>113.4342919486415</v>
+        <v>113.1989959430346</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.943765654761775</v>
+        <v>-7.89938381243222</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4246953824646</v>
+        <v>113.3488373387365</v>
       </c>
       <c r="F4" t="n">
-        <v>186.6321778626268</v>
+        <v>127.5981558492271</v>
       </c>
       <c r="G4" t="n">
-        <v>9.150613060531281</v>
+        <v>20.82963187745056</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1549289807978119</v>
+        <v>0.1561668143644553</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.943765654761775</v>
+        <v>-7.89938381243222</v>
       </c>
       <c r="J4" t="n">
-        <v>113.4246953824646</v>
+        <v>113.3488373387365</v>
       </c>
       <c r="K4" t="n">
-        <v>186.6321778626268</v>
+        <v>127.5981558492271</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -642,34 +642,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.853319314509247</v>
+        <v>-7.785119331814355</v>
       </c>
       <c r="C5" t="n">
-        <v>113.1021084284456</v>
+        <v>113.1989959430346</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.89938381243222</v>
       </c>
       <c r="E5" t="n">
-        <v>113.403084429714</v>
+        <v>113.3488373387365</v>
       </c>
       <c r="F5" t="n">
-        <v>285.9313430217832</v>
+        <v>127.5981558492271</v>
       </c>
       <c r="G5" t="n">
-        <v>-34.47026970311668</v>
+        <v>20.82963187745056</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1550288906425021</v>
+        <v>0.1561668143644553</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.89938381243222</v>
       </c>
       <c r="J5" t="n">
-        <v>113.403084429714</v>
+        <v>113.3488373387365</v>
       </c>
       <c r="K5" t="n">
-        <v>285.9313430217832</v>
+        <v>127.5981558492271</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -686,34 +686,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.853319314509247</v>
+        <v>-8.046855427178887</v>
       </c>
       <c r="C6" t="n">
-        <v>113.1021084284456</v>
+        <v>113.3372408280885</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.919339790903962</v>
       </c>
       <c r="E6" t="n">
-        <v>113.403084429714</v>
+        <v>113.3815710047076</v>
       </c>
       <c r="F6" t="n">
-        <v>285.9313430217832</v>
+        <v>19.0004403482435</v>
       </c>
       <c r="G6" t="n">
-        <v>-34.47026970311668</v>
+        <v>14.99586227868175</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1550288906425021</v>
+        <v>0.1566262321523726</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.919339790903962</v>
       </c>
       <c r="J6" t="n">
-        <v>113.403084429714</v>
+        <v>113.3815710047076</v>
       </c>
       <c r="K6" t="n">
-        <v>285.9313430217832</v>
+        <v>19.0004403482435</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -730,34 +730,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.018702142712097</v>
+        <v>-8.046855427178887</v>
       </c>
       <c r="C7" t="n">
-        <v>113.4116647603779</v>
+        <v>113.3372408280885</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.971629091331161</v>
+        <v>-7.919339790903962</v>
       </c>
       <c r="E7" t="n">
-        <v>113.3676819708199</v>
+        <v>113.3815710047076</v>
       </c>
       <c r="F7" t="n">
-        <v>317.2197870938375</v>
+        <v>19.0004403482435</v>
       </c>
       <c r="G7" t="n">
-        <v>7.131170402648619</v>
+        <v>14.99586227868175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1555756166463834</v>
+        <v>0.1566262321523726</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.971629091331161</v>
+        <v>-7.919339790903962</v>
       </c>
       <c r="J7" t="n">
-        <v>113.3676819708199</v>
+        <v>113.3815710047076</v>
       </c>
       <c r="K7" t="n">
-        <v>317.2197870938375</v>
+        <v>19.0004403482435</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -774,34 +774,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.595710547623877</v>
+        <v>-8.126558394330337</v>
       </c>
       <c r="C8" t="n">
-        <v>113.1534009838899</v>
+        <v>113.3750545337724</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.941665819060812</v>
       </c>
       <c r="E8" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3566135769725</v>
       </c>
       <c r="F8" t="n">
-        <v>144.1939002995809</v>
+        <v>-5.641522756992408</v>
       </c>
       <c r="G8" t="n">
-        <v>43.55082083619002</v>
+        <v>20.65913467514449</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1556678141944205</v>
+        <v>0.1567602438053141</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.941665819060812</v>
       </c>
       <c r="J8" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3566135769725</v>
       </c>
       <c r="K8" t="n">
-        <v>144.1939002995809</v>
+        <v>-5.641522756992408</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -818,34 +818,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.595710547623877</v>
+        <v>-8.070179561698872</v>
       </c>
       <c r="C9" t="n">
-        <v>113.1534009838899</v>
+        <v>113.2739115313936</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.957440895337543</v>
       </c>
       <c r="E9" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3532105320776</v>
       </c>
       <c r="F9" t="n">
-        <v>144.1939002995809</v>
+        <v>34.86347471195094</v>
       </c>
       <c r="G9" t="n">
-        <v>43.55082083619002</v>
+        <v>15.27711402493527</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1556678141944205</v>
+        <v>0.1568354811675162</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.957440895337543</v>
       </c>
       <c r="J9" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3532105320776</v>
       </c>
       <c r="K9" t="n">
-        <v>144.1939002995809</v>
+        <v>34.86347471195094</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -862,34 +862,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.595710547623877</v>
+        <v>-8.035891950338394</v>
       </c>
       <c r="C10" t="n">
-        <v>113.1534009838899</v>
+        <v>113.3326421457929</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.931403359542824</v>
       </c>
       <c r="E10" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3394727645332</v>
       </c>
       <c r="F10" t="n">
-        <v>144.1939002995809</v>
+        <v>3.704537877477243</v>
       </c>
       <c r="G10" t="n">
-        <v>43.55082083619002</v>
+        <v>11.6429227863114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1556678141944205</v>
+        <v>0.1568382133731331</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.931403359542824</v>
       </c>
       <c r="J10" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3394727645332</v>
       </c>
       <c r="K10" t="n">
-        <v>144.1939002995809</v>
+        <v>3.704537877477243</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.929923180732002</v>
+        <v>-7.925402236810063</v>
       </c>
       <c r="C11" t="n">
-        <v>113.3775030198883</v>
+        <v>113.3654313693034</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.922150621747604</v>
+        <v>-7.945613688921249</v>
       </c>
       <c r="E11" t="n">
-        <v>113.3729355314569</v>
+        <v>113.3520172777035</v>
       </c>
       <c r="F11" t="n">
-        <v>329.7990385386002</v>
+        <v>213.3172835851582</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2.689471789779883</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1558606446089311</v>
+        <v>0.1568577973867261</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.922150621747604</v>
+        <v>-7.945613688921249</v>
       </c>
       <c r="J11" t="n">
-        <v>113.3729355314569</v>
+        <v>113.3520172777035</v>
       </c>
       <c r="K11" t="n">
-        <v>329.7990385386002</v>
+        <v>213.3172835851582</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -950,34 +950,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.998932062617834</v>
+        <v>-7.967899312471845</v>
       </c>
       <c r="C12" t="n">
-        <v>113.3738798974752</v>
+        <v>113.3484598140538</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.94466756277016</v>
       </c>
       <c r="E12" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3569270892343</v>
       </c>
       <c r="F12" t="n">
-        <v>170.2796019800011</v>
+        <v>19.84822068156424</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.635502086149323</v>
+        <v>2.746391591491157</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1558954612313375</v>
+        <v>0.1569428112517432</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.94466756277016</v>
       </c>
       <c r="J12" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3569270892343</v>
       </c>
       <c r="K12" t="n">
-        <v>170.2796019800011</v>
+        <v>19.84822068156424</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -994,34 +994,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.998932062617834</v>
+        <v>-8.030120599852818</v>
       </c>
       <c r="C13" t="n">
-        <v>113.3738798974752</v>
+        <v>113.3267544282818</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.941648486095105</v>
       </c>
       <c r="E13" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3511709451791</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2796019800011</v>
+        <v>15.28753872798875</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.635502086149323</v>
+        <v>10.19844460465604</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1558954612313375</v>
+        <v>0.1569816977124411</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.941648486095105</v>
       </c>
       <c r="J13" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3511709451791</v>
       </c>
       <c r="K13" t="n">
-        <v>170.2796019800011</v>
+        <v>15.28753872798875</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1038,34 +1038,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.92755107989563</v>
+        <v>-8.030120599852818</v>
       </c>
       <c r="C14" t="n">
-        <v>113.3721356816864</v>
+        <v>113.3267544282818</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.928839450837609</v>
+        <v>-7.941648486095105</v>
       </c>
       <c r="E14" t="n">
-        <v>113.3727503757708</v>
+        <v>113.3511709451791</v>
       </c>
       <c r="F14" t="n">
-        <v>154.707003571351</v>
+        <v>15.28753872798875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1584502282819562</v>
+        <v>10.19844460465604</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1559147890038532</v>
+        <v>0.1569816977124411</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.928839450837609</v>
+        <v>-7.941648486095105</v>
       </c>
       <c r="J14" t="n">
-        <v>113.3727503757708</v>
+        <v>113.3511709451791</v>
       </c>
       <c r="K14" t="n">
-        <v>154.707003571351</v>
+        <v>15.28753872798875</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.00057645676884</v>
+        <v>-8.040865638067951</v>
       </c>
       <c r="C15" t="n">
-        <v>113.391381419109</v>
+        <v>113.3269775155012</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.94083591379778</v>
       </c>
       <c r="E15" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3561258675022</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4044627966014</v>
+        <v>16.09845042711512</v>
       </c>
       <c r="G15" t="n">
-        <v>7.667695267087087</v>
+        <v>11.57664301643778</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1570024913620341</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.94083591379778</v>
       </c>
       <c r="J15" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3561258675022</v>
       </c>
       <c r="K15" t="n">
-        <v>341.4044627966014</v>
+        <v>16.09845042711512</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-8.00057645676884</v>
+        <v>-8.040865638067951</v>
       </c>
       <c r="C16" t="n">
-        <v>113.391381419109</v>
+        <v>113.3269775155012</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.94083591379778</v>
       </c>
       <c r="E16" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3561258675022</v>
       </c>
       <c r="F16" t="n">
-        <v>341.4044627966014</v>
+        <v>16.09845042711512</v>
       </c>
       <c r="G16" t="n">
-        <v>7.667695267087087</v>
+        <v>11.57664301643778</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1570024913620341</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.94083591379778</v>
       </c>
       <c r="J16" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3561258675022</v>
       </c>
       <c r="K16" t="n">
-        <v>341.4044627966014</v>
+        <v>16.09845042711512</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1170,34 +1170,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.76995997942196</v>
       </c>
       <c r="C17" t="n">
-        <v>113.391381419109</v>
+        <v>113.3745022631762</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.936127558213281</v>
       </c>
       <c r="E17" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3609823288943</v>
       </c>
       <c r="F17" t="n">
-        <v>341.4044627966014</v>
+        <v>184.6071682598485</v>
       </c>
       <c r="G17" t="n">
-        <v>7.667695267087087</v>
+        <v>18.53691143541692</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1570155492331635</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.936127558213281</v>
       </c>
       <c r="J17" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3609823288943</v>
       </c>
       <c r="K17" t="n">
-        <v>341.4044627966014</v>
+        <v>184.6071682598485</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1214,34 +1214,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.00057645676884</v>
+        <v>-8.005800615473895</v>
       </c>
       <c r="C18" t="n">
-        <v>113.391381419109</v>
+        <v>113.3483776978243</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.932669310379373</v>
       </c>
       <c r="E18" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3605674762777</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4044627966014</v>
+        <v>9.374343356319407</v>
       </c>
       <c r="G18" t="n">
-        <v>7.667695267087087</v>
+        <v>8.241878930229836</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1570169436251844</v>
       </c>
       <c r="I18" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.932669310379373</v>
       </c>
       <c r="J18" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3605674762777</v>
       </c>
       <c r="K18" t="n">
-        <v>341.4044627966014</v>
+        <v>9.374343356319407</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1258,34 +1258,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.00057645676884</v>
+        <v>-8.005800615473895</v>
       </c>
       <c r="C19" t="n">
-        <v>113.391381419109</v>
+        <v>113.3483776978243</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.932669310379373</v>
       </c>
       <c r="E19" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3605674762777</v>
       </c>
       <c r="F19" t="n">
-        <v>341.4044627966014</v>
+        <v>9.374343356319407</v>
       </c>
       <c r="G19" t="n">
-        <v>7.667695267087087</v>
+        <v>8.241878930229836</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1570169436251844</v>
       </c>
       <c r="I19" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.932669310379373</v>
       </c>
       <c r="J19" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3605674762777</v>
       </c>
       <c r="K19" t="n">
-        <v>341.4044627966014</v>
+        <v>9.374343356319407</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1302,34 +1302,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.00057645676884</v>
+        <v>-8.039783112931968</v>
       </c>
       <c r="C20" t="n">
-        <v>113.391381419109</v>
+        <v>113.3316342153111</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.934267719774658</v>
       </c>
       <c r="E20" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3667737035975</v>
       </c>
       <c r="F20" t="n">
-        <v>341.4044627966014</v>
+        <v>18.25482496838756</v>
       </c>
       <c r="G20" t="n">
-        <v>7.667695267087087</v>
+        <v>12.35437274439791</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1570236098443513</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.934267719774658</v>
       </c>
       <c r="J20" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3667737035975</v>
       </c>
       <c r="K20" t="n">
-        <v>341.4044627966014</v>
+        <v>18.25482496838756</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1346,34 +1346,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.927253240803922</v>
+        <v>-8.033112674445764</v>
       </c>
       <c r="C21" t="n">
-        <v>113.3635728002981</v>
+        <v>113.3368298621995</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.938645832346606</v>
       </c>
       <c r="E21" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3613435422709</v>
       </c>
       <c r="F21" t="n">
-        <v>161.2065008467991</v>
+        <v>14.4136486290883</v>
       </c>
       <c r="G21" t="n">
-        <v>1.397992998888644</v>
+        <v>10.84552819906822</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1559583191480965</v>
+        <v>0.1570270501583169</v>
       </c>
       <c r="I21" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.938645832346606</v>
       </c>
       <c r="J21" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3613435422709</v>
       </c>
       <c r="K21" t="n">
-        <v>161.2065008467991</v>
+        <v>14.4136486290883</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1390,34 +1390,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.927253240803922</v>
+        <v>-8.039124421458066</v>
       </c>
       <c r="C22" t="n">
-        <v>113.3635728002981</v>
+        <v>113.337000768931</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.939589204758112</v>
       </c>
       <c r="E22" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3636982803734</v>
       </c>
       <c r="F22" t="n">
-        <v>161.2065008467991</v>
+        <v>14.8771849862548</v>
       </c>
       <c r="G22" t="n">
-        <v>1.397992998888644</v>
+        <v>11.4515914730196</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1559583191480965</v>
+        <v>0.1570315774046282</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.939589204758112</v>
       </c>
       <c r="J22" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3636982803734</v>
       </c>
       <c r="K22" t="n">
-        <v>161.2065008467991</v>
+        <v>14.8771849862548</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1434,34 +1434,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-7.927253240803922</v>
+        <v>-8.037759154820012</v>
       </c>
       <c r="C23" t="n">
-        <v>113.3635728002981</v>
+        <v>113.345379161819</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.934820855226535</v>
       </c>
       <c r="E23" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3642456402065</v>
       </c>
       <c r="F23" t="n">
-        <v>161.2065008467991</v>
+        <v>10.28861686576966</v>
       </c>
       <c r="G23" t="n">
-        <v>1.397992998888644</v>
+        <v>11.63322499859912</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1559583191480965</v>
+        <v>0.1570371028789562</v>
       </c>
       <c r="I23" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.934820855226535</v>
       </c>
       <c r="J23" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3642456402065</v>
       </c>
       <c r="K23" t="n">
-        <v>161.2065008467991</v>
+        <v>10.28861686576966</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1478,34 +1478,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-7.925186798391443</v>
+        <v>-8.037759154820012</v>
       </c>
       <c r="C24" t="n">
-        <v>113.3676620220398</v>
+        <v>113.345379161819</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.936628192384261</v>
+        <v>-7.934820855226535</v>
       </c>
       <c r="E24" t="n">
-        <v>113.3717069981379</v>
+        <v>113.3642456402065</v>
       </c>
       <c r="F24" t="n">
-        <v>160.7022086539152</v>
+        <v>10.28861686576966</v>
       </c>
       <c r="G24" t="n">
-        <v>1.347964271098493</v>
+        <v>11.63322499859912</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1559607514523099</v>
+        <v>0.1570371028789562</v>
       </c>
       <c r="I24" t="n">
-        <v>-7.936628192384261</v>
+        <v>-7.934820855226535</v>
       </c>
       <c r="J24" t="n">
-        <v>113.3717069981379</v>
+        <v>113.3642456402065</v>
       </c>
       <c r="K24" t="n">
-        <v>160.7022086539152</v>
+        <v>10.28861686576966</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1522,34 +1522,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.93041941645333</v>
+        <v>-8.037759154820012</v>
       </c>
       <c r="C25" t="n">
-        <v>113.3659776800578</v>
+        <v>113.345379161819</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.93894654324964</v>
+        <v>-7.934820855226535</v>
       </c>
       <c r="E25" t="n">
-        <v>113.3689929086657</v>
+        <v>113.3642456402065</v>
       </c>
       <c r="F25" t="n">
-        <v>160.6989887852127</v>
+        <v>10.28861686576966</v>
       </c>
       <c r="G25" t="n">
-        <v>1.004640124001872</v>
+        <v>11.63322499859912</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1559643232427148</v>
+        <v>0.1570371028789562</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.93894654324964</v>
+        <v>-7.934820855226535</v>
       </c>
       <c r="J25" t="n">
-        <v>113.3689929086657</v>
+        <v>113.3642456402065</v>
       </c>
       <c r="K25" t="n">
-        <v>160.6989887852127</v>
+        <v>10.28861686576966</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1566,34 +1566,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.925146647450504</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3636242602798</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.935147698981534</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E26" t="n">
-        <v>113.3671771420772</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F26" t="n">
-        <v>160.6156421403693</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G26" t="n">
-        <v>1.178895557584105</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1559646364106799</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I26" t="n">
-        <v>-7.935147698981534</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J26" t="n">
-        <v>113.3671771420772</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K26" t="n">
-        <v>160.6156421403693</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1610,34 +1610,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.928450060857179</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C27" t="n">
-        <v>113.3666962576382</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.93656118013396</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E27" t="n">
-        <v>113.3695782772376</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F27" t="n">
-        <v>160.6123508219388</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9561347653597531</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H27" t="n">
-        <v>0.155965306080437</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I27" t="n">
-        <v>-7.93656118013396</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J27" t="n">
-        <v>113.3695782772376</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K27" t="n">
-        <v>160.6123508219388</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1654,34 +1654,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.924256781218626</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C28" t="n">
-        <v>113.3633165794617</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.936637151614055</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E28" t="n">
-        <v>113.3677152355845</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F28" t="n">
-        <v>160.6135953367559</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G28" t="n">
-        <v>1.459381776814706</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1559661965323795</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.936637151614055</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J28" t="n">
-        <v>113.3677152355845</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K28" t="n">
-        <v>160.6135953367559</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1698,34 +1698,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.929899664377401</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C29" t="n">
-        <v>113.3650974822149</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.9383403623146</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E29" t="n">
-        <v>113.3680990914772</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F29" t="n">
-        <v>160.5975668368804</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9950757779489504</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1559663508502477</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.9383403623146</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J29" t="n">
-        <v>113.3680990914772</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K29" t="n">
-        <v>160.5975668368804</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1742,34 +1742,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.925730271325929</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C30" t="n">
-        <v>113.3639856047198</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.936857058522028</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E30" t="n">
-        <v>113.3679458344292</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F30" t="n">
-        <v>160.5820107609207</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G30" t="n">
-        <v>1.311865474442396</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1559666787996332</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I30" t="n">
-        <v>-7.936857058522028</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J30" t="n">
-        <v>113.3679458344292</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K30" t="n">
-        <v>160.5820107609207</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1786,34 +1786,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.929293859057266</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C31" t="n">
-        <v>113.365723276194</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.937703864183807</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E31" t="n">
-        <v>113.368718482855</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F31" t="n">
-        <v>160.5704578154286</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9916227517693958</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1559666948257121</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.937703864183807</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J31" t="n">
-        <v>113.368718482855</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K31" t="n">
-        <v>160.5704578154286</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1830,34 +1830,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-7.926620235250896</v>
+        <v>-8.037368184354699</v>
       </c>
       <c r="C32" t="n">
-        <v>113.3634125822075</v>
+        <v>113.3360466266519</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.937649696714451</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="E32" t="n">
-        <v>113.3673426170107</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="F32" t="n">
-        <v>160.5617053255354</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="G32" t="n">
-        <v>1.300553162586978</v>
+        <v>11.5103870569584</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1559667937302764</v>
+        <v>0.1570374287883196</v>
       </c>
       <c r="I32" t="n">
-        <v>-7.937649696714451</v>
+        <v>-7.937397067226712</v>
       </c>
       <c r="J32" t="n">
-        <v>113.3673426170107</v>
+        <v>113.3631651300539</v>
       </c>
       <c r="K32" t="n">
-        <v>160.5617053255354</v>
+        <v>15.03836917864868</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -1874,34 +1874,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.925640412041455</v>
+        <v>-8.037754833349453</v>
       </c>
       <c r="C33" t="n">
-        <v>113.3634000839693</v>
+        <v>113.3366643557661</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.937373097785662</v>
+        <v>-7.936978093081906</v>
       </c>
       <c r="E33" t="n">
-        <v>113.3675811746013</v>
+        <v>113.3639761148091</v>
       </c>
       <c r="F33" t="n">
-        <v>160.5596226696324</v>
+        <v>15.02510684290371</v>
       </c>
       <c r="G33" t="n">
-        <v>1.383492655753487</v>
+        <v>11.60242232215745</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1559668328430077</v>
+        <v>0.1570375079487668</v>
       </c>
       <c r="I33" t="n">
-        <v>-7.937373097785662</v>
+        <v>-7.936978093081906</v>
       </c>
       <c r="J33" t="n">
-        <v>113.3675811746013</v>
+        <v>113.3639761148091</v>
       </c>
       <c r="K33" t="n">
-        <v>160.5596226696324</v>
+        <v>15.02510684290371</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -1918,34 +1918,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.926613714177232</v>
+        <v>-8.037124997450837</v>
       </c>
       <c r="C34" t="n">
-        <v>113.3638965505684</v>
+        <v>113.3356121597721</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="E34" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="F34" t="n">
-        <v>160.5646540547856</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="G34" t="n">
-        <v>1.286782282256654</v>
+        <v>11.52715219848761</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1559669160577003</v>
+        <v>0.1570377330927203</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="J34" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="K34" t="n">
-        <v>160.5646540547856</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -1962,34 +1962,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.926613714177232</v>
+        <v>-8.037124997450837</v>
       </c>
       <c r="C35" t="n">
-        <v>113.3638965505684</v>
+        <v>113.3356121597721</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="E35" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="F35" t="n">
-        <v>160.5646540547856</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="G35" t="n">
-        <v>1.286782282256654</v>
+        <v>11.52715219848761</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1559669160577003</v>
+        <v>0.1570377330927203</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="K35" t="n">
-        <v>160.5646540547856</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2006,34 +2006,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-7.928911433583865</v>
+        <v>-8.037124997450837</v>
       </c>
       <c r="C36" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3356121597721</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="E36" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="F36" t="n">
-        <v>160.5675513907877</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.52715219848761</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1570377330927203</v>
       </c>
       <c r="I36" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="J36" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="K36" t="n">
-        <v>160.5675513907877</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2050,34 +2050,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-7.928911433583865</v>
+        <v>-8.037124997450837</v>
       </c>
       <c r="C37" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3356121597721</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="E37" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="F37" t="n">
-        <v>160.5675513907877</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.52715219848761</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1570377330927203</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="J37" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="K37" t="n">
-        <v>160.5675513907877</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2094,34 +2094,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.928911433583865</v>
+        <v>-8.037124997450837</v>
       </c>
       <c r="C38" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3356121597721</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="E38" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="F38" t="n">
-        <v>160.5675513907877</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.52715219848761</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1570377330927203</v>
       </c>
       <c r="I38" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937009677314883</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3627754301187</v>
       </c>
       <c r="K38" t="n">
-        <v>160.5675513907877</v>
+        <v>15.04136983094996</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2138,34 +2138,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.928911433583865</v>
+        <v>-8.037057268658014</v>
       </c>
       <c r="C39" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3361176343169</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.936957685494126</v>
       </c>
       <c r="E39" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3632705688026</v>
       </c>
       <c r="F39" t="n">
-        <v>160.5675513907877</v>
+        <v>15.0381641900617</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.52516706533641</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1570378392621311</v>
       </c>
       <c r="I39" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.936957685494126</v>
       </c>
       <c r="J39" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3632705688026</v>
       </c>
       <c r="K39" t="n">
-        <v>160.5675513907877</v>
+        <v>15.0381641900617</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2182,34 +2182,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-7.928911433583865</v>
+        <v>-8.037057268658014</v>
       </c>
       <c r="C40" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3361176343169</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.936957685494126</v>
       </c>
       <c r="E40" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3632705688026</v>
       </c>
       <c r="F40" t="n">
-        <v>160.5675513907877</v>
+        <v>15.0381641900617</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.52516706533641</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1570378392621311</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.936957685494126</v>
       </c>
       <c r="J40" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3632705688026</v>
       </c>
       <c r="K40" t="n">
-        <v>160.5675513907877</v>
+        <v>15.0381641900617</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2226,34 +2226,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-7.929564836664708</v>
+        <v>-8.037057268658014</v>
       </c>
       <c r="C41" t="n">
-        <v>113.3650075933507</v>
+        <v>113.3361176343169</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.9375202022355</v>
+        <v>-7.936957685494126</v>
       </c>
       <c r="E41" t="n">
-        <v>113.3678412775343</v>
+        <v>113.3632705688026</v>
       </c>
       <c r="F41" t="n">
-        <v>160.5679332723429</v>
+        <v>15.0381641900617</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9380307689241612</v>
+        <v>11.52516706533641</v>
       </c>
       <c r="H41" t="n">
-        <v>0.155966957726713</v>
+        <v>0.1570378392621311</v>
       </c>
       <c r="I41" t="n">
-        <v>-7.9375202022355</v>
+        <v>-7.936957685494126</v>
       </c>
       <c r="J41" t="n">
-        <v>113.3678412775343</v>
+        <v>113.3632705688026</v>
       </c>
       <c r="K41" t="n">
-        <v>160.5679332723429</v>
+        <v>15.0381641900617</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2270,34 +2270,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.929462256880111</v>
+        <v>-8.037333818277567</v>
       </c>
       <c r="C42" t="n">
-        <v>113.3650293756579</v>
+        <v>113.3358962530113</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.937460953949726</v>
+        <v>-7.936952245218288</v>
       </c>
       <c r="E42" t="n">
-        <v>113.3678784590226</v>
+        <v>113.3631238354187</v>
       </c>
       <c r="F42" t="n">
-        <v>160.5681541828418</v>
+        <v>15.03719226371411</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9431387833974272</v>
+        <v>11.55758159165737</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1559669587229701</v>
+        <v>0.1570378639305604</v>
       </c>
       <c r="I42" t="n">
-        <v>-7.937460953949726</v>
+        <v>-7.936952245218288</v>
       </c>
       <c r="J42" t="n">
-        <v>113.3678784590226</v>
+        <v>113.3631238354187</v>
       </c>
       <c r="K42" t="n">
-        <v>160.5681541828418</v>
+        <v>15.03719226371411</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2314,34 +2314,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-7.929453511365901</v>
+        <v>-8.037333818277567</v>
       </c>
       <c r="C43" t="n">
-        <v>113.3650069929189</v>
+        <v>113.3358962530113</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.93744214433806</v>
+        <v>-7.936952245218288</v>
       </c>
       <c r="E43" t="n">
-        <v>113.3678524963725</v>
+        <v>113.3631238354187</v>
       </c>
       <c r="F43" t="n">
-        <v>160.5681226675012</v>
+        <v>15.03719226371411</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9419522913987795</v>
+        <v>11.55758159165737</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1559669591162015</v>
+        <v>0.1570378639305604</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.93744214433806</v>
+        <v>-7.936952245218288</v>
       </c>
       <c r="J43" t="n">
-        <v>113.3678524963725</v>
+        <v>113.3631238354187</v>
       </c>
       <c r="K43" t="n">
-        <v>160.5681226675012</v>
+        <v>15.03719226371411</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2358,34 +2358,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.926729058316045</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C44" t="n">
-        <v>113.3640553088882</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E44" t="n">
-        <v>113.3678662505235</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F44" t="n">
-        <v>160.568022775149</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G44" t="n">
-        <v>1.261536897163938</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1559669596825827</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I44" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J44" t="n">
-        <v>113.3678662505235</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K44" t="n">
-        <v>160.568022775149</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2402,34 +2402,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-7.926729058316045</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C45" t="n">
-        <v>113.3640553088882</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E45" t="n">
-        <v>113.3678662505235</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F45" t="n">
-        <v>160.568022775149</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G45" t="n">
-        <v>1.261536897163938</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1559669596825827</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I45" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J45" t="n">
-        <v>113.3678662505235</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K45" t="n">
-        <v>160.568022775149</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2446,34 +2446,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-7.926729058316045</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C46" t="n">
-        <v>113.3640553088882</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E46" t="n">
-        <v>113.3678662505235</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F46" t="n">
-        <v>160.568022775149</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G46" t="n">
-        <v>1.261536897163938</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1559669596825827</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I46" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J46" t="n">
-        <v>113.3678662505235</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K46" t="n">
-        <v>160.568022775149</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2490,34 +2490,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-7.929465991965822</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C47" t="n">
-        <v>113.3650010944968</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.937475950954907</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E47" t="n">
-        <v>113.3678542104521</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F47" t="n">
-        <v>160.5680214981691</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9444674670231736</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1559669599024018</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I47" t="n">
-        <v>-7.937475950954907</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J47" t="n">
-        <v>113.3678542104521</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K47" t="n">
-        <v>160.5680214981691</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2534,34 +2534,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-7.929431461464187</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C48" t="n">
-        <v>113.3650183556272</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.937449743871355</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E48" t="n">
-        <v>113.3678744354273</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F48" t="n">
-        <v>160.5680261896947</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9454488688433087</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1559669599407547</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I48" t="n">
-        <v>-7.937449743871355</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J48" t="n">
-        <v>113.3678744354273</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K48" t="n">
-        <v>160.5680261896947</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -2578,34 +2578,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-7.929390943701924</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C49" t="n">
-        <v>113.3649972604629</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.937472312023047</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E49" t="n">
-        <v>113.3678758094</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F49" t="n">
-        <v>160.5680386546221</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9528873686941478</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1559669600624515</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I49" t="n">
-        <v>-7.937472312023047</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J49" t="n">
-        <v>113.3678758094</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K49" t="n">
-        <v>160.5680386546221</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -2622,34 +2622,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-7.929521645872363</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C50" t="n">
-        <v>113.3650085183431</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.937463967226322</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E50" t="n">
-        <v>113.3678375389828</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F50" t="n">
-        <v>160.5680402044998</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9364920845323742</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1559669600766281</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I50" t="n">
-        <v>-7.937463967226322</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J50" t="n">
-        <v>113.3678375389828</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K50" t="n">
-        <v>160.5680402044998</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -2666,34 +2666,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-7.92945370175002</v>
+        <v>-8.037221422991426</v>
       </c>
       <c r="C51" t="n">
-        <v>113.3650240020801</v>
+        <v>113.3359897775578</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.937442693993174</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="E51" t="n">
-        <v>113.3678696467207</v>
+        <v>113.363182072018</v>
       </c>
       <c r="F51" t="n">
-        <v>160.5680392027995</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9419951377694178</v>
+        <v>11.54428530270085</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1559669600790251</v>
+        <v>0.1570378749460715</v>
       </c>
       <c r="I51" t="n">
-        <v>-7.937442693993174</v>
+        <v>-7.93695427932438</v>
       </c>
       <c r="J51" t="n">
-        <v>113.3678696467207</v>
+        <v>113.363182072018</v>
       </c>
       <c r="K51" t="n">
-        <v>160.5680392027995</v>
+        <v>15.03494852180208</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -2710,34 +2710,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-7.929448193206991</v>
+        <v>-8.037343220725212</v>
       </c>
       <c r="C52" t="n">
-        <v>113.3649978417375</v>
+        <v>113.3358781335956</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.937452561127319</v>
+        <v>-7.936951149079437</v>
       </c>
       <c r="E52" t="n">
-        <v>113.3678489630731</v>
+        <v>113.363105770594</v>
       </c>
       <c r="F52" t="n">
-        <v>160.5680400231736</v>
+        <v>15.03571975572218</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9438081064336212</v>
+        <v>11.55871057234699</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1559669601682323</v>
+        <v>0.1570378831012869</v>
       </c>
       <c r="I52" t="n">
-        <v>-7.937452561127319</v>
+        <v>-7.936951149079437</v>
       </c>
       <c r="J52" t="n">
-        <v>113.3678489630731</v>
+        <v>113.363105770594</v>
       </c>
       <c r="K52" t="n">
-        <v>160.5680400231736</v>
+        <v>15.03571975572218</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -2754,34 +2754,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-7.926626465040175</v>
+        <v>-8.037343220725212</v>
       </c>
       <c r="C53" t="n">
-        <v>113.3640009738428</v>
+        <v>113.3358781335956</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.936951149079437</v>
       </c>
       <c r="E53" t="n">
-        <v>113.3678581831908</v>
+        <v>113.363105770594</v>
       </c>
       <c r="F53" t="n">
-        <v>160.5680416358756</v>
+        <v>15.03571975572218</v>
       </c>
       <c r="G53" t="n">
-        <v>1.276854015591274</v>
+        <v>11.55871057234699</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1559669602010365</v>
+        <v>0.1570378831012869</v>
       </c>
       <c r="I53" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.936951149079437</v>
       </c>
       <c r="J53" t="n">
-        <v>113.3678581831908</v>
+        <v>113.363105770594</v>
       </c>
       <c r="K53" t="n">
-        <v>160.5680416358756</v>
+        <v>15.03571975572218</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -2798,34 +2798,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-7.926626465040175</v>
+        <v>-8.037343220725212</v>
       </c>
       <c r="C54" t="n">
-        <v>113.3640009738428</v>
+        <v>113.3358781335956</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.936951149079437</v>
       </c>
       <c r="E54" t="n">
-        <v>113.3678581831908</v>
+        <v>113.363105770594</v>
       </c>
       <c r="F54" t="n">
-        <v>160.5680416358756</v>
+        <v>15.03571975572218</v>
       </c>
       <c r="G54" t="n">
-        <v>1.276854015591274</v>
+        <v>11.55871057234699</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1559669602010365</v>
+        <v>0.1570378831012869</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.936951149079437</v>
       </c>
       <c r="J54" t="n">
-        <v>113.3678581831908</v>
+        <v>113.363105770594</v>
       </c>
       <c r="K54" t="n">
-        <v>160.5680416358756</v>
+        <v>15.03571975572218</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -2842,34 +2842,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-7.929450149827534</v>
+        <v>-8.037357258604576</v>
       </c>
       <c r="C55" t="n">
-        <v>113.3650026653773</v>
+        <v>113.3359323283193</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="E55" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="F55" t="n">
-        <v>160.5680398849378</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9445701201065588</v>
+        <v>11.56050556060588</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1559669602080135</v>
+        <v>0.1570378857645955</v>
       </c>
       <c r="I55" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="J55" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="K55" t="n">
-        <v>160.5680398849378</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -2886,34 +2886,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-7.929450149827534</v>
+        <v>-8.037357258604576</v>
       </c>
       <c r="C56" t="n">
-        <v>113.3650026653773</v>
+        <v>113.3359323283193</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="E56" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="F56" t="n">
-        <v>160.5680398849378</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9445701201065588</v>
+        <v>11.56050556060588</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1559669602080135</v>
+        <v>0.1570378857645955</v>
       </c>
       <c r="I56" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="J56" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="K56" t="n">
-        <v>160.5680398849378</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -2930,34 +2930,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-7.929445109943053</v>
+        <v>-8.037357258604576</v>
       </c>
       <c r="C57" t="n">
-        <v>113.3650038412259</v>
+        <v>113.3359323283193</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.937458245672322</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="E57" t="n">
-        <v>113.3678580855335</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="F57" t="n">
-        <v>160.568040822709</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9448419297208216</v>
+        <v>11.56050556060588</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1559669602160832</v>
+        <v>0.1570378857645955</v>
       </c>
       <c r="I57" t="n">
-        <v>-7.937458245672322</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="J57" t="n">
-        <v>113.3678580855335</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="K57" t="n">
-        <v>160.568040822709</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -2974,34 +2974,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-7.929446402590725</v>
+        <v>-8.037357258604576</v>
       </c>
       <c r="C58" t="n">
-        <v>113.3650038057399</v>
+        <v>113.3359323283193</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.937460476739934</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="E58" t="n">
-        <v>113.3678583843354</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="F58" t="n">
-        <v>160.5680407539558</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9449525808840095</v>
+        <v>11.56050556060588</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1559669602176009</v>
+        <v>0.1570378857645955</v>
       </c>
       <c r="I58" t="n">
-        <v>-7.937460476739934</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="J58" t="n">
-        <v>113.3678583843354</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="K58" t="n">
-        <v>160.5680407539558</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3018,34 +3018,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-7.92945038870102</v>
+        <v>-8.037357258604576</v>
       </c>
       <c r="C59" t="n">
-        <v>113.3650041519213</v>
+        <v>113.3359323283193</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.937459912000548</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="E59" t="n">
-        <v>113.3678571095266</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="F59" t="n">
-        <v>160.5680406990644</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="G59" t="n">
-        <v>0.944415982429464</v>
+        <v>11.56050556060588</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1559669602176587</v>
+        <v>0.1570378857645955</v>
       </c>
       <c r="I59" t="n">
-        <v>-7.937459912000548</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="J59" t="n">
-        <v>113.3678571095266</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="K59" t="n">
-        <v>160.5680406990644</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3062,34 +3062,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-7.929446884129244</v>
+        <v>-8.037357258604576</v>
       </c>
       <c r="C60" t="n">
-        <v>113.3650038489686</v>
+        <v>113.3359323283193</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.937459739882175</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="E60" t="n">
-        <v>113.3678579935761</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="F60" t="n">
-        <v>160.568040721712</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9448089178008754</v>
+        <v>11.56050556060588</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1559669602180025</v>
+        <v>0.1570378857645955</v>
       </c>
       <c r="I60" t="n">
-        <v>-7.937459739882175</v>
+        <v>-7.936949468976605</v>
       </c>
       <c r="J60" t="n">
-        <v>113.3678579935761</v>
+        <v>113.3631637135582</v>
       </c>
       <c r="K60" t="n">
-        <v>160.568040721712</v>
+        <v>15.03544852566933</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3106,34 +3106,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.929448165168522</v>
+        <v>-8.037626153918547</v>
       </c>
       <c r="C61" t="n">
-        <v>113.3650042847235</v>
+        <v>113.3358441482025</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.937459053358678</v>
+        <v>-7.936950003735735</v>
       </c>
       <c r="E61" t="n">
-        <v>113.3678577285066</v>
+        <v>113.363148397534</v>
       </c>
       <c r="F61" t="n">
-        <v>160.5680406046024</v>
+        <v>15.03549231175738</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9445769196581858</v>
+        <v>11.59140550045521</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1559669602187805</v>
+        <v>0.157037886211925</v>
       </c>
       <c r="I61" t="n">
-        <v>-7.937459053358678</v>
+        <v>-7.936950003735735</v>
       </c>
       <c r="J61" t="n">
-        <v>113.3678577285066</v>
+        <v>113.363148397534</v>
       </c>
       <c r="K61" t="n">
-        <v>160.5680406046024</v>
+        <v>15.03549231175738</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -3150,34 +3150,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-7.929446823442042</v>
+        <v>-8.037626153918547</v>
       </c>
       <c r="C62" t="n">
-        <v>113.3650032873258</v>
+        <v>113.3358441482025</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.936950003735735</v>
       </c>
       <c r="E62" t="n">
-        <v>113.3678576367175</v>
+        <v>113.363148397534</v>
       </c>
       <c r="F62" t="n">
-        <v>160.5680406254158</v>
+        <v>15.03549231175738</v>
       </c>
       <c r="G62" t="n">
-        <v>0.944876701933504</v>
+        <v>11.59140550045521</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1559669602189203</v>
+        <v>0.157037886211925</v>
       </c>
       <c r="I62" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.936950003735735</v>
       </c>
       <c r="J62" t="n">
-        <v>113.3678576367175</v>
+        <v>113.363148397534</v>
       </c>
       <c r="K62" t="n">
-        <v>160.5680406254158</v>
+        <v>15.03549231175738</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-7.929446823442042</v>
+        <v>-8.037627494630009</v>
       </c>
       <c r="C63" t="n">
-        <v>113.3650032873258</v>
+        <v>113.3358506452146</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.936949755472835</v>
       </c>
       <c r="E63" t="n">
-        <v>113.3678576367175</v>
+        <v>113.3631553205994</v>
       </c>
       <c r="F63" t="n">
-        <v>160.5680406254158</v>
+        <v>15.03548975161273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.944876701933504</v>
+        <v>11.59158830718592</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1559669602189203</v>
+        <v>0.1570378862407196</v>
       </c>
       <c r="I63" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.936949755472835</v>
       </c>
       <c r="J63" t="n">
-        <v>113.3678576367175</v>
+        <v>113.3631553205994</v>
       </c>
       <c r="K63" t="n">
-        <v>160.5680406254158</v>
+        <v>15.03548975161273</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3238,34 +3238,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.929446563110332</v>
+        <v>-8.037624940379917</v>
       </c>
       <c r="C64" t="n">
-        <v>113.3650032274969</v>
+        <v>113.3358420646273</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.936949962069296</v>
       </c>
       <c r="E64" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3631459976591</v>
       </c>
       <c r="F64" t="n">
-        <v>160.5680406156376</v>
+        <v>15.03549311183759</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9449099640142643</v>
+        <v>11.59127062096675</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1559669602189857</v>
+        <v>0.1570378862993095</v>
       </c>
       <c r="I64" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.936949962069296</v>
       </c>
       <c r="J64" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3631459976591</v>
       </c>
       <c r="K64" t="n">
-        <v>160.5680406156376</v>
+        <v>15.03549311183759</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
@@ -3282,34 +3282,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-7.929446563110332</v>
+        <v>-8.037624940379917</v>
       </c>
       <c r="C65" t="n">
-        <v>113.3650032274969</v>
+        <v>113.3358420646273</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.936949962069296</v>
       </c>
       <c r="E65" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3631459976591</v>
       </c>
       <c r="F65" t="n">
-        <v>160.5680406156376</v>
+        <v>15.03549311183759</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9449099640142643</v>
+        <v>11.59127062096675</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1559669602189857</v>
+        <v>0.1570378862993095</v>
       </c>
       <c r="I65" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.936949962069296</v>
       </c>
       <c r="J65" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3631459976591</v>
       </c>
       <c r="K65" t="n">
-        <v>160.5680406156376</v>
+        <v>15.03549311183759</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -3326,34 +3326,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-7.929448843162128</v>
+        <v>-8.037624940379917</v>
       </c>
       <c r="C66" t="n">
-        <v>113.3650048004805</v>
+        <v>113.3358420646273</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.937460264351817</v>
+        <v>-7.936949962069296</v>
       </c>
       <c r="E66" t="n">
-        <v>113.3678584341212</v>
+        <v>113.3631459976591</v>
       </c>
       <c r="F66" t="n">
-        <v>160.5680406247426</v>
+        <v>15.03549311183759</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9446397664635366</v>
+        <v>11.59127062096675</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1559669602192545</v>
+        <v>0.1570378862993095</v>
       </c>
       <c r="I66" t="n">
-        <v>-7.937460264351817</v>
+        <v>-7.936949962069296</v>
       </c>
       <c r="J66" t="n">
-        <v>113.3678584341212</v>
+        <v>113.3631459976591</v>
       </c>
       <c r="K66" t="n">
-        <v>160.5680406247426</v>
+        <v>15.03549311183759</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -3370,34 +3370,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-7.929447441406817</v>
+        <v>-8.037624674236891</v>
       </c>
       <c r="C67" t="n">
-        <v>113.3650046454224</v>
+        <v>113.3358435068653</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.936949970002813</v>
       </c>
       <c r="E67" t="n">
-        <v>113.367858744786</v>
+        <v>113.36314734915</v>
       </c>
       <c r="F67" t="n">
-        <v>160.568040611654</v>
+        <v>15.03548448095979</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9447939345591541</v>
+        <v>11.59123859639877</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1559669602192934</v>
+        <v>0.1570378863196726</v>
       </c>
       <c r="I67" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.936949970002813</v>
       </c>
       <c r="J67" t="n">
-        <v>113.367858744786</v>
+        <v>113.36314734915</v>
       </c>
       <c r="K67" t="n">
-        <v>160.568040611654</v>
+        <v>15.03548448095979</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -3414,34 +3414,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-7.929447441406817</v>
+        <v>-8.037624674236891</v>
       </c>
       <c r="C68" t="n">
-        <v>113.3650046454224</v>
+        <v>113.3358435068653</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.936949970002813</v>
       </c>
       <c r="E68" t="n">
-        <v>113.367858744786</v>
+        <v>113.36314734915</v>
       </c>
       <c r="F68" t="n">
-        <v>160.568040611654</v>
+        <v>15.03548448095979</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9447939345591541</v>
+        <v>11.59123859639877</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1559669602192934</v>
+        <v>0.1570378863196726</v>
       </c>
       <c r="I68" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.936949970002813</v>
       </c>
       <c r="J68" t="n">
-        <v>113.367858744786</v>
+        <v>113.36314734915</v>
       </c>
       <c r="K68" t="n">
-        <v>160.568040611654</v>
+        <v>15.03548448095979</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -3458,34 +3458,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.92944794017066</v>
+        <v>-8.037625879093198</v>
       </c>
       <c r="C69" t="n">
-        <v>113.3650045699493</v>
+        <v>113.3358421845768</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.937459875502607</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="E69" t="n">
-        <v>113.3678583867229</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="F69" t="n">
-        <v>160.5680406238354</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9447003898963245</v>
+        <v>11.59138756368984</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1559669602193188</v>
+        <v>0.1570378864367507</v>
       </c>
       <c r="I69" t="n">
-        <v>-7.937459875502607</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="J69" t="n">
-        <v>113.3678583867229</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="K69" t="n">
-        <v>160.5680406238354</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -3502,34 +3502,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.926662620170131</v>
+        <v>-8.037625879093198</v>
       </c>
       <c r="C70" t="n">
-        <v>113.3640126016066</v>
+        <v>113.3358421845768</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.937459791706058</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="E70" t="n">
-        <v>113.3678585091011</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="F70" t="n">
-        <v>160.5680406154724</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="G70" t="n">
-        <v>1.273112679150094</v>
+        <v>11.59138756368984</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1559669602193653</v>
+        <v>0.1570378864367507</v>
       </c>
       <c r="I70" t="n">
-        <v>-7.937459791706058</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="J70" t="n">
-        <v>113.3678585091011</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="K70" t="n">
-        <v>160.5680406154724</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
@@ -3546,34 +3546,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.929448765231911</v>
+        <v>-8.037625879093198</v>
       </c>
       <c r="C71" t="n">
-        <v>113.3650051284058</v>
+        <v>113.3358421845768</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.937459730159389</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="E71" t="n">
-        <v>113.3678585995245</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="F71" t="n">
-        <v>160.5680406213247</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9445859677950484</v>
+        <v>11.59138756368984</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1559669602193796</v>
+        <v>0.1570378864367507</v>
       </c>
       <c r="I71" t="n">
-        <v>-7.937459730159389</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="J71" t="n">
-        <v>113.3678585995245</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="K71" t="n">
-        <v>160.5680406213247</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -3590,34 +3590,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-7.929448220562273</v>
+        <v>-8.037625879093198</v>
       </c>
       <c r="C72" t="n">
-        <v>113.3650052020966</v>
+        <v>113.3358421845768</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.937459730125074</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="E72" t="n">
-        <v>113.3678588672125</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="F72" t="n">
-        <v>160.5680406193235</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9446501867259498</v>
+        <v>11.59138756368984</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1559669602194041</v>
+        <v>0.1570378864367507</v>
       </c>
       <c r="I72" t="n">
-        <v>-7.937459730125074</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="J72" t="n">
-        <v>113.3678588672125</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="K72" t="n">
-        <v>160.5680406193235</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -3634,34 +3634,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.929448197644724</v>
+        <v>-8.037625879093198</v>
       </c>
       <c r="C73" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3358421845768</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="E73" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="F73" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="G73" t="n">
-        <v>0.944658768023554</v>
+        <v>11.59138756368984</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1570378864367507</v>
       </c>
       <c r="I73" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949881787868</v>
       </c>
       <c r="J73" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631463807001</v>
       </c>
       <c r="K73" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548614019581</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.929448197644724</v>
+        <v>-8.037627399128411</v>
       </c>
       <c r="C74" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3358418181366</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949874998142</v>
       </c>
       <c r="E74" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631464281446</v>
       </c>
       <c r="F74" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548603566042</v>
       </c>
       <c r="G74" t="n">
-        <v>0.944658768023554</v>
+        <v>11.59156334827868</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1570378864396999</v>
       </c>
       <c r="I74" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949874998142</v>
       </c>
       <c r="J74" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631464281446</v>
       </c>
       <c r="K74" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548603566042</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -3722,34 +3722,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.929448197644724</v>
+        <v>-8.037625776397427</v>
       </c>
       <c r="C75" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3358429146302</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949778776295</v>
       </c>
       <c r="E75" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631471119056</v>
       </c>
       <c r="F75" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548670440733</v>
       </c>
       <c r="G75" t="n">
-        <v>0.944658768023554</v>
+        <v>11.59138763070363</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1570378864969667</v>
       </c>
       <c r="I75" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949778776295</v>
       </c>
       <c r="J75" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631471119056</v>
       </c>
       <c r="K75" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548670440733</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -3766,34 +3766,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.929448197644724</v>
+        <v>-8.037625776397427</v>
       </c>
       <c r="C76" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3358429146302</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949778776295</v>
       </c>
       <c r="E76" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631471119056</v>
       </c>
       <c r="F76" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548670440733</v>
       </c>
       <c r="G76" t="n">
-        <v>0.944658768023554</v>
+        <v>11.59138763070363</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1570378864969667</v>
       </c>
       <c r="I76" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.936949778776295</v>
       </c>
       <c r="J76" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3631471119056</v>
       </c>
       <c r="K76" t="n">
-        <v>160.5680406186203</v>
+        <v>15.03548670440733</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -3810,34 +3810,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-7.929448657717279</v>
+        <v>-8.037625776397427</v>
       </c>
       <c r="C77" t="n">
-        <v>113.3650051690588</v>
+        <v>113.3358429146302</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.936949778776295</v>
       </c>
       <c r="E77" t="n">
-        <v>113.3678587062763</v>
+        <v>113.3631471119056</v>
       </c>
       <c r="F77" t="n">
-        <v>160.5680406186449</v>
+        <v>15.03548670440733</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9446078482076662</v>
+        <v>11.59138763070363</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1559669602194187</v>
+        <v>0.1570378864969667</v>
       </c>
       <c r="I77" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.936949778776295</v>
       </c>
       <c r="J77" t="n">
-        <v>113.3678587062763</v>
+        <v>113.3631471119056</v>
       </c>
       <c r="K77" t="n">
-        <v>160.5680406186449</v>
+        <v>15.03548670440733</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -3854,34 +3854,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-7.929448657717279</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C78" t="n">
-        <v>113.3650051690588</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E78" t="n">
-        <v>113.3678587062763</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F78" t="n">
-        <v>160.5680406186449</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9446078482076662</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1559669602194187</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I78" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J78" t="n">
-        <v>113.3678587062763</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K78" t="n">
-        <v>160.5680406186449</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -3898,34 +3898,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-7.929447987285581</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C79" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E79" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F79" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G79" t="n">
-        <v>0.94468536319049</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I79" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J79" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K79" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -3942,34 +3942,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-7.929447987285581</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C80" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E80" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F80" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G80" t="n">
-        <v>0.94468536319049</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I80" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J80" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K80" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -3986,34 +3986,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-7.929447987285581</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C81" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E81" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F81" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G81" t="n">
-        <v>0.94468536319049</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I81" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J81" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K81" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -4030,34 +4030,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-7.929447987285581</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C82" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D82" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E82" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F82" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G82" t="n">
-        <v>0.94468536319049</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I82" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J82" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K82" t="n">
-        <v>160.5680406186737</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -4074,34 +4074,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-7.929448605980476</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C83" t="n">
-        <v>113.3650051716361</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E83" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F83" t="n">
-        <v>160.5680406186601</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9446157231331892</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1559669602194189</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I83" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J83" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K83" t="n">
-        <v>160.5680406186601</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -4118,34 +4118,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-7.929448605980476</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C84" t="n">
-        <v>113.3650051716361</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E84" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F84" t="n">
-        <v>160.5680406186601</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9446157231331892</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1559669602194189</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I84" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J84" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K84" t="n">
-        <v>160.5680406186601</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -4162,34 +4162,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-7.929448584479822</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C85" t="n">
-        <v>113.365005161849</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.937459819472699</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E85" t="n">
-        <v>113.367858729165</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F85" t="n">
-        <v>160.5680406186554</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9446178117018277</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1559669602194189</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I85" t="n">
-        <v>-7.937459819472699</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J85" t="n">
-        <v>113.367858729165</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K85" t="n">
-        <v>160.5680406186554</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -4206,34 +4206,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-7.929448577856422</v>
+        <v>-8.037625382405084</v>
       </c>
       <c r="C86" t="n">
-        <v>113.3650051755427</v>
+        <v>113.3358418781721</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="E86" t="n">
-        <v>113.3678587406349</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="F86" t="n">
-        <v>160.5680406186567</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9446170755996897</v>
+        <v>11.59133774739863</v>
       </c>
       <c r="H86" t="n">
-        <v>0.155966960219419</v>
+        <v>0.1570378864993949</v>
       </c>
       <c r="I86" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.936949817899388</v>
       </c>
       <c r="J86" t="n">
-        <v>113.3678587406349</v>
+        <v>113.3631459573997</v>
       </c>
       <c r="K86" t="n">
-        <v>160.5680406186567</v>
+        <v>15.0354863958584</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -4250,34 +4250,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-7.929448577856422</v>
+        <v>-8.037625777117288</v>
       </c>
       <c r="C87" t="n">
-        <v>113.3650051755427</v>
+        <v>113.3358429796421</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.936949779743919</v>
       </c>
       <c r="E87" t="n">
-        <v>113.3678587406349</v>
+        <v>113.363147176047</v>
       </c>
       <c r="F87" t="n">
-        <v>160.5680406186567</v>
+        <v>15.03548628210405</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9446170755996897</v>
+        <v>11.5913875792347</v>
       </c>
       <c r="H87" t="n">
-        <v>0.155966960219419</v>
+        <v>0.1570378864996946</v>
       </c>
       <c r="I87" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.936949779743919</v>
       </c>
       <c r="J87" t="n">
-        <v>113.3678587406349</v>
+        <v>113.363147176047</v>
       </c>
       <c r="K87" t="n">
-        <v>160.5680406186567</v>
+        <v>15.03548628210405</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -4294,34 +4294,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.03762577733284</v>
       </c>
       <c r="C88" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358429136874</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949779472175</v>
       </c>
       <c r="E88" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631471101845</v>
       </c>
       <c r="F88" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626106071</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138763419582</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865015771</v>
       </c>
       <c r="I88" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949779472175</v>
       </c>
       <c r="J88" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631471101845</v>
       </c>
       <c r="K88" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626106071</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -4338,34 +4338,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625777373918</v>
       </c>
       <c r="C89" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358428891405</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.93694977985234</v>
       </c>
       <c r="E89" t="n">
-        <v>113.3678587312449</v>
+        <v>113.363147085548</v>
       </c>
       <c r="F89" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626232381</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138759522389</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865019381</v>
       </c>
       <c r="I89" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.93694977985234</v>
       </c>
       <c r="J89" t="n">
-        <v>113.3678587312449</v>
+        <v>113.363147085548</v>
       </c>
       <c r="K89" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626232381</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -4382,34 +4382,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625777373918</v>
       </c>
       <c r="C90" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358428891405</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.93694977985234</v>
       </c>
       <c r="E90" t="n">
-        <v>113.3678587312449</v>
+        <v>113.363147085548</v>
       </c>
       <c r="F90" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626232381</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138759522389</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865019381</v>
       </c>
       <c r="I90" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.93694977985234</v>
       </c>
       <c r="J90" t="n">
-        <v>113.3678587312449</v>
+        <v>113.363147085548</v>
       </c>
       <c r="K90" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626232381</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -4426,34 +4426,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625777373918</v>
       </c>
       <c r="C91" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358428891405</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.93694977985234</v>
       </c>
       <c r="E91" t="n">
-        <v>113.3678587312449</v>
+        <v>113.363147085548</v>
       </c>
       <c r="F91" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626232381</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138759522389</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865019381</v>
       </c>
       <c r="I91" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.93694977985234</v>
       </c>
       <c r="J91" t="n">
-        <v>113.3678587312449</v>
+        <v>113.363147085548</v>
       </c>
       <c r="K91" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548626232381</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -4470,34 +4470,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625802441793</v>
       </c>
       <c r="C92" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358419619504</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949806333203</v>
       </c>
       <c r="E92" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631461582148</v>
       </c>
       <c r="F92" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548638764066</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138743934803</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865036313</v>
       </c>
       <c r="I92" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949806333203</v>
       </c>
       <c r="J92" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631461582148</v>
       </c>
       <c r="K92" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548638764066</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -4514,34 +4514,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625857954266</v>
       </c>
       <c r="C93" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358402111904</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="E93" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="F93" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138768074402</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865061396</v>
       </c>
       <c r="I93" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="J93" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="K93" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -4558,34 +4558,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625857954266</v>
       </c>
       <c r="C94" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358402111904</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="E94" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="F94" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138768074402</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865061396</v>
       </c>
       <c r="I94" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="J94" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="K94" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -4602,34 +4602,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625857954266</v>
       </c>
       <c r="C95" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358402111904</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="E95" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="F95" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138768074402</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865061396</v>
       </c>
       <c r="I95" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="J95" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="K95" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -4646,34 +4646,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625857954266</v>
       </c>
       <c r="C96" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358402111904</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="E96" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="F96" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138768074402</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865061396</v>
       </c>
       <c r="I96" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949859684597</v>
       </c>
       <c r="J96" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631444077847</v>
       </c>
       <c r="K96" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625109618</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -4690,34 +4690,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625857234971</v>
       </c>
       <c r="C97" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358399010374</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="E97" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="F97" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138650102578</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865062497</v>
       </c>
       <c r="I97" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="J97" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="K97" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -4734,34 +4734,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-7.929448573121455</v>
+        <v>-8.037625857234971</v>
       </c>
       <c r="C98" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3358399010374</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="E98" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="F98" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.59138650102578</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865062497</v>
       </c>
       <c r="I98" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="J98" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="K98" t="n">
-        <v>160.5680406186534</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -4778,34 +4778,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857234971</v>
       </c>
       <c r="C99" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399010374</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="E99" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="F99" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="G99" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138650102578</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865062497</v>
       </c>
       <c r="I99" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="J99" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="K99" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -4822,34 +4822,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857234971</v>
       </c>
       <c r="C100" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399010374</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="E100" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="F100" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="G100" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138650102578</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865062497</v>
       </c>
       <c r="I100" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="J100" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="K100" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -4866,34 +4866,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857234971</v>
       </c>
       <c r="C101" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399010374</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="E101" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="F101" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="G101" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138650102578</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865062497</v>
       </c>
       <c r="I101" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949869213418</v>
       </c>
       <c r="J101" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440948598</v>
       </c>
       <c r="K101" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625466455</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -4910,34 +4910,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857440574</v>
       </c>
       <c r="C102" t="n">
-        <v>113.3640128295662</v>
+        <v>113.335839781048</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949872771735</v>
       </c>
       <c r="E102" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631439739587</v>
       </c>
       <c r="F102" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625321943</v>
       </c>
       <c r="G102" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138611493391</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865063411</v>
       </c>
       <c r="I102" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949872771735</v>
       </c>
       <c r="J102" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631439739587</v>
       </c>
       <c r="K102" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625321943</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -4954,34 +4954,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625858228138</v>
       </c>
       <c r="C103" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399836661</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="E103" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="F103" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="G103" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138696516709</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865066103</v>
       </c>
       <c r="I103" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="J103" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="K103" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -4998,34 +4998,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625858228138</v>
       </c>
       <c r="C104" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399836661</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="E104" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="F104" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="G104" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138696516709</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865066103</v>
       </c>
       <c r="I104" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="J104" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="K104" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -5042,34 +5042,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625858228138</v>
       </c>
       <c r="C105" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399836661</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="E105" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="F105" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="G105" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138696516709</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865066103</v>
       </c>
       <c r="I105" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="J105" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="K105" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -5086,34 +5086,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625858228138</v>
       </c>
       <c r="C106" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358399836661</v>
       </c>
       <c r="D106" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="E106" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="F106" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="G106" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138696516709</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865066103</v>
       </c>
       <c r="I106" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949866174435</v>
       </c>
       <c r="J106" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631441785784</v>
       </c>
       <c r="K106" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862528545</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -5130,34 +5130,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625856021901</v>
       </c>
       <c r="C107" t="n">
-        <v>113.3640128295662</v>
+        <v>113.335839911515</v>
       </c>
       <c r="D107" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868025043</v>
       </c>
       <c r="E107" t="n">
-        <v>113.3678587343864</v>
+        <v>113.363144105339</v>
       </c>
       <c r="F107" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625904921</v>
       </c>
       <c r="G107" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138649842036</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865070033</v>
       </c>
       <c r="I107" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868025043</v>
       </c>
       <c r="J107" t="n">
-        <v>113.3678587343864</v>
+        <v>113.363144105339</v>
       </c>
       <c r="K107" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625904921</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -5174,34 +5174,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857250521</v>
       </c>
       <c r="C108" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358398976047</v>
       </c>
       <c r="D108" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="E108" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="F108" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="G108" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138660407135</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865070318</v>
       </c>
       <c r="I108" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="J108" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="K108" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -5218,34 +5218,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857250521</v>
       </c>
       <c r="C109" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358398976047</v>
       </c>
       <c r="D109" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="E109" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="F109" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="G109" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138660407135</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865070318</v>
       </c>
       <c r="I109" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="J109" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="K109" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -5262,34 +5262,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857250521</v>
       </c>
       <c r="C110" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358398976047</v>
       </c>
       <c r="D110" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="E110" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="F110" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="G110" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138660407135</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865070318</v>
       </c>
       <c r="I110" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="J110" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="K110" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -5306,34 +5306,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625857250521</v>
       </c>
       <c r="C111" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358398976047</v>
       </c>
       <c r="D111" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="E111" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="F111" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="G111" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138660407135</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865070318</v>
       </c>
       <c r="I111" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949868333743</v>
       </c>
       <c r="J111" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631440916689</v>
       </c>
       <c r="K111" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548625419066</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -5350,34 +5350,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864526374</v>
       </c>
       <c r="C112" t="n">
-        <v>113.3640128295662</v>
+        <v>113.335839399291</v>
       </c>
       <c r="D112" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883697093</v>
       </c>
       <c r="E112" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435912001</v>
       </c>
       <c r="F112" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627374795</v>
       </c>
       <c r="G112" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138567398323</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865071561</v>
       </c>
       <c r="I112" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883697093</v>
       </c>
       <c r="J112" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435912001</v>
       </c>
       <c r="K112" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627374795</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -5394,34 +5394,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864526374</v>
       </c>
       <c r="C113" t="n">
-        <v>113.3640128295662</v>
+        <v>113.335839399291</v>
       </c>
       <c r="D113" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883697093</v>
       </c>
       <c r="E113" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435912001</v>
       </c>
       <c r="F113" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627374795</v>
       </c>
       <c r="G113" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138567398323</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865071561</v>
       </c>
       <c r="I113" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883697093</v>
       </c>
       <c r="J113" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435912001</v>
       </c>
       <c r="K113" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627374795</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -5438,34 +5438,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864526374</v>
       </c>
       <c r="C114" t="n">
-        <v>113.3640128295662</v>
+        <v>113.335839399291</v>
       </c>
       <c r="D114" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883697093</v>
       </c>
       <c r="E114" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435912001</v>
       </c>
       <c r="F114" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627374795</v>
       </c>
       <c r="G114" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138567398323</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865071561</v>
       </c>
       <c r="I114" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883697093</v>
       </c>
       <c r="J114" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435912001</v>
       </c>
       <c r="K114" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627374795</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -5482,34 +5482,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625855497977</v>
       </c>
       <c r="C115" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358397973713</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694987143875</v>
       </c>
       <c r="E115" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631439901454</v>
       </c>
       <c r="F115" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548626841727</v>
       </c>
       <c r="G115" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138604557212</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865072049</v>
       </c>
       <c r="I115" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694987143875</v>
       </c>
       <c r="J115" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631439901454</v>
       </c>
       <c r="K115" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548626841727</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
@@ -5526,34 +5526,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C116" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E116" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F116" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G116" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I116" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J116" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K116" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L116" t="b">
         <v>0</v>
@@ -5570,34 +5570,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C117" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E117" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F117" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G117" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I117" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J117" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K117" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -5614,34 +5614,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C118" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E118" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F118" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G118" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I118" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J118" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K118" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
@@ -5658,34 +5658,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C119" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E119" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F119" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G119" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I119" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J119" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K119" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L119" t="b">
         <v>0</v>
@@ -5702,34 +5702,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C120" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D120" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E120" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F120" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G120" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I120" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J120" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K120" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
@@ -5746,34 +5746,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C121" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E121" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F121" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G121" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I121" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J121" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K121" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
@@ -5790,34 +5790,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C122" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D122" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E122" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F122" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G122" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I122" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J122" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K122" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L122" t="b">
         <v>0</v>
@@ -5834,34 +5834,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C123" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D123" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E123" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F123" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G123" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I123" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J123" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K123" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L123" t="b">
         <v>0</v>
@@ -5878,34 +5878,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C124" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E124" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F124" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G124" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I124" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J124" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K124" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L124" t="b">
         <v>0</v>
@@ -5922,34 +5922,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862345823</v>
       </c>
       <c r="C125" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672258</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="E125" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="F125" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="G125" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603622783</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073246</v>
       </c>
       <c r="I125" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878370076</v>
       </c>
       <c r="J125" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599871</v>
       </c>
       <c r="K125" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627333269</v>
       </c>
       <c r="L125" t="b">
         <v>0</v>
@@ -5966,34 +5966,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862344273</v>
       </c>
       <c r="C126" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395672142</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878367978</v>
       </c>
       <c r="E126" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599801</v>
       </c>
       <c r="F126" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627566816</v>
       </c>
       <c r="G126" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603641791</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073358</v>
       </c>
       <c r="I126" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878367978</v>
       </c>
       <c r="J126" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599801</v>
       </c>
       <c r="K126" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627566816</v>
       </c>
       <c r="L126" t="b">
         <v>0</v>
@@ -6010,34 +6010,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862289511</v>
       </c>
       <c r="C127" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395690474</v>
       </c>
       <c r="D127" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878289143</v>
       </c>
       <c r="E127" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437618154</v>
       </c>
       <c r="F127" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862733361</v>
       </c>
       <c r="G127" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603906261</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073451</v>
       </c>
       <c r="I127" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878289143</v>
       </c>
       <c r="J127" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437618154</v>
       </c>
       <c r="K127" t="n">
-        <v>160.5680406186547</v>
+        <v>15.0354862733361</v>
       </c>
       <c r="L127" t="b">
         <v>0</v>
@@ -6054,34 +6054,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862349303</v>
       </c>
       <c r="C128" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395665788</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878374375</v>
       </c>
       <c r="E128" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437593433</v>
       </c>
       <c r="F128" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627515573</v>
       </c>
       <c r="G128" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603623262</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073526</v>
       </c>
       <c r="I128" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878374375</v>
       </c>
       <c r="J128" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437593433</v>
       </c>
       <c r="K128" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627515573</v>
       </c>
       <c r="L128" t="b">
         <v>0</v>
@@ -6098,34 +6098,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862349303</v>
       </c>
       <c r="C129" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395665788</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878374375</v>
       </c>
       <c r="E129" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437593433</v>
       </c>
       <c r="F129" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627515573</v>
       </c>
       <c r="G129" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603623262</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073526</v>
       </c>
       <c r="I129" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878374375</v>
       </c>
       <c r="J129" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437593433</v>
       </c>
       <c r="K129" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627515573</v>
       </c>
       <c r="L129" t="b">
         <v>0</v>
@@ -6142,34 +6142,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625862328232</v>
       </c>
       <c r="C130" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358395671375</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878334463</v>
       </c>
       <c r="E130" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599042</v>
       </c>
       <c r="F130" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627361521</v>
       </c>
       <c r="G130" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138603831805</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073588</v>
       </c>
       <c r="I130" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949878334463</v>
       </c>
       <c r="J130" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631437599042</v>
       </c>
       <c r="K130" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627361521</v>
       </c>
       <c r="L130" t="b">
         <v>0</v>
@@ -6186,34 +6186,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C131" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D131" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E131" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F131" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G131" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I131" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J131" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K131" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -6230,34 +6230,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C132" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D132" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E132" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F132" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G132" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I132" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J132" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K132" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -6274,34 +6274,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C133" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D133" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E133" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F133" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G133" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I133" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J133" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K133" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L133" t="b">
         <v>0</v>
@@ -6318,34 +6318,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C134" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D134" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E134" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F134" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G134" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I134" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J134" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K134" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L134" t="b">
         <v>0</v>
@@ -6362,34 +6362,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C135" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D135" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E135" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F135" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G135" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I135" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J135" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K135" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -6406,34 +6406,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C136" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D136" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E136" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F136" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G136" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I136" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J136" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K136" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L136" t="b">
         <v>0</v>
@@ -6450,34 +6450,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C137" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D137" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E137" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F137" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G137" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I137" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J137" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K137" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L137" t="b">
         <v>0</v>
@@ -6494,34 +6494,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864777104</v>
       </c>
       <c r="C138" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992811</v>
       </c>
       <c r="D138" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="E138" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="F138" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="G138" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573473674</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073765</v>
       </c>
       <c r="I138" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.93694988342117</v>
       </c>
       <c r="J138" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435913372</v>
       </c>
       <c r="K138" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627591273</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -6538,34 +6538,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864200063</v>
       </c>
       <c r="C139" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992474</v>
       </c>
       <c r="D139" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="E139" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="F139" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="G139" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138566805733</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073846</v>
       </c>
       <c r="I139" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="J139" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="K139" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
@@ -6582,34 +6582,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864200063</v>
       </c>
       <c r="C140" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992474</v>
       </c>
       <c r="D140" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="E140" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="F140" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="G140" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138566805733</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073846</v>
       </c>
       <c r="I140" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="J140" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="K140" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -6626,34 +6626,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864200063</v>
       </c>
       <c r="C141" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992474</v>
       </c>
       <c r="D141" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="E141" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="F141" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="G141" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138566805733</v>
       </c>
       <c r="H141" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073846</v>
       </c>
       <c r="I141" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="J141" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="K141" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
@@ -6670,34 +6670,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864200063</v>
       </c>
       <c r="C142" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992474</v>
       </c>
       <c r="D142" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="E142" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="F142" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="G142" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138566805733</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073846</v>
       </c>
       <c r="I142" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="J142" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="K142" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
@@ -6714,34 +6714,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864200063</v>
       </c>
       <c r="C143" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393992474</v>
       </c>
       <c r="D143" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="E143" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="F143" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="G143" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138566805733</v>
       </c>
       <c r="H143" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073846</v>
       </c>
       <c r="I143" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883422472</v>
       </c>
       <c r="J143" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435911433</v>
       </c>
       <c r="K143" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627421238</v>
       </c>
       <c r="L143" t="b">
         <v>0</v>
@@ -6758,34 +6758,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864748396</v>
       </c>
       <c r="C144" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393994742</v>
       </c>
       <c r="D144" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883408933</v>
       </c>
       <c r="E144" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435915224</v>
       </c>
       <c r="F144" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627412433</v>
       </c>
       <c r="G144" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573274334</v>
       </c>
       <c r="H144" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073853</v>
       </c>
       <c r="I144" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883408933</v>
       </c>
       <c r="J144" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435915224</v>
       </c>
       <c r="K144" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627412433</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -6802,34 +6802,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C145" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D145" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E145" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F145" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G145" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H145" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I145" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J145" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K145" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
@@ -6846,34 +6846,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C146" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D146" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E146" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F146" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G146" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H146" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I146" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J146" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K146" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L146" t="b">
         <v>0</v>
@@ -6890,34 +6890,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C147" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D147" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E147" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F147" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G147" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I147" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J147" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K147" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L147" t="b">
         <v>0</v>
@@ -6934,34 +6934,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C148" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D148" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E148" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F148" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G148" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I148" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J148" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K148" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L148" t="b">
         <v>0</v>
@@ -6978,34 +6978,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C149" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D149" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E149" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F149" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G149" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H149" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I149" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J149" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K149" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L149" t="b">
         <v>0</v>
@@ -7022,34 +7022,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C150" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D150" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E150" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F150" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G150" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I150" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J150" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K150" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
@@ -7066,34 +7066,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-7.926662640977625</v>
+        <v>-8.037625864811272</v>
       </c>
       <c r="C151" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3358393979337</v>
       </c>
       <c r="D151" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="E151" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="F151" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="G151" t="n">
-        <v>1.273111794006951</v>
+        <v>11.59138573435753</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.1570378865073912</v>
       </c>
       <c r="I151" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.936949883458189</v>
       </c>
       <c r="J151" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3631435899872</v>
       </c>
       <c r="K151" t="n">
-        <v>160.5680406186547</v>
+        <v>15.03548627497197</v>
       </c>
       <c r="L151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -510,34 +510,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.599142382862974</v>
+        <v>-7.72604071880372</v>
       </c>
       <c r="C2" t="n">
-        <v>113.9263506821746</v>
+        <v>113.3277057910289</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.990467520849355</v>
+        <v>-8.010228572189138</v>
       </c>
       <c r="E2" t="n">
-        <v>113.2896869236626</v>
+        <v>113.3214543119053</v>
       </c>
       <c r="F2" t="n">
-        <v>238.1424251803819</v>
+        <v>181.247885708431</v>
       </c>
       <c r="G2" t="n">
-        <v>82.54067787911146</v>
+        <v>31.60774898609321</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1525673963753145</v>
+        <v>0.1536141024485803</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.990467520849355</v>
+        <v>-8.010228572189138</v>
       </c>
       <c r="J2" t="n">
-        <v>113.2896869236626</v>
+        <v>113.3214543119053</v>
       </c>
       <c r="K2" t="n">
-        <v>238.1424251803819</v>
+        <v>181.247885708431</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -554,34 +554,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.669368021741986</v>
+        <v>-7.749109335308987</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1368863788483</v>
+        <v>113.3255245216203</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.945829030793581</v>
+        <v>-7.936370447741598</v>
       </c>
       <c r="E3" t="n">
-        <v>113.4223778325897</v>
+        <v>113.3271570688727</v>
       </c>
       <c r="F3" t="n">
-        <v>314.3653616968281</v>
+        <v>179.5052895858892</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.97921150034649</v>
+        <v>20.82326220716785</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1545266028305428</v>
+        <v>0.1551469968242381</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.945829030793581</v>
+        <v>-7.936370447741598</v>
       </c>
       <c r="J3" t="n">
-        <v>113.4223778325897</v>
+        <v>113.3271570688727</v>
       </c>
       <c r="K3" t="n">
-        <v>314.3653616968281</v>
+        <v>179.5052895858892</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -598,34 +598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.862023026523619</v>
+        <v>-7.749109335308987</v>
       </c>
       <c r="C4" t="n">
-        <v>113.4342919486415</v>
+        <v>113.3255245216203</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.943765654761775</v>
+        <v>-7.936370447741598</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4246953824646</v>
+        <v>113.3271570688727</v>
       </c>
       <c r="F4" t="n">
-        <v>186.6321778626268</v>
+        <v>179.5052895858892</v>
       </c>
       <c r="G4" t="n">
-        <v>9.150613060531281</v>
+        <v>20.82326220716785</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1549289807978119</v>
+        <v>0.1551469968242381</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.943765654761775</v>
+        <v>-7.936370447741598</v>
       </c>
       <c r="J4" t="n">
-        <v>113.4246953824646</v>
+        <v>113.3271570688727</v>
       </c>
       <c r="K4" t="n">
-        <v>186.6321778626268</v>
+        <v>179.5052895858892</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -642,34 +642,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.853319314509247</v>
+        <v>-8.189143274027751</v>
       </c>
       <c r="C5" t="n">
-        <v>113.1021084284456</v>
+        <v>113.1240269337406</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.921400156786824</v>
       </c>
       <c r="E5" t="n">
-        <v>113.403084429714</v>
+        <v>113.3367641329814</v>
       </c>
       <c r="F5" t="n">
-        <v>285.9313430217832</v>
+        <v>218.2077115804387</v>
       </c>
       <c r="G5" t="n">
-        <v>-34.47026970311668</v>
+        <v>-37.880562025972</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1550288906425021</v>
+        <v>0.1556011685767742</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.921400156786824</v>
       </c>
       <c r="J5" t="n">
-        <v>113.403084429714</v>
+        <v>113.3367641329814</v>
       </c>
       <c r="K5" t="n">
-        <v>285.9313430217832</v>
+        <v>218.2077115804387</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -686,34 +686,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.853319314509247</v>
+        <v>-8.189143274027751</v>
       </c>
       <c r="C6" t="n">
-        <v>113.1021084284456</v>
+        <v>113.1240269337406</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.921400156786824</v>
       </c>
       <c r="E6" t="n">
-        <v>113.403084429714</v>
+        <v>113.3367641329814</v>
       </c>
       <c r="F6" t="n">
-        <v>285.9313430217832</v>
+        <v>218.2077115804387</v>
       </c>
       <c r="G6" t="n">
-        <v>-34.47026970311668</v>
+        <v>-37.880562025972</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1550288906425021</v>
+        <v>0.1556011685767742</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.938302001818679</v>
+        <v>-7.921400156786824</v>
       </c>
       <c r="J6" t="n">
-        <v>113.403084429714</v>
+        <v>113.3367641329814</v>
       </c>
       <c r="K6" t="n">
-        <v>285.9313430217832</v>
+        <v>218.2077115804387</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -730,34 +730,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.018702142712097</v>
+        <v>-7.922856426353657</v>
       </c>
       <c r="C7" t="n">
-        <v>113.4116647603779</v>
+        <v>113.3583758314345</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.971629091331161</v>
+        <v>-7.936838627582455</v>
       </c>
       <c r="E7" t="n">
-        <v>113.3676819708199</v>
+        <v>113.3446917633725</v>
       </c>
       <c r="F7" t="n">
-        <v>317.2197870938375</v>
+        <v>44.10649745296665</v>
       </c>
       <c r="G7" t="n">
-        <v>7.131170402648619</v>
+        <v>-2.165281447987916</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1555756166463834</v>
+        <v>0.1557554081102569</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.971629091331161</v>
+        <v>-7.936838627582455</v>
       </c>
       <c r="J7" t="n">
-        <v>113.3676819708199</v>
+        <v>113.3446917633725</v>
       </c>
       <c r="K7" t="n">
-        <v>317.2197870938375</v>
+        <v>44.10649745296665</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -774,34 +774,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.595710547623877</v>
+        <v>-7.788781390658363</v>
       </c>
       <c r="C8" t="n">
-        <v>113.1534009838899</v>
+        <v>113.3041255953887</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.944484439993296</v>
       </c>
       <c r="E8" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3515490764574</v>
       </c>
       <c r="F8" t="n">
-        <v>144.1939002995809</v>
+        <v>163.214142331508</v>
       </c>
       <c r="G8" t="n">
-        <v>43.55082083619002</v>
+        <v>18.08423876549096</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1556678141944205</v>
+        <v>0.1558094684672871</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.944484439993296</v>
       </c>
       <c r="J8" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3515490764574</v>
       </c>
       <c r="K8" t="n">
-        <v>144.1939002995809</v>
+        <v>163.214142331508</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -818,34 +818,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.595710547623877</v>
+        <v>-7.880387134468223</v>
       </c>
       <c r="C9" t="n">
-        <v>113.1534009838899</v>
+        <v>113.3755547870551</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.936036169438889</v>
       </c>
       <c r="E9" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3517421905498</v>
       </c>
       <c r="F9" t="n">
-        <v>144.1939002995809</v>
+        <v>202.967402108351</v>
       </c>
       <c r="G9" t="n">
-        <v>43.55082083619002</v>
+        <v>6.720738291434223</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1556678141944205</v>
+        <v>0.1558400060752945</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.936036169438889</v>
       </c>
       <c r="J9" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3517421905498</v>
       </c>
       <c r="K9" t="n">
-        <v>144.1939002995809</v>
+        <v>202.967402108351</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -862,34 +862,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.595710547623877</v>
+        <v>-7.725690260288279</v>
       </c>
       <c r="C10" t="n">
-        <v>113.1534009838899</v>
+        <v>113.307331218938</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="E10" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="F10" t="n">
-        <v>144.1939002995809</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="G10" t="n">
-        <v>43.55082083619002</v>
+        <v>24.02628788514222</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1556678141944205</v>
+        <v>0.1559214978643562</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.91328699115541</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="J10" t="n">
-        <v>113.3847422300241</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="K10" t="n">
-        <v>144.1939002995809</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.929923180732002</v>
+        <v>-7.725690260288279</v>
       </c>
       <c r="C11" t="n">
-        <v>113.3775030198883</v>
+        <v>113.307331218938</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.922150621747604</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="E11" t="n">
-        <v>113.3729355314569</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="F11" t="n">
-        <v>329.7990385386002</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>24.02628788514222</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1558606446089311</v>
+        <v>0.1559214978643562</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.922150621747604</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="J11" t="n">
-        <v>113.3729355314569</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="K11" t="n">
-        <v>329.7990385386002</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -950,34 +950,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.998932062617834</v>
+        <v>-7.725690260288279</v>
       </c>
       <c r="C12" t="n">
-        <v>113.3738798974752</v>
+        <v>113.307331218938</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="E12" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="F12" t="n">
-        <v>170.2796019800011</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.635502086149323</v>
+        <v>24.02628788514222</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1558954612313375</v>
+        <v>0.1559214978643562</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="J12" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="K12" t="n">
-        <v>170.2796019800011</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -994,34 +994,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.998932062617834</v>
+        <v>-7.725690260288279</v>
       </c>
       <c r="C13" t="n">
-        <v>113.3738798974752</v>
+        <v>113.307331218938</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="E13" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2796019800011</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.635502086149323</v>
+        <v>24.02628788514222</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1558954612313375</v>
+        <v>0.1559214978643562</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.940114156184244</v>
+        <v>-7.933252580349597</v>
       </c>
       <c r="J13" t="n">
-        <v>113.3637069100829</v>
+        <v>113.3679436287805</v>
       </c>
       <c r="K13" t="n">
-        <v>170.2796019800011</v>
+        <v>163.8690652685153</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1038,34 +1038,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.92755107989563</v>
+        <v>-7.930598832124645</v>
       </c>
       <c r="C14" t="n">
-        <v>113.3721356816864</v>
+        <v>113.3663153693006</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.928839450837609</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="E14" t="n">
-        <v>113.3727503757708</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="F14" t="n">
-        <v>154.707003571351</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1584502282819562</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1559147890038532</v>
+        <v>0.1559539689041993</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.928839450837609</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="J14" t="n">
-        <v>113.3727503757708</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="K14" t="n">
-        <v>154.707003571351</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.930598832124645</v>
       </c>
       <c r="C15" t="n">
-        <v>113.391381419109</v>
+        <v>113.3663153693006</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="E15" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4044627966014</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="G15" t="n">
-        <v>7.667695267087087</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1559539689041993</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="J15" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="K15" t="n">
-        <v>341.4044627966014</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.930598832124645</v>
       </c>
       <c r="C16" t="n">
-        <v>113.391381419109</v>
+        <v>113.3663153693006</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="E16" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="F16" t="n">
-        <v>341.4044627966014</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="G16" t="n">
-        <v>7.667695267087087</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1559539689041993</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="J16" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="K16" t="n">
-        <v>341.4044627966014</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1170,34 +1170,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.930598832124645</v>
       </c>
       <c r="C17" t="n">
-        <v>113.391381419109</v>
+        <v>113.3663153693006</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="E17" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="F17" t="n">
-        <v>341.4044627966014</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="G17" t="n">
-        <v>7.667695267087087</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1559539689041993</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.939188254251092</v>
       </c>
       <c r="J17" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3690056653162</v>
       </c>
       <c r="K17" t="n">
-        <v>341.4044627966014</v>
+        <v>162.7656917602775</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1214,34 +1214,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.781447624694351</v>
       </c>
       <c r="C18" t="n">
-        <v>113.391381419109</v>
+        <v>113.3456111541357</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.941631480709475</v>
       </c>
       <c r="E18" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3688496417074</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4044627966014</v>
+        <v>171.823581519661</v>
       </c>
       <c r="G18" t="n">
-        <v>7.667695267087087</v>
+        <v>17.99462089545215</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1559557417387676</v>
       </c>
       <c r="I18" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.941631480709475</v>
       </c>
       <c r="J18" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3688496417074</v>
       </c>
       <c r="K18" t="n">
-        <v>341.4044627966014</v>
+        <v>171.823581519661</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1258,34 +1258,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.781447624694351</v>
       </c>
       <c r="C19" t="n">
-        <v>113.391381419109</v>
+        <v>113.3456111541357</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.941631480709475</v>
       </c>
       <c r="E19" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3688496417074</v>
       </c>
       <c r="F19" t="n">
-        <v>341.4044627966014</v>
+        <v>171.823581519661</v>
       </c>
       <c r="G19" t="n">
-        <v>7.667695267087087</v>
+        <v>17.99462089545215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1559557417387676</v>
       </c>
       <c r="I19" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.941631480709475</v>
       </c>
       <c r="J19" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3688496417074</v>
       </c>
       <c r="K19" t="n">
-        <v>341.4044627966014</v>
+        <v>171.823581519661</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1302,34 +1302,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.00057645676884</v>
+        <v>-7.8130161633246</v>
       </c>
       <c r="C20" t="n">
-        <v>113.391381419109</v>
+        <v>113.3247180591319</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="E20" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="F20" t="n">
-        <v>341.4044627966014</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="G20" t="n">
-        <v>7.667695267087087</v>
+        <v>14.72765741030765</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1559547627319433</v>
+        <v>0.1559603484652602</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.935218658507505</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="J20" t="n">
-        <v>113.3691793715617</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="K20" t="n">
-        <v>341.4044627966014</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1346,34 +1346,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.927253240803922</v>
+        <v>-7.8130161633246</v>
       </c>
       <c r="C21" t="n">
-        <v>113.3635728002981</v>
+        <v>113.3247180591319</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="E21" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="F21" t="n">
-        <v>161.2065008467991</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="G21" t="n">
-        <v>1.397992998888644</v>
+        <v>14.72765741030765</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1559583191480965</v>
+        <v>0.1559603484652602</v>
       </c>
       <c r="I21" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="J21" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="K21" t="n">
-        <v>161.2065008467991</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1390,34 +1390,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.927253240803922</v>
+        <v>-7.8130161633246</v>
       </c>
       <c r="C22" t="n">
-        <v>113.3635728002981</v>
+        <v>113.3247180591319</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="E22" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="F22" t="n">
-        <v>161.2065008467991</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="G22" t="n">
-        <v>1.397992998888644</v>
+        <v>14.72765741030765</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1559583191480965</v>
+        <v>0.1559603484652602</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="J22" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="K22" t="n">
-        <v>161.2065008467991</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1434,34 +1434,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-7.927253240803922</v>
+        <v>-7.8130161633246</v>
       </c>
       <c r="C23" t="n">
-        <v>113.3635728002981</v>
+        <v>113.3247180591319</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="E23" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="F23" t="n">
-        <v>161.2065008467991</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="G23" t="n">
-        <v>1.397992998888644</v>
+        <v>14.72765741030765</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1559583191480965</v>
+        <v>0.1559603484652602</v>
       </c>
       <c r="I23" t="n">
-        <v>-7.93915538390324</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="J23" t="n">
-        <v>113.3676623169724</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="K23" t="n">
-        <v>161.2065008467991</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1478,34 +1478,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-7.925186798391443</v>
+        <v>-7.8130161633246</v>
       </c>
       <c r="C24" t="n">
-        <v>113.3676620220398</v>
+        <v>113.3247180591319</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.936628192384261</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="E24" t="n">
-        <v>113.3717069981379</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="F24" t="n">
-        <v>160.7022086539152</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="G24" t="n">
-        <v>1.347964271098493</v>
+        <v>14.72765741030765</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1559607514523099</v>
+        <v>0.1559603484652602</v>
       </c>
       <c r="I24" t="n">
-        <v>-7.936628192384261</v>
+        <v>-7.937593054521316</v>
       </c>
       <c r="J24" t="n">
-        <v>113.3717069981379</v>
+        <v>113.3701278660294</v>
       </c>
       <c r="K24" t="n">
-        <v>160.7022086539152</v>
+        <v>160.1497515302267</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1522,34 +1522,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-7.93041941645333</v>
+        <v>-7.83552022169388</v>
       </c>
       <c r="C25" t="n">
-        <v>113.3659776800578</v>
+        <v>113.3347753048849</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.93894654324964</v>
+        <v>-7.934255558505307</v>
       </c>
       <c r="E25" t="n">
-        <v>113.3689929086657</v>
+        <v>113.3696610522463</v>
       </c>
       <c r="F25" t="n">
-        <v>160.6989887852127</v>
+        <v>160.7130891133673</v>
       </c>
       <c r="G25" t="n">
-        <v>1.004640124001872</v>
+        <v>11.63184955110903</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1559643232427148</v>
+        <v>0.1559611499642543</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.93894654324964</v>
+        <v>-7.934255558505307</v>
       </c>
       <c r="J25" t="n">
-        <v>113.3689929086657</v>
+        <v>113.3696610522463</v>
       </c>
       <c r="K25" t="n">
-        <v>160.6989887852127</v>
+        <v>160.7130891133673</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1566,34 +1566,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.925146647450504</v>
+        <v>-7.835914265001606</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3636242602798</v>
+        <v>113.3330166199718</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.935147698981534</v>
+        <v>-7.934538545276052</v>
       </c>
       <c r="E26" t="n">
-        <v>113.3671771420772</v>
+        <v>113.368141896978</v>
       </c>
       <c r="F26" t="n">
-        <v>160.6156421403693</v>
+        <v>160.5703311918811</v>
       </c>
       <c r="G26" t="n">
-        <v>1.178895557584105</v>
+        <v>11.6289441230617</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1559646364106799</v>
+        <v>0.155964342161667</v>
       </c>
       <c r="I26" t="n">
-        <v>-7.935147698981534</v>
+        <v>-7.934538545276052</v>
       </c>
       <c r="J26" t="n">
-        <v>113.3671771420772</v>
+        <v>113.368141896978</v>
       </c>
       <c r="K26" t="n">
-        <v>160.6156421403693</v>
+        <v>160.5703311918811</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1610,34 +1610,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-7.928450060857179</v>
+        <v>-7.835914265001606</v>
       </c>
       <c r="C27" t="n">
-        <v>113.3666962576382</v>
+        <v>113.3330166199718</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.93656118013396</v>
+        <v>-7.934538545276052</v>
       </c>
       <c r="E27" t="n">
-        <v>113.3695782772376</v>
+        <v>113.368141896978</v>
       </c>
       <c r="F27" t="n">
-        <v>160.6123508219388</v>
+        <v>160.5703311918811</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9561347653597531</v>
+        <v>11.6289441230617</v>
       </c>
       <c r="H27" t="n">
-        <v>0.155965306080437</v>
+        <v>0.155964342161667</v>
       </c>
       <c r="I27" t="n">
-        <v>-7.93656118013396</v>
+        <v>-7.934538545276052</v>
       </c>
       <c r="J27" t="n">
-        <v>113.3695782772376</v>
+        <v>113.368141896978</v>
       </c>
       <c r="K27" t="n">
-        <v>160.6123508219388</v>
+        <v>160.5703311918811</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1654,34 +1654,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.924256781218626</v>
+        <v>-7.837747788345208</v>
       </c>
       <c r="C28" t="n">
-        <v>113.3633165794617</v>
+        <v>113.3347959805302</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.936637151614055</v>
+        <v>-7.935510238642434</v>
       </c>
       <c r="E28" t="n">
-        <v>113.3677152355845</v>
+        <v>113.3696020002144</v>
       </c>
       <c r="F28" t="n">
-        <v>160.6135953367559</v>
+        <v>160.5767286171429</v>
       </c>
       <c r="G28" t="n">
-        <v>1.459381776814706</v>
+        <v>11.52686889810374</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1559661965323795</v>
+        <v>0.155964814882334</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.936637151614055</v>
+        <v>-7.935510238642434</v>
       </c>
       <c r="J28" t="n">
-        <v>113.3677152355845</v>
+        <v>113.3696020002144</v>
       </c>
       <c r="K28" t="n">
-        <v>160.6135953367559</v>
+        <v>160.5767286171429</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1698,34 +1698,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.929899664377401</v>
+        <v>-7.836920298514767</v>
       </c>
       <c r="C29" t="n">
-        <v>113.3650974822149</v>
+        <v>113.3324816839126</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.9383403623146</v>
+        <v>-7.935569422811987</v>
       </c>
       <c r="E29" t="n">
-        <v>113.3680990914772</v>
+        <v>113.3676082357116</v>
       </c>
       <c r="F29" t="n">
-        <v>160.5975668368804</v>
+        <v>160.5742507835986</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9950757779489504</v>
+        <v>11.63159286025645</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1559663508502477</v>
+        <v>0.1559657914086983</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.9383403623146</v>
+        <v>-7.935569422811987</v>
       </c>
       <c r="J29" t="n">
-        <v>113.3680990914772</v>
+        <v>113.3676082357116</v>
       </c>
       <c r="K29" t="n">
-        <v>160.5975668368804</v>
+        <v>160.5742507835986</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1742,34 +1742,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.925730271325929</v>
+        <v>-7.838846113289154</v>
       </c>
       <c r="C30" t="n">
-        <v>113.3639856047198</v>
+        <v>113.3331249218264</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.936857058522028</v>
+        <v>-7.937601786129402</v>
       </c>
       <c r="E30" t="n">
-        <v>113.3679458344292</v>
+        <v>113.3683317622024</v>
       </c>
       <c r="F30" t="n">
-        <v>160.5820107609207</v>
+        <v>160.5527008699305</v>
       </c>
       <c r="G30" t="n">
-        <v>1.311865474442396</v>
+        <v>11.64570203700542</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1559666787996332</v>
+        <v>0.1559667015664122</v>
       </c>
       <c r="I30" t="n">
-        <v>-7.936857058522028</v>
+        <v>-7.937601786129402</v>
       </c>
       <c r="J30" t="n">
-        <v>113.3679458344292</v>
+        <v>113.3683317622024</v>
       </c>
       <c r="K30" t="n">
-        <v>160.5820107609207</v>
+        <v>160.5527008699305</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1786,34 +1786,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.929293859057266</v>
+        <v>-7.838846113289154</v>
       </c>
       <c r="C31" t="n">
-        <v>113.365723276194</v>
+        <v>113.3331249218264</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.937703864183807</v>
+        <v>-7.937601786129402</v>
       </c>
       <c r="E31" t="n">
-        <v>113.368718482855</v>
+        <v>113.3683317622024</v>
       </c>
       <c r="F31" t="n">
-        <v>160.5704578154286</v>
+        <v>160.5527008699305</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9916227517693958</v>
+        <v>11.64570203700542</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1559666948257121</v>
+        <v>0.1559667015664122</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.937703864183807</v>
+        <v>-7.937601786129402</v>
       </c>
       <c r="J31" t="n">
-        <v>113.368718482855</v>
+        <v>113.3683317622024</v>
       </c>
       <c r="K31" t="n">
-        <v>160.5704578154286</v>
+        <v>160.5527008699305</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1830,34 +1830,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-7.926620235250896</v>
+        <v>-7.838846113289154</v>
       </c>
       <c r="C32" t="n">
-        <v>113.3634125822075</v>
+        <v>113.3331249218264</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.937649696714451</v>
+        <v>-7.937601786129402</v>
       </c>
       <c r="E32" t="n">
-        <v>113.3673426170107</v>
+        <v>113.3683317622024</v>
       </c>
       <c r="F32" t="n">
-        <v>160.5617053255354</v>
+        <v>160.5527008699305</v>
       </c>
       <c r="G32" t="n">
-        <v>1.300553162586978</v>
+        <v>11.64570203700542</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1559667937302764</v>
+        <v>0.1559667015664122</v>
       </c>
       <c r="I32" t="n">
-        <v>-7.937649696714451</v>
+        <v>-7.937601786129402</v>
       </c>
       <c r="J32" t="n">
-        <v>113.3673426170107</v>
+        <v>113.3683317622024</v>
       </c>
       <c r="K32" t="n">
-        <v>160.5617053255354</v>
+        <v>160.5527008699305</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -1874,34 +1874,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-7.925640412041455</v>
+        <v>-7.838949441820911</v>
       </c>
       <c r="C33" t="n">
-        <v>113.3634000839693</v>
+        <v>113.3332409710284</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.937373097785662</v>
+        <v>-7.937590692638216</v>
       </c>
       <c r="E33" t="n">
-        <v>113.3675811746013</v>
+        <v>113.368389879505</v>
       </c>
       <c r="F33" t="n">
-        <v>160.5596226696324</v>
+        <v>160.5614675248431</v>
       </c>
       <c r="G33" t="n">
-        <v>1.383492655753487</v>
+        <v>11.63158027156936</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1559668328430077</v>
+        <v>0.1559667918860448</v>
       </c>
       <c r="I33" t="n">
-        <v>-7.937373097785662</v>
+        <v>-7.937590692638216</v>
       </c>
       <c r="J33" t="n">
-        <v>113.3675811746013</v>
+        <v>113.368389879505</v>
       </c>
       <c r="K33" t="n">
-        <v>160.5596226696324</v>
+        <v>160.5614675248431</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -1918,34 +1918,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.926613714177232</v>
+        <v>-7.838890841841004</v>
       </c>
       <c r="C34" t="n">
-        <v>113.3638965505684</v>
+        <v>113.3327803116742</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.93756202134307</v>
       </c>
       <c r="E34" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3679326880416</v>
       </c>
       <c r="F34" t="n">
-        <v>160.5646540547856</v>
+        <v>160.5651467279778</v>
       </c>
       <c r="G34" t="n">
-        <v>1.286782282256654</v>
+        <v>11.63484573901799</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1559669160577003</v>
+        <v>0.1559669202653823</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.93756202134307</v>
       </c>
       <c r="J34" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3679326880416</v>
       </c>
       <c r="K34" t="n">
-        <v>160.5646540547856</v>
+        <v>160.5651467279778</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -1962,34 +1962,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.926613714177232</v>
+        <v>-7.838890841841004</v>
       </c>
       <c r="C35" t="n">
-        <v>113.3638965505684</v>
+        <v>113.3327803116742</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.93756202134307</v>
       </c>
       <c r="E35" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3679326880416</v>
       </c>
       <c r="F35" t="n">
-        <v>160.5646540547856</v>
+        <v>160.5651467279778</v>
       </c>
       <c r="G35" t="n">
-        <v>1.286782282256654</v>
+        <v>11.63484573901799</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1559669160577003</v>
+        <v>0.1559669202653823</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.93752658879991</v>
+        <v>-7.93756202134307</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3677844040546</v>
+        <v>113.3679326880416</v>
       </c>
       <c r="K35" t="n">
-        <v>160.5646540547856</v>
+        <v>160.5651467279778</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2006,34 +2006,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-7.928911433583865</v>
+        <v>-7.838844103859033</v>
       </c>
       <c r="C36" t="n">
-        <v>113.3647893158907</v>
+        <v>113.33301917</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937400676428179</v>
       </c>
       <c r="E36" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3681250176423</v>
       </c>
       <c r="F36" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680574384344</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.62112327481397</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1559669380437316</v>
       </c>
       <c r="I36" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937400676428179</v>
       </c>
       <c r="J36" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3681250176423</v>
       </c>
       <c r="K36" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680574384344</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -2050,34 +2050,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-7.928911433583865</v>
+        <v>-7.838844103859033</v>
       </c>
       <c r="C37" t="n">
-        <v>113.3647893158907</v>
+        <v>113.33301917</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937400676428179</v>
       </c>
       <c r="E37" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3681250176423</v>
       </c>
       <c r="F37" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680574384344</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.62112327481397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1559669380437316</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937400676428179</v>
       </c>
       <c r="J37" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3681250176423</v>
       </c>
       <c r="K37" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680574384344</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2094,34 +2094,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.928911433583865</v>
+        <v>-7.839198809956343</v>
       </c>
       <c r="C38" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3327415976756</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937495233161844</v>
       </c>
       <c r="E38" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3677548025992</v>
       </c>
       <c r="F38" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680493894575</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.59044835201253</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1559669565483649</v>
       </c>
       <c r="I38" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937495233161844</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3677548025992</v>
       </c>
       <c r="K38" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680493894575</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2138,34 +2138,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.928911433583865</v>
+        <v>-7.839198809956343</v>
       </c>
       <c r="C39" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3327415976756</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937495233161844</v>
       </c>
       <c r="E39" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3677548025992</v>
       </c>
       <c r="F39" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680493894575</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.59044835201253</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1559669565483649</v>
       </c>
       <c r="I39" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937495233161844</v>
       </c>
       <c r="J39" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3677548025992</v>
       </c>
       <c r="K39" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680493894575</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2182,34 +2182,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-7.928911433583865</v>
+        <v>-7.839198809956343</v>
       </c>
       <c r="C40" t="n">
-        <v>113.3647893158907</v>
+        <v>113.3327415976756</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937495233161844</v>
       </c>
       <c r="E40" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3677548025992</v>
       </c>
       <c r="F40" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680493894575</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9974070925266778</v>
+        <v>11.59044835201253</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1559669509265841</v>
+        <v>0.1559669565483649</v>
       </c>
       <c r="I40" t="n">
-        <v>-7.937370344575797</v>
+        <v>-7.937495233161844</v>
       </c>
       <c r="J40" t="n">
-        <v>113.3678024250143</v>
+        <v>113.3677548025992</v>
       </c>
       <c r="K40" t="n">
-        <v>160.5675513907877</v>
+        <v>160.5680493894575</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2226,34 +2226,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-7.929564836664708</v>
+        <v>-7.8388335175049</v>
       </c>
       <c r="C41" t="n">
-        <v>113.3650075933507</v>
+        <v>113.3327886520027</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.9375202022355</v>
+        <v>-7.937438357223656</v>
       </c>
       <c r="E41" t="n">
-        <v>113.3678412775343</v>
+        <v>113.3679115378409</v>
       </c>
       <c r="F41" t="n">
-        <v>160.5679332723429</v>
+        <v>160.5681383096492</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9380307689241612</v>
+        <v>11.62680890347977</v>
       </c>
       <c r="H41" t="n">
-        <v>0.155966957726713</v>
+        <v>0.1559669580702831</v>
       </c>
       <c r="I41" t="n">
-        <v>-7.9375202022355</v>
+        <v>-7.937438357223656</v>
       </c>
       <c r="J41" t="n">
-        <v>113.3678412775343</v>
+        <v>113.3679115378409</v>
       </c>
       <c r="K41" t="n">
-        <v>160.5679332723429</v>
+        <v>160.5681383096492</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2270,34 +2270,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.929462256880111</v>
+        <v>-7.8388335175049</v>
       </c>
       <c r="C42" t="n">
-        <v>113.3650293756579</v>
+        <v>113.3327886520027</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.937460953949726</v>
+        <v>-7.937438357223656</v>
       </c>
       <c r="E42" t="n">
-        <v>113.3678784590226</v>
+        <v>113.3679115378409</v>
       </c>
       <c r="F42" t="n">
-        <v>160.5681541828418</v>
+        <v>160.5681383096492</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9431387833974272</v>
+        <v>11.62680890347977</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1559669587229701</v>
+        <v>0.1559669580702831</v>
       </c>
       <c r="I42" t="n">
-        <v>-7.937460953949726</v>
+        <v>-7.937438357223656</v>
       </c>
       <c r="J42" t="n">
-        <v>113.3678784590226</v>
+        <v>113.3679115378409</v>
       </c>
       <c r="K42" t="n">
-        <v>160.5681541828418</v>
+        <v>160.5681383096492</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2314,34 +2314,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-7.929453511365901</v>
+        <v>-7.838762688075674</v>
       </c>
       <c r="C43" t="n">
-        <v>113.3650069929189</v>
+        <v>113.3327441222576</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.93744214433806</v>
+        <v>-7.937405146187201</v>
       </c>
       <c r="E43" t="n">
-        <v>113.3678524963725</v>
+        <v>113.3678804737398</v>
       </c>
       <c r="F43" t="n">
-        <v>160.5681226675012</v>
+        <v>160.5681031684232</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9419522913987795</v>
+        <v>11.63124718907159</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1559669591162015</v>
+        <v>0.1559669584207231</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.93744214433806</v>
+        <v>-7.937405146187201</v>
       </c>
       <c r="J43" t="n">
-        <v>113.3678524963725</v>
+        <v>113.3678804737398</v>
       </c>
       <c r="K43" t="n">
-        <v>160.5681226675012</v>
+        <v>160.5681031684232</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2358,34 +2358,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.926729058316045</v>
+        <v>-7.838826062192959</v>
       </c>
       <c r="C44" t="n">
-        <v>113.3640553088882</v>
+        <v>113.3327214724999</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.937490726244888</v>
       </c>
       <c r="E44" t="n">
-        <v>113.3678662505235</v>
+        <v>113.3678659716752</v>
       </c>
       <c r="F44" t="n">
-        <v>160.568022775149</v>
+        <v>160.5679852623944</v>
       </c>
       <c r="G44" t="n">
-        <v>1.261536897163938</v>
+        <v>11.63387405091941</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1559669596825827</v>
+        <v>0.1559669592430829</v>
       </c>
       <c r="I44" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.937490726244888</v>
       </c>
       <c r="J44" t="n">
-        <v>113.3678662505235</v>
+        <v>113.3678659716752</v>
       </c>
       <c r="K44" t="n">
-        <v>160.568022775149</v>
+        <v>160.5679852623944</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2402,34 +2402,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-7.926729058316045</v>
+        <v>-7.838846453228228</v>
       </c>
       <c r="C45" t="n">
-        <v>113.3640553088882</v>
+        <v>113.332691525456</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.937501895511937</v>
       </c>
       <c r="E45" t="n">
-        <v>113.3678662505235</v>
+        <v>113.3678326685119</v>
       </c>
       <c r="F45" t="n">
-        <v>160.568022775149</v>
+        <v>160.5680222054972</v>
       </c>
       <c r="G45" t="n">
-        <v>1.261536897163938</v>
+        <v>11.63278401947474</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1559669596825827</v>
+        <v>0.1559669592621531</v>
       </c>
       <c r="I45" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.937501895511937</v>
       </c>
       <c r="J45" t="n">
-        <v>113.3678662505235</v>
+        <v>113.3678326685119</v>
       </c>
       <c r="K45" t="n">
-        <v>160.568022775149</v>
+        <v>160.5680222054972</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2446,34 +2446,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-7.926729058316045</v>
+        <v>-7.838819234523706</v>
       </c>
       <c r="C46" t="n">
-        <v>113.3640553088882</v>
+        <v>113.3326921191223</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.937441953674062</v>
       </c>
       <c r="E46" t="n">
-        <v>113.3678662505235</v>
+        <v>113.3678215730254</v>
       </c>
       <c r="F46" t="n">
-        <v>160.568022775149</v>
+        <v>160.5680364610207</v>
       </c>
       <c r="G46" t="n">
-        <v>1.261536897163938</v>
+        <v>11.62892444940563</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1559669596825827</v>
+        <v>0.155966959665594</v>
       </c>
       <c r="I46" t="n">
-        <v>-7.937428055511353</v>
+        <v>-7.937441953674062</v>
       </c>
       <c r="J46" t="n">
-        <v>113.3678662505235</v>
+        <v>113.3678215730254</v>
       </c>
       <c r="K46" t="n">
-        <v>160.568022775149</v>
+        <v>160.5680364610207</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2490,34 +2490,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-7.929465991965822</v>
+        <v>-7.83880627106572</v>
       </c>
       <c r="C47" t="n">
-        <v>113.3650010944968</v>
+        <v>113.3327244658724</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.937475950954907</v>
+        <v>-7.937457293224347</v>
       </c>
       <c r="E47" t="n">
-        <v>113.3678542104521</v>
+        <v>113.3678639201656</v>
       </c>
       <c r="F47" t="n">
-        <v>160.5680214981691</v>
+        <v>160.56807871633</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9444674670231736</v>
+        <v>11.63225877098347</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1559669599024018</v>
+        <v>0.1559669597462134</v>
       </c>
       <c r="I47" t="n">
-        <v>-7.937475950954907</v>
+        <v>-7.937457293224347</v>
       </c>
       <c r="J47" t="n">
-        <v>113.3678542104521</v>
+        <v>113.3678639201656</v>
       </c>
       <c r="K47" t="n">
-        <v>160.5680214981691</v>
+        <v>160.56807871633</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2534,34 +2534,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-7.929431461464187</v>
+        <v>-7.838864744509983</v>
       </c>
       <c r="C48" t="n">
-        <v>113.3650183556272</v>
+        <v>113.3327296765009</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.937449743871355</v>
+        <v>-7.937483607760424</v>
       </c>
       <c r="E48" t="n">
-        <v>113.3678744354273</v>
+        <v>113.3678577261494</v>
       </c>
       <c r="F48" t="n">
-        <v>160.5680261896947</v>
+        <v>160.5680540259329</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9454488688433087</v>
+        <v>11.62846852402738</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1559669599407547</v>
+        <v>0.1559669598856252</v>
       </c>
       <c r="I48" t="n">
-        <v>-7.937449743871355</v>
+        <v>-7.937483607760424</v>
       </c>
       <c r="J48" t="n">
-        <v>113.3678744354273</v>
+        <v>113.3678577261494</v>
       </c>
       <c r="K48" t="n">
-        <v>160.5680261896947</v>
+        <v>160.5680540259329</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -2578,34 +2578,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-7.929390943701924</v>
+        <v>-7.83877224979282</v>
       </c>
       <c r="C49" t="n">
-        <v>113.3649972604629</v>
+        <v>113.3327174392377</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.937472312023047</v>
+        <v>-7.937472527455642</v>
       </c>
       <c r="E49" t="n">
-        <v>113.3678758094</v>
+        <v>113.3678745133138</v>
       </c>
       <c r="F49" t="n">
-        <v>160.5680386546221</v>
+        <v>160.5680411640042</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9528873686941478</v>
+        <v>11.6380694229974</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1559669600624515</v>
+        <v>0.155966960090635</v>
       </c>
       <c r="I49" t="n">
-        <v>-7.937472312023047</v>
+        <v>-7.937472527455642</v>
       </c>
       <c r="J49" t="n">
-        <v>113.3678758094</v>
+        <v>113.3678745133138</v>
       </c>
       <c r="K49" t="n">
-        <v>160.5680386546221</v>
+        <v>160.5680411640042</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -2622,34 +2622,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-7.929521645872363</v>
+        <v>-7.838804274657062</v>
       </c>
       <c r="C50" t="n">
-        <v>113.3650085183431</v>
+        <v>113.3327207566657</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.937463967226322</v>
+        <v>-7.937445423358781</v>
       </c>
       <c r="E50" t="n">
-        <v>113.3678375389828</v>
+        <v>113.3678567707646</v>
       </c>
       <c r="F50" t="n">
-        <v>160.5680402044998</v>
+        <v>160.5680389192483</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9364920845323742</v>
+        <v>11.63109739344674</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1559669600766281</v>
+        <v>0.1559669601354193</v>
       </c>
       <c r="I50" t="n">
-        <v>-7.937463967226322</v>
+        <v>-7.937445423358781</v>
       </c>
       <c r="J50" t="n">
-        <v>113.3678375389828</v>
+        <v>113.3678567707646</v>
       </c>
       <c r="K50" t="n">
-        <v>160.5680402044998</v>
+        <v>160.5680389192483</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -2666,34 +2666,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-7.92945370175002</v>
+        <v>-7.838779161805546</v>
       </c>
       <c r="C51" t="n">
-        <v>113.3650240020801</v>
+        <v>113.3327170671716</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.937442693993174</v>
+        <v>-7.93745270352619</v>
       </c>
       <c r="E51" t="n">
-        <v>113.3678696467207</v>
+        <v>113.3678646128487</v>
       </c>
       <c r="F51" t="n">
-        <v>160.5680392027995</v>
+        <v>160.5680428104281</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9419951377694178</v>
+        <v>11.63491673670828</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1559669600790251</v>
+        <v>0.1559669601674047</v>
       </c>
       <c r="I51" t="n">
-        <v>-7.937442693993174</v>
+        <v>-7.93745270352619</v>
       </c>
       <c r="J51" t="n">
-        <v>113.3678696467207</v>
+        <v>113.3678646128487</v>
       </c>
       <c r="K51" t="n">
-        <v>160.5680392027995</v>
+        <v>160.5680428104281</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -2710,34 +2710,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-7.929448193206991</v>
+        <v>-7.838745702290653</v>
       </c>
       <c r="C52" t="n">
-        <v>113.3649978417375</v>
+        <v>113.3326925665764</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.937452561127319</v>
+        <v>-7.937462037549648</v>
       </c>
       <c r="E52" t="n">
-        <v>113.3678489630731</v>
+        <v>113.3678553593248</v>
       </c>
       <c r="F52" t="n">
-        <v>160.5680400231736</v>
+        <v>160.5680412812327</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9438081064336212</v>
+        <v>11.63996284537347</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1559669601682323</v>
+        <v>0.1559669602064986</v>
       </c>
       <c r="I52" t="n">
-        <v>-7.937452561127319</v>
+        <v>-7.937462037549648</v>
       </c>
       <c r="J52" t="n">
-        <v>113.3678489630731</v>
+        <v>113.3678553593248</v>
       </c>
       <c r="K52" t="n">
-        <v>160.5680400231736</v>
+        <v>160.5680412812327</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -2754,34 +2754,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-7.926626465040175</v>
+        <v>-7.838745702290653</v>
       </c>
       <c r="C53" t="n">
-        <v>113.3640009738428</v>
+        <v>113.3326925665764</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.937462037549648</v>
       </c>
       <c r="E53" t="n">
-        <v>113.3678581831908</v>
+        <v>113.3678553593248</v>
       </c>
       <c r="F53" t="n">
-        <v>160.5680416358756</v>
+        <v>160.5680412812327</v>
       </c>
       <c r="G53" t="n">
-        <v>1.276854015591274</v>
+        <v>11.63996284537347</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1559669602010365</v>
+        <v>0.1559669602064986</v>
       </c>
       <c r="I53" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.937462037549648</v>
       </c>
       <c r="J53" t="n">
-        <v>113.3678581831908</v>
+        <v>113.3678553593248</v>
       </c>
       <c r="K53" t="n">
-        <v>160.5680416358756</v>
+        <v>160.5680412812327</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -2798,34 +2798,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-7.926626465040175</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C54" t="n">
-        <v>113.3640009738428</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E54" t="n">
-        <v>113.3678581831908</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F54" t="n">
-        <v>160.5680416358756</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G54" t="n">
-        <v>1.276854015591274</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1559669602010365</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.937455366581234</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J54" t="n">
-        <v>113.3678581831908</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K54" t="n">
-        <v>160.5680416358756</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -2842,34 +2842,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-7.929450149827534</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C55" t="n">
-        <v>113.3650026653773</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E55" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F55" t="n">
-        <v>160.5680398849378</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9445701201065588</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1559669602080135</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I55" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J55" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K55" t="n">
-        <v>160.5680398849378</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -2886,34 +2886,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-7.929450149827534</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C56" t="n">
-        <v>113.3650026653773</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E56" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F56" t="n">
-        <v>160.5680398849378</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9445701201065588</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1559669602080135</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I56" t="n">
-        <v>-7.937460980315753</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J56" t="n">
-        <v>113.3678560887348</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K56" t="n">
-        <v>160.5680398849378</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -2930,34 +2930,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-7.929445109943053</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C57" t="n">
-        <v>113.3650038412259</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.937458245672322</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E57" t="n">
-        <v>113.3678580855335</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F57" t="n">
-        <v>160.568040822709</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9448419297208216</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1559669602160832</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I57" t="n">
-        <v>-7.937458245672322</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J57" t="n">
-        <v>113.3678580855335</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K57" t="n">
-        <v>160.568040822709</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -2974,34 +2974,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-7.929446402590725</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C58" t="n">
-        <v>113.3650038057399</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.937460476739934</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E58" t="n">
-        <v>113.3678583843354</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F58" t="n">
-        <v>160.5680407539558</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9449525808840095</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1559669602176009</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I58" t="n">
-        <v>-7.937460476739934</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J58" t="n">
-        <v>113.3678583843354</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K58" t="n">
-        <v>160.5680407539558</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3018,34 +3018,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-7.92945038870102</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C59" t="n">
-        <v>113.3650041519213</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.937459912000548</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E59" t="n">
-        <v>113.3678571095266</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F59" t="n">
-        <v>160.5680406990644</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G59" t="n">
-        <v>0.944415982429464</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1559669602176587</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I59" t="n">
-        <v>-7.937459912000548</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J59" t="n">
-        <v>113.3678571095266</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K59" t="n">
-        <v>160.5680406990644</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3062,34 +3062,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-7.929446884129244</v>
+        <v>-7.838817964321811</v>
       </c>
       <c r="C60" t="n">
-        <v>113.3650038489686</v>
+        <v>113.3327243028512</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.937459739882175</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="E60" t="n">
-        <v>113.3678579935761</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="F60" t="n">
-        <v>160.568040721712</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9448089178008754</v>
+        <v>11.63122159833556</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1559669602180025</v>
+        <v>0.1559669602171757</v>
       </c>
       <c r="I60" t="n">
-        <v>-7.937459739882175</v>
+        <v>-7.937460167342327</v>
       </c>
       <c r="J60" t="n">
-        <v>113.3678579935761</v>
+        <v>113.3678606906164</v>
       </c>
       <c r="K60" t="n">
-        <v>160.568040721712</v>
+        <v>160.5680405303223</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3106,34 +3106,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.929448165168522</v>
+        <v>-7.838815071990649</v>
       </c>
       <c r="C61" t="n">
-        <v>113.3650042847235</v>
+        <v>113.3327218647026</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.937459053358678</v>
+        <v>-7.937459191213091</v>
       </c>
       <c r="E61" t="n">
-        <v>113.3678577285066</v>
+        <v>113.3678589344748</v>
       </c>
       <c r="F61" t="n">
-        <v>160.5680406046024</v>
+        <v>160.5680407710907</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9445769196581858</v>
+        <v>11.63144752996005</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1559669602187805</v>
+        <v>0.1559669602174404</v>
       </c>
       <c r="I61" t="n">
-        <v>-7.937459053358678</v>
+        <v>-7.937459191213091</v>
       </c>
       <c r="J61" t="n">
-        <v>113.3678577285066</v>
+        <v>113.3678589344748</v>
       </c>
       <c r="K61" t="n">
-        <v>160.5680406046024</v>
+        <v>160.5680407710907</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -3150,34 +3150,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-7.929446823442042</v>
+        <v>-7.838741676461129</v>
       </c>
       <c r="C62" t="n">
-        <v>113.3650032873258</v>
+        <v>113.3326959059064</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.937458052265341</v>
       </c>
       <c r="E62" t="n">
-        <v>113.3678576367175</v>
+        <v>113.367858714076</v>
       </c>
       <c r="F62" t="n">
-        <v>160.5680406254158</v>
+        <v>160.5680406063848</v>
       </c>
       <c r="G62" t="n">
-        <v>0.944876701933504</v>
+        <v>11.63996767455223</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1559669602189203</v>
+        <v>0.1559669602183474</v>
       </c>
       <c r="I62" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.937458052265341</v>
       </c>
       <c r="J62" t="n">
-        <v>113.3678576367175</v>
+        <v>113.367858714076</v>
       </c>
       <c r="K62" t="n">
-        <v>160.5680406254158</v>
+        <v>160.5680406063848</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-7.929446823442042</v>
+        <v>-7.838817940029446</v>
       </c>
       <c r="C63" t="n">
-        <v>113.3650032873258</v>
+        <v>113.3327234439575</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.937459540079773</v>
       </c>
       <c r="E63" t="n">
-        <v>113.3678576367175</v>
+        <v>113.367859616679</v>
       </c>
       <c r="F63" t="n">
-        <v>160.5680406254158</v>
+        <v>160.5680406371998</v>
       </c>
       <c r="G63" t="n">
-        <v>0.944876701933504</v>
+        <v>11.63115049145312</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1559669602189203</v>
+        <v>0.1559669602189429</v>
       </c>
       <c r="I63" t="n">
-        <v>-7.937460254061826</v>
+        <v>-7.937459540079773</v>
       </c>
       <c r="J63" t="n">
-        <v>113.3678576367175</v>
+        <v>113.367859616679</v>
       </c>
       <c r="K63" t="n">
-        <v>160.5680406254158</v>
+        <v>160.5680406371998</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3238,34 +3238,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.929446563110332</v>
+        <v>-7.838820088053828</v>
       </c>
       <c r="C64" t="n">
-        <v>113.3650032274969</v>
+        <v>113.3327235573993</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.937458662579963</v>
       </c>
       <c r="E64" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3678586523872</v>
       </c>
       <c r="F64" t="n">
-        <v>160.5680406156376</v>
+        <v>160.5680406120799</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9449099640142643</v>
+        <v>11.63079373863672</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1559669602189857</v>
+        <v>0.1559669602189457</v>
       </c>
       <c r="I64" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.937458662579963</v>
       </c>
       <c r="J64" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3678586523872</v>
       </c>
       <c r="K64" t="n">
-        <v>160.5680406156376</v>
+        <v>160.5680406120799</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
@@ -3282,34 +3282,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-7.929446563110332</v>
+        <v>-7.838819230577251</v>
       </c>
       <c r="C65" t="n">
-        <v>113.3650032274969</v>
+        <v>113.3327236117867</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.937459436653815</v>
       </c>
       <c r="E65" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3678592880046</v>
       </c>
       <c r="F65" t="n">
-        <v>160.5680406156376</v>
+        <v>160.5680406136573</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9449099640142643</v>
+        <v>11.63098612276196</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1559669602189857</v>
+        <v>0.1559669602192273</v>
       </c>
       <c r="I65" t="n">
-        <v>-7.93746027582258</v>
+        <v>-7.937459436653815</v>
       </c>
       <c r="J65" t="n">
-        <v>113.3678576773705</v>
+        <v>113.3678592880046</v>
       </c>
       <c r="K65" t="n">
-        <v>160.5680406156376</v>
+        <v>160.5680406136573</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -3326,34 +3326,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-7.929448843162128</v>
+        <v>-7.838819230577251</v>
       </c>
       <c r="C66" t="n">
-        <v>113.3650048004805</v>
+        <v>113.3327236117867</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.937460264351817</v>
+        <v>-7.937459436653815</v>
       </c>
       <c r="E66" t="n">
-        <v>113.3678584341212</v>
+        <v>113.3678592880046</v>
       </c>
       <c r="F66" t="n">
-        <v>160.5680406247426</v>
+        <v>160.5680406136573</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9446397664635366</v>
+        <v>11.63098612276196</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1559669602192545</v>
+        <v>0.1559669602192273</v>
       </c>
       <c r="I66" t="n">
-        <v>-7.937460264351817</v>
+        <v>-7.937459436653815</v>
       </c>
       <c r="J66" t="n">
-        <v>113.3678584341212</v>
+        <v>113.3678592880046</v>
       </c>
       <c r="K66" t="n">
-        <v>160.5680406247426</v>
+        <v>160.5680406136573</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -3370,34 +3370,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-7.929447441406817</v>
+        <v>-7.838819233928731</v>
       </c>
       <c r="C67" t="n">
-        <v>113.3650046454224</v>
+        <v>113.3327232196373</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.937459599533665</v>
       </c>
       <c r="E67" t="n">
-        <v>113.367858744786</v>
+        <v>113.3678589526857</v>
       </c>
       <c r="F67" t="n">
-        <v>160.568040611654</v>
+        <v>160.5680406179468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9447939345591541</v>
+        <v>11.63100493324148</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1559669602192934</v>
+        <v>0.1559669602193839</v>
       </c>
       <c r="I67" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.937459599533665</v>
       </c>
       <c r="J67" t="n">
-        <v>113.367858744786</v>
+        <v>113.3678589526857</v>
       </c>
       <c r="K67" t="n">
-        <v>160.568040611654</v>
+        <v>160.5680406179468</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -3414,34 +3414,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-7.929447441406817</v>
+        <v>-7.838819233928731</v>
       </c>
       <c r="C68" t="n">
-        <v>113.3650046454224</v>
+        <v>113.3327232196373</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.937459599533665</v>
       </c>
       <c r="E68" t="n">
-        <v>113.367858744786</v>
+        <v>113.3678589526857</v>
       </c>
       <c r="F68" t="n">
-        <v>160.568040611654</v>
+        <v>160.5680406179468</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9447939345591541</v>
+        <v>11.63100493324148</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1559669602192934</v>
+        <v>0.1559669602193839</v>
       </c>
       <c r="I68" t="n">
-        <v>-7.937460170082689</v>
+        <v>-7.937459599533665</v>
       </c>
       <c r="J68" t="n">
-        <v>113.367858744786</v>
+        <v>113.3678589526857</v>
       </c>
       <c r="K68" t="n">
-        <v>160.568040611654</v>
+        <v>160.5680406179468</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -3458,34 +3458,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.92944794017066</v>
+        <v>-7.838819233928731</v>
       </c>
       <c r="C69" t="n">
-        <v>113.3650045699493</v>
+        <v>113.3327232196373</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.937459875502607</v>
+        <v>-7.937459599533665</v>
       </c>
       <c r="E69" t="n">
-        <v>113.3678583867229</v>
+        <v>113.3678589526857</v>
       </c>
       <c r="F69" t="n">
-        <v>160.5680406238354</v>
+        <v>160.5680406179468</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9447003898963245</v>
+        <v>11.63100493324148</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1559669602193188</v>
+        <v>0.1559669602193839</v>
       </c>
       <c r="I69" t="n">
-        <v>-7.937459875502607</v>
+        <v>-7.937459599533665</v>
       </c>
       <c r="J69" t="n">
-        <v>113.3678583867229</v>
+        <v>113.3678589526857</v>
       </c>
       <c r="K69" t="n">
-        <v>160.5680406238354</v>
+        <v>160.5680406179468</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -3502,34 +3502,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.926662620170131</v>
+        <v>-7.838821024790589</v>
       </c>
       <c r="C70" t="n">
-        <v>113.3640126016066</v>
+        <v>113.3327234705819</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.937459791706058</v>
+        <v>-7.937459885350483</v>
       </c>
       <c r="E70" t="n">
-        <v>113.3678585091011</v>
+        <v>113.3678586675499</v>
       </c>
       <c r="F70" t="n">
-        <v>160.5680406154724</v>
+        <v>160.5680406179028</v>
       </c>
       <c r="G70" t="n">
-        <v>1.273112679150094</v>
+        <v>11.63082746590916</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1559669602193653</v>
+        <v>0.1559669602194066</v>
       </c>
       <c r="I70" t="n">
-        <v>-7.937459791706058</v>
+        <v>-7.937459885350483</v>
       </c>
       <c r="J70" t="n">
-        <v>113.3678585091011</v>
+        <v>113.3678586675499</v>
       </c>
       <c r="K70" t="n">
-        <v>160.5680406154724</v>
+        <v>160.5680406179028</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
@@ -3546,34 +3546,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-7.929448765231911</v>
+        <v>-7.838821024790589</v>
       </c>
       <c r="C71" t="n">
-        <v>113.3650051284058</v>
+        <v>113.3327234705819</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.937459730159389</v>
+        <v>-7.937459885350483</v>
       </c>
       <c r="E71" t="n">
-        <v>113.3678585995245</v>
+        <v>113.3678586675499</v>
       </c>
       <c r="F71" t="n">
-        <v>160.5680406213247</v>
+        <v>160.5680406179028</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9445859677950484</v>
+        <v>11.63082746590916</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1559669602193796</v>
+        <v>0.1559669602194066</v>
       </c>
       <c r="I71" t="n">
-        <v>-7.937459730159389</v>
+        <v>-7.937459885350483</v>
       </c>
       <c r="J71" t="n">
-        <v>113.3678585995245</v>
+        <v>113.3678586675499</v>
       </c>
       <c r="K71" t="n">
-        <v>160.5680406213247</v>
+        <v>160.5680406179028</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -3590,34 +3590,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-7.929448220562273</v>
+        <v>-7.83882023655003</v>
       </c>
       <c r="C72" t="n">
-        <v>113.3650052020966</v>
+        <v>113.3327234722278</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.937459730125074</v>
+        <v>-7.937459761913814</v>
       </c>
       <c r="E72" t="n">
-        <v>113.3678588672125</v>
+        <v>113.3678589059903</v>
       </c>
       <c r="F72" t="n">
-        <v>160.5680406193235</v>
+        <v>160.568040618685</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9446501867259498</v>
+        <v>11.63090585618184</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1559669602194041</v>
+        <v>0.1559669602194095</v>
       </c>
       <c r="I72" t="n">
-        <v>-7.937459730125074</v>
+        <v>-7.937459761913814</v>
       </c>
       <c r="J72" t="n">
-        <v>113.3678588672125</v>
+        <v>113.3678589059903</v>
       </c>
       <c r="K72" t="n">
-        <v>160.5680406193235</v>
+        <v>160.568040618685</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -3634,34 +3634,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.929448197644724</v>
+        <v>-7.838820717736478</v>
       </c>
       <c r="C73" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3327234489713</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459872462717</v>
       </c>
       <c r="E73" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678587507206</v>
       </c>
       <c r="F73" t="n">
-        <v>160.5680406186203</v>
+        <v>160.5680406185178</v>
       </c>
       <c r="G73" t="n">
-        <v>0.944658768023554</v>
+        <v>11.63086215248071</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1559669602194159</v>
       </c>
       <c r="I73" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459872462717</v>
       </c>
       <c r="J73" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678587507206</v>
       </c>
       <c r="K73" t="n">
-        <v>160.5680406186203</v>
+        <v>160.5680406185178</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.929448197644724</v>
+        <v>-7.838820488009149</v>
       </c>
       <c r="C74" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3327233152042</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459842376112</v>
       </c>
       <c r="E74" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678586880636</v>
       </c>
       <c r="F74" t="n">
-        <v>160.5680406186203</v>
+        <v>160.5680406186801</v>
       </c>
       <c r="G74" t="n">
-        <v>0.944658768023554</v>
+        <v>11.63088569309859</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1559669602194177</v>
       </c>
       <c r="I74" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459842376112</v>
       </c>
       <c r="J74" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678586880636</v>
       </c>
       <c r="K74" t="n">
-        <v>160.5680406186203</v>
+        <v>160.5680406186801</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -3722,34 +3722,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.929448197644724</v>
+        <v>-7.838820474790149</v>
       </c>
       <c r="C75" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3327234010821</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459813785041</v>
       </c>
       <c r="E75" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678587684635</v>
       </c>
       <c r="F75" t="n">
-        <v>160.5680406186203</v>
+        <v>160.568040618685</v>
       </c>
       <c r="G75" t="n">
-        <v>0.944658768023554</v>
+        <v>11.63088388050027</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1559669602194183</v>
       </c>
       <c r="I75" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459813785041</v>
       </c>
       <c r="J75" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678587684635</v>
       </c>
       <c r="K75" t="n">
-        <v>160.5680406186203</v>
+        <v>160.568040618685</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -3766,34 +3766,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.929448197644724</v>
+        <v>-7.838820474790149</v>
       </c>
       <c r="C76" t="n">
-        <v>113.3650049566774</v>
+        <v>113.3327234010821</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459813785041</v>
       </c>
       <c r="E76" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678587684635</v>
       </c>
       <c r="F76" t="n">
-        <v>160.5680406186203</v>
+        <v>160.568040618685</v>
       </c>
       <c r="G76" t="n">
-        <v>0.944658768023554</v>
+        <v>11.63088388050027</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1559669602194163</v>
+        <v>0.1559669602194183</v>
       </c>
       <c r="I76" t="n">
-        <v>-7.937459779984766</v>
+        <v>-7.937459813785041</v>
       </c>
       <c r="J76" t="n">
-        <v>113.3678586477168</v>
+        <v>113.3678587684635</v>
       </c>
       <c r="K76" t="n">
-        <v>160.5680406186203</v>
+        <v>160.568040618685</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -3810,34 +3810,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-7.929448657717279</v>
+        <v>-7.838820474790149</v>
       </c>
       <c r="C77" t="n">
-        <v>113.3650051690588</v>
+        <v>113.3327234010821</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.937459813785041</v>
       </c>
       <c r="E77" t="n">
-        <v>113.3678587062763</v>
+        <v>113.3678587684635</v>
       </c>
       <c r="F77" t="n">
-        <v>160.5680406186449</v>
+        <v>160.568040618685</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9446078482076662</v>
+        <v>11.63088388050027</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1559669602194187</v>
+        <v>0.1559669602194183</v>
       </c>
       <c r="I77" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.937459813785041</v>
       </c>
       <c r="J77" t="n">
-        <v>113.3678587062763</v>
+        <v>113.3678587684635</v>
       </c>
       <c r="K77" t="n">
-        <v>160.5680406186449</v>
+        <v>160.568040618685</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -3854,34 +3854,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-7.929448657717279</v>
+        <v>-7.838820460197337</v>
       </c>
       <c r="C78" t="n">
-        <v>113.3650051690588</v>
+        <v>113.3327233915639</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.937459826616285</v>
       </c>
       <c r="E78" t="n">
-        <v>113.3678587062763</v>
+        <v>113.367858768715</v>
       </c>
       <c r="F78" t="n">
-        <v>160.5680406186449</v>
+        <v>160.5680406186569</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9446078482076662</v>
+        <v>11.63088711420936</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1559669602194187</v>
+        <v>0.1559669602194185</v>
       </c>
       <c r="I78" t="n">
-        <v>-7.937459808210587</v>
+        <v>-7.937459826616285</v>
       </c>
       <c r="J78" t="n">
-        <v>113.3678587062763</v>
+        <v>113.367858768715</v>
       </c>
       <c r="K78" t="n">
-        <v>160.5680406186449</v>
+        <v>160.5680406186569</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -3898,34 +3898,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-7.929447987285581</v>
+        <v>-7.8388207352409</v>
       </c>
       <c r="C79" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3327234822069</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459819795403</v>
       </c>
       <c r="E79" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587589558</v>
       </c>
       <c r="F79" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186299</v>
       </c>
       <c r="G79" t="n">
-        <v>0.94468536319049</v>
+        <v>11.63085387817337</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.1559669602194185</v>
       </c>
       <c r="I79" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459819795403</v>
       </c>
       <c r="J79" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587589558</v>
       </c>
       <c r="K79" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186299</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -3942,34 +3942,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-7.929447987285581</v>
+        <v>-7.838820487628269</v>
       </c>
       <c r="C80" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3327233930698</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459790349993</v>
       </c>
       <c r="E80" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587475286</v>
       </c>
       <c r="F80" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186358</v>
       </c>
       <c r="G80" t="n">
-        <v>0.94468536319049</v>
+        <v>11.63087960335384</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.1559669602194187</v>
       </c>
       <c r="I80" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459790349993</v>
       </c>
       <c r="J80" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587475286</v>
       </c>
       <c r="K80" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186358</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -3986,34 +3986,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-7.929447987285581</v>
+        <v>-7.838820423274263</v>
       </c>
       <c r="C81" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3327233656566</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459790765452</v>
       </c>
       <c r="E81" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587431865</v>
       </c>
       <c r="F81" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186566</v>
       </c>
       <c r="G81" t="n">
-        <v>0.94468536319049</v>
+        <v>11.63088724064183</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I81" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459790765452</v>
       </c>
       <c r="J81" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587431865</v>
       </c>
       <c r="K81" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186566</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -4030,34 +4030,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-7.929447987285581</v>
+        <v>-7.838820423274263</v>
       </c>
       <c r="C82" t="n">
-        <v>113.3650049577458</v>
+        <v>113.3327233656566</v>
       </c>
       <c r="D82" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459790765452</v>
       </c>
       <c r="E82" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587431865</v>
       </c>
       <c r="F82" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186566</v>
       </c>
       <c r="G82" t="n">
-        <v>0.94468536319049</v>
+        <v>11.63088724064183</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1559669602194188</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I82" t="n">
-        <v>-7.937459795177029</v>
+        <v>-7.937459790765452</v>
       </c>
       <c r="J82" t="n">
-        <v>113.3678587291258</v>
+        <v>113.3678587431865</v>
       </c>
       <c r="K82" t="n">
-        <v>160.5680406186737</v>
+        <v>160.5680406186566</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -4074,34 +4074,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-7.929448605980476</v>
+        <v>-7.838820423274263</v>
       </c>
       <c r="C83" t="n">
-        <v>113.3650051716361</v>
+        <v>113.3327233656566</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.937459790765452</v>
       </c>
       <c r="E83" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3678587431865</v>
       </c>
       <c r="F83" t="n">
-        <v>160.5680406186601</v>
+        <v>160.5680406186566</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9446157231331892</v>
+        <v>11.63088724064183</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1559669602194189</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I83" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.937459790765452</v>
       </c>
       <c r="J83" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3678587431865</v>
       </c>
       <c r="K83" t="n">
-        <v>160.5680406186601</v>
+        <v>160.5680406186566</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -4118,34 +4118,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-7.929448605980476</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C84" t="n">
-        <v>113.3650051716361</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E84" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F84" t="n">
-        <v>160.5680406186601</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9446157231331892</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1559669602194189</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I84" t="n">
-        <v>-7.937459823260376</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J84" t="n">
-        <v>113.3678587326429</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K84" t="n">
-        <v>160.5680406186601</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -4162,31 +4162,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-7.929448584479822</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C85" t="n">
-        <v>113.365005161849</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.937459819472699</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E85" t="n">
-        <v>113.367858729165</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F85" t="n">
         <v>160.5680406186554</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9446178117018277</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1559669602194189</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I85" t="n">
-        <v>-7.937459819472699</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J85" t="n">
-        <v>113.367858729165</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K85" t="n">
         <v>160.5680406186554</v>
@@ -4206,34 +4206,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-7.929448577856422</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C86" t="n">
-        <v>113.3650051755427</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E86" t="n">
-        <v>113.3678587406349</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F86" t="n">
-        <v>160.5680406186567</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9446170755996897</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H86" t="n">
         <v>0.155966960219419</v>
       </c>
       <c r="I86" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J86" t="n">
-        <v>113.3678587406349</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K86" t="n">
-        <v>160.5680406186567</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -4250,34 +4250,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-7.929448577856422</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C87" t="n">
-        <v>113.3650051755427</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E87" t="n">
-        <v>113.3678587406349</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F87" t="n">
-        <v>160.5680406186567</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9446170755996897</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H87" t="n">
         <v>0.155966960219419</v>
       </c>
       <c r="I87" t="n">
-        <v>-7.937459806606478</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J87" t="n">
-        <v>113.3678587406349</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K87" t="n">
-        <v>160.5680406186567</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -4294,34 +4294,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C88" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E88" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F88" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I88" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J88" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K88" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -4338,34 +4338,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C89" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E89" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F89" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I89" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J89" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K89" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -4382,34 +4382,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C90" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E90" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F90" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I90" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J90" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K90" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -4426,34 +4426,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820434278214</v>
       </c>
       <c r="C91" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233578813</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="E91" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="F91" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088738013845</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1559669602194191</v>
+        <v>0.155966960219419</v>
       </c>
       <c r="I91" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459802952426</v>
       </c>
       <c r="J91" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587358337</v>
       </c>
       <c r="K91" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186554</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -4470,34 +4470,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C92" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E92" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F92" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H92" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I92" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J92" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K92" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -4514,34 +4514,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C93" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E93" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F93" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H93" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I93" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J93" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K93" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -4558,34 +4558,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C94" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E94" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F94" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H94" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I94" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J94" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K94" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -4602,34 +4602,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C95" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E95" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F95" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H95" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I95" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J95" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K95" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -4646,34 +4646,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C96" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E96" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F96" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H96" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I96" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J96" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K96" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -4690,34 +4690,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C97" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E97" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F97" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H97" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I97" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J97" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K97" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -4734,34 +4734,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-7.929448573121455</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C98" t="n">
-        <v>113.3650051665237</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E98" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F98" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9446169527684627</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H98" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I98" t="n">
-        <v>-7.937459800829789</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J98" t="n">
-        <v>113.3678587312449</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K98" t="n">
-        <v>160.5680406186534</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -4778,34 +4778,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C99" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E99" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F99" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G99" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H99" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I99" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J99" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K99" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -4822,34 +4822,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C100" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E100" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F100" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G100" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H100" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I100" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J100" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K100" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -4866,34 +4866,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C101" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E101" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F101" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G101" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H101" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I101" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J101" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K101" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -4910,34 +4910,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C102" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E102" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F102" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G102" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H102" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I102" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J102" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K102" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -4954,34 +4954,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C103" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E103" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F103" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G103" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H103" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I103" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J103" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K103" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -4998,34 +4998,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C104" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E104" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F104" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G104" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H104" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I104" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J104" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K104" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -5042,34 +5042,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C105" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E105" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F105" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G105" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H105" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I105" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J105" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K105" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -5086,34 +5086,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C106" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D106" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E106" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F106" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G106" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H106" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I106" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J106" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K106" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -5130,34 +5130,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C107" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D107" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E107" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F107" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G107" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H107" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I107" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J107" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K107" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -5174,34 +5174,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820472127789</v>
       </c>
       <c r="C108" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233710778</v>
       </c>
       <c r="D108" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="E108" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="F108" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="G108" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088323990552</v>
       </c>
       <c r="H108" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I108" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459805689978</v>
       </c>
       <c r="J108" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587365233</v>
       </c>
       <c r="K108" t="n">
-        <v>160.5680406186547</v>
+        <v>160.5680406186545</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
@@ -5218,34 +5218,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C109" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D109" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E109" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F109" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G109" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H109" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I109" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J109" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K109" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
@@ -5262,34 +5262,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C110" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D110" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E110" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F110" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G110" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H110" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I110" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J110" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K110" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -5306,34 +5306,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C111" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D111" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E111" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F111" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G111" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H111" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I111" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J111" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K111" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -5350,34 +5350,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C112" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D112" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E112" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F112" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G112" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H112" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I112" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J112" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K112" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -5394,34 +5394,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C113" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D113" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E113" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F113" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G113" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H113" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I113" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J113" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K113" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
@@ -5438,34 +5438,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C114" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D114" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E114" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F114" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G114" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H114" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I114" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J114" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K114" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -5482,34 +5482,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C115" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E115" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F115" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G115" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H115" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I115" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J115" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K115" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
@@ -5526,34 +5526,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C116" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E116" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F116" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G116" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H116" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I116" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J116" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K116" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L116" t="b">
         <v>0</v>
@@ -5570,34 +5570,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C117" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E117" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F117" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G117" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H117" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I117" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J117" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K117" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -5614,34 +5614,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C118" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E118" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F118" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G118" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H118" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I118" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J118" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K118" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
@@ -5658,34 +5658,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C119" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E119" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F119" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G119" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H119" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I119" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J119" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K119" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L119" t="b">
         <v>0</v>
@@ -5702,34 +5702,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C120" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D120" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E120" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F120" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G120" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H120" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I120" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J120" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K120" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
@@ -5746,34 +5746,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C121" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E121" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F121" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G121" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H121" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I121" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J121" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K121" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
@@ -5790,34 +5790,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C122" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D122" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E122" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F122" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G122" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H122" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I122" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J122" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K122" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L122" t="b">
         <v>0</v>
@@ -5834,34 +5834,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C123" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D123" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E123" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F123" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G123" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H123" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I123" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J123" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K123" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L123" t="b">
         <v>0</v>
@@ -5878,34 +5878,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C124" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E124" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F124" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G124" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H124" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I124" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J124" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K124" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L124" t="b">
         <v>0</v>
@@ -5922,34 +5922,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C125" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E125" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F125" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G125" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H125" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I125" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J125" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K125" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L125" t="b">
         <v>0</v>
@@ -5966,34 +5966,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C126" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E126" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F126" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G126" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H126" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I126" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J126" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K126" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L126" t="b">
         <v>0</v>
@@ -6010,34 +6010,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C127" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D127" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E127" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F127" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G127" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H127" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I127" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J127" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K127" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L127" t="b">
         <v>0</v>
@@ -6054,34 +6054,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C128" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E128" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F128" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G128" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H128" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I128" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J128" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K128" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L128" t="b">
         <v>0</v>
@@ -6098,34 +6098,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C129" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E129" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F129" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G129" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H129" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I129" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J129" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K129" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L129" t="b">
         <v>0</v>
@@ -6142,34 +6142,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C130" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E130" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F130" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G130" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H130" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I130" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J130" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K130" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L130" t="b">
         <v>0</v>
@@ -6186,34 +6186,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C131" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D131" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E131" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F131" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G131" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H131" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I131" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J131" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K131" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -6230,34 +6230,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C132" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D132" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E132" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F132" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G132" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H132" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I132" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J132" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K132" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
@@ -6274,34 +6274,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C133" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D133" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E133" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F133" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G133" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H133" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I133" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J133" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K133" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L133" t="b">
         <v>0</v>
@@ -6318,34 +6318,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C134" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D134" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E134" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F134" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G134" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H134" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I134" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J134" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K134" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L134" t="b">
         <v>0</v>
@@ -6362,34 +6362,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C135" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D135" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E135" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F135" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G135" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H135" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I135" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J135" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K135" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L135" t="b">
         <v>0</v>
@@ -6406,34 +6406,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C136" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D136" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E136" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F136" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G136" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H136" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I136" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J136" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K136" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L136" t="b">
         <v>0</v>
@@ -6450,34 +6450,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C137" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D137" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E137" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F137" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G137" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H137" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I137" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J137" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K137" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L137" t="b">
         <v>0</v>
@@ -6494,34 +6494,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C138" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D138" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E138" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F138" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G138" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H138" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I138" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J138" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K138" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
@@ -6538,34 +6538,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C139" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D139" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E139" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F139" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G139" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H139" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I139" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J139" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K139" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
@@ -6582,34 +6582,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C140" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D140" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E140" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F140" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G140" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H140" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I140" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J140" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K140" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -6626,34 +6626,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C141" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D141" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E141" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F141" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G141" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H141" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I141" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J141" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K141" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
@@ -6670,34 +6670,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C142" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D142" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E142" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F142" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G142" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H142" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I142" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J142" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K142" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
@@ -6714,34 +6714,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C143" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D143" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E143" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F143" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G143" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H143" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I143" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J143" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K143" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L143" t="b">
         <v>0</v>
@@ -6758,34 +6758,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C144" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D144" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E144" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F144" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G144" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H144" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I144" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J144" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K144" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L144" t="b">
         <v>0</v>
@@ -6802,34 +6802,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C145" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D145" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E145" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F145" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G145" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H145" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I145" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J145" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K145" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
@@ -6846,34 +6846,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C146" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D146" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E146" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F146" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G146" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H146" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I146" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J146" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K146" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L146" t="b">
         <v>0</v>
@@ -6890,34 +6890,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C147" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D147" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E147" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F147" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G147" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H147" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I147" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J147" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K147" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L147" t="b">
         <v>0</v>
@@ -6934,34 +6934,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C148" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D148" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E148" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F148" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G148" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H148" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I148" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J148" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K148" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L148" t="b">
         <v>0</v>
@@ -6978,34 +6978,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C149" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D149" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E149" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F149" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G149" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H149" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I149" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J149" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K149" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L149" t="b">
         <v>0</v>
@@ -7022,34 +7022,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C150" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D150" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E150" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F150" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G150" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H150" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I150" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J150" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K150" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
@@ -7066,34 +7066,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-7.926662640977625</v>
+        <v>-7.838820480764189</v>
       </c>
       <c r="C151" t="n">
-        <v>113.3640128295662</v>
+        <v>113.3327233746747</v>
       </c>
       <c r="D151" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="E151" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="F151" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="G151" t="n">
-        <v>1.273111794006951</v>
+        <v>11.63088186804702</v>
       </c>
       <c r="H151" t="n">
         <v>0.1559669602194191</v>
       </c>
       <c r="I151" t="n">
-        <v>-7.937459805006945</v>
+        <v>-7.937459802692075</v>
       </c>
       <c r="J151" t="n">
-        <v>113.3678587343864</v>
+        <v>113.3678587359758</v>
       </c>
       <c r="K151" t="n">
-        <v>160.5680406186547</v>
+        <v>160.568040618654</v>
       </c>
       <c r="L151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45491.61597222222</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.840634877253883</v>
+        <v>-7.546622452827696</v>
       </c>
       <c r="D2" t="n">
-        <v>113.3603905595381</v>
+        <v>113.0387077883158</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.911752313947834</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="F2" t="n">
-        <v>113.249025335264</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="G2" t="n">
-        <v>237.1833931445846</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="H2" t="n">
-        <v>14.59452454544452</v>
+        <v>53.02927486634655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1566683463302875</v>
+        <v>0.1687956314970173</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8710909187260194</v>
+        <v>0.8967854885291102</v>
       </c>
       <c r="K2" t="n">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="L2" t="n">
-        <v>1803</v>
+        <v>640</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45491.61597222222</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.8516799653048</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O2" t="n">
-        <v>113.26644560639</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.911752313947834</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.249025335264</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="R2" t="n">
-        <v>237.1833931445846</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -614,55 +614,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.062684830462798</v>
+        <v>-7.546622452827696</v>
       </c>
       <c r="D3" t="n">
-        <v>113.3500206643505</v>
+        <v>113.0387077883158</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.933101363985092</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="F3" t="n">
-        <v>113.3559241302962</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="G3" t="n">
-        <v>2.583508411879237</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="H3" t="n">
-        <v>14.42367981599008</v>
+        <v>53.02927486634655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1641991427154698</v>
+        <v>0.1687956314970173</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9645849181716876</v>
+        <v>0.9588686478612755</v>
       </c>
       <c r="K3" t="n">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="L3" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O3" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.933101363985092</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.3559241302962</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="R3" t="n">
-        <v>2.583508411879237</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -679,55 +679,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.062684830462798</v>
+        <v>-8.109147785074192</v>
       </c>
       <c r="D4" t="n">
-        <v>113.3500206643505</v>
+        <v>113.6819379135625</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.933101363985092</v>
+        <v>-7.966096704474119</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3559241302962</v>
+        <v>113.3592844927336</v>
       </c>
       <c r="G4" t="n">
-        <v>2.583508411879237</v>
+        <v>294.0981578607488</v>
       </c>
       <c r="H4" t="n">
-        <v>14.42367981599008</v>
+        <v>38.92353983468715</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1641991427154698</v>
+        <v>0.1695018903486856</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9869825617242486</v>
+        <v>0.9841334857552988</v>
       </c>
       <c r="K4" t="n">
-        <v>107</v>
+        <v>2022</v>
       </c>
       <c r="L4" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O4" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.933101363985092</v>
+        <v>-7.966096704474119</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3559241302962</v>
+        <v>113.3592844927336</v>
       </c>
       <c r="R4" t="n">
-        <v>2.583508411879237</v>
+        <v>294.0981578607488</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -747,31 +747,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.930255293847346</v>
+        <v>-7.717400044237285</v>
       </c>
       <c r="D5" t="n">
-        <v>113.3777149386084</v>
+        <v>113.3570403107021</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.939021792283023</v>
+        <v>-7.932174872690606</v>
       </c>
       <c r="F5" t="n">
-        <v>113.3797409342886</v>
+        <v>113.4178867332915</v>
       </c>
       <c r="G5" t="n">
-        <v>167.1075733727091</v>
+        <v>164.3265334691168</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>24.80466649250831</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1645861692204562</v>
+        <v>0.1702845350247565</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9941282664223199</v>
+        <v>0.9956866916480813</v>
       </c>
       <c r="K5" t="n">
-        <v>448</v>
+        <v>1252</v>
       </c>
       <c r="L5" t="n">
         <v>448</v>
@@ -786,13 +786,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.939021792283023</v>
+        <v>-7.932174872690606</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.3797409342886</v>
+        <v>113.4178867332915</v>
       </c>
       <c r="R5" t="n">
-        <v>167.1075733727091</v>
+        <v>164.3265334691168</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -812,31 +812,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.930675652106897</v>
+        <v>-7.779761378938291</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3867020532982</v>
+        <v>113.3659080246463</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.942018342086814</v>
+        <v>-7.929692574210019</v>
       </c>
       <c r="F6" t="n">
-        <v>113.3882514437823</v>
+        <v>113.4124528395199</v>
       </c>
       <c r="G6" t="n">
-        <v>172.2953513216343</v>
+        <v>162.9090185814236</v>
       </c>
       <c r="H6" t="n">
-        <v>1.272739779169005</v>
+        <v>17.44212876370053</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1645877594259447</v>
+        <v>0.1703363119644673</v>
       </c>
       <c r="J6" t="n">
-        <v>0.996266674159773</v>
+        <v>0.9973200490956998</v>
       </c>
       <c r="K6" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
       <c r="L6" t="n">
         <v>448</v>
@@ -851,13 +851,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.942018342086814</v>
+        <v>-7.929692574210019</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.3882514437823</v>
+        <v>113.4124528395199</v>
       </c>
       <c r="R6" t="n">
-        <v>172.2953513216343</v>
+        <v>162.9090185814236</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -877,31 +877,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.930675652106897</v>
+        <v>-7.811914887008216</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3867020532982</v>
+        <v>113.4224146379108</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.942018342086814</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3882514437823</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="G7" t="n">
-        <v>172.2953513216343</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="H7" t="n">
-        <v>1.272739779169005</v>
+        <v>15.84457103492562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1645877594259447</v>
+        <v>0.1707829824642036</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9974342591249066</v>
+        <v>0.997805127583505</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="L7" t="n">
         <v>448</v>
@@ -916,13 +916,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.942018342086814</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.3882514437823</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="R7" t="n">
-        <v>172.2953513216343</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.689856913744812</v>
+        <v>-7.811914887008216</v>
       </c>
       <c r="D8" t="n">
-        <v>113.4815239913096</v>
+        <v>113.4224146379108</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.953382036739891</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="F8" t="n">
-        <v>113.4034131723165</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="G8" t="n">
-        <v>196.3595707764999</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="H8" t="n">
-        <v>30.53992116990846</v>
+        <v>15.84457103492562</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1647379340422376</v>
+        <v>0.1707829824642036</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9985274712392073</v>
+        <v>0.9978345321003264</v>
       </c>
       <c r="K8" t="n">
-        <v>1364</v>
+        <v>374</v>
       </c>
       <c r="L8" t="n">
         <v>448</v>
@@ -981,13 +981,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.953382036739891</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.4034131723165</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="R8" t="n">
-        <v>196.3595707764999</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1007,31 +1007,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.905123860528914</v>
+        <v>-7.811914887008216</v>
       </c>
       <c r="D9" t="n">
-        <v>113.4150945513469</v>
+        <v>113.4224146379108</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.975632582127452</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3903358825395</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="G9" t="n">
-        <v>199.1747757092252</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="H9" t="n">
-        <v>8.300813717568614</v>
+        <v>15.84457103492562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1647478120787379</v>
+        <v>0.1707829824642036</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9985536684650065</v>
+        <v>0.9979573919139745</v>
       </c>
       <c r="K9" t="n">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="L9" t="n">
         <v>448</v>
@@ -1046,13 +1046,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.975632582127452</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.3903358825395</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="R9" t="n">
-        <v>199.1747757092252</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1072,31 +1072,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.937457302098025</v>
+        <v>-7.811914887008216</v>
       </c>
       <c r="D10" t="n">
-        <v>113.4081611817318</v>
+        <v>113.4224146379108</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.959132689644908</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="F10" t="n">
-        <v>113.3985144978932</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="G10" t="n">
-        <v>203.7861112876271</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="H10" t="n">
-        <v>2.633938948642235</v>
+        <v>15.84457103492562</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1648215164144221</v>
+        <v>0.1707829824642036</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9986281593671471</v>
+        <v>0.9978905474549843</v>
       </c>
       <c r="K10" t="n">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="L10" t="n">
         <v>448</v>
@@ -1111,13 +1111,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.959132689644908</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.3985144978932</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="R10" t="n">
-        <v>203.7861112876271</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.936866260427042</v>
+        <v>-7.811914887008216</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4086619788187</v>
+        <v>113.4224146379108</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="G11" t="n">
-        <v>201.7919776047299</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="H11" t="n">
-        <v>3.821706183576312</v>
+        <v>15.84457103492562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1648318545717342</v>
+        <v>0.1707829824642036</v>
       </c>
       <c r="J11" t="n">
-        <v>0.998817582221331</v>
+        <v>0.9979322412950886</v>
       </c>
       <c r="K11" t="n">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="L11" t="n">
         <v>448</v>
@@ -1176,13 +1176,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="R11" t="n">
-        <v>201.7919776047299</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1202,31 +1202,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.936866260427042</v>
+        <v>-7.811914887008216</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4086619788187</v>
+        <v>113.4224146379108</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="G12" t="n">
-        <v>201.7919776047299</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="H12" t="n">
-        <v>3.821706183576312</v>
+        <v>15.84457103492562</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1648318545717342</v>
+        <v>0.1707829824642036</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857859748466492</v>
+        <v>0.5857847388659007</v>
       </c>
       <c r="K12" t="n">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="L12" t="n">
         <v>448</v>
@@ -1241,13 +1241,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.948073827568674</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3800000374436</v>
       </c>
       <c r="R12" t="n">
-        <v>201.7919776047299</v>
+        <v>197.1455736055325</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.936866260427042</v>
+        <v>-7.908754454979738</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4086619788187</v>
+        <v>113.4213946060587</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="G13" t="n">
-        <v>201.7919776047299</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="H13" t="n">
-        <v>3.821706183576312</v>
+        <v>6.249007996998445</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1648318545717342</v>
+        <v>0.170842159553214</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9991958620923982</v>
+        <v>0.9995928548122343</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
@@ -1306,13 +1306,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="R13" t="n">
-        <v>201.7919776047299</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1332,28 +1332,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.936866260427042</v>
+        <v>-7.908754454979738</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4086619788187</v>
+        <v>113.4213946060587</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="G14" t="n">
-        <v>201.7919776047299</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="H14" t="n">
-        <v>3.821706183576312</v>
+        <v>6.249007996998445</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648318545717342</v>
+        <v>0.170842159553214</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9992245710694992</v>
+        <v>0.9996096042352136</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
@@ -1371,13 +1371,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.968779377003097</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3957783396062</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="R14" t="n">
-        <v>201.7919776047299</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.934960674823281</v>
+        <v>-7.908754454979738</v>
       </c>
       <c r="D15" t="n">
-        <v>113.4072858601443</v>
+        <v>113.4213946060587</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.956678462189299</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3985107823836</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="G15" t="n">
-        <v>201.8092524193284</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="H15" t="n">
-        <v>2.601088727328853</v>
+        <v>6.249007996998445</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1648452821128465</v>
+        <v>0.170842159553214</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9992458645485727</v>
+        <v>0.9996360232577224</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.956678462189299</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3985107823836</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="R15" t="n">
-        <v>201.8092524193284</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.934960674823281</v>
+        <v>-7.908754454979738</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4072858601443</v>
+        <v>113.4213946060587</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.956678462189299</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3985107823836</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="G16" t="n">
-        <v>201.8092524193284</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="H16" t="n">
-        <v>2.601088727328853</v>
+        <v>6.249007996998445</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1648452821128465</v>
+        <v>0.170842159553214</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9992571093732325</v>
+        <v>0.9996885647418243</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.956678462189299</v>
+        <v>-7.957200743770157</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3985107823836</v>
+        <v>113.3926369733683</v>
       </c>
       <c r="R16" t="n">
-        <v>201.8092524193284</v>
+        <v>210.4500381815653</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.933977361749683</v>
+        <v>-7.881585409007038</v>
       </c>
       <c r="D17" t="n">
-        <v>113.4071276758432</v>
+        <v>113.4156116623224</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.95748516537653</v>
+        <v>-7.949356048489566</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3929146919264</v>
+        <v>113.3845282395276</v>
       </c>
       <c r="G17" t="n">
-        <v>210.9122976820333</v>
+        <v>204.429506838614</v>
       </c>
       <c r="H17" t="n">
-        <v>3.046752280206322</v>
+        <v>8.276903573070939</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1648590235166542</v>
+        <v>0.1708436161358579</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9992241097171338</v>
+        <v>0.9996780965812954</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.95748516537653</v>
+        <v>-7.949356048489566</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3929146919264</v>
+        <v>113.3845282395276</v>
       </c>
       <c r="R17" t="n">
-        <v>210.9122976820333</v>
+        <v>204.429506838614</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,31 +1592,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.933977361749683</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D18" t="n">
-        <v>113.4071276758432</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.95748516537653</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3929146919264</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G18" t="n">
-        <v>210.9122976820333</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H18" t="n">
-        <v>3.046752280206322</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1648590235166542</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9992532215560956</v>
+        <v>0.999688782765867</v>
       </c>
       <c r="K18" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.95748516537653</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3929146919264</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R18" t="n">
-        <v>210.9122976820333</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,31 +1657,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.933977361749683</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D19" t="n">
-        <v>113.4071276758432</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.95748516537653</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F19" t="n">
-        <v>113.3929146919264</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G19" t="n">
-        <v>210.9122976820333</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H19" t="n">
-        <v>3.046752280206322</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1648590235166542</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9992906636212255</v>
+        <v>0.99969316316821</v>
       </c>
       <c r="K19" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.95748516537653</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3929146919264</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R19" t="n">
-        <v>210.9122976820333</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,31 +1722,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.938455174417595</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D20" t="n">
-        <v>113.4071481398008</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.961277274594269</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F20" t="n">
-        <v>113.393008043646</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G20" t="n">
-        <v>211.5333250753871</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H20" t="n">
-        <v>2.977379772476043</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1648616778689228</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9992908785027507</v>
+        <v>0.9997788432721918</v>
       </c>
       <c r="K20" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.961277274594269</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.393008043646</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R20" t="n">
-        <v>211.5333250753871</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,31 +1787,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.932292002499925</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4047757878128</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.957807976934562</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F21" t="n">
-        <v>113.3946078014286</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G21" t="n">
-        <v>201.5369504367103</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H21" t="n">
-        <v>3.050224187310195</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1648623862130725</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9993565546630733</v>
+        <v>0.9998293066470837</v>
       </c>
       <c r="K21" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.957807976934562</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.3946078014286</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R21" t="n">
-        <v>201.5369504367103</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,31 +1852,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.932292002499925</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4047757878128</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.957807976934562</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F22" t="n">
-        <v>113.3946078014286</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G22" t="n">
-        <v>201.5369504367103</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H22" t="n">
-        <v>3.050224187310195</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1648623862130725</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857862988836918</v>
+        <v>0.5857864286660421</v>
       </c>
       <c r="K22" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.957807976934562</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.3946078014286</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R22" t="n">
-        <v>201.5369504367103</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,31 +1917,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.932292002499925</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D23" t="n">
-        <v>113.4047757878128</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.957807976934562</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F23" t="n">
-        <v>113.3946078014286</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G23" t="n">
-        <v>201.5369504367103</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H23" t="n">
-        <v>3.050224187310195</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1648623862130725</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9996837392616466</v>
+        <v>0.999957814240609</v>
       </c>
       <c r="K23" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.957807976934562</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.3946078014286</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R23" t="n">
-        <v>201.5369504367103</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,31 +1982,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.937559326528863</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4064567253829</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.960627526587696</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3922465099216</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G24" t="n">
-        <v>211.3859596415212</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H24" t="n">
-        <v>3.004753899159549</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1648645169020501</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9996965905862683</v>
+        <v>0.9999618151247566</v>
       </c>
       <c r="K24" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.960627526587696</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.3922465099216</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R24" t="n">
-        <v>211.3859596415212</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,31 +2047,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.937559326528863</v>
+        <v>-7.842739560783599</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4064567253829</v>
+        <v>113.4333406355916</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.960627526587696</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="F25" t="n">
-        <v>113.3922465099216</v>
+        <v>113.387585382392</v>
       </c>
       <c r="G25" t="n">
-        <v>211.3859596415212</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="H25" t="n">
-        <v>3.004753899159549</v>
+        <v>12.9066472460557</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1648645169020501</v>
+        <v>0.1708464664170997</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9996957274761369</v>
+        <v>0.9999703150472131</v>
       </c>
       <c r="K25" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.960627526587696</v>
+        <v>-7.949598063921747</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.3922465099216</v>
+        <v>113.387585382392</v>
       </c>
       <c r="R25" t="n">
-        <v>211.3859596415212</v>
+        <v>202.9799074205378</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,31 +2112,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.937559326528863</v>
+        <v>-7.831798594948784</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4064567253829</v>
+        <v>113.4228959675069</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.960627526587696</v>
+        <v>-7.952539392484631</v>
       </c>
       <c r="F26" t="n">
-        <v>113.3922465099216</v>
+        <v>113.3951086900835</v>
       </c>
       <c r="G26" t="n">
-        <v>211.3859596415212</v>
+        <v>192.8398039264425</v>
       </c>
       <c r="H26" t="n">
-        <v>3.004753899159549</v>
+        <v>13.7701864148064</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1648645169020501</v>
+        <v>0.1708507599873601</v>
       </c>
       <c r="J26" t="n">
-        <v>0.999697987343139</v>
+        <v>0.9999665677019733</v>
       </c>
       <c r="K26" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.960627526587696</v>
+        <v>-7.952539392484631</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.3922465099216</v>
+        <v>113.3951086900835</v>
       </c>
       <c r="R26" t="n">
-        <v>211.3859596415212</v>
+        <v>192.8398039264425</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,31 +2177,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.935317322530563</v>
+        <v>-7.831798594948784</v>
       </c>
       <c r="D27" t="n">
-        <v>113.4064705486039</v>
+        <v>113.4228959675069</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.95814448334158</v>
+        <v>-7.952539392484631</v>
       </c>
       <c r="F27" t="n">
-        <v>113.3924670649781</v>
+        <v>113.3951086900835</v>
       </c>
       <c r="G27" t="n">
-        <v>211.2804784257361</v>
+        <v>192.8398039264425</v>
       </c>
       <c r="H27" t="n">
-        <v>2.970025999997794</v>
+        <v>13.7701864148064</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1648651137295691</v>
+        <v>0.1708507599873601</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9996968236771302</v>
+        <v>0.9999683389421619</v>
       </c>
       <c r="K27" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.95814448334158</v>
+        <v>-7.952539392484631</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.3924670649781</v>
+        <v>113.3951086900835</v>
       </c>
       <c r="R27" t="n">
-        <v>211.2804784257361</v>
+        <v>192.8398039264425</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,31 +2242,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.937632200907159</v>
+        <v>-7.827363157929733</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4067240981016</v>
+        <v>113.4403029520818</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.960506498728961</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="F28" t="n">
-        <v>113.3927064354668</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="G28" t="n">
-        <v>211.2536216766929</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="H28" t="n">
-        <v>2.975311992027899</v>
+        <v>15.03469965875829</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1648653882035585</v>
+        <v>0.1708522966933317</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9996962889229004</v>
+        <v>0.999966960338286</v>
       </c>
       <c r="K28" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.960506498728961</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.3927064354668</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="R28" t="n">
-        <v>211.2536216766929</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,31 +2307,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.937696177488589</v>
+        <v>-7.827363157929733</v>
       </c>
       <c r="D29" t="n">
-        <v>113.406399401845</v>
+        <v>113.4403029520818</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.960272999412883</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="F29" t="n">
-        <v>113.3925480402953</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="G29" t="n">
-        <v>211.2830110123089</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="H29" t="n">
-        <v>2.937533155028919</v>
+        <v>15.03469965875829</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1648659501584153</v>
+        <v>0.1708522966933317</v>
       </c>
       <c r="J29" t="n">
-        <v>0.999698904472443</v>
+        <v>0.9999686958338346</v>
       </c>
       <c r="K29" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.960272999412883</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.3925480402953</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="R29" t="n">
-        <v>211.2830110123089</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,31 +2372,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.936932796630257</v>
+        <v>-7.827363157929733</v>
       </c>
       <c r="D30" t="n">
-        <v>113.4062965058686</v>
+        <v>113.4403029520818</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.959704509885113</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3923222759312</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="G30" t="n">
-        <v>211.2890464752538</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="H30" t="n">
-        <v>2.963080945950836</v>
+        <v>15.03469965875829</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1648660521348566</v>
+        <v>0.1708522966933317</v>
       </c>
       <c r="J30" t="n">
-        <v>0.999698612738693</v>
+        <v>0.9999722004615217</v>
       </c>
       <c r="K30" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.959704509885113</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.3923222759312</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="R30" t="n">
-        <v>211.2890464752538</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,31 +2437,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.936932796630257</v>
+        <v>-7.827363157929733</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4062965058686</v>
+        <v>113.4403029520818</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.959704509885113</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="F31" t="n">
-        <v>113.3923222759312</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="G31" t="n">
-        <v>211.2890464752538</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="H31" t="n">
-        <v>2.963080945950836</v>
+        <v>15.03469965875829</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1648660521348566</v>
+        <v>0.1708522966933317</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9996985758679489</v>
+        <v>0.9999719827556707</v>
       </c>
       <c r="K31" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.959704509885113</v>
+        <v>-7.950809407448314</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.3923222759312</v>
+        <v>113.3846138500156</v>
       </c>
       <c r="R31" t="n">
-        <v>211.2890464752538</v>
+        <v>204.0736958687511</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,31 +2502,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.937184183943107</v>
+        <v>-7.826511884715035</v>
       </c>
       <c r="D32" t="n">
-        <v>113.4056309620648</v>
+        <v>113.4192404657273</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.959767359063039</v>
+        <v>-7.948322120177329</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3917750205316</v>
+        <v>113.3881510153708</v>
       </c>
       <c r="G32" t="n">
-        <v>211.2842941484511</v>
+        <v>194.1857584591634</v>
       </c>
       <c r="H32" t="n">
-        <v>2.938399780743976</v>
+        <v>13.97082971427728</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1648661421030105</v>
+        <v>0.1708556367161216</v>
       </c>
       <c r="J32" t="n">
-        <v>0.535898387461648</v>
+        <v>0.5857864393082223</v>
       </c>
       <c r="K32" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.959767359063039</v>
+        <v>-7.948322120177329</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.3917750205316</v>
+        <v>113.3881510153708</v>
       </c>
       <c r="R32" t="n">
-        <v>211.2842941484511</v>
+        <v>194.1857584591634</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,31 +2567,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.937470557242274</v>
+        <v>-7.829065399119372</v>
       </c>
       <c r="D33" t="n">
-        <v>113.4056424576417</v>
+        <v>113.4207498770987</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.95994046078322</v>
+        <v>-7.948649502307814</v>
       </c>
       <c r="F33" t="n">
-        <v>113.3918560416378</v>
+        <v>113.3902887510555</v>
       </c>
       <c r="G33" t="n">
-        <v>211.2842338234631</v>
+        <v>194.1589179671528</v>
       </c>
       <c r="H33" t="n">
-        <v>2.923659481083288</v>
+        <v>13.71388181626515</v>
       </c>
       <c r="I33" t="n">
-        <v>0.164866142181215</v>
+        <v>0.1708562036890666</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999873509731051</v>
+        <v>0.9999791967990214</v>
       </c>
       <c r="K33" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.95994046078322</v>
+        <v>-7.948649502307814</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.3918560416378</v>
+        <v>113.3902887510555</v>
       </c>
       <c r="R33" t="n">
-        <v>211.2842338234631</v>
+        <v>194.1589179671528</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,31 +2632,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.937289118272622</v>
+        <v>-7.829065399119372</v>
       </c>
       <c r="D34" t="n">
-        <v>113.405683862015</v>
+        <v>113.4207498770987</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.95978874687606</v>
+        <v>-7.948649502307814</v>
       </c>
       <c r="F34" t="n">
-        <v>113.3918790620508</v>
+        <v>113.3902887510555</v>
       </c>
       <c r="G34" t="n">
-        <v>211.2845120726397</v>
+        <v>194.1589179671528</v>
       </c>
       <c r="H34" t="n">
-        <v>2.927535819683914</v>
+        <v>13.71388181626515</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1648661534573269</v>
+        <v>0.1708562036890666</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9640161882717116</v>
+        <v>0.8868910552796661</v>
       </c>
       <c r="K34" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.95978874687606</v>
+        <v>-7.948649502307814</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.3918790620508</v>
+        <v>113.3902887510555</v>
       </c>
       <c r="R34" t="n">
-        <v>211.2845120726397</v>
+        <v>194.1589179671528</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,31 +2697,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.937100274108136</v>
+        <v>-7.829065399119372</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4059415622922</v>
+        <v>113.4207498770987</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.959765296326159</v>
+        <v>-7.948649502307814</v>
       </c>
       <c r="F35" t="n">
-        <v>113.3920352992955</v>
+        <v>113.3902887510555</v>
       </c>
       <c r="G35" t="n">
-        <v>211.2844835969767</v>
+        <v>194.1589179671528</v>
       </c>
       <c r="H35" t="n">
-        <v>2.94905531335394</v>
+        <v>13.71388181626515</v>
       </c>
       <c r="I35" t="n">
-        <v>0.164866155287632</v>
+        <v>0.1708562036890666</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9858992032912687</v>
+        <v>0.8910296684884096</v>
       </c>
       <c r="K35" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.959765296326159</v>
+        <v>-7.948649502307814</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.3920352992955</v>
+        <v>113.3902887510555</v>
       </c>
       <c r="R35" t="n">
-        <v>211.2844835969767</v>
+        <v>194.1589179671528</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,31 +2762,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.937279143037047</v>
+        <v>-7.825906552561422</v>
       </c>
       <c r="D36" t="n">
-        <v>113.4057637397477</v>
+        <v>113.4197215349834</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.959797378262522</v>
+        <v>-7.948736491652342</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3919475735103</v>
+        <v>113.3884664519637</v>
       </c>
       <c r="G36" t="n">
-        <v>211.2844194081129</v>
+        <v>194.1446479015999</v>
       </c>
       <c r="H36" t="n">
-        <v>2.929953962454793</v>
+        <v>14.0852322827656</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1648661566603185</v>
+        <v>0.1708565995809043</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9301566085281191</v>
+        <v>0.9698423529708798</v>
       </c>
       <c r="K36" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.959797378262522</v>
+        <v>-7.948736491652342</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.3919475735103</v>
+        <v>113.3884664519637</v>
       </c>
       <c r="R36" t="n">
-        <v>211.2844194081129</v>
+        <v>194.1446479015999</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,31 +2827,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.937279143037047</v>
+        <v>-7.825720974156902</v>
       </c>
       <c r="D37" t="n">
-        <v>113.4057637397477</v>
+        <v>113.4199223161768</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.959797378262522</v>
+        <v>-7.9487151315677</v>
       </c>
       <c r="F37" t="n">
-        <v>113.3919475735103</v>
+        <v>113.3884409368775</v>
       </c>
       <c r="G37" t="n">
-        <v>211.2844194081129</v>
+        <v>194.2246609433552</v>
       </c>
       <c r="H37" t="n">
-        <v>2.929953962454793</v>
+        <v>14.10904454792143</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1648661566603185</v>
+        <v>0.1708571016217052</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9927172182395071</v>
+        <v>0.9896156940709712</v>
       </c>
       <c r="K37" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.959797378262522</v>
+        <v>-7.9487151315677</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.3919475735103</v>
+        <v>113.3884409368775</v>
       </c>
       <c r="R37" t="n">
-        <v>211.2844194081129</v>
+        <v>194.2246609433552</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,31 +2892,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.937175110550393</v>
+        <v>-7.824398449441953</v>
       </c>
       <c r="D38" t="n">
-        <v>113.405850220941</v>
+        <v>113.4203736631994</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.959799938293388</v>
+        <v>-7.948660386413758</v>
       </c>
       <c r="F38" t="n">
-        <v>113.3919686588638</v>
+        <v>113.3885936668776</v>
       </c>
       <c r="G38" t="n">
-        <v>211.2844098201556</v>
+        <v>194.2135559528018</v>
       </c>
       <c r="H38" t="n">
-        <v>2.943823059952805</v>
+        <v>14.25377661391956</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1648661567218117</v>
+        <v>0.1708571534235412</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9973430114403408</v>
+        <v>0.9975316688886756</v>
       </c>
       <c r="K38" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.959799938293388</v>
+        <v>-7.948660386413758</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3919686588638</v>
+        <v>113.3885936668776</v>
       </c>
       <c r="R38" t="n">
-        <v>211.2844098201556</v>
+        <v>194.2135559528018</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,31 +2957,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.937212603597772</v>
+        <v>-7.824604756375046</v>
       </c>
       <c r="D39" t="n">
-        <v>113.4058528699954</v>
+        <v>113.419825982816</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.959796941319057</v>
+        <v>-7.948844348498885</v>
       </c>
       <c r="F39" t="n">
-        <v>113.3919961428355</v>
+        <v>113.3880461901128</v>
       </c>
       <c r="G39" t="n">
-        <v>211.2844249856487</v>
+        <v>194.2159151440903</v>
       </c>
       <c r="H39" t="n">
-        <v>2.938555131474264</v>
+        <v>14.25136216381718</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1648661567773039</v>
+        <v>0.1708573897393223</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9976917630113883</v>
+        <v>0.9982399060607426</v>
       </c>
       <c r="K39" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.959796941319057</v>
+        <v>-7.948844348498885</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.3919961428355</v>
+        <v>113.3880461901128</v>
       </c>
       <c r="R39" t="n">
-        <v>211.2844249856487</v>
+        <v>194.2159151440903</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.93715431149561</v>
+        <v>-7.824604756375046</v>
       </c>
       <c r="D40" t="n">
-        <v>113.405858367027</v>
+        <v>113.419825982816</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.959784002505208</v>
+        <v>-7.948844348498885</v>
       </c>
       <c r="F40" t="n">
-        <v>113.3919737946917</v>
+        <v>113.3880461901128</v>
       </c>
       <c r="G40" t="n">
-        <v>211.2844590625376</v>
+        <v>194.2159151440903</v>
       </c>
       <c r="H40" t="n">
-        <v>2.944457386673982</v>
+        <v>14.25136216381718</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1648661570814626</v>
+        <v>0.1708573897393223</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9981011385931563</v>
+        <v>0.9989958598802245</v>
       </c>
       <c r="K40" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.959784002505208</v>
+        <v>-7.948844348498885</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.3919737946917</v>
+        <v>113.3880461901128</v>
       </c>
       <c r="R40" t="n">
-        <v>211.2844590625376</v>
+        <v>194.2159151440903</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,31 +3087,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.937150093654575</v>
+        <v>-7.825232516865698</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4058612079573</v>
+        <v>113.4200883017472</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.959778778153188</v>
+        <v>-7.94884499659257</v>
       </c>
       <c r="F41" t="n">
-        <v>113.3919772588549</v>
+        <v>113.3884779481319</v>
       </c>
       <c r="G41" t="n">
-        <v>211.2844489916698</v>
+        <v>194.2120216019792</v>
       </c>
       <c r="H41" t="n">
-        <v>2.944326108872448</v>
+        <v>14.17918209000238</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1648661571849477</v>
+        <v>0.170857712688934</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9983433366395869</v>
+        <v>0.9990619128426474</v>
       </c>
       <c r="K41" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.959778778153188</v>
+        <v>-7.94884499659257</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.3919772588549</v>
+        <v>113.3884779481319</v>
       </c>
       <c r="R41" t="n">
-        <v>211.2844489916698</v>
+        <v>194.2120216019792</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.937186016739498</v>
+        <v>-7.825257855117383</v>
       </c>
       <c r="D42" t="n">
-        <v>113.4058439711859</v>
+        <v>113.4200410451586</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.95979881869823</v>
+        <v>-7.948829767654698</v>
       </c>
       <c r="F42" t="n">
-        <v>113.3919697680236</v>
+        <v>113.388451988792</v>
       </c>
       <c r="G42" t="n">
-        <v>211.2844458682812</v>
+        <v>194.2073084286584</v>
       </c>
       <c r="H42" t="n">
-        <v>2.942259437461548</v>
+        <v>14.17423337267111</v>
       </c>
       <c r="I42" t="n">
-        <v>0.164866157222126</v>
+        <v>0.1708577219874635</v>
       </c>
       <c r="J42" t="n">
-        <v>0.585786192768363</v>
+        <v>0.5857863836503399</v>
       </c>
       <c r="K42" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.95979881869823</v>
+        <v>-7.948829767654698</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.3919697680236</v>
+        <v>113.388451988792</v>
       </c>
       <c r="R42" t="n">
-        <v>211.2844458682812</v>
+        <v>194.2073084286584</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,31 +3217,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.937186016739498</v>
+        <v>-7.825257855117383</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4058439711859</v>
+        <v>113.4200410451586</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.95979881869823</v>
+        <v>-7.948829767654698</v>
       </c>
       <c r="F43" t="n">
-        <v>113.3919697680236</v>
+        <v>113.388451988792</v>
       </c>
       <c r="G43" t="n">
-        <v>211.2844458682812</v>
+        <v>194.2073084286584</v>
       </c>
       <c r="H43" t="n">
-        <v>2.942259437461548</v>
+        <v>14.17423337267111</v>
       </c>
       <c r="I43" t="n">
-        <v>0.164866157222126</v>
+        <v>0.1708577219874635</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9998180891308706</v>
+        <v>0.9999299336699888</v>
       </c>
       <c r="K43" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.95979881869823</v>
+        <v>-7.948829767654698</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.3919697680236</v>
+        <v>113.388451988792</v>
       </c>
       <c r="R43" t="n">
-        <v>211.2844458682812</v>
+        <v>194.2073084286584</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,31 +3282,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.937169053534478</v>
+        <v>-7.825378902680776</v>
       </c>
       <c r="D44" t="n">
-        <v>113.4058434922818</v>
+        <v>113.420037124859</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.959785831901755</v>
+        <v>-7.948852694210619</v>
       </c>
       <c r="F44" t="n">
-        <v>113.3919668498365</v>
+        <v>113.3884734282937</v>
       </c>
       <c r="G44" t="n">
-        <v>211.2844457806963</v>
+        <v>194.207188192827</v>
       </c>
       <c r="H44" t="n">
-        <v>2.942776829397987</v>
+        <v>14.16297083539669</v>
       </c>
       <c r="I44" t="n">
-        <v>0.164866157238169</v>
+        <v>0.1708578050248825</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9998728242530669</v>
+        <v>0.9999298942690755</v>
       </c>
       <c r="K44" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.959785831901755</v>
+        <v>-7.948852694210619</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.3919668498365</v>
+        <v>113.3884734282937</v>
       </c>
       <c r="R44" t="n">
-        <v>211.2844457806963</v>
+        <v>194.207188192827</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,31 +3347,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.937158241093068</v>
+        <v>-7.825378902680776</v>
       </c>
       <c r="D45" t="n">
-        <v>113.4058526511724</v>
+        <v>113.420037124859</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.959786410483571</v>
+        <v>-7.948852694210619</v>
       </c>
       <c r="F45" t="n">
-        <v>113.391969019498</v>
+        <v>113.3884734282937</v>
       </c>
       <c r="G45" t="n">
-        <v>211.2844459950504</v>
+        <v>194.207188192827</v>
       </c>
       <c r="H45" t="n">
-        <v>2.9442589914716</v>
+        <v>14.16297083539669</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1648661572496675</v>
+        <v>0.1708578050248825</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9999613393805096</v>
+        <v>0.9999441815832613</v>
       </c>
       <c r="K45" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.959786410483571</v>
+        <v>-7.948852694210619</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.391969019498</v>
+        <v>113.3884734282937</v>
       </c>
       <c r="R45" t="n">
-        <v>211.2844459950504</v>
+        <v>194.207188192827</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,31 +3412,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.937159841309124</v>
+        <v>-7.825378902680776</v>
       </c>
       <c r="D46" t="n">
-        <v>113.4058550219106</v>
+        <v>113.420037124859</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.959785927232903</v>
+        <v>-7.948852694210619</v>
       </c>
       <c r="F46" t="n">
-        <v>113.3919726682249</v>
+        <v>113.3884734282937</v>
       </c>
       <c r="G46" t="n">
-        <v>211.2844466589818</v>
+        <v>194.207188192827</v>
       </c>
       <c r="H46" t="n">
-        <v>2.943987919659412</v>
+        <v>14.16297083539669</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1648661572557597</v>
+        <v>0.1708578050248825</v>
       </c>
       <c r="J46" t="n">
-        <v>0.999982307212484</v>
+        <v>0.999946670970159</v>
       </c>
       <c r="K46" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.959785927232903</v>
+        <v>-7.948852694210619</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.3919726682249</v>
+        <v>113.3884734282937</v>
       </c>
       <c r="R46" t="n">
-        <v>211.2844466589818</v>
+        <v>194.207188192827</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,31 +3477,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.937160713451595</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D47" t="n">
-        <v>113.4058563349787</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.959787216647118</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F47" t="n">
-        <v>113.3919737254822</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G47" t="n">
-        <v>211.2844461922904</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H47" t="n">
-        <v>2.944042198859378</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1648661572589699</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999917770254405</v>
+        <v>0.9999700938598882</v>
       </c>
       <c r="K47" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.959787216647118</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.3919737254822</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R47" t="n">
-        <v>211.2844461922904</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,31 +3542,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.937162724388091</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D48" t="n">
-        <v>113.4058551221254</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.959788741587563</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F48" t="n">
-        <v>113.3919728105711</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G48" t="n">
-        <v>211.2844465487286</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H48" t="n">
-        <v>2.943978974089725</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1648661572610094</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999919921202285</v>
+        <v>0.9999766603490476</v>
       </c>
       <c r="K48" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.959788741587563</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.3919728105711</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R48" t="n">
-        <v>211.2844465487286</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,31 +3607,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.937163044201097</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D49" t="n">
-        <v>113.4058556010395</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.959790216867575</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F49" t="n">
-        <v>113.391972580553</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G49" t="n">
-        <v>211.2844464244222</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H49" t="n">
-        <v>2.944129315062002</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1648661572624649</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J49" t="n">
-        <v>0.999992115262728</v>
+        <v>0.9999766514490361</v>
       </c>
       <c r="K49" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.959790216867575</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.391972580553</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R49" t="n">
-        <v>211.2844464244222</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,31 +3672,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.937163044201097</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D50" t="n">
-        <v>113.4058556010395</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.959790216867575</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F50" t="n">
-        <v>113.391972580553</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G50" t="n">
-        <v>211.2844464244222</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H50" t="n">
-        <v>2.944129315062002</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1648661572624649</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999921186993828</v>
+        <v>0.9999766466516381</v>
       </c>
       <c r="K50" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.959790216867575</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.391972580553</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R50" t="n">
-        <v>211.2844464244222</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,31 +3737,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.937163573291608</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D51" t="n">
-        <v>113.4058544332649</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.959789012856187</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F51" t="n">
-        <v>113.3919724761979</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G51" t="n">
-        <v>211.2844463984125</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H51" t="n">
-        <v>2.943903809804059</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1648661572630349</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999920690183584</v>
+        <v>0.9999743994372178</v>
       </c>
       <c r="K51" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.959789012856187</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.3919724761979</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R51" t="n">
-        <v>211.2844463984125</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,31 +3802,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.937161166361799</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D52" t="n">
-        <v>113.4058563213921</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.95978889799614</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F52" t="n">
-        <v>113.3919729580057</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G52" t="n">
-        <v>211.2844463941416</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H52" t="n">
-        <v>2.944202044823722</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1648661572631791</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857864398115583</v>
+        <v>0.585655428721645</v>
       </c>
       <c r="K52" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.95978889799614</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.3919729580057</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R52" t="n">
-        <v>211.2844463941416</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,31 +3867,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.937163118327482</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D53" t="n">
-        <v>113.4058558920499</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.959789345857802</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F53" t="n">
-        <v>113.3919734515106</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G53" t="n">
-        <v>211.2844463904958</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H53" t="n">
-        <v>2.944006336578535</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1648661572632162</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999996639252565</v>
+        <v>0.9999847093521076</v>
       </c>
       <c r="K53" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.959789345857802</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.3919734515106</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R53" t="n">
-        <v>211.2844463904958</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,31 +3932,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.937161738967758</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D54" t="n">
-        <v>113.4058567257083</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.959789481848945</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F54" t="n">
-        <v>113.3919733554032</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G54" t="n">
-        <v>211.2844463911633</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H54" t="n">
-        <v>2.94420350812836</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1648661572632359</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9999996639251875</v>
+        <v>0.9999846915421208</v>
       </c>
       <c r="K54" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.959789481848945</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.3919733554032</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R54" t="n">
-        <v>211.2844463911633</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,31 +3997,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.93716251527319</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D55" t="n">
-        <v>113.4058561959889</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.959789477320516</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F55" t="n">
-        <v>113.3919733047736</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G55" t="n">
-        <v>211.2844463907839</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H55" t="n">
-        <v>2.944101909068298</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1648661572632399</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999996639251659</v>
+        <v>0.9999846721621758</v>
       </c>
       <c r="K55" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.959789477320516</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.3919733047736</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R55" t="n">
-        <v>211.2844463907839</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,31 +4062,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.937161649318693</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D56" t="n">
-        <v>113.4058564323555</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.959789394050507</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F56" t="n">
-        <v>113.3919730609172</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G56" t="n">
-        <v>211.2844463922793</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H56" t="n">
-        <v>2.944203748959274</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1648661572632604</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999998034457878</v>
+        <v>0.9999846556036458</v>
       </c>
       <c r="K56" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.959789394050507</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.3919730609172</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R56" t="n">
-        <v>211.2844463922793</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,31 +4127,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.937161649318693</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D57" t="n">
-        <v>113.4058564323555</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.959789394050507</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F57" t="n">
-        <v>113.3919730609172</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G57" t="n">
-        <v>211.2844463922793</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H57" t="n">
-        <v>2.944203748959274</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1648661572632604</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999998456956545</v>
+        <v>0.9999846463210452</v>
       </c>
       <c r="K57" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.959789394050507</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.3919730609172</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R57" t="n">
-        <v>211.2844463922793</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,31 +4192,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.937162371607815</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D58" t="n">
-        <v>113.4058560739528</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.959789381695049</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F58" t="n">
-        <v>113.391973153265</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G58" t="n">
-        <v>211.2844463915772</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H58" t="n">
-        <v>2.944108159857729</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1648661572632685</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999057149418</v>
+        <v>0.9999846417191676</v>
       </c>
       <c r="K58" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.959789381695049</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.391973153265</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R58" t="n">
-        <v>211.2844463915772</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,31 +4257,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.937161352731293</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D59" t="n">
-        <v>113.4058565322348</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.959789277514006</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F59" t="n">
-        <v>113.3919730503285</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G59" t="n">
-        <v>211.2844463916754</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H59" t="n">
-        <v>2.944227176458672</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1648661572632712</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999330094824</v>
+        <v>0.9999865186029478</v>
       </c>
       <c r="K59" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.959789277514006</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.3919730503285</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R59" t="n">
-        <v>211.2844463916754</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,31 +4322,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.937161352731293</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D60" t="n">
-        <v>113.4058565322348</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.959789277514006</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F60" t="n">
-        <v>113.3919730503285</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G60" t="n">
-        <v>211.2844463916754</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H60" t="n">
-        <v>2.944227176458672</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1648661572632712</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999636597758</v>
+        <v>0.999986515778918</v>
       </c>
       <c r="K60" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.959789277514006</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.3919730503285</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R60" t="n">
-        <v>211.2844463916754</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,31 +4387,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.937161928208341</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D61" t="n">
-        <v>113.4058561604219</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.959789234664488</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F61" t="n">
-        <v>113.3919730578987</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G61" t="n">
-        <v>211.2844463912581</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H61" t="n">
-        <v>2.944146722210723</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I61" t="n">
-        <v>0.164866157263273</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999732361735</v>
+        <v>0.9999883086421494</v>
       </c>
       <c r="K61" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.959789234664488</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.3919730578987</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R61" t="n">
-        <v>211.2844463912581</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,31 +4452,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.937161605083199</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D62" t="n">
-        <v>113.405856460609</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.959789349363787</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F62" t="n">
-        <v>113.3919730894497</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G62" t="n">
-        <v>211.2844463913583</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H62" t="n">
-        <v>2.944203690218447</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I62" t="n">
-        <v>0.164866157263275</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5358983875022341</v>
+        <v>0.5857864397073033</v>
       </c>
       <c r="K62" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.959789349363787</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.3919730894497</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R62" t="n">
-        <v>211.2844463913583</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,31 +4517,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.937161466355028</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D63" t="n">
-        <v>113.4058565018328</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.959789307736727</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F63" t="n">
-        <v>113.3919730710974</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G63" t="n">
-        <v>211.2844463913038</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H63" t="n">
-        <v>2.94421632463367</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1648661572632752</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999999999983933</v>
+        <v>0.9999940696005369</v>
       </c>
       <c r="K63" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.959789307736727</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.3919730710974</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R63" t="n">
-        <v>211.2844463913038</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,31 +4582,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.937161494025374</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D64" t="n">
-        <v>113.4058564589867</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.95978931386028</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F64" t="n">
-        <v>113.3919730414713</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G64" t="n">
-        <v>211.2844463913623</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H64" t="n">
-        <v>2.944213521050896</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1648661572632754</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8964850049965817</v>
+        <v>0.9800280879416756</v>
       </c>
       <c r="K64" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.95978931386028</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.3919730414713</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R64" t="n">
-        <v>211.2844463913623</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,31 +4647,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.937161469234439</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D65" t="n">
-        <v>113.4058564847546</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.959789309606473</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F65" t="n">
-        <v>113.3919730546385</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G65" t="n">
-        <v>211.2844463913614</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H65" t="n">
-        <v>2.944216193261517</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1648661572632757</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9852705089293704</v>
+        <v>0.8309723646125702</v>
       </c>
       <c r="K65" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.959789309606473</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.3919730546385</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R65" t="n">
-        <v>211.2844463913614</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,31 +4712,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.9371613978013</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D66" t="n">
-        <v>113.4058565387647</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F66" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G66" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H66" t="n">
-        <v>2.944224310757189</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9080116434841068</v>
+        <v>0.9573262474450706</v>
       </c>
       <c r="K66" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R66" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,31 +4777,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.9371613978013</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D67" t="n">
-        <v>113.4058565387647</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F67" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G67" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H67" t="n">
-        <v>2.944224310757189</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9729565742304634</v>
+        <v>0.99054507864358</v>
       </c>
       <c r="K67" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R67" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,31 +4842,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.9371613978013</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D68" t="n">
-        <v>113.4058565387647</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F68" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G68" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H68" t="n">
-        <v>2.944224310757189</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9872728972367127</v>
+        <v>0.9964740934114038</v>
       </c>
       <c r="K68" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R68" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,31 +4907,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.9371613978013</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D69" t="n">
-        <v>113.4058565387647</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F69" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G69" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H69" t="n">
-        <v>2.944224310757189</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9952888708084496</v>
+        <v>0.9975208087484627</v>
       </c>
       <c r="K69" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.959789300559901</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.391973070371</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R69" t="n">
-        <v>211.28444639135</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,31 +4972,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.937161398873498</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D70" t="n">
-        <v>113.4058565385459</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.959789309558171</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F70" t="n">
-        <v>113.3919730652887</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G70" t="n">
-        <v>211.2844463913534</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H70" t="n">
-        <v>2.944225342066864</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9971517385722857</v>
+        <v>0.9978918499219621</v>
       </c>
       <c r="K70" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.959789309558171</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.3919730652887</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R70" t="n">
-        <v>211.2844463913534</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,31 +5037,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D71" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F71" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G71" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H71" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J71" t="n">
-        <v>0.998809771564508</v>
+        <v>0.9981764608564797</v>
       </c>
       <c r="K71" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R71" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,31 +5102,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D72" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F72" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G72" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H72" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857864398345202</v>
+        <v>0.5857855777280446</v>
       </c>
       <c r="K72" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R72" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,31 +5167,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D73" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F73" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G73" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H73" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9999999999999836</v>
+        <v>0.9997243541428652</v>
       </c>
       <c r="K73" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R73" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,31 +5232,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D74" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F74" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G74" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H74" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9999999999999833</v>
+        <v>0.9997522684982982</v>
       </c>
       <c r="K74" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R74" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,31 +5297,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D75" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F75" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G75" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H75" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9999999999999833</v>
+        <v>0.9998164059417234</v>
       </c>
       <c r="K75" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R75" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,31 +5362,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D76" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F76" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G76" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H76" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999999999999833</v>
+        <v>0.999934573139646</v>
       </c>
       <c r="K76" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R76" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,31 +5427,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991724879944269</v>
       </c>
       <c r="D77" t="n">
-        <v>113.405856521581</v>
+        <v>113.3649363964643</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="F77" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="G77" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="H77" t="n">
-        <v>2.944220506117161</v>
+        <v>4.700870183724792</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708601142809359</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999999999999833</v>
+        <v>0.9999574505755309</v>
       </c>
       <c r="K77" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955571818775225</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870640533561</v>
       </c>
       <c r="R77" t="n">
-        <v>211.2844463913561</v>
+        <v>31.22316029606555</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,31 +5492,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991741851109845</v>
       </c>
       <c r="D78" t="n">
-        <v>113.405856521581</v>
+        <v>113.36486778342</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955537288974009</v>
       </c>
       <c r="F78" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870665729831</v>
       </c>
       <c r="G78" t="n">
-        <v>211.2844463913561</v>
+        <v>31.26854464686645</v>
       </c>
       <c r="H78" t="n">
-        <v>2.944220506117161</v>
+        <v>4.709829233783786</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708608404968492</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999999999999833</v>
+        <v>0.9999583375732144</v>
       </c>
       <c r="K78" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.955537288974009</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3870665729831</v>
       </c>
       <c r="R78" t="n">
-        <v>211.2844463913561</v>
+        <v>31.26854464686645</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,31 +5557,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99235845232391</v>
       </c>
       <c r="D79" t="n">
-        <v>113.405856521581</v>
+        <v>113.3652088307939</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.954640205548917</v>
       </c>
       <c r="F79" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3883986469364</v>
       </c>
       <c r="G79" t="n">
-        <v>211.2844463913561</v>
+        <v>31.33771867020373</v>
       </c>
       <c r="H79" t="n">
-        <v>2.944220506117161</v>
+        <v>4.910343333391016</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708628684572035</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999999999999833</v>
+        <v>0.9999792944423905</v>
       </c>
       <c r="K79" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.954640205548917</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3883986469364</v>
       </c>
       <c r="R79" t="n">
-        <v>211.2844463913561</v>
+        <v>31.33771867020373</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,31 +5622,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991727764763686</v>
       </c>
       <c r="D80" t="n">
-        <v>113.405856521581</v>
+        <v>113.3651795225242</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.954453733032605</v>
       </c>
       <c r="F80" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3880497562702</v>
       </c>
       <c r="G80" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28608360921459</v>
       </c>
       <c r="H80" t="n">
-        <v>2.944220506117161</v>
+        <v>4.849855191766842</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708635882409703</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999999999999822</v>
+        <v>0.9999927289889381</v>
       </c>
       <c r="K80" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.954453733032605</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3880497562702</v>
       </c>
       <c r="R80" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28608360921459</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,31 +5687,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991978797589862</v>
       </c>
       <c r="D81" t="n">
-        <v>113.405856521581</v>
+        <v>113.3652150259387</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953618938388428</v>
       </c>
       <c r="F81" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3887887544818</v>
       </c>
       <c r="G81" t="n">
-        <v>211.2844463913561</v>
+        <v>31.32638979328292</v>
       </c>
       <c r="H81" t="n">
-        <v>2.944220506117161</v>
+        <v>4.993269084412304</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.170863907291848</v>
       </c>
       <c r="J81" t="n">
-        <v>0.920137801427229</v>
+        <v>0.9999908423375188</v>
       </c>
       <c r="K81" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953618938388428</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3887887544818</v>
       </c>
       <c r="R81" t="n">
-        <v>211.2844463913561</v>
+        <v>31.32638979328292</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,31 +5752,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991441904736279</v>
       </c>
       <c r="D82" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654560826682</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953550268096548</v>
       </c>
       <c r="F82" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3886912257562</v>
       </c>
       <c r="G82" t="n">
-        <v>211.2844463913561</v>
+        <v>31.27079406918301</v>
       </c>
       <c r="H82" t="n">
-        <v>2.944220506117161</v>
+        <v>4.929413487642049</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708643154422159</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5856238978180172</v>
+        <v>0.5857519011159777</v>
       </c>
       <c r="K82" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953550268096548</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3886912257562</v>
       </c>
       <c r="R82" t="n">
-        <v>211.2844463913561</v>
+        <v>31.27079406918301</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,31 +5817,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.992004099382132</v>
       </c>
       <c r="D83" t="n">
-        <v>113.405856521581</v>
+        <v>113.3652100912149</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953770082174432</v>
       </c>
       <c r="F83" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3886646912346</v>
       </c>
       <c r="G83" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28109415112776</v>
       </c>
       <c r="H83" t="n">
-        <v>2.944220506117161</v>
+        <v>4.974496929782942</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708643755058968</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999999999999847</v>
+        <v>0.9999891724667861</v>
       </c>
       <c r="K83" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953770082174432</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3886646912346</v>
       </c>
       <c r="R83" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28109415112776</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,31 +5882,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991777383348766</v>
       </c>
       <c r="D84" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654371332405</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953644011650526</v>
       </c>
       <c r="F84" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888296809812</v>
       </c>
       <c r="G84" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28076227599495</v>
       </c>
       <c r="H84" t="n">
-        <v>2.944220506117161</v>
+        <v>4.961385057417927</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708644661324381</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9999999999999847</v>
+        <v>0.9999900249067226</v>
       </c>
       <c r="K84" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953644011650526</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888296809812</v>
       </c>
       <c r="R84" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28076227599495</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,31 +5947,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991795554207192</v>
       </c>
       <c r="D85" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654563686842</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953677416846012</v>
       </c>
       <c r="F85" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888437795856</v>
       </c>
       <c r="G85" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28533599793914</v>
       </c>
       <c r="H85" t="n">
-        <v>2.944220506117161</v>
+        <v>4.959643531506622</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708644973566477</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999999999999918</v>
+        <v>0.9999910195519069</v>
       </c>
       <c r="K85" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953677416846012</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888437795856</v>
       </c>
       <c r="R85" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28533599793914</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,31 +6012,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991591146406092</v>
       </c>
       <c r="D86" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654539132281</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528266667721</v>
       </c>
       <c r="F86" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888061051996</v>
       </c>
       <c r="G86" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28391212715575</v>
       </c>
       <c r="H86" t="n">
-        <v>2.944220506117161</v>
+        <v>4.952379178249265</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645438942719</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999999999999953</v>
+        <v>0.9999924176553264</v>
       </c>
       <c r="K86" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528266667721</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888061051996</v>
       </c>
       <c r="R86" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28391212715575</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,31 +6077,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991591146406092</v>
       </c>
       <c r="D87" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654539132281</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528266667721</v>
       </c>
       <c r="F87" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888061051996</v>
       </c>
       <c r="G87" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28391212715575</v>
       </c>
       <c r="H87" t="n">
-        <v>2.944220506117161</v>
+        <v>4.952379178249265</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645438942719</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999999999999962</v>
+        <v>0.9999927077660129</v>
       </c>
       <c r="K87" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528266667721</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3888061051996</v>
       </c>
       <c r="R87" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28391212715575</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,31 +6142,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99178498207222</v>
       </c>
       <c r="D88" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654361224346</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95353125896097</v>
       </c>
       <c r="F88" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3889065917929</v>
       </c>
       <c r="G88" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28520548304207</v>
       </c>
       <c r="H88" t="n">
-        <v>2.944220506117161</v>
+        <v>4.977277730334261</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645589614828</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.9999927162001588</v>
       </c>
       <c r="K88" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95353125896097</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3889065917929</v>
       </c>
       <c r="R88" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28520548304207</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,31 +6207,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99178498207222</v>
       </c>
       <c r="D89" t="n">
-        <v>113.405856521581</v>
+        <v>113.3654361224346</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95353125896097</v>
       </c>
       <c r="F89" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3889065917929</v>
       </c>
       <c r="G89" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28520548304207</v>
       </c>
       <c r="H89" t="n">
-        <v>2.944220506117161</v>
+        <v>4.977277730334261</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645589614828</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999936287527138</v>
       </c>
       <c r="K89" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95353125896097</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3889065917929</v>
       </c>
       <c r="R89" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28520548304207</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,31 +6272,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991881256796532</v>
       </c>
       <c r="D90" t="n">
-        <v>113.405856521581</v>
+        <v>113.3655171316103</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953518740040853</v>
       </c>
       <c r="F90" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890544722477</v>
       </c>
       <c r="G90" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28533849148007</v>
       </c>
       <c r="H90" t="n">
-        <v>2.944220506117161</v>
+        <v>4.991439909792623</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645756860038</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999947943781163</v>
       </c>
       <c r="K90" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953518740040853</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890544722477</v>
       </c>
       <c r="R90" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28533849148007</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,31 +6337,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991881256796532</v>
       </c>
       <c r="D91" t="n">
-        <v>113.405856521581</v>
+        <v>113.3655171316103</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953518740040853</v>
       </c>
       <c r="F91" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890544722477</v>
       </c>
       <c r="G91" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28533849148007</v>
       </c>
       <c r="H91" t="n">
-        <v>2.944220506117161</v>
+        <v>4.991439909792623</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645756860038</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.999996001785281</v>
       </c>
       <c r="K91" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953518740040853</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890544722477</v>
       </c>
       <c r="R91" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28533849148007</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,31 +6402,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99185603322674</v>
       </c>
       <c r="D92" t="n">
-        <v>113.405856521581</v>
+        <v>113.3655692069968</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953547139090824</v>
       </c>
       <c r="F92" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890728469321</v>
       </c>
       <c r="G92" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28447006476095</v>
       </c>
       <c r="H92" t="n">
-        <v>2.944220506117161</v>
+        <v>4.984417160551406</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645812036785</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5358983875022341</v>
+        <v>0.5857864397530786</v>
       </c>
       <c r="K92" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953547139090824</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890728469321</v>
       </c>
       <c r="R92" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28447006476095</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,31 +6467,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99178261230545</v>
       </c>
       <c r="D93" t="n">
-        <v>113.405856521581</v>
+        <v>113.3655824187314</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953529597565108</v>
       </c>
       <c r="F93" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890518975053</v>
       </c>
       <c r="G93" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28460322524308</v>
       </c>
       <c r="H93" t="n">
-        <v>2.944220506117161</v>
+        <v>4.977153777979288</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.170864583308293</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0.9999998156526699</v>
       </c>
       <c r="K93" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953529597565108</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890518975053</v>
       </c>
       <c r="R93" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28460322524308</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,31 +6532,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99178261230545</v>
       </c>
       <c r="D94" t="n">
-        <v>113.405856521581</v>
+        <v>113.3655824187314</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953529597565108</v>
       </c>
       <c r="F94" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890518975053</v>
       </c>
       <c r="G94" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28460322524308</v>
       </c>
       <c r="H94" t="n">
-        <v>2.944220506117161</v>
+        <v>4.977153777979288</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.170864583308293</v>
       </c>
       <c r="J94" t="n">
-        <v>0.8861430470008982</v>
+        <v>0.9266021164074615</v>
       </c>
       <c r="K94" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953529597565108</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890518975053</v>
       </c>
       <c r="R94" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28460322524308</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,31 +6597,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991738545916649</v>
       </c>
       <c r="D95" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656895689239</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953525647592508</v>
       </c>
       <c r="F95" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891345049675</v>
       </c>
       <c r="G95" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28467893137789</v>
       </c>
       <c r="H95" t="n">
-        <v>2.944220506117161</v>
+        <v>4.971938256217138</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645852105329</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9816219658731976</v>
+        <v>0.9285335556700575</v>
       </c>
       <c r="K95" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953525647592508</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891345049675</v>
       </c>
       <c r="R95" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28467893137789</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,31 +6662,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99171005785176</v>
       </c>
       <c r="D96" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656955716212</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528821140989</v>
       </c>
       <c r="F96" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891207903396</v>
       </c>
       <c r="G96" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28436159178247</v>
       </c>
       <c r="H96" t="n">
-        <v>2.944220506117161</v>
+        <v>4.967802069865965</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645865064253</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8908268352235811</v>
+        <v>0.9668451493787423</v>
       </c>
       <c r="K96" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528821140989</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891207903396</v>
       </c>
       <c r="R96" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28436159178247</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,31 +6727,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.99171005785176</v>
       </c>
       <c r="D97" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656955716212</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528821140989</v>
       </c>
       <c r="F97" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891207903396</v>
       </c>
       <c r="G97" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28436159178247</v>
       </c>
       <c r="H97" t="n">
-        <v>2.944220506117161</v>
+        <v>4.967802069865965</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645865064253</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9829828166353333</v>
+        <v>0.9806133913955564</v>
       </c>
       <c r="K97" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953528821140989</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891207903396</v>
       </c>
       <c r="R97" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28436159178247</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,31 +6792,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991785594945535</v>
       </c>
       <c r="D98" t="n">
-        <v>113.405856521581</v>
+        <v>113.3655854506</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953526482874373</v>
       </c>
       <c r="F98" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389058540474</v>
       </c>
       <c r="G98" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28446286709369</v>
       </c>
       <c r="H98" t="n">
-        <v>2.944220506117161</v>
+        <v>4.977939687657068</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645865527541</v>
       </c>
       <c r="J98" t="n">
-        <v>0.991611090748203</v>
+        <v>0.994510290354207</v>
       </c>
       <c r="K98" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953526482874373</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389058540474</v>
       </c>
       <c r="R98" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28446286709369</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,31 +6857,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991716018888408</v>
       </c>
       <c r="D99" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656568456194</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953521262937778</v>
       </c>
       <c r="F99" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890905360785</v>
       </c>
       <c r="G99" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28455462913248</v>
       </c>
       <c r="H99" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969571214930803</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645878081042</v>
       </c>
       <c r="J99" t="n">
-        <v>0.993991400727679</v>
+        <v>0.9974486775999567</v>
       </c>
       <c r="K99" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953521262937778</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3890905360785</v>
       </c>
       <c r="R99" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28455462913248</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,31 +6922,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991661530316435</v>
       </c>
       <c r="D100" t="n">
-        <v>113.405856521581</v>
+        <v>113.3657132255721</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953521374400841</v>
       </c>
       <c r="F100" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891133040941</v>
       </c>
       <c r="G100" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443109956435</v>
       </c>
       <c r="H100" t="n">
-        <v>2.944220506117161</v>
+        <v>4.962460753133675</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645895215141</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9969128578284883</v>
+        <v>0.9982811369642371</v>
       </c>
       <c r="K100" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953521374400841</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891133040941</v>
       </c>
       <c r="R100" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443109956435</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,31 +6987,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991661530316435</v>
       </c>
       <c r="D101" t="n">
-        <v>113.405856521581</v>
+        <v>113.3657132255721</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953521374400841</v>
       </c>
       <c r="F101" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891133040941</v>
       </c>
       <c r="G101" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443109956435</v>
       </c>
       <c r="H101" t="n">
-        <v>2.944220506117161</v>
+        <v>4.962460753133675</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645895215141</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9977739325506222</v>
+        <v>0.9986906851257803</v>
       </c>
       <c r="K101" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953521374400841</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891133040941</v>
       </c>
       <c r="R101" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443109956435</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,31 +7052,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991712493883266</v>
       </c>
       <c r="D102" t="n">
-        <v>113.405856521581</v>
+        <v>113.3657060095447</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520714089489</v>
       </c>
       <c r="F102" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891377644369</v>
       </c>
       <c r="G102" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443569205273</v>
       </c>
       <c r="H102" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969177722712828</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645897749113</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5857857350076171</v>
+        <v>0.5857862501722072</v>
       </c>
       <c r="K102" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520714089489</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891377644369</v>
       </c>
       <c r="R102" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443569205273</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,31 +7117,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991712493883266</v>
       </c>
       <c r="D103" t="n">
-        <v>113.405856521581</v>
+        <v>113.3657060095447</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520714089489</v>
       </c>
       <c r="F103" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891377644369</v>
       </c>
       <c r="G103" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443569205273</v>
       </c>
       <c r="H103" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969177722712828</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645897749113</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9999436763991347</v>
+        <v>0.999999980015972</v>
       </c>
       <c r="K103" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520714089489</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891377644369</v>
       </c>
       <c r="R103" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443569205273</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,31 +7182,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991704813254898</v>
       </c>
       <c r="D104" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656977667995</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519658150907</v>
       </c>
       <c r="F104" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891254388725</v>
       </c>
       <c r="G104" t="n">
-        <v>211.2844463913561</v>
+        <v>31.2844157296423</v>
       </c>
       <c r="H104" t="n">
-        <v>2.944220506117161</v>
+        <v>4.968314739705086</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.170864589819665</v>
       </c>
       <c r="J104" t="n">
-        <v>0.999955754096536</v>
+        <v>0.9999999798291448</v>
       </c>
       <c r="K104" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519658150907</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891254388725</v>
       </c>
       <c r="R104" t="n">
-        <v>211.2844463913561</v>
+        <v>31.2844157296423</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,31 +7247,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537589045294</v>
       </c>
       <c r="D105" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664056433564</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="F105" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="G105" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="H105" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816397606140825</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645899595862</v>
       </c>
       <c r="J105" t="n">
-        <v>0.999955754096536</v>
+        <v>0.9999999790926064</v>
       </c>
       <c r="K105" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="R105" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,31 +7312,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537589045294</v>
       </c>
       <c r="D106" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664056433564</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="F106" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="G106" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="H106" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816397606140825</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645899595862</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9999761892711527</v>
+        <v>0.9999999787321592</v>
       </c>
       <c r="K106" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="R106" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,31 +7377,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537589045294</v>
       </c>
       <c r="D107" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664056433564</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="F107" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="G107" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="H107" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816397606140825</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645899595862</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9999812893791836</v>
+        <v>0.9999999784981874</v>
       </c>
       <c r="K107" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="R107" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,31 +7442,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537589045294</v>
       </c>
       <c r="D108" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664056433564</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="F108" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="G108" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="H108" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816397606140825</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645899595862</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999926816675381</v>
+        <v>0.9999999783176647</v>
       </c>
       <c r="K108" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953520055914349</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891169753675</v>
       </c>
       <c r="R108" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443464040268</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,31 +7507,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991712154319178</v>
       </c>
       <c r="D109" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656963361993</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519657627663</v>
       </c>
       <c r="F109" t="n">
-        <v>113.3919730711279</v>
+        <v>113.38912853493</v>
       </c>
       <c r="G109" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444010763888</v>
       </c>
       <c r="H109" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969271230198196</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.170864590173329</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9999950669165789</v>
+        <v>0.9999999779499151</v>
       </c>
       <c r="K109" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519657627663</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.3919730711279</v>
+        <v>113.38912853493</v>
       </c>
       <c r="R109" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444010763888</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,31 +7572,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537436034985</v>
       </c>
       <c r="D110" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664176524994</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519508590415</v>
       </c>
       <c r="F110" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891292296581</v>
       </c>
       <c r="G110" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443828936403</v>
       </c>
       <c r="H110" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816449096290804</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645901857163</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9999965828303845</v>
+        <v>0.9999999776626083</v>
       </c>
       <c r="K110" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519508590415</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891292296581</v>
       </c>
       <c r="R110" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28443828936403</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,31 +7637,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043084119</v>
       </c>
       <c r="D111" t="n">
-        <v>113.405856521581</v>
+        <v>113.366407338692</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519394689064</v>
       </c>
       <c r="F111" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891187520241</v>
       </c>
       <c r="G111" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444655397769</v>
       </c>
       <c r="H111" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816413211516672</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903181267</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9635541096225767</v>
+        <v>0.9999999775120746</v>
       </c>
       <c r="K111" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519394689064</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891187520241</v>
       </c>
       <c r="R111" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444655397769</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,31 +7702,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043084119</v>
       </c>
       <c r="D112" t="n">
-        <v>113.405856521581</v>
+        <v>113.366407338692</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519394689064</v>
       </c>
       <c r="F112" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891187520241</v>
       </c>
       <c r="G112" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444655397769</v>
       </c>
       <c r="H112" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816413211516672</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903181267</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857705344172492</v>
+        <v>0.5857864397570187</v>
       </c>
       <c r="K112" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519394689064</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891187520241</v>
       </c>
       <c r="R112" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444655397769</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,31 +7767,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043084119</v>
       </c>
       <c r="D113" t="n">
-        <v>113.405856521581</v>
+        <v>113.366407338692</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519394689064</v>
       </c>
       <c r="F113" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891187520241</v>
       </c>
       <c r="G113" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444655397769</v>
       </c>
       <c r="H113" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816413211516672</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903181267</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999991111408</v>
       </c>
       <c r="K113" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L113" t="n">
         <v>448</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519394689064</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891187520241</v>
       </c>
       <c r="R113" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444655397769</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,31 +7832,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D114" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F114" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G114" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H114" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999990865689</v>
       </c>
       <c r="K114" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L114" t="n">
         <v>448</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R114" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,31 +7897,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D115" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F115" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G115" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H115" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999991867272</v>
       </c>
       <c r="K115" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L115" t="n">
         <v>448</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R115" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,31 +7962,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D116" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F116" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G116" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H116" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9755349920618902</v>
       </c>
       <c r="K116" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L116" t="n">
         <v>448</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R116" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,31 +8027,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D117" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F117" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G117" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H117" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.8724445493715237</v>
       </c>
       <c r="K117" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L117" t="n">
         <v>448</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R117" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,31 +8092,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D118" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F118" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G118" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H118" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9720853256417659</v>
       </c>
       <c r="K118" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L118" t="n">
         <v>448</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R118" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,31 +8157,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D119" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F119" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G119" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H119" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9922505387456843</v>
       </c>
       <c r="K119" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L119" t="n">
         <v>448</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R119" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,31 +8222,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D120" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F120" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G120" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H120" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9952188766616368</v>
       </c>
       <c r="K120" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L120" t="n">
         <v>448</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R120" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,31 +8287,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537068749155</v>
       </c>
       <c r="D121" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664104138462</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="F121" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="G121" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="H121" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416647318314</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903290218</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9967952838968301</v>
       </c>
       <c r="K121" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L121" t="n">
         <v>448</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519393990277</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891218434514</v>
       </c>
       <c r="R121" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444666418499</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,31 +8352,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D122" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F122" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G122" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H122" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5358983875022341</v>
+        <v>0.585785769554654</v>
       </c>
       <c r="K122" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R122" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,31 +8417,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D123" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F123" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G123" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H123" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0.9999999993980668</v>
       </c>
       <c r="K123" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L123" t="n">
         <v>448</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R123" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,31 +8482,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D124" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F124" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G124" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H124" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9664808517763886</v>
+        <v>0.9999999992938415</v>
       </c>
       <c r="K124" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L124" t="n">
         <v>448</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R124" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,31 +8547,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D125" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F125" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G125" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H125" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J125" t="n">
-        <v>0.990025362002029</v>
+        <v>0.8942070454999758</v>
       </c>
       <c r="K125" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L125" t="n">
         <v>448</v>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R125" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,31 +8612,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D126" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F126" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G126" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H126" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9639587631771815</v>
+        <v>0.9408106420252509</v>
       </c>
       <c r="K126" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R126" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,31 +8677,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D127" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F127" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G127" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H127" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9920458655199139</v>
+        <v>0.9898045015624369</v>
       </c>
       <c r="K127" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R127" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,31 +8742,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D128" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F128" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G128" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H128" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9953441160194738</v>
+        <v>0.9943363357022993</v>
       </c>
       <c r="K128" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R128" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,31 +8807,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D129" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F129" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G129" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H129" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9953441823687634</v>
+        <v>0.9975456116526903</v>
       </c>
       <c r="K129" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R129" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,31 +8872,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D130" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F130" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G130" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H130" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9954829460529139</v>
+        <v>0.9982084455438361</v>
       </c>
       <c r="K130" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R130" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,31 +8937,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D131" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F131" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G131" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H131" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9973775008119001</v>
+        <v>0.9988162961816693</v>
       </c>
       <c r="K131" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R131" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D132" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F132" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G132" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H132" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5857858060715722</v>
+        <v>0.5857861161018374</v>
       </c>
       <c r="K132" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R132" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,31 +9067,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D133" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F133" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G133" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H133" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9996215795494648</v>
+        <v>0.9996958679199287</v>
       </c>
       <c r="K133" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R133" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,31 +9132,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D134" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F134" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G134" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H134" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J134" t="n">
-        <v>0.999675972676501</v>
+        <v>0.9997639076849671</v>
       </c>
       <c r="K134" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R134" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,31 +9197,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D135" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F135" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G135" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H135" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9997481715021218</v>
+        <v>0.9998086416714406</v>
       </c>
       <c r="K135" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R135" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,31 +9262,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D136" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F136" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G136" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H136" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9999072468490643</v>
+        <v>0.9999297167847464</v>
       </c>
       <c r="K136" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R136" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,31 +9327,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.991711886992149</v>
       </c>
       <c r="D137" t="n">
-        <v>113.405856521581</v>
+        <v>113.3656904009195</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="F137" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="G137" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="H137" t="n">
-        <v>2.944220506117161</v>
+        <v>4.969272308794415</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903370725</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9999462146520998</v>
+        <v>0.9999625996571264</v>
       </c>
       <c r="K137" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519384541873</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389122608927</v>
       </c>
       <c r="R137" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444635746004</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,31 +9392,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537046614314</v>
       </c>
       <c r="D138" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664100461053</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519372238837</v>
       </c>
       <c r="F138" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891214752577</v>
       </c>
       <c r="G138" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444642197218</v>
       </c>
       <c r="H138" t="n">
-        <v>2.944220506117161</v>
+        <v>4.8164165850639</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903373367</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9999624467091893</v>
+        <v>0.999975187372973</v>
       </c>
       <c r="K138" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519372238837</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891214752577</v>
       </c>
       <c r="R138" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444642197218</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,31 +9457,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537046614314</v>
       </c>
       <c r="D139" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664100461053</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519372238837</v>
       </c>
       <c r="F139" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891214752577</v>
       </c>
       <c r="G139" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444642197218</v>
       </c>
       <c r="H139" t="n">
-        <v>2.944220506117161</v>
+        <v>4.8164165850639</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903373367</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9999928196911385</v>
+        <v>0.9999813498795117</v>
       </c>
       <c r="K139" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519372238837</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891214752577</v>
       </c>
       <c r="R139" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444642197218</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,31 +9522,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043830702</v>
       </c>
       <c r="D140" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664098974236</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369843436</v>
       </c>
       <c r="F140" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213263238</v>
       </c>
       <c r="G140" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444640642038</v>
       </c>
       <c r="H140" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416533759874</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903377356</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9999938351573773</v>
+        <v>0.9999891237089064</v>
       </c>
       <c r="K140" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369843436</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213263238</v>
       </c>
       <c r="R140" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444640642038</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,31 +9587,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043830702</v>
       </c>
       <c r="D141" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664098974236</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369843436</v>
       </c>
       <c r="F141" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213263238</v>
       </c>
       <c r="G141" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444640642038</v>
       </c>
       <c r="H141" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416533759874</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903377356</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9422965814243822</v>
+        <v>0.9999936993466569</v>
       </c>
       <c r="K141" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369843436</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213263238</v>
       </c>
       <c r="R141" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444640642038</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,31 +9652,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043555001</v>
       </c>
       <c r="D142" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664099340674</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369965028</v>
       </c>
       <c r="F142" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213627216</v>
       </c>
       <c r="G142" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444640385069</v>
       </c>
       <c r="H142" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416481937432</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903378581</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5854552467259679</v>
+        <v>0.5857864397535827</v>
       </c>
       <c r="K142" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369965028</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213627216</v>
       </c>
       <c r="R142" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444640385069</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,31 +9717,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537044437003</v>
       </c>
       <c r="D143" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664105891433</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519376881045</v>
       </c>
       <c r="F143" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891220140872</v>
       </c>
       <c r="G143" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639413065</v>
       </c>
       <c r="H143" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816415696360655</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903380803</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999858733</v>
       </c>
       <c r="K143" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L143" t="n">
         <v>448</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519376881045</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891220140872</v>
       </c>
       <c r="R143" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639413065</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,31 +9782,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537044437003</v>
       </c>
       <c r="D144" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664105891433</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519376881045</v>
       </c>
       <c r="F144" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891220140872</v>
       </c>
       <c r="G144" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639413065</v>
       </c>
       <c r="H144" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816415696360655</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903380803</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999913542</v>
       </c>
       <c r="K144" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L144" t="n">
         <v>448</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519376881045</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891220140872</v>
       </c>
       <c r="R144" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639413065</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,31 +9847,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537044437003</v>
       </c>
       <c r="D145" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664105891433</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519376881045</v>
       </c>
       <c r="F145" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891220140872</v>
       </c>
       <c r="G145" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639413065</v>
       </c>
       <c r="H145" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816415696360655</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903380803</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999947247</v>
       </c>
       <c r="K145" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L145" t="n">
         <v>448</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519376881045</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891220140872</v>
       </c>
       <c r="R145" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639413065</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,31 +9912,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537044512464</v>
       </c>
       <c r="D146" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664101207558</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519371522136</v>
       </c>
       <c r="F146" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891215490347</v>
       </c>
       <c r="G146" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639546478</v>
       </c>
       <c r="H146" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416403489495</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903381482</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999971916</v>
       </c>
       <c r="K146" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L146" t="n">
         <v>448</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519371522136</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891215490347</v>
       </c>
       <c r="R146" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639546478</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,31 +9977,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.9905370439653</v>
       </c>
       <c r="D147" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664101155426</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519371451917</v>
       </c>
       <c r="F147" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891215435234</v>
       </c>
       <c r="G147" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444638928455</v>
       </c>
       <c r="H147" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416341119118</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.17086459033818</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9374610236833711</v>
       </c>
       <c r="K147" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L147" t="n">
         <v>448</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519371451917</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891215435234</v>
       </c>
       <c r="R147" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444638928455</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,31 +10042,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043714063</v>
       </c>
       <c r="D148" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664099704073</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95351936977563</v>
       </c>
       <c r="F148" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213992647</v>
       </c>
       <c r="G148" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639195867</v>
       </c>
       <c r="H148" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416526667701</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903382006</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9721906301497529</v>
       </c>
       <c r="K148" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L148" t="n">
         <v>448</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95351936977563</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213992647</v>
       </c>
       <c r="R148" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639195867</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,31 +10107,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043714063</v>
       </c>
       <c r="D149" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664099704073</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95351936977563</v>
       </c>
       <c r="F149" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213992647</v>
       </c>
       <c r="G149" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639195867</v>
       </c>
       <c r="H149" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416526667701</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903382006</v>
       </c>
       <c r="J149" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9916976270407909</v>
       </c>
       <c r="K149" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L149" t="n">
         <v>448</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95351936977563</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213992647</v>
       </c>
       <c r="R149" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639195867</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,31 +10172,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043714063</v>
       </c>
       <c r="D150" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664099704073</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95351936977563</v>
       </c>
       <c r="F150" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213992647</v>
       </c>
       <c r="G150" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639195867</v>
       </c>
       <c r="H150" t="n">
-        <v>2.944220506117161</v>
+        <v>4.816416526667701</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903382006</v>
       </c>
       <c r="J150" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.995625873996941</v>
       </c>
       <c r="K150" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L150" t="n">
         <v>448</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.95351936977563</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.3919730711279</v>
+        <v>113.3891213992647</v>
       </c>
       <c r="R150" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639195867</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,31 +10237,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.937161429686742</v>
+        <v>-7.990537043823126</v>
       </c>
       <c r="D151" t="n">
-        <v>113.405856521581</v>
+        <v>113.3664099800639</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369882645</v>
       </c>
       <c r="F151" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389121408922</v>
       </c>
       <c r="G151" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639139969</v>
       </c>
       <c r="H151" t="n">
-        <v>2.944220506117161</v>
+        <v>4.8164165269054</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1648661572632759</v>
+        <v>0.1708645903382106</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9958842574701815</v>
       </c>
       <c r="K151" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L151" t="n">
         <v>448</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.959789303204992</v>
+        <v>-7.953519369882645</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.3919730711279</v>
+        <v>113.389121408922</v>
       </c>
       <c r="R151" t="n">
-        <v>211.2844463913561</v>
+        <v>31.28444639139969</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.546622452827696</v>
+        <v>-8.153593526264119</v>
       </c>
       <c r="D2" t="n">
-        <v>113.0387077883158</v>
+        <v>113.3311362201217</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.927170613095884</v>
+        <v>-7.985054109717519</v>
       </c>
       <c r="F2" t="n">
-        <v>113.3287864261403</v>
+        <v>113.4647183977525</v>
       </c>
       <c r="G2" t="n">
-        <v>142.9547122220439</v>
+        <v>38.13208364715861</v>
       </c>
       <c r="H2" t="n">
-        <v>53.02927486634655</v>
+        <v>23.8222295006408</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1687956314970173</v>
+        <v>0.1650513914555589</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8967854885291102</v>
+        <v>0.8929867343632175</v>
       </c>
       <c r="K2" t="n">
-        <v>122</v>
+        <v>1965</v>
       </c>
       <c r="L2" t="n">
-        <v>640</v>
+        <v>1797</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O2" t="n">
-        <v>113.300380121246</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.927170613095884</v>
+        <v>-7.985054109717519</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.3287864261403</v>
+        <v>113.4647183977525</v>
       </c>
       <c r="R2" t="n">
-        <v>142.9547122220439</v>
+        <v>38.13208364715861</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -614,55 +614,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.546622452827696</v>
+        <v>-8.153593526264119</v>
       </c>
       <c r="D3" t="n">
-        <v>113.0387077883158</v>
+        <v>113.3311362201217</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.927170613095884</v>
+        <v>-7.985054109717519</v>
       </c>
       <c r="F3" t="n">
-        <v>113.3287864261403</v>
+        <v>113.4647183977525</v>
       </c>
       <c r="G3" t="n">
-        <v>142.9547122220439</v>
+        <v>38.13208364715861</v>
       </c>
       <c r="H3" t="n">
-        <v>53.02927486634655</v>
+        <v>23.8222295006408</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1687956314970173</v>
+        <v>0.1650513914555589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9588686478612755</v>
+        <v>0.9616172091234573</v>
       </c>
       <c r="K3" t="n">
-        <v>122</v>
+        <v>1965</v>
       </c>
       <c r="L3" t="n">
-        <v>640</v>
+        <v>1797</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O3" t="n">
-        <v>113.300380121246</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.927170613095884</v>
+        <v>-7.985054109717519</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.3287864261403</v>
+        <v>113.4647183977525</v>
       </c>
       <c r="R3" t="n">
-        <v>142.9547122220439</v>
+        <v>38.13208364715861</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -679,55 +679,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.109147785074192</v>
+        <v>-7.963264109685748</v>
       </c>
       <c r="D4" t="n">
-        <v>113.6819379135625</v>
+        <v>113.4064375270518</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.966096704474119</v>
+        <v>-7.966625587708326</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3592844927336</v>
+        <v>113.4148601466131</v>
       </c>
       <c r="G4" t="n">
-        <v>294.0981578607488</v>
+        <v>111.9494698432437</v>
       </c>
       <c r="H4" t="n">
-        <v>38.92353983468715</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1695018903486856</v>
+        <v>0.1660094411498171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9841334857552988</v>
+        <v>0.9777854528122464</v>
       </c>
       <c r="K4" t="n">
-        <v>2022</v>
+        <v>448</v>
       </c>
       <c r="L4" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O4" t="n">
-        <v>113.300380121246</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.966096704474119</v>
+        <v>-7.966625587708326</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3592844927336</v>
+        <v>113.4148601466131</v>
       </c>
       <c r="R4" t="n">
-        <v>294.0981578607488</v>
+        <v>111.9494698432437</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -744,55 +744,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45434.28958333333</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.717400044237285</v>
+        <v>-7.876685053238373</v>
       </c>
       <c r="D5" t="n">
-        <v>113.3570403107021</v>
+        <v>113.6596235321124</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.932174872690606</v>
+        <v>-7.999804957034498</v>
       </c>
       <c r="F5" t="n">
-        <v>113.4178867332915</v>
+        <v>113.38394116142</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3265334691168</v>
+        <v>245.7093705318197</v>
       </c>
       <c r="H5" t="n">
-        <v>24.80466649250831</v>
+        <v>33.30462930982596</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1702845350247565</v>
+        <v>0.1662616353826495</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9956866916480813</v>
+        <v>0.9882772923114896</v>
       </c>
       <c r="K5" t="n">
-        <v>1252</v>
+        <v>164</v>
       </c>
       <c r="L5" t="n">
-        <v>448</v>
+        <v>1705</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45434.28958333333</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.90590090675314</v>
+        <v>-8.04288055165496</v>
       </c>
       <c r="O5" t="n">
-        <v>113.40414682924</v>
+        <v>113.30659490823</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.932174872690606</v>
+        <v>-7.999804957034498</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.4178867332915</v>
+        <v>113.38394116142</v>
       </c>
       <c r="R5" t="n">
-        <v>164.3265334691168</v>
+        <v>245.7093705318197</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -812,31 +812,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.779761378938291</v>
+        <v>-8.41915246918764</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3659080246463</v>
+        <v>113.231199830936</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.929692574210019</v>
+        <v>-7.929178614685987</v>
       </c>
       <c r="F6" t="n">
-        <v>113.4124528395199</v>
+        <v>113.390493786039</v>
       </c>
       <c r="G6" t="n">
-        <v>162.9090185814236</v>
+        <v>17.84977474420269</v>
       </c>
       <c r="H6" t="n">
-        <v>17.44212876370053</v>
+        <v>57.2341589864122</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1703363119644673</v>
+        <v>0.1665523448689571</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9973200490956998</v>
+        <v>0.9954154141736945</v>
       </c>
       <c r="K6" t="n">
-        <v>177</v>
+        <v>842</v>
       </c>
       <c r="L6" t="n">
         <v>448</v>
@@ -851,13 +851,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.929692574210019</v>
+        <v>-7.929178614685987</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.4124528395199</v>
+        <v>113.390493786039</v>
       </c>
       <c r="R6" t="n">
-        <v>162.9090185814236</v>
+        <v>17.84977474420269</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -874,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.811914887008216</v>
+        <v>-8.107173837971187</v>
       </c>
       <c r="D7" t="n">
-        <v>113.4224146379108</v>
+        <v>113.2165384915124</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="G7" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="H7" t="n">
-        <v>15.84457103492562</v>
+        <v>22.69846908581009</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1707829824642036</v>
+        <v>0.1668955457649089</v>
       </c>
       <c r="J7" t="n">
-        <v>0.997805127583505</v>
+        <v>0.9974545569773796</v>
       </c>
       <c r="K7" t="n">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="L7" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O7" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="R7" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -939,55 +939,55 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.811914887008216</v>
+        <v>-8.107173837971187</v>
       </c>
       <c r="D8" t="n">
-        <v>113.4224146379108</v>
+        <v>113.2165384915124</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="G8" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="H8" t="n">
-        <v>15.84457103492562</v>
+        <v>22.69846908581009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1707829824642036</v>
+        <v>0.1668955457649089</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9978345321003264</v>
+        <v>0.9984665718819725</v>
       </c>
       <c r="K8" t="n">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="L8" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O8" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="R8" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.811914887008216</v>
+        <v>-8.107173837971187</v>
       </c>
       <c r="D9" t="n">
-        <v>113.4224146379108</v>
+        <v>113.2165384915124</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="G9" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="H9" t="n">
-        <v>15.84457103492562</v>
+        <v>22.69846908581009</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1707829824642036</v>
+        <v>0.1668955457649089</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9979573919139745</v>
+        <v>0.998800473059033</v>
       </c>
       <c r="K9" t="n">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="L9" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O9" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="R9" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1069,55 +1069,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.811914887008216</v>
+        <v>-8.107173837971187</v>
       </c>
       <c r="D10" t="n">
-        <v>113.4224146379108</v>
+        <v>113.2165384915124</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="F10" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="G10" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="H10" t="n">
-        <v>15.84457103492562</v>
+        <v>22.69846908581009</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1707829824642036</v>
+        <v>0.1668955457649089</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9978905474549843</v>
+        <v>0.9988123480152541</v>
       </c>
       <c r="K10" t="n">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="L10" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O10" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.967516099604429</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.3800000374436</v>
+        <v>113.366896930413</v>
       </c>
       <c r="R10" t="n">
-        <v>197.1455736055325</v>
+        <v>46.84148921108301</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.811914887008216</v>
+        <v>-7.933432483203658</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4224146379108</v>
+        <v>113.3845792663932</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.94706162816549</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3800000374436</v>
+        <v>113.3834633741125</v>
       </c>
       <c r="G11" t="n">
-        <v>197.1455736055325</v>
+        <v>184.6359211476973</v>
       </c>
       <c r="H11" t="n">
-        <v>15.84457103492562</v>
+        <v>1.520466293300105</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1707829824642036</v>
+        <v>0.1670367082482041</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9979322412950886</v>
+        <v>0.9988040438610281</v>
       </c>
       <c r="K11" t="n">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="L11" t="n">
         <v>448</v>
@@ -1176,13 +1176,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.94706162816549</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.3800000374436</v>
+        <v>113.3834633741125</v>
       </c>
       <c r="R11" t="n">
-        <v>197.1455736055325</v>
+        <v>184.6359211476973</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1202,28 +1202,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.811914887008216</v>
+        <v>-7.768157142789494</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4224146379108</v>
+        <v>113.3950083108829</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.940502804834756</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3800000374436</v>
+        <v>113.4074847125975</v>
       </c>
       <c r="G12" t="n">
-        <v>197.1455736055325</v>
+        <v>175.8990429846085</v>
       </c>
       <c r="H12" t="n">
-        <v>15.84457103492562</v>
+        <v>19.2131772564903</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1707829824642036</v>
+        <v>0.1670470881449684</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857847388659007</v>
+        <v>0.5857859582996207</v>
       </c>
       <c r="K12" t="n">
         <v>374</v>
@@ -1241,13 +1241,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.948073827568674</v>
+        <v>-7.940502804834756</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.3800000374436</v>
+        <v>113.4074847125975</v>
       </c>
       <c r="R12" t="n">
-        <v>197.1455736055325</v>
+        <v>175.8990429846085</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.908754454979738</v>
+        <v>-7.936039103109017</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4213946060587</v>
+        <v>113.4058962555112</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.945010185139448</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3926369733683</v>
+        <v>113.4052595780629</v>
       </c>
       <c r="G13" t="n">
-        <v>210.4500381815653</v>
+        <v>184.0206356205252</v>
       </c>
       <c r="H13" t="n">
-        <v>6.249007996998445</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.170842159553214</v>
+        <v>0.1671509593891647</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9995928548122343</v>
+        <v>0.9993065425060307</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
@@ -1306,13 +1306,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.945010185139448</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3926369733683</v>
+        <v>113.4052595780629</v>
       </c>
       <c r="R13" t="n">
-        <v>210.4500381815653</v>
+        <v>184.0206356205252</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1332,28 +1332,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.908754454979738</v>
+        <v>-7.942136052756156</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4213946060587</v>
+        <v>113.3986317592951</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.954551212606916</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3926369733683</v>
+        <v>113.3946681181817</v>
       </c>
       <c r="G14" t="n">
-        <v>210.4500381815653</v>
+        <v>197.5462164352109</v>
       </c>
       <c r="H14" t="n">
-        <v>6.249007996998445</v>
+        <v>1.447868276078202</v>
       </c>
       <c r="I14" t="n">
-        <v>0.170842159553214</v>
+        <v>0.1672054240825258</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9996096042352136</v>
+        <v>0.9992178254423301</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
@@ -1371,13 +1371,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.954551212606916</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3926369733683</v>
+        <v>113.3946681181817</v>
       </c>
       <c r="R14" t="n">
-        <v>210.4500381815653</v>
+        <v>197.5462164352109</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.908754454979738</v>
+        <v>-7.933993681694593</v>
       </c>
       <c r="D15" t="n">
-        <v>113.4213946060587</v>
+        <v>113.4046855226286</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.94820520155889</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3926369733683</v>
+        <v>113.4013192671209</v>
       </c>
       <c r="G15" t="n">
-        <v>210.4500381815653</v>
+        <v>193.2024168706264</v>
       </c>
       <c r="H15" t="n">
-        <v>6.249007996998445</v>
+        <v>1.623151492345525</v>
       </c>
       <c r="I15" t="n">
-        <v>0.170842159553214</v>
+        <v>0.167234561623957</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9996360232577224</v>
+        <v>0.9993196113976123</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.94820520155889</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3926369733683</v>
+        <v>113.4013192671209</v>
       </c>
       <c r="R15" t="n">
-        <v>210.4500381815653</v>
+        <v>193.2024168706264</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.908754454979738</v>
+        <v>-7.946251589870515</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4213946060587</v>
+        <v>113.3989002789207</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3926369733683</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="G16" t="n">
-        <v>210.4500381815653</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="H16" t="n">
-        <v>6.249007996998445</v>
+        <v>1.043655572841942</v>
       </c>
       <c r="I16" t="n">
-        <v>0.170842159553214</v>
+        <v>0.1672627446219969</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9996885647418243</v>
+        <v>0.9993228150237787</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.957200743770157</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3926369733683</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="R16" t="n">
-        <v>210.4500381815653</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.881585409007038</v>
+        <v>-7.946251589870515</v>
       </c>
       <c r="D17" t="n">
-        <v>113.4156116623224</v>
+        <v>113.3989002789207</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.949356048489566</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3845282395276</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="G17" t="n">
-        <v>204.429506838614</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="H17" t="n">
-        <v>8.276903573070939</v>
+        <v>1.043655572841942</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1708436161358579</v>
+        <v>0.1672627446219969</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9996780965812954</v>
+        <v>0.9993674364429008</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.949356048489566</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3845282395276</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="R17" t="n">
-        <v>204.429506838614</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,31 +1592,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.946251589870515</v>
       </c>
       <c r="D18" t="n">
-        <v>113.4333406355916</v>
+        <v>113.3989002789207</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="F18" t="n">
-        <v>113.387585382392</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="G18" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="H18" t="n">
-        <v>12.9066472460557</v>
+        <v>1.043655572841942</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672627446219969</v>
       </c>
       <c r="J18" t="n">
-        <v>0.999688782765867</v>
+        <v>0.9994130488550655</v>
       </c>
       <c r="K18" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.387585382392</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="R18" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,31 +1657,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.946251589870515</v>
       </c>
       <c r="D19" t="n">
-        <v>113.4333406355916</v>
+        <v>113.3989002789207</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="F19" t="n">
-        <v>113.387585382392</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="G19" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="H19" t="n">
-        <v>12.9066472460557</v>
+        <v>1.043655572841942</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672627446219969</v>
       </c>
       <c r="J19" t="n">
-        <v>0.99969316316821</v>
+        <v>0.9995343807346668</v>
       </c>
       <c r="K19" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.387585382392</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="R19" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,31 +1722,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.946251589870515</v>
       </c>
       <c r="D20" t="n">
-        <v>113.4333406355916</v>
+        <v>113.3989002789207</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="F20" t="n">
-        <v>113.387585382392</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="G20" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="H20" t="n">
-        <v>12.9066472460557</v>
+        <v>1.043655572841942</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672627446219969</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9997788432721918</v>
+        <v>0.9996622834089174</v>
       </c>
       <c r="K20" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.95498013695322</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.387585382392</v>
+        <v>113.3954162700476</v>
       </c>
       <c r="R20" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5693543386568</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,31 +1787,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.942548622946206</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4333406355916</v>
+        <v>113.4027174472648</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955595765418487</v>
       </c>
       <c r="F21" t="n">
-        <v>113.387585382392</v>
+        <v>113.3974919726901</v>
       </c>
       <c r="G21" t="n">
-        <v>202.9799074205378</v>
+        <v>201.6358309383557</v>
       </c>
       <c r="H21" t="n">
-        <v>12.9066472460557</v>
+        <v>1.560739905657139</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672637336237274</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9998293066470837</v>
+        <v>0.9997647393148812</v>
       </c>
       <c r="K21" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955595765418487</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.387585382392</v>
+        <v>113.3974919726901</v>
       </c>
       <c r="R21" t="n">
-        <v>202.9799074205378</v>
+        <v>201.6358309383557</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,31 +1852,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.942548622946206</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4333406355916</v>
+        <v>113.4027174472648</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955595765418487</v>
       </c>
       <c r="F22" t="n">
-        <v>113.387585382392</v>
+        <v>113.3974919726901</v>
       </c>
       <c r="G22" t="n">
-        <v>202.9799074205378</v>
+        <v>201.6358309383557</v>
       </c>
       <c r="H22" t="n">
-        <v>12.9066472460557</v>
+        <v>1.560739905657139</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672637336237274</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857864286660421</v>
+        <v>0.5857864236396145</v>
       </c>
       <c r="K22" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955595765418487</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.387585382392</v>
+        <v>113.3974919726901</v>
       </c>
       <c r="R22" t="n">
-        <v>202.9799074205378</v>
+        <v>201.6358309383557</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,31 +1917,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.942548622946206</v>
       </c>
       <c r="D23" t="n">
-        <v>113.4333406355916</v>
+        <v>113.4027174472648</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955595765418487</v>
       </c>
       <c r="F23" t="n">
-        <v>113.387585382392</v>
+        <v>113.3974919726901</v>
       </c>
       <c r="G23" t="n">
-        <v>202.9799074205378</v>
+        <v>201.6358309383557</v>
       </c>
       <c r="H23" t="n">
-        <v>12.9066472460557</v>
+        <v>1.560739905657139</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672637336237274</v>
       </c>
       <c r="J23" t="n">
-        <v>0.999957814240609</v>
+        <v>0.9999316597840509</v>
       </c>
       <c r="K23" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955595765418487</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.387585382392</v>
+        <v>113.3974919726901</v>
       </c>
       <c r="R23" t="n">
-        <v>202.9799074205378</v>
+        <v>201.6358309383557</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,31 +1982,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.946251698733781</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4333406355916</v>
+        <v>113.4007591403894</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="F24" t="n">
-        <v>113.387585382392</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="G24" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="H24" t="n">
-        <v>12.9066472460557</v>
+        <v>1.054941431662116</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672644623970529</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999618151247566</v>
+        <v>0.9999462531079552</v>
       </c>
       <c r="K24" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.387585382392</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="R24" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,31 +2047,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.842739560783599</v>
+        <v>-7.946251698733781</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4333406355916</v>
+        <v>113.4007591403894</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="F25" t="n">
-        <v>113.387585382392</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="G25" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="H25" t="n">
-        <v>12.9066472460557</v>
+        <v>1.054941431662116</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1708464664170997</v>
+        <v>0.1672644623970529</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999703150472131</v>
+        <v>0.9999499201381612</v>
       </c>
       <c r="K25" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.949598063921747</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.387585382392</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="R25" t="n">
-        <v>202.9799074205378</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,31 +2112,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.831798594948784</v>
+        <v>-7.946251698733781</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4228959675069</v>
+        <v>113.4007591403894</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.952539392484631</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="F26" t="n">
-        <v>113.3951086900835</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="G26" t="n">
-        <v>192.8398039264425</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="H26" t="n">
-        <v>13.7701864148064</v>
+        <v>1.054941431662116</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1708507599873601</v>
+        <v>0.1672644623970529</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999665677019733</v>
+        <v>0.9999560559671313</v>
       </c>
       <c r="K26" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.952539392484631</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.3951086900835</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="R26" t="n">
-        <v>192.8398039264425</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,31 +2177,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.831798594948784</v>
+        <v>-7.946251698733781</v>
       </c>
       <c r="D27" t="n">
-        <v>113.4228959675069</v>
+        <v>113.4007591403894</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.952539392484631</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="F27" t="n">
-        <v>113.3951086900835</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="G27" t="n">
-        <v>192.8398039264425</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="H27" t="n">
-        <v>13.7701864148064</v>
+        <v>1.054941431662116</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1708507599873601</v>
+        <v>0.1672644623970529</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999683389421619</v>
+        <v>0.9999669220338241</v>
       </c>
       <c r="K27" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.952539392484631</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.3951086900835</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="R27" t="n">
-        <v>192.8398039264425</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,31 +2242,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.827363157929733</v>
+        <v>-7.946251698733781</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4403029520818</v>
+        <v>113.4007591403894</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="F28" t="n">
-        <v>113.3846138500156</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="G28" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="H28" t="n">
-        <v>15.03469965875829</v>
+        <v>1.054941431662116</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1708522966933317</v>
+        <v>0.1672644623970529</v>
       </c>
       <c r="J28" t="n">
-        <v>0.999966960338286</v>
+        <v>0.9999751789096847</v>
       </c>
       <c r="K28" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.955077087373747</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.3846138500156</v>
+        <v>113.3972437276599</v>
       </c>
       <c r="R28" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5290201095739</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,31 +2307,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.827363157929733</v>
+        <v>-7.946532559238973</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4403029520818</v>
+        <v>113.4010426057025</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.955581788795644</v>
       </c>
       <c r="F29" t="n">
-        <v>113.3846138500156</v>
+        <v>113.39743654376</v>
       </c>
       <c r="G29" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5370621862919</v>
       </c>
       <c r="H29" t="n">
-        <v>15.03469965875829</v>
+        <v>1.08175817711812</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1708522966933317</v>
+        <v>0.1672647718254439</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999686958338346</v>
+        <v>0.999977005290696</v>
       </c>
       <c r="K29" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.955581788795644</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.3846138500156</v>
+        <v>113.39743654376</v>
       </c>
       <c r="R29" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5370621862919</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,31 +2372,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.827363157929733</v>
+        <v>-7.946532559238973</v>
       </c>
       <c r="D30" t="n">
-        <v>113.4403029520818</v>
+        <v>113.4010426057025</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.955581788795644</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3846138500156</v>
+        <v>113.39743654376</v>
       </c>
       <c r="G30" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5370621862919</v>
       </c>
       <c r="H30" t="n">
-        <v>15.03469965875829</v>
+        <v>1.08175817711812</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1708522966933317</v>
+        <v>0.1672647718254439</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999722004615217</v>
+        <v>0.9999836097755116</v>
       </c>
       <c r="K30" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.955581788795644</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.3846138500156</v>
+        <v>113.39743654376</v>
       </c>
       <c r="R30" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5370621862919</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,31 +2437,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.827363157929733</v>
+        <v>-7.945820403553133</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4403029520818</v>
+        <v>113.4015251398767</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.956187581576668</v>
       </c>
       <c r="F31" t="n">
-        <v>113.3846138500156</v>
+        <v>113.3973907549274</v>
       </c>
       <c r="G31" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5518438106611</v>
       </c>
       <c r="H31" t="n">
-        <v>15.03469965875829</v>
+        <v>1.239434220736448</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1708522966933317</v>
+        <v>0.1672648427122836</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999719827556707</v>
+        <v>0.9999886488732795</v>
       </c>
       <c r="K31" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.950809407448314</v>
+        <v>-7.956187581576668</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.3846138500156</v>
+        <v>113.3973907549274</v>
       </c>
       <c r="R31" t="n">
-        <v>204.0736958687511</v>
+        <v>201.5518438106611</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,31 +2502,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.826511884715035</v>
+        <v>-7.94590553395524</v>
       </c>
       <c r="D32" t="n">
-        <v>113.4192404657273</v>
+        <v>113.4019105180128</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.948322120177329</v>
+        <v>-7.955533838652355</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3881510153708</v>
+        <v>113.3980719938484</v>
       </c>
       <c r="G32" t="n">
-        <v>194.1857584591634</v>
+        <v>201.5457527640301</v>
       </c>
       <c r="H32" t="n">
-        <v>13.97082971427728</v>
+        <v>1.151050713956155</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1708556367161216</v>
+        <v>0.1672648504092483</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5857864393082223</v>
+        <v>0.585786439785161</v>
       </c>
       <c r="K32" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.948322120177329</v>
+        <v>-7.955533838652355</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.3881510153708</v>
+        <v>113.3980719938484</v>
       </c>
       <c r="R32" t="n">
-        <v>194.1857584591634</v>
+        <v>201.5457527640301</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,31 +2567,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.829065399119372</v>
+        <v>-7.786346190633474</v>
       </c>
       <c r="D33" t="n">
-        <v>113.4207498770987</v>
+        <v>113.4655108071346</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.948649502307814</v>
+        <v>-7.956042481152255</v>
       </c>
       <c r="F33" t="n">
-        <v>113.3902887510555</v>
+        <v>113.3978424684017</v>
       </c>
       <c r="G33" t="n">
-        <v>194.1589179671528</v>
+        <v>201.5496185988955</v>
       </c>
       <c r="H33" t="n">
-        <v>13.71388181626515</v>
+        <v>20.28810943633699</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1708562036890666</v>
+        <v>0.1672649251532706</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999791967990214</v>
+        <v>0.9999991342593436</v>
       </c>
       <c r="K33" t="n">
-        <v>1426</v>
+        <v>374</v>
       </c>
       <c r="L33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.948649502307814</v>
+        <v>-7.956042481152255</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.3902887510555</v>
+        <v>113.3978424684017</v>
       </c>
       <c r="R33" t="n">
-        <v>194.1589179671528</v>
+        <v>201.5496185988955</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,31 +2632,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.829065399119372</v>
+        <v>-7.786346190633474</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4207498770987</v>
+        <v>113.4655108071346</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.948649502307814</v>
+        <v>-7.956042481152255</v>
       </c>
       <c r="F34" t="n">
-        <v>113.3902887510555</v>
+        <v>113.3978424684017</v>
       </c>
       <c r="G34" t="n">
-        <v>194.1589179671528</v>
+        <v>201.5496185988955</v>
       </c>
       <c r="H34" t="n">
-        <v>13.71388181626515</v>
+        <v>20.28810943633699</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1708562036890666</v>
+        <v>0.1672649251532706</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8868910552796661</v>
+        <v>0.9310350796674814</v>
       </c>
       <c r="K34" t="n">
-        <v>1426</v>
+        <v>374</v>
       </c>
       <c r="L34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.948649502307814</v>
+        <v>-7.956042481152255</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.3902887510555</v>
+        <v>113.3978424684017</v>
       </c>
       <c r="R34" t="n">
-        <v>194.1589179671528</v>
+        <v>201.5496185988955</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,31 +2697,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.829065399119372</v>
+        <v>-7.945699609242116</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4207498770987</v>
+        <v>113.4014518736243</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.948649502307814</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="F35" t="n">
-        <v>113.3902887510555</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="G35" t="n">
-        <v>194.1589179671528</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="H35" t="n">
-        <v>13.71388181626515</v>
+        <v>1.199705521486637</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1708562036890666</v>
+        <v>0.1672649487853293</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8910296684884096</v>
+        <v>0.9643393690426458</v>
       </c>
       <c r="K35" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.948649502307814</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.3902887510555</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1589179671528</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,31 +2762,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.825906552561422</v>
+        <v>-7.945699609242116</v>
       </c>
       <c r="D36" t="n">
-        <v>113.4197215349834</v>
+        <v>113.4014518736243</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.948736491652342</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3884664519637</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="G36" t="n">
-        <v>194.1446479015999</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="H36" t="n">
-        <v>14.0852322827656</v>
+        <v>1.199705521486637</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1708565995809043</v>
+        <v>0.1672649487853293</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9698423529708798</v>
+        <v>0.8829833304866356</v>
       </c>
       <c r="K36" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.948736491652342</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.3884664519637</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="R36" t="n">
-        <v>194.1446479015999</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,31 +2827,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.825720974156902</v>
+        <v>-7.945699609242116</v>
       </c>
       <c r="D37" t="n">
-        <v>113.4199223161768</v>
+        <v>113.4014518736243</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.9487151315677</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="F37" t="n">
-        <v>113.3884409368775</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="G37" t="n">
-        <v>194.2246609433552</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="H37" t="n">
-        <v>14.10904454792143</v>
+        <v>1.199705521486637</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1708571016217052</v>
+        <v>0.1672649487853293</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9896156940709712</v>
+        <v>0.9660931257777458</v>
       </c>
       <c r="K37" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.9487151315677</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.3884409368775</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="R37" t="n">
-        <v>194.2246609433552</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,31 +2892,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.824398449441953</v>
+        <v>-7.945699609242116</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4203736631994</v>
+        <v>113.4014518736243</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.948660386413758</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="F38" t="n">
-        <v>113.3885936668776</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="G38" t="n">
-        <v>194.2135559528018</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="H38" t="n">
-        <v>14.25377661391956</v>
+        <v>1.199705521486637</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1708571534235412</v>
+        <v>0.1672649487853293</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9975316688886756</v>
+        <v>0.9863233957770211</v>
       </c>
       <c r="K38" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.948660386413758</v>
+        <v>-7.955734656908541</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3885936668776</v>
+        <v>113.3974504700172</v>
       </c>
       <c r="R38" t="n">
-        <v>194.2135559528018</v>
+        <v>201.5492779267237</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,31 +2957,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.824604756375046</v>
+        <v>-7.944151209691593</v>
       </c>
       <c r="D39" t="n">
-        <v>113.419825982816</v>
+        <v>113.4022473182819</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.948844348498885</v>
+        <v>-7.955658845949349</v>
       </c>
       <c r="F39" t="n">
-        <v>113.3880461901128</v>
+        <v>113.3976588802194</v>
       </c>
       <c r="G39" t="n">
-        <v>194.2159151440903</v>
+        <v>201.548637387944</v>
       </c>
       <c r="H39" t="n">
-        <v>14.25136216381718</v>
+        <v>1.375750083601205</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1708573897393223</v>
+        <v>0.1672649602822251</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9982399060607426</v>
+        <v>0.9960295200926542</v>
       </c>
       <c r="K39" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.948844348498885</v>
+        <v>-7.955658845949349</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.3880461901128</v>
+        <v>113.3976588802194</v>
       </c>
       <c r="R39" t="n">
-        <v>194.2159151440903</v>
+        <v>201.548637387944</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.824604756375046</v>
+        <v>-7.944151209691593</v>
       </c>
       <c r="D40" t="n">
-        <v>113.419825982816</v>
+        <v>113.4022473182819</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.948844348498885</v>
+        <v>-7.955658845949349</v>
       </c>
       <c r="F40" t="n">
-        <v>113.3880461901128</v>
+        <v>113.3976588802194</v>
       </c>
       <c r="G40" t="n">
-        <v>194.2159151440903</v>
+        <v>201.548637387944</v>
       </c>
       <c r="H40" t="n">
-        <v>14.25136216381718</v>
+        <v>1.375750083601205</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1708573897393223</v>
+        <v>0.1672649602822251</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9989958598802245</v>
+        <v>0.9972995841926229</v>
       </c>
       <c r="K40" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.948844348498885</v>
+        <v>-7.955658845949349</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.3880461901128</v>
+        <v>113.3976588802194</v>
       </c>
       <c r="R40" t="n">
-        <v>194.2159151440903</v>
+        <v>201.548637387944</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,31 +3087,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.825232516865698</v>
+        <v>-7.944481751829538</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4200883017472</v>
+        <v>113.4021438819134</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.94884499659257</v>
+        <v>-7.955717531296178</v>
       </c>
       <c r="F41" t="n">
-        <v>113.3884779481319</v>
+        <v>113.397663630881</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2120216019792</v>
+        <v>201.5495547639427</v>
       </c>
       <c r="H41" t="n">
-        <v>14.17918209000238</v>
+        <v>1.343257740901413</v>
       </c>
       <c r="I41" t="n">
-        <v>0.170857712688934</v>
+        <v>0.1672649608612206</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9990619128426474</v>
+        <v>0.9984752168400888</v>
       </c>
       <c r="K41" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.94884499659257</v>
+        <v>-7.955717531296178</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.3884779481319</v>
+        <v>113.397663630881</v>
       </c>
       <c r="R41" t="n">
-        <v>194.2120216019792</v>
+        <v>201.5495547639427</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.825257855117383</v>
+        <v>-7.944346310866884</v>
       </c>
       <c r="D42" t="n">
-        <v>113.4200410451586</v>
+        <v>113.402273660734</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.948829767654698</v>
+        <v>-7.955787319446065</v>
       </c>
       <c r="F42" t="n">
-        <v>113.388451988792</v>
+        <v>113.3977118055722</v>
       </c>
       <c r="G42" t="n">
-        <v>194.2073084286584</v>
+        <v>201.5485608913659</v>
       </c>
       <c r="H42" t="n">
-        <v>14.17423337267111</v>
+        <v>1.367783935767395</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1708577219874635</v>
+        <v>0.1672649628183854</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5857863836503399</v>
+        <v>0.5857862432115813</v>
       </c>
       <c r="K42" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.948829767654698</v>
+        <v>-7.955787319446065</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.388451988792</v>
+        <v>113.3977118055722</v>
       </c>
       <c r="R42" t="n">
-        <v>194.2073084286584</v>
+        <v>201.5485608913659</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,31 +3217,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.825257855117383</v>
+        <v>-7.944247826653581</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4200410451586</v>
+        <v>113.4022378917554</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.948829767654698</v>
+        <v>-7.955755469736996</v>
       </c>
       <c r="F43" t="n">
-        <v>113.388451988792</v>
+        <v>113.3976493963044</v>
       </c>
       <c r="G43" t="n">
-        <v>194.2073084286584</v>
+        <v>201.548865971249</v>
       </c>
       <c r="H43" t="n">
-        <v>14.17423337267111</v>
+        <v>1.375753067140865</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1708577219874635</v>
+        <v>0.1672649675400545</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9999299336699888</v>
+        <v>0.9997490044983015</v>
       </c>
       <c r="K43" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.948829767654698</v>
+        <v>-7.955755469736996</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.388451988792</v>
+        <v>113.3976493963044</v>
       </c>
       <c r="R43" t="n">
-        <v>194.2073084286584</v>
+        <v>201.548865971249</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,31 +3282,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.825378902680776</v>
+        <v>-7.944259104270574</v>
       </c>
       <c r="D44" t="n">
-        <v>113.420037124859</v>
+        <v>113.4022908726931</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.948852694210619</v>
+        <v>-7.955758805740006</v>
       </c>
       <c r="F44" t="n">
-        <v>113.3884734282937</v>
+        <v>113.3977055074704</v>
       </c>
       <c r="G44" t="n">
-        <v>194.207188192827</v>
+        <v>201.5490210853312</v>
       </c>
       <c r="H44" t="n">
-        <v>14.16297083539669</v>
+        <v>1.374805105057293</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1708578050248825</v>
+        <v>0.1672649688321347</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9999298942690755</v>
+        <v>0.9998900262792223</v>
       </c>
       <c r="K44" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.948852694210619</v>
+        <v>-7.955758805740006</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.3884734282937</v>
+        <v>113.3977055074704</v>
       </c>
       <c r="R44" t="n">
-        <v>194.207188192827</v>
+        <v>201.5490210853312</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,31 +3347,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.825378902680776</v>
+        <v>-7.944238052873023</v>
       </c>
       <c r="D45" t="n">
-        <v>113.420037124859</v>
+        <v>113.4022411120174</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.948852694210619</v>
+        <v>-7.955735203576253</v>
       </c>
       <c r="F45" t="n">
-        <v>113.3884734282937</v>
+        <v>113.3976567714539</v>
       </c>
       <c r="G45" t="n">
-        <v>194.207188192827</v>
+        <v>201.5489898900904</v>
       </c>
       <c r="H45" t="n">
-        <v>14.16297083539669</v>
+        <v>1.374499861243851</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1708578050248825</v>
+        <v>0.167264969023615</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9999441815832613</v>
+        <v>0.999894487561871</v>
       </c>
       <c r="K45" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.948852694210619</v>
+        <v>-7.955735203576253</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.3884734282937</v>
+        <v>113.3976567714539</v>
       </c>
       <c r="R45" t="n">
-        <v>194.207188192827</v>
+        <v>201.5489898900904</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,31 +3412,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.825378902680776</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D46" t="n">
-        <v>113.420037124859</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.948852694210619</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F46" t="n">
-        <v>113.3884734282937</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G46" t="n">
-        <v>194.207188192827</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H46" t="n">
-        <v>14.16297083539669</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1708578050248825</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J46" t="n">
-        <v>0.999946670970159</v>
+        <v>0.9999614790947603</v>
       </c>
       <c r="K46" t="n">
-        <v>1426</v>
+        <v>448</v>
       </c>
       <c r="L46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.948852694210619</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.3884734282937</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R46" t="n">
-        <v>194.207188192827</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,31 +3477,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D47" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F47" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G47" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H47" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999700938598882</v>
+        <v>0.9999613521378026</v>
       </c>
       <c r="K47" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R47" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,31 +3542,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D48" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F48" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G48" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H48" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999766603490476</v>
+        <v>0.999983057000126</v>
       </c>
       <c r="K48" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R48" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,31 +3607,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D49" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F49" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G49" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H49" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999766514490361</v>
+        <v>0.9999900873322488</v>
       </c>
       <c r="K49" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R49" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,31 +3672,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D50" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F50" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G50" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H50" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999766466516381</v>
+        <v>0.960848664557298</v>
       </c>
       <c r="K50" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R50" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,31 +3737,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D51" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F51" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G51" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H51" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999743994372178</v>
+        <v>0.9905748752756118</v>
       </c>
       <c r="K51" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R51" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,31 +3802,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D52" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F52" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G52" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H52" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J52" t="n">
-        <v>0.585655428721645</v>
+        <v>0.5857688430935541</v>
       </c>
       <c r="K52" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R52" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,31 +3867,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D53" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F53" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G53" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H53" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999847093521076</v>
+        <v>0.9999998401613219</v>
       </c>
       <c r="K53" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R53" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,31 +3932,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265041961556</v>
       </c>
       <c r="D54" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022639162851</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="F54" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="G54" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="H54" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374619147212394</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695634749</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9999846915421208</v>
+        <v>0.9999998401096721</v>
       </c>
       <c r="K54" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955763189861039</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976791760694</v>
       </c>
       <c r="R54" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489972298822</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,31 +3997,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944296679447986</v>
       </c>
       <c r="D55" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022424567883</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955773394079682</v>
       </c>
       <c r="F55" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976662622667</v>
       </c>
       <c r="G55" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489991691381</v>
       </c>
       <c r="H55" t="n">
-        <v>4.700870183724792</v>
+        <v>1.372056783793492</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695731542</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999846721621758</v>
+        <v>0.9999998393247981</v>
       </c>
       <c r="K55" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955773394079682</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976662622667</v>
       </c>
       <c r="R55" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489991691381</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,31 +4062,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944296679447986</v>
       </c>
       <c r="D56" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022424567883</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955773394079682</v>
       </c>
       <c r="F56" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976662622667</v>
       </c>
       <c r="G56" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489991691381</v>
       </c>
       <c r="H56" t="n">
-        <v>4.700870183724792</v>
+        <v>1.372056783793492</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695731542</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999846556036458</v>
+        <v>0.9999998388997184</v>
       </c>
       <c r="K56" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955773394079682</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976662622667</v>
       </c>
       <c r="R56" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489991691381</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,31 +4127,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265060722527</v>
       </c>
       <c r="D57" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022594313313</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955765423988363</v>
       </c>
       <c r="F57" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976738076554</v>
       </c>
       <c r="G57" t="n">
-        <v>31.22316029606555</v>
+        <v>201.548997589393</v>
       </c>
       <c r="H57" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374884001244561</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695970472</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999846463210452</v>
+        <v>0.9999998387407367</v>
       </c>
       <c r="K57" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955765423988363</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976738076554</v>
       </c>
       <c r="R57" t="n">
-        <v>31.22316029606555</v>
+        <v>201.548997589393</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,31 +4192,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265060722527</v>
       </c>
       <c r="D58" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022594313313</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955765423988363</v>
       </c>
       <c r="F58" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976738076554</v>
       </c>
       <c r="G58" t="n">
-        <v>31.22316029606555</v>
+        <v>201.548997589393</v>
       </c>
       <c r="H58" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374884001244561</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695970472</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999846417191676</v>
+        <v>0.9999998382281072</v>
       </c>
       <c r="K58" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955765423988363</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976738076554</v>
       </c>
       <c r="R58" t="n">
-        <v>31.22316029606555</v>
+        <v>201.548997589393</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,31 +4257,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265060722527</v>
       </c>
       <c r="D59" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022594313313</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955765423988363</v>
       </c>
       <c r="F59" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976738076554</v>
       </c>
       <c r="G59" t="n">
-        <v>31.22316029606555</v>
+        <v>201.548997589393</v>
       </c>
       <c r="H59" t="n">
-        <v>4.700870183724792</v>
+        <v>1.374884001244561</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695970472</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999865186029478</v>
+        <v>0.9999999208079819</v>
       </c>
       <c r="K59" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955765423988363</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976738076554</v>
       </c>
       <c r="R59" t="n">
-        <v>31.22316029606555</v>
+        <v>201.548997589393</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,31 +4322,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944268778878221</v>
       </c>
       <c r="D60" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022599742552</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.95577173210177</v>
       </c>
       <c r="F60" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976733177217</v>
       </c>
       <c r="G60" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489978964061</v>
       </c>
       <c r="H60" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375193637784911</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649695996091</v>
       </c>
       <c r="J60" t="n">
-        <v>0.999986515778918</v>
+        <v>0.9999999205999265</v>
       </c>
       <c r="K60" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.95577173210177</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976733177217</v>
       </c>
       <c r="R60" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489978964061</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,31 +4387,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944293928704707</v>
       </c>
       <c r="D61" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022476763676</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955767878870729</v>
       </c>
       <c r="F61" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976725845471</v>
       </c>
       <c r="G61" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489977081486</v>
       </c>
       <c r="H61" t="n">
-        <v>4.700870183724792</v>
+        <v>1.371726273641369</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.167264969604075</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999883086421494</v>
+        <v>0.9999999996021969</v>
       </c>
       <c r="K61" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955767878870729</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976725845471</v>
       </c>
       <c r="R61" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489977081486</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,31 +4452,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944266009105303</v>
       </c>
       <c r="D62" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022593502896</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769837018132</v>
       </c>
       <c r="F62" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976723450653</v>
       </c>
       <c r="G62" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976404461</v>
       </c>
       <c r="H62" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375298205874308</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696056893</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5857864397073033</v>
+        <v>0.5857864398028599</v>
       </c>
       <c r="K62" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769837018132</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976723450653</v>
       </c>
       <c r="R62" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976404461</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,31 +4517,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265435200792</v>
       </c>
       <c r="D63" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022583033011</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769436829348</v>
       </c>
       <c r="F63" t="n">
-        <v>113.3870640533561</v>
+        <v>113.397671228812</v>
       </c>
       <c r="G63" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976498093</v>
       </c>
       <c r="H63" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375318973958806</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696065558</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999940696005369</v>
+        <v>0.9999999998716547</v>
       </c>
       <c r="K63" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769436829348</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.3870640533561</v>
+        <v>113.397671228812</v>
       </c>
       <c r="R63" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976498093</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,31 +4582,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265435200792</v>
       </c>
       <c r="D64" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022583033011</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769436829348</v>
       </c>
       <c r="F64" t="n">
-        <v>113.3870640533561</v>
+        <v>113.397671228812</v>
       </c>
       <c r="G64" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976498093</v>
       </c>
       <c r="H64" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375318973958806</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696065558</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9800280879416756</v>
+        <v>0.9999999998833653</v>
       </c>
       <c r="K64" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769436829348</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.3870640533561</v>
+        <v>113.397671228812</v>
       </c>
       <c r="R64" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976498093</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,31 +4647,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265782506026</v>
       </c>
       <c r="D65" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580091681</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769887981933</v>
       </c>
       <c r="F65" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708932627</v>
       </c>
       <c r="G65" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976639463</v>
       </c>
       <c r="H65" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375331389211244</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696065662</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8309723646125702</v>
+        <v>0.963562249648206</v>
       </c>
       <c r="K65" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769887981933</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708932627</v>
       </c>
       <c r="R65" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976639463</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,31 +4712,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265462538506</v>
       </c>
       <c r="D66" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580999669</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769727407284</v>
       </c>
       <c r="F66" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976709205074</v>
       </c>
       <c r="G66" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976635088</v>
       </c>
       <c r="H66" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375350444882252</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696066048</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9573262474450706</v>
+        <v>0.9405378477323751</v>
       </c>
       <c r="K66" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769727407284</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976709205074</v>
       </c>
       <c r="R66" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976635088</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,31 +4777,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265125570693</v>
       </c>
       <c r="D67" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022583715817</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769634608884</v>
       </c>
       <c r="F67" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976710947661</v>
       </c>
       <c r="G67" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976530291</v>
       </c>
       <c r="H67" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375379635630905</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696066242</v>
       </c>
       <c r="J67" t="n">
-        <v>0.99054507864358</v>
+        <v>0.9810482625664284</v>
       </c>
       <c r="K67" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769634608884</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976710947661</v>
       </c>
       <c r="R67" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976530291</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,31 +4842,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265240345934</v>
       </c>
       <c r="D68" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580203964</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769488391129</v>
       </c>
       <c r="F68" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708476494</v>
       </c>
       <c r="G68" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976565803</v>
       </c>
       <c r="H68" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375348433530159</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696066974</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9964740934114038</v>
+        <v>0.9887187249460924</v>
       </c>
       <c r="K68" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769488391129</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708476494</v>
       </c>
       <c r="R68" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976565803</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,31 +4907,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265240345934</v>
       </c>
       <c r="D69" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580203964</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769488391129</v>
       </c>
       <c r="F69" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708476494</v>
       </c>
       <c r="G69" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976565803</v>
       </c>
       <c r="H69" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375348433530159</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696066974</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9975208087484627</v>
+        <v>0.9943710176083347</v>
       </c>
       <c r="K69" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769488391129</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708476494</v>
       </c>
       <c r="R69" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976565803</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,31 +4972,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265327158272</v>
       </c>
       <c r="D70" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580643628</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769507017897</v>
       </c>
       <c r="F70" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976709188036</v>
       </c>
       <c r="G70" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573276</v>
       </c>
       <c r="H70" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375340281842264</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067071</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9978918499219621</v>
+        <v>0.9967392493596694</v>
       </c>
       <c r="K70" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769507017897</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976709188036</v>
       </c>
       <c r="R70" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573276</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,31 +5037,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265274829674</v>
       </c>
       <c r="D71" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022579843357</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769501135061</v>
       </c>
       <c r="F71" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708202569</v>
       </c>
       <c r="G71" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573534</v>
       </c>
       <c r="H71" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375345834508133</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067078</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9981764608564797</v>
+        <v>0.9973930783531711</v>
       </c>
       <c r="K71" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769501135061</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708202569</v>
       </c>
       <c r="R71" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573534</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,31 +5102,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265274829674</v>
       </c>
       <c r="D72" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022579843357</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769501135061</v>
       </c>
       <c r="F72" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708202569</v>
       </c>
       <c r="G72" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573534</v>
       </c>
       <c r="H72" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375345834508133</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067078</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857855777280446</v>
+        <v>0.5857845865439467</v>
       </c>
       <c r="K72" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769501135061</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708202569</v>
       </c>
       <c r="R72" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573534</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,31 +5167,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265274829674</v>
       </c>
       <c r="D73" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022579843357</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769501135061</v>
       </c>
       <c r="F73" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708202569</v>
       </c>
       <c r="G73" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573534</v>
       </c>
       <c r="H73" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375345834508133</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067078</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9997243541428652</v>
+        <v>0.999963499707043</v>
       </c>
       <c r="K73" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769501135061</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708202569</v>
       </c>
       <c r="R73" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573534</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,31 +5232,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265361807938</v>
       </c>
       <c r="D74" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022579725447</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769519969673</v>
       </c>
       <c r="F74" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708356372</v>
       </c>
       <c r="G74" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573717</v>
       </c>
       <c r="H74" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375337687824576</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067082</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9997522684982982</v>
+        <v>0.9999725172432015</v>
       </c>
       <c r="K74" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769519969673</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708356372</v>
       </c>
       <c r="R74" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573717</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,31 +5297,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265361807938</v>
       </c>
       <c r="D75" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022579725447</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769519969673</v>
       </c>
       <c r="F75" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708356372</v>
       </c>
       <c r="G75" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573717</v>
       </c>
       <c r="H75" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375337687824576</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067082</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9998164059417234</v>
+        <v>0.9999881850950461</v>
       </c>
       <c r="K75" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769519969673</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708356372</v>
       </c>
       <c r="R75" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573717</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,31 +5362,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.94426530753106</v>
       </c>
       <c r="D76" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580354854</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769509170755</v>
       </c>
       <c r="F76" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708812417</v>
       </c>
       <c r="G76" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573745</v>
       </c>
       <c r="H76" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375342885685186</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067083</v>
       </c>
       <c r="J76" t="n">
-        <v>0.999934573139646</v>
+        <v>0.9999983483090618</v>
       </c>
       <c r="K76" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.955769509170755</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708812417</v>
       </c>
       <c r="R76" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573745</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,31 +5427,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.991724879944269</v>
+        <v>-7.944265332714456</v>
       </c>
       <c r="D77" t="n">
-        <v>113.3649363964643</v>
+        <v>113.4022580164962</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.9557695164022</v>
       </c>
       <c r="F77" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708694105</v>
       </c>
       <c r="G77" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573603</v>
       </c>
       <c r="H77" t="n">
-        <v>4.700870183724792</v>
+        <v>1.375340739500229</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1708601142809359</v>
+        <v>0.1672649696067085</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999574505755309</v>
+        <v>0.9999999999972009</v>
       </c>
       <c r="K77" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.955571818775225</v>
+        <v>-7.9557695164022</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.3870640533561</v>
+        <v>113.3976708694105</v>
       </c>
       <c r="R77" t="n">
-        <v>31.22316029606555</v>
+        <v>201.5489976573603</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,31 +5492,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.991741851109845</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D78" t="n">
-        <v>113.36486778342</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.955537288974009</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F78" t="n">
-        <v>113.3870665729831</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G78" t="n">
-        <v>31.26854464686645</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H78" t="n">
-        <v>4.709829233783786</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1708608404968492</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999583375732144</v>
+        <v>0.9999999999975122</v>
       </c>
       <c r="K78" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.955537288974009</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.3870665729831</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R78" t="n">
-        <v>31.26854464686645</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,31 +5557,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.99235845232391</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D79" t="n">
-        <v>113.3652088307939</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.954640205548917</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F79" t="n">
-        <v>113.3883986469364</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G79" t="n">
-        <v>31.33771867020373</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H79" t="n">
-        <v>4.910343333391016</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1708628684572035</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999792944423905</v>
+        <v>0.9999999999972053</v>
       </c>
       <c r="K79" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.954640205548917</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.3883986469364</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R79" t="n">
-        <v>31.33771867020373</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,31 +5622,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.991727764763686</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D80" t="n">
-        <v>113.3651795225242</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.954453733032605</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F80" t="n">
-        <v>113.3880497562702</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G80" t="n">
-        <v>31.28608360921459</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H80" t="n">
-        <v>4.849855191766842</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1708635882409703</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999927289889381</v>
+        <v>0.9609683002684021</v>
       </c>
       <c r="K80" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.954453733032605</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.3880497562702</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R80" t="n">
-        <v>31.28608360921459</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,31 +5687,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.991978797589862</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D81" t="n">
-        <v>113.3652150259387</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.953618938388428</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F81" t="n">
-        <v>113.3887887544818</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G81" t="n">
-        <v>31.32638979328292</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H81" t="n">
-        <v>4.993269084412304</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I81" t="n">
-        <v>0.170863907291848</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9999908423375188</v>
+        <v>0.9881520881204388</v>
       </c>
       <c r="K81" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.953618938388428</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.3887887544818</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R81" t="n">
-        <v>31.32638979328292</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,31 +5752,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.991441904736279</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D82" t="n">
-        <v>113.3654560826682</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.953550268096548</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F82" t="n">
-        <v>113.3886912257562</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G82" t="n">
-        <v>31.27079406918301</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H82" t="n">
-        <v>4.929413487642049</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1708643154422159</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5857519011159777</v>
+        <v>0.5358788259469954</v>
       </c>
       <c r="K82" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.953550268096548</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.3886912257562</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R82" t="n">
-        <v>31.27079406918301</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,31 +5817,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.992004099382132</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D83" t="n">
-        <v>113.3652100912149</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.953770082174432</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F83" t="n">
-        <v>113.3886646912346</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G83" t="n">
-        <v>31.28109415112776</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H83" t="n">
-        <v>4.974496929782942</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1708643755058968</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999891724667861</v>
+        <v>0.9941675161673331</v>
       </c>
       <c r="K83" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.953770082174432</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.3886646912346</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R83" t="n">
-        <v>31.28109415112776</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,31 +5882,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.991777383348766</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D84" t="n">
-        <v>113.3654371332405</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.953644011650526</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F84" t="n">
-        <v>113.3888296809812</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G84" t="n">
-        <v>31.28076227599495</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H84" t="n">
-        <v>4.961385057417927</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1708644661324381</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9999900249067226</v>
+        <v>0.9960867933308108</v>
       </c>
       <c r="K84" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.953644011650526</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.3888296809812</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R84" t="n">
-        <v>31.28076227599495</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,31 +5947,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.991795554207192</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D85" t="n">
-        <v>113.3654563686842</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.953677416846012</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F85" t="n">
-        <v>113.3888437795856</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G85" t="n">
-        <v>31.28533599793914</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H85" t="n">
-        <v>4.959643531506622</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1708644973566477</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999910195519069</v>
+        <v>0.9981819034497836</v>
       </c>
       <c r="K85" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.953677416846012</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.3888437795856</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R85" t="n">
-        <v>31.28533599793914</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,31 +6012,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.991591146406092</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D86" t="n">
-        <v>113.3654539132281</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.953528266667721</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F86" t="n">
-        <v>113.3888061051996</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G86" t="n">
-        <v>31.28391212715575</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H86" t="n">
-        <v>4.952379178249265</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1708645438942719</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999924176553264</v>
+        <v>0.9981819034496633</v>
       </c>
       <c r="K86" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.953528266667721</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.3888061051996</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R86" t="n">
-        <v>31.28391212715575</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,31 +6077,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.991591146406092</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D87" t="n">
-        <v>113.3654539132281</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.953528266667721</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F87" t="n">
-        <v>113.3888061051996</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G87" t="n">
-        <v>31.28391212715575</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H87" t="n">
-        <v>4.952379178249265</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1708645438942719</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999927077660129</v>
+        <v>0.9992258668320518</v>
       </c>
       <c r="K87" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.953528266667721</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.3888061051996</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R87" t="n">
-        <v>31.28391212715575</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,31 +6142,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.99178498207222</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D88" t="n">
-        <v>113.3654361224346</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.95353125896097</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F88" t="n">
-        <v>113.3889065917929</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G88" t="n">
-        <v>31.28520548304207</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H88" t="n">
-        <v>4.977277730334261</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1708645589614828</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999927162001588</v>
+        <v>0.9996069301226732</v>
       </c>
       <c r="K88" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.95353125896097</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.3889065917929</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R88" t="n">
-        <v>31.28520548304207</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,31 +6207,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.99178498207222</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D89" t="n">
-        <v>113.3654361224346</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.95353125896097</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F89" t="n">
-        <v>113.3889065917929</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G89" t="n">
-        <v>31.28520548304207</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H89" t="n">
-        <v>4.977277730334261</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1708645589614828</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999936287527138</v>
+        <v>0.9997324255119757</v>
       </c>
       <c r="K89" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.95353125896097</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.3889065917929</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R89" t="n">
-        <v>31.28520548304207</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,31 +6272,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.991881256796532</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D90" t="n">
-        <v>113.3655171316103</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.953518740040853</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F90" t="n">
-        <v>113.3890544722477</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G90" t="n">
-        <v>31.28533849148007</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H90" t="n">
-        <v>4.991439909792623</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1708645756860038</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9999947943781163</v>
+        <v>0.999865249203251</v>
       </c>
       <c r="K90" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.953518740040853</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.3890544722477</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R90" t="n">
-        <v>31.28533849148007</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,31 +6337,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.991881256796532</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D91" t="n">
-        <v>113.3655171316103</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.953518740040853</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F91" t="n">
-        <v>113.3890544722477</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G91" t="n">
-        <v>31.28533849148007</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H91" t="n">
-        <v>4.991439909792623</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1708645756860038</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J91" t="n">
-        <v>0.999996001785281</v>
+        <v>0.9999185040069252</v>
       </c>
       <c r="K91" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.953518740040853</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.3890544722477</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R91" t="n">
-        <v>31.28533849148007</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,31 +6402,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.99185603322674</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D92" t="n">
-        <v>113.3655692069968</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.953547139090824</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F92" t="n">
-        <v>113.3890728469321</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G92" t="n">
-        <v>31.28447006476095</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H92" t="n">
-        <v>4.984417160551406</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1708645812036785</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5857864397530786</v>
+        <v>0.5857864390264594</v>
       </c>
       <c r="K92" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.953547139090824</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.3890728469321</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R92" t="n">
-        <v>31.28447006476095</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,31 +6467,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.99178261230545</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D93" t="n">
-        <v>113.3655824187314</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.953529597565108</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F93" t="n">
-        <v>113.3890518975053</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G93" t="n">
-        <v>31.28460322524308</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H93" t="n">
-        <v>4.977153777979288</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I93" t="n">
-        <v>0.170864583308293</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9999998156526699</v>
+        <v>0.9999999999999551</v>
       </c>
       <c r="K93" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.953529597565108</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.3890518975053</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R93" t="n">
-        <v>31.28460322524308</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,31 +6532,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.99178261230545</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D94" t="n">
-        <v>113.3655824187314</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.953529597565108</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F94" t="n">
-        <v>113.3890518975053</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G94" t="n">
-        <v>31.28460322524308</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H94" t="n">
-        <v>4.977153777979288</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I94" t="n">
-        <v>0.170864583308293</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9266021164074615</v>
+        <v>0.9999999999999514</v>
       </c>
       <c r="K94" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.953529597565108</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.3890518975053</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R94" t="n">
-        <v>31.28460322524308</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,31 +6597,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.991738545916649</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D95" t="n">
-        <v>113.3656895689239</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.953525647592508</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F95" t="n">
-        <v>113.3891345049675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G95" t="n">
-        <v>31.28467893137789</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H95" t="n">
-        <v>4.971938256217138</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1708645852105329</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9285335556700575</v>
+        <v>0.9145804824122519</v>
       </c>
       <c r="K95" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.953525647592508</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.3891345049675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R95" t="n">
-        <v>31.28467893137789</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,31 +6662,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.99171005785176</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D96" t="n">
-        <v>113.3656955716212</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.953528821140989</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F96" t="n">
-        <v>113.3891207903396</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G96" t="n">
-        <v>31.28436159178247</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H96" t="n">
-        <v>4.967802069865965</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1708645865064253</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9668451493787423</v>
+        <v>0.8755625489824259</v>
       </c>
       <c r="K96" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.953528821140989</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.3891207903396</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R96" t="n">
-        <v>31.28436159178247</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,31 +6727,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.99171005785176</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D97" t="n">
-        <v>113.3656955716212</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.953528821140989</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F97" t="n">
-        <v>113.3891207903396</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G97" t="n">
-        <v>31.28436159178247</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H97" t="n">
-        <v>4.967802069865965</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1708645865064253</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9806133913955564</v>
+        <v>0.971875481272406</v>
       </c>
       <c r="K97" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.953528821140989</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.3891207903396</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R97" t="n">
-        <v>31.28436159178247</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,31 +6792,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.991785594945535</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D98" t="n">
-        <v>113.3655854506</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.953526482874373</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F98" t="n">
-        <v>113.389058540474</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G98" t="n">
-        <v>31.28446286709369</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H98" t="n">
-        <v>4.977939687657068</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1708645865527541</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J98" t="n">
-        <v>0.994510290354207</v>
+        <v>0.9839516500496863</v>
       </c>
       <c r="K98" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.953526482874373</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.389058540474</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R98" t="n">
-        <v>31.28446286709369</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,31 +6857,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.991716018888408</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D99" t="n">
-        <v>113.3656568456194</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.953521262937778</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F99" t="n">
-        <v>113.3890905360785</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G99" t="n">
-        <v>31.28455462913248</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H99" t="n">
-        <v>4.969571214930803</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1708645878081042</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9974486775999567</v>
+        <v>0.9939105553526122</v>
       </c>
       <c r="K99" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.953521262937778</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.3890905360785</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R99" t="n">
-        <v>31.28455462913248</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,31 +6922,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.991661530316435</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D100" t="n">
-        <v>113.3657132255721</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.953521374400841</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F100" t="n">
-        <v>113.3891133040941</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G100" t="n">
-        <v>31.28443109956435</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H100" t="n">
-        <v>4.962460753133675</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1708645895215141</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9982811369642371</v>
+        <v>0.9960005363267842</v>
       </c>
       <c r="K100" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.953521374400841</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.3891133040941</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R100" t="n">
-        <v>31.28443109956435</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,31 +6987,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.991661530316435</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D101" t="n">
-        <v>113.3657132255721</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.953521374400841</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F101" t="n">
-        <v>113.3891133040941</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G101" t="n">
-        <v>31.28443109956435</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H101" t="n">
-        <v>4.962460753133675</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1708645895215141</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9986906851257803</v>
+        <v>0.9966049222063892</v>
       </c>
       <c r="K101" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.953521374400841</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.3891133040941</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R101" t="n">
-        <v>31.28443109956435</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,31 +7052,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.991712493883266</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D102" t="n">
-        <v>113.3657060095447</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.953520714089489</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F102" t="n">
-        <v>113.3891377644369</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G102" t="n">
-        <v>31.28443569205273</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H102" t="n">
-        <v>4.969177722712828</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1708645897749113</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5857862501722072</v>
+        <v>0.5857827213080761</v>
       </c>
       <c r="K102" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.953520714089489</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.3891377644369</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R102" t="n">
-        <v>31.28443569205273</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,31 +7117,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.991712493883266</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D103" t="n">
-        <v>113.3657060095447</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.953520714089489</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F103" t="n">
-        <v>113.3891377644369</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G103" t="n">
-        <v>31.28443569205273</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H103" t="n">
-        <v>4.969177722712828</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1708645897749113</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J103" t="n">
-        <v>0.999999980015972</v>
+        <v>0.9996597461356624</v>
       </c>
       <c r="K103" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.953520714089489</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.3891377644369</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R103" t="n">
-        <v>31.28443569205273</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,31 +7182,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.991704813254898</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D104" t="n">
-        <v>113.3656977667995</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.953519658150907</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F104" t="n">
-        <v>113.3891254388725</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G104" t="n">
-        <v>31.2844157296423</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H104" t="n">
-        <v>4.968314739705086</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I104" t="n">
-        <v>0.170864589819665</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9999999798291448</v>
+        <v>0.999880499239308</v>
       </c>
       <c r="K104" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.953519658150907</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.3891254388725</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R104" t="n">
-        <v>31.2844157296423</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,31 +7247,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.990537589045294</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D105" t="n">
-        <v>113.3664056433564</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F105" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G105" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H105" t="n">
-        <v>4.816397606140825</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1708645899595862</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9999999790926064</v>
+        <v>0.999963027428199</v>
       </c>
       <c r="K105" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R105" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,31 +7312,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.990537589045294</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D106" t="n">
-        <v>113.3664056433564</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F106" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G106" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H106" t="n">
-        <v>4.816397606140825</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1708645899595862</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9999999787321592</v>
+        <v>0.999963027428199</v>
       </c>
       <c r="K106" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R106" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,31 +7377,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.990537589045294</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D107" t="n">
-        <v>113.3664056433564</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F107" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G107" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H107" t="n">
-        <v>4.816397606140825</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1708645899595862</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9999999784981874</v>
+        <v>0.9999836708076779</v>
       </c>
       <c r="K107" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R107" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,31 +7442,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.990537589045294</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D108" t="n">
-        <v>113.3664056433564</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F108" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G108" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H108" t="n">
-        <v>4.816397606140825</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1708645899595862</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999999783176647</v>
+        <v>0.9999964018623607</v>
       </c>
       <c r="K108" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.953520055914349</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.3891169753675</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R108" t="n">
-        <v>31.28443464040268</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,31 +7507,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.991712154319178</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D109" t="n">
-        <v>113.3656963361993</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.953519657627663</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F109" t="n">
-        <v>113.38912853493</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G109" t="n">
-        <v>31.28444010763888</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H109" t="n">
-        <v>4.969271230198196</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I109" t="n">
-        <v>0.170864590173329</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9999999779499151</v>
+        <v>0.9999960315064644</v>
       </c>
       <c r="K109" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.953519657627663</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.38912853493</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R109" t="n">
-        <v>31.28444010763888</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,31 +7572,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.990537436034985</v>
+        <v>-7.944265286931406</v>
       </c>
       <c r="D110" t="n">
-        <v>113.3664176524994</v>
+        <v>113.4022580189411</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.953519508590415</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="F110" t="n">
-        <v>113.3891292296581</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="G110" t="n">
-        <v>31.28443828936403</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="H110" t="n">
-        <v>4.816449096290804</v>
+        <v>1.375345321002559</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1708645901857163</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9999999776626083</v>
+        <v>0.9698405603861658</v>
       </c>
       <c r="K110" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.953519508590415</v>
+        <v>-7.955769508941528</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.3891292296581</v>
+        <v>113.3976708565749</v>
       </c>
       <c r="R110" t="n">
-        <v>31.28443828936403</v>
+        <v>201.5489976573644</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,31 +7637,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.990537043084119</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D111" t="n">
-        <v>113.366407338692</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.953519394689064</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F111" t="n">
-        <v>113.3891187520241</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G111" t="n">
-        <v>31.28444655397769</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H111" t="n">
-        <v>4.816413211516672</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1708645903181267</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9999999775120746</v>
+        <v>0.9932378178308301</v>
       </c>
       <c r="K111" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.953519394689064</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.3891187520241</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R111" t="n">
-        <v>31.28444655397769</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,31 +7702,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.990537043084119</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D112" t="n">
-        <v>113.366407338692</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.953519394689064</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F112" t="n">
-        <v>113.3891187520241</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G112" t="n">
-        <v>31.28444655397769</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H112" t="n">
-        <v>4.816413211516672</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1708645903181267</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857864397570187</v>
+        <v>0.5857825268360856</v>
       </c>
       <c r="K112" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.953519394689064</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.3891187520241</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R112" t="n">
-        <v>31.28444655397769</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,31 +7767,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.990537043084119</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D113" t="n">
-        <v>113.366407338692</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.953519394689064</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F113" t="n">
-        <v>113.3891187520241</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G113" t="n">
-        <v>31.28444655397769</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H113" t="n">
-        <v>4.816413211516672</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1708645903181267</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9999999991111408</v>
+        <v>0.9999976534201629</v>
       </c>
       <c r="K113" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L113" t="n">
         <v>448</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.953519394689064</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.3891187520241</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R113" t="n">
-        <v>31.28444655397769</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,31 +7832,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D114" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F114" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G114" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H114" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9999999990865689</v>
+        <v>0.9191783905439804</v>
       </c>
       <c r="K114" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L114" t="n">
         <v>448</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R114" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,31 +7897,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D115" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F115" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G115" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H115" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9999999991867272</v>
+        <v>0.9794577110032608</v>
       </c>
       <c r="K115" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L115" t="n">
         <v>448</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R115" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,31 +7962,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D116" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F116" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G116" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H116" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9755349920618902</v>
+        <v>0.9985748472123442</v>
       </c>
       <c r="K116" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L116" t="n">
         <v>448</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R116" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,31 +8027,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D117" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F117" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G117" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H117" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J117" t="n">
-        <v>0.8724445493715237</v>
+        <v>0.9991717141566734</v>
       </c>
       <c r="K117" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L117" t="n">
         <v>448</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R117" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,31 +8092,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D118" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F118" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G118" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H118" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9720853256417659</v>
+        <v>0.9997992951340856</v>
       </c>
       <c r="K118" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L118" t="n">
         <v>448</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R118" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,31 +8157,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D119" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F119" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G119" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H119" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9922505387456843</v>
+        <v>0.9999599275204684</v>
       </c>
       <c r="K119" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L119" t="n">
         <v>448</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R119" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,31 +8222,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D120" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F120" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G120" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H120" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9952188766616368</v>
+        <v>0.9999928886063162</v>
       </c>
       <c r="K120" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L120" t="n">
         <v>448</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R120" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,31 +8287,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.990537068749155</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D121" t="n">
-        <v>113.3664104138462</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F121" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G121" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H121" t="n">
-        <v>4.816416647318314</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1708645903290218</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9967952838968301</v>
+        <v>0.9999963452430631</v>
       </c>
       <c r="K121" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L121" t="n">
         <v>448</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.953519393990277</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.3891218434514</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R121" t="n">
-        <v>31.28444666418499</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,31 +8352,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D122" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F122" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G122" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H122" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J122" t="n">
-        <v>0.585785769554654</v>
+        <v>0.5857864398027178</v>
       </c>
       <c r="K122" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R122" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,31 +8417,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D123" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F123" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G123" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H123" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9999999993980668</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L123" t="n">
         <v>448</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R123" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,31 +8482,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D124" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F124" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G124" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H124" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9999999992938415</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L124" t="n">
         <v>448</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R124" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,31 +8547,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D125" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F125" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G125" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H125" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J125" t="n">
-        <v>0.8942070454999758</v>
+        <v>0.9334514819063026</v>
       </c>
       <c r="K125" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L125" t="n">
         <v>448</v>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R125" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,31 +8612,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D126" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F126" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G126" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H126" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9408106420252509</v>
+        <v>0.9538867692991363</v>
       </c>
       <c r="K126" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R126" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,31 +8677,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D127" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F127" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G127" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H127" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9898045015624369</v>
+        <v>0.9794980665794379</v>
       </c>
       <c r="K127" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R127" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,31 +8742,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D128" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F128" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G128" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H128" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9943363357022993</v>
+        <v>0.9881590421323285</v>
       </c>
       <c r="K128" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R128" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,31 +8807,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D129" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F129" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G129" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H129" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9975456116526903</v>
+        <v>0.9953338605425223</v>
       </c>
       <c r="K129" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R129" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,31 +8872,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D130" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F130" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G130" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H130" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9982084455438361</v>
+        <v>0.9963238491687944</v>
       </c>
       <c r="K130" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R130" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,31 +8937,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D131" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F131" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G131" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H131" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9988162961816693</v>
+        <v>0.9985018662127156</v>
       </c>
       <c r="K131" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R131" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D132" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F132" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G132" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H132" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5857861161018374</v>
+        <v>0.5857860600482985</v>
       </c>
       <c r="K132" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R132" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,31 +9067,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D133" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F133" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G133" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H133" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9996958679199287</v>
+        <v>0.9996508377566061</v>
       </c>
       <c r="K133" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R133" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,31 +9132,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D134" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F134" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G134" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H134" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9997639076849671</v>
+        <v>0.9998430474064468</v>
       </c>
       <c r="K134" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R134" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,31 +9197,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D135" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F135" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G135" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H135" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9998086416714406</v>
+        <v>0.9999044234480806</v>
       </c>
       <c r="K135" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R135" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,31 +9262,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D136" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F136" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G136" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H136" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9999297167847464</v>
+        <v>0.9999634099890071</v>
       </c>
       <c r="K136" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R136" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,31 +9327,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.991711886992149</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D137" t="n">
-        <v>113.3656904009195</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F137" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G137" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H137" t="n">
-        <v>4.969272308794415</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1708645903370725</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9999625996571264</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.953519384541873</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.389122608927</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R137" t="n">
-        <v>31.28444635746004</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,31 +9392,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.990537046614314</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D138" t="n">
-        <v>113.3664100461053</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.953519372238837</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F138" t="n">
-        <v>113.3891214752577</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G138" t="n">
-        <v>31.28444642197218</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H138" t="n">
-        <v>4.8164165850639</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1708645903373367</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J138" t="n">
-        <v>0.999975187372973</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.953519372238837</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.3891214752577</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R138" t="n">
-        <v>31.28444642197218</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,31 +9457,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.990537046614314</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D139" t="n">
-        <v>113.3664100461053</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.953519372238837</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F139" t="n">
-        <v>113.3891214752577</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G139" t="n">
-        <v>31.28444642197218</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H139" t="n">
-        <v>4.8164165850639</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1708645903373367</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9999813498795117</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.953519372238837</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.3891214752577</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R139" t="n">
-        <v>31.28444642197218</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,31 +9522,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.990537043830702</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D140" t="n">
-        <v>113.3664098974236</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.953519369843436</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F140" t="n">
-        <v>113.3891213263238</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G140" t="n">
-        <v>31.28444640642038</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H140" t="n">
-        <v>4.816416533759874</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1708645903377356</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9999891237089064</v>
+        <v>0.957599833779548</v>
       </c>
       <c r="K140" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.953519369843436</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.3891213263238</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R140" t="n">
-        <v>31.28444640642038</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,31 +9587,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.990537043830702</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D141" t="n">
-        <v>113.3664098974236</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.953519369843436</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F141" t="n">
-        <v>113.3891213263238</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G141" t="n">
-        <v>31.28444640642038</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H141" t="n">
-        <v>4.816416533759874</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1708645903377356</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9999936993466569</v>
+        <v>0.9788478210255094</v>
       </c>
       <c r="K141" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.953519369843436</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.3891213263238</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R141" t="n">
-        <v>31.28444640642038</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,31 +9652,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.990537043555001</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D142" t="n">
-        <v>113.3664099340674</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.953519369965028</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F142" t="n">
-        <v>113.3891213627216</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G142" t="n">
-        <v>31.28444640385069</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H142" t="n">
-        <v>4.816416481937432</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1708645903378581</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5857864397535827</v>
+        <v>0.5856637753730516</v>
       </c>
       <c r="K142" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.953519369965028</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.3891213627216</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R142" t="n">
-        <v>31.28444640385069</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,31 +9717,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.990537044437003</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D143" t="n">
-        <v>113.3664105891433</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.953519376881045</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F143" t="n">
-        <v>113.3891220140872</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G143" t="n">
-        <v>31.28444639413065</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H143" t="n">
-        <v>4.816415696360655</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1708645903380803</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9999999999858733</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L143" t="n">
         <v>448</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.953519376881045</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.3891220140872</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R143" t="n">
-        <v>31.28444639413065</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,31 +9782,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.990537044437003</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D144" t="n">
-        <v>113.3664105891433</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.953519376881045</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F144" t="n">
-        <v>113.3891220140872</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G144" t="n">
-        <v>31.28444639413065</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H144" t="n">
-        <v>4.816415696360655</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1708645903380803</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9999999999913542</v>
+        <v>0.9384413929044009</v>
       </c>
       <c r="K144" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L144" t="n">
         <v>448</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.953519376881045</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.3891220140872</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R144" t="n">
-        <v>31.28444639413065</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,31 +9847,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.990537044437003</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D145" t="n">
-        <v>113.3664105891433</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.953519376881045</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F145" t="n">
-        <v>113.3891220140872</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G145" t="n">
-        <v>31.28444639413065</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H145" t="n">
-        <v>4.816415696360655</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1708645903380803</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9999999999947247</v>
+        <v>0.9839655714248627</v>
       </c>
       <c r="K145" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L145" t="n">
         <v>448</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.953519376881045</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.3891220140872</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R145" t="n">
-        <v>31.28444639413065</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,31 +9912,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.990537044512464</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D146" t="n">
-        <v>113.3664101207558</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.953519371522136</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F146" t="n">
-        <v>113.3891215490347</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G146" t="n">
-        <v>31.28444639546478</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H146" t="n">
-        <v>4.816416403489495</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1708645903381482</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9999999999971916</v>
+        <v>0.9915568340206341</v>
       </c>
       <c r="K146" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L146" t="n">
         <v>448</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.953519371522136</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.3891215490347</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R146" t="n">
-        <v>31.28444639546478</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,31 +9977,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.9905370439653</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D147" t="n">
-        <v>113.3664101155426</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.953519371451917</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F147" t="n">
-        <v>113.3891215435234</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G147" t="n">
-        <v>31.28444638928455</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H147" t="n">
-        <v>4.816416341119118</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I147" t="n">
-        <v>0.17086459033818</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9374610236833711</v>
+        <v>0.9981596732989675</v>
       </c>
       <c r="K147" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L147" t="n">
         <v>448</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.953519371451917</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.3891215435234</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R147" t="n">
-        <v>31.28444638928455</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,31 +10042,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.990537043714063</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D148" t="n">
-        <v>113.3664099704073</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.95351936977563</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F148" t="n">
-        <v>113.3891213992647</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G148" t="n">
-        <v>31.28444639195867</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H148" t="n">
-        <v>4.816416526667701</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1708645903382006</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9721906301497529</v>
+        <v>0.9992420168309044</v>
       </c>
       <c r="K148" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L148" t="n">
         <v>448</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.95351936977563</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.3891213992647</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R148" t="n">
-        <v>31.28444639195867</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,31 +10107,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.990537043714063</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D149" t="n">
-        <v>113.3664099704073</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.95351936977563</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F149" t="n">
-        <v>113.3891213992647</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G149" t="n">
-        <v>31.28444639195867</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H149" t="n">
-        <v>4.816416526667701</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1708645903382006</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J149" t="n">
-        <v>0.9916976270407909</v>
+        <v>0.999543467380855</v>
       </c>
       <c r="K149" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L149" t="n">
         <v>448</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.95351936977563</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.3891213992647</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R149" t="n">
-        <v>31.28444639195867</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,31 +10172,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.990537043714063</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D150" t="n">
-        <v>113.3664099704073</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.95351936977563</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F150" t="n">
-        <v>113.3891213992647</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G150" t="n">
-        <v>31.28444639195867</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H150" t="n">
-        <v>4.816416526667701</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1708645903382006</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J150" t="n">
-        <v>0.995625873996941</v>
+        <v>0.9996581653706615</v>
       </c>
       <c r="K150" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L150" t="n">
         <v>448</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.95351936977563</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.3891213992647</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R150" t="n">
-        <v>31.28444639195867</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,31 +10237,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.990537043823126</v>
+        <v>-7.94426528808116</v>
       </c>
       <c r="D151" t="n">
-        <v>113.3664099800639</v>
+        <v>113.4022580226732</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.953519369882645</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="F151" t="n">
-        <v>113.389121408922</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="G151" t="n">
-        <v>31.28444639139969</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="H151" t="n">
-        <v>4.8164165269054</v>
+        <v>1.375345170106959</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1708645903382106</v>
+        <v>0.1672649696067086</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9958842574701815</v>
+        <v>0.9996603709953841</v>
       </c>
       <c r="K151" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="L151" t="n">
         <v>448</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.953519369882645</v>
+        <v>-7.955769508829102</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.389121408922</v>
+        <v>113.3976708608103</v>
       </c>
       <c r="R151" t="n">
-        <v>31.28444639139969</v>
+        <v>201.5489976573645</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44648.96944444445</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.153593526264119</v>
+        <v>-8.114491162029665</v>
       </c>
       <c r="D2" t="n">
-        <v>113.3311362201217</v>
+        <v>113.2894003782121</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.985054109717519</v>
+        <v>-8.097389288750838</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4647183977525</v>
+        <v>113.440140045418</v>
       </c>
       <c r="G2" t="n">
-        <v>38.13208364715861</v>
+        <v>83.47316913249566</v>
       </c>
       <c r="H2" t="n">
-        <v>23.8222295006408</v>
+        <v>16.70262954058463</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1650513914555589</v>
+        <v>0.1593056971558577</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8929867343632175</v>
+        <v>0.9275020149706339</v>
       </c>
       <c r="K2" t="n">
-        <v>1965</v>
+        <v>1271</v>
       </c>
       <c r="L2" t="n">
-        <v>1797</v>
+        <v>190</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44648.96944444445</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.98235949442294</v>
+        <v>-8.06119715316683</v>
       </c>
       <c r="O2" t="n">
-        <v>113.491685257373</v>
+        <v>113.490313362148</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.985054109717519</v>
+        <v>-8.097389288750838</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.4647183977525</v>
+        <v>113.440140045418</v>
       </c>
       <c r="R2" t="n">
-        <v>38.13208364715861</v>
+        <v>83.47316913249566</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -614,55 +614,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.153593526264119</v>
+        <v>-7.372565671558577</v>
       </c>
       <c r="D3" t="n">
-        <v>113.3311362201217</v>
+        <v>113.2274751968769</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.985054109717519</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="F3" t="n">
-        <v>113.4647183977525</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="G3" t="n">
-        <v>38.13208364715861</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="H3" t="n">
-        <v>23.8222295006408</v>
+        <v>64.87776779219081</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1650513914555589</v>
+        <v>0.1654374015547841</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9616172091234573</v>
+        <v>0.9669172257839797</v>
       </c>
       <c r="K3" t="n">
-        <v>1965</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O3" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.985054109717519</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.4647183977525</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="R3" t="n">
-        <v>38.13208364715861</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -682,31 +682,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.963264109685748</v>
+        <v>-7.372565671558577</v>
       </c>
       <c r="D4" t="n">
-        <v>113.4064375270518</v>
+        <v>113.2274751968769</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.966625587708326</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="F4" t="n">
-        <v>113.4148601466131</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="G4" t="n">
-        <v>111.9494698432437</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>64.87776779219081</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1660094411498171</v>
+        <v>0.1654374015547841</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9777854528122464</v>
+        <v>0.9840595900497705</v>
       </c>
       <c r="K4" t="n">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
         <v>448</v>
@@ -721,13 +721,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.966625587708326</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.4148601466131</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="R4" t="n">
-        <v>111.9494698432437</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -744,55 +744,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45434.28958333333</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.876685053238373</v>
+        <v>-7.372565671558577</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6596235321124</v>
+        <v>113.2274751968769</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.999804957034498</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="F5" t="n">
-        <v>113.38394116142</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="G5" t="n">
-        <v>245.7093705318197</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="H5" t="n">
-        <v>33.30462930982596</v>
+        <v>64.87776779219081</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1662616353826495</v>
+        <v>0.1654374015547841</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9882772923114896</v>
+        <v>0.9914361621198112</v>
       </c>
       <c r="K5" t="n">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>1705</v>
+        <v>448</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>45434.28958333333</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N5" t="n">
-        <v>-8.04288055165496</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O5" t="n">
-        <v>113.30659490823</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.999804957034498</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.38394116142</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="R5" t="n">
-        <v>245.7093705318197</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -812,31 +812,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.41915246918764</v>
+        <v>-7.372565671558577</v>
       </c>
       <c r="D6" t="n">
-        <v>113.231199830936</v>
+        <v>113.2274751968769</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.929178614685987</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="F6" t="n">
-        <v>113.390493786039</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="G6" t="n">
-        <v>17.84977474420269</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="H6" t="n">
-        <v>57.2341589864122</v>
+        <v>64.87776779219081</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1665523448689571</v>
+        <v>0.1654374015547841</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9954154141736945</v>
+        <v>0.9930787194446946</v>
       </c>
       <c r="K6" t="n">
-        <v>842</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
         <v>448</v>
@@ -851,13 +851,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.929178614685987</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.390493786039</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="R6" t="n">
-        <v>17.84977474420269</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -874,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.107173837971187</v>
+        <v>-7.372565671558577</v>
       </c>
       <c r="D7" t="n">
-        <v>113.2165384915124</v>
+        <v>113.2274751968769</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="F7" t="n">
-        <v>113.366896930413</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="G7" t="n">
-        <v>46.84148921108301</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="H7" t="n">
-        <v>22.69846908581009</v>
+        <v>64.87776779219081</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1668955457649089</v>
+        <v>0.1654374015547841</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9974545569773796</v>
+        <v>0.9947749176640995</v>
       </c>
       <c r="K7" t="n">
-        <v>434</v>
+        <v>295</v>
       </c>
       <c r="L7" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O7" t="n">
-        <v>113.300380121246</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.930850230520639</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.366896930413</v>
+        <v>113.3985386739666</v>
       </c>
       <c r="R7" t="n">
-        <v>46.84148921108301</v>
+        <v>163.1187862883281</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -939,55 +939,55 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.107173837971187</v>
+        <v>-7.812627030317237</v>
       </c>
       <c r="D8" t="n">
-        <v>113.2165384915124</v>
+        <v>113.3761450299772</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.975083285960825</v>
       </c>
       <c r="F8" t="n">
-        <v>113.366896930413</v>
+        <v>113.4159166278759</v>
       </c>
       <c r="G8" t="n">
-        <v>46.84148921108301</v>
+        <v>166.37193546165</v>
       </c>
       <c r="H8" t="n">
-        <v>22.69846908581009</v>
+        <v>18.5878471745897</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1668955457649089</v>
+        <v>0.1655879541017533</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9984665718819725</v>
+        <v>0.9976377412814083</v>
       </c>
       <c r="K8" t="n">
-        <v>434</v>
+        <v>177</v>
       </c>
       <c r="L8" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O8" t="n">
-        <v>113.300380121246</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.975083285960825</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.366896930413</v>
+        <v>113.4159166278759</v>
       </c>
       <c r="R8" t="n">
-        <v>46.84148921108301</v>
+        <v>166.37193546165</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.107173837971187</v>
+        <v>-7.968396466543967</v>
       </c>
       <c r="D9" t="n">
-        <v>113.2165384915124</v>
+        <v>113.4224376104697</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.977185405255866</v>
       </c>
       <c r="F9" t="n">
-        <v>113.366896930413</v>
+        <v>113.4205130986293</v>
       </c>
       <c r="G9" t="n">
-        <v>46.84148921108301</v>
+        <v>192.2351979109165</v>
       </c>
       <c r="H9" t="n">
-        <v>22.69846908581009</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1668955457649089</v>
+        <v>0.165932890371619</v>
       </c>
       <c r="J9" t="n">
-        <v>0.998800473059033</v>
+        <v>0.9978403729615043</v>
       </c>
       <c r="K9" t="n">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>640</v>
+        <v>1797</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O9" t="n">
-        <v>113.300380121246</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.977185405255866</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.366896930413</v>
+        <v>113.4205130986293</v>
       </c>
       <c r="R9" t="n">
-        <v>46.84148921108301</v>
+        <v>192.2351979109165</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1069,55 +1069,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.107173837971187</v>
+        <v>-7.968396466543967</v>
       </c>
       <c r="D10" t="n">
-        <v>113.2165384915124</v>
+        <v>113.4224376104697</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.977185405255866</v>
       </c>
       <c r="F10" t="n">
-        <v>113.366896930413</v>
+        <v>113.4205130986293</v>
       </c>
       <c r="G10" t="n">
-        <v>46.84148921108301</v>
+        <v>192.2351979109165</v>
       </c>
       <c r="H10" t="n">
-        <v>22.69846908581009</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1668955457649089</v>
+        <v>0.165932890371619</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9988123480152541</v>
+        <v>0.9985004614606213</v>
       </c>
       <c r="K10" t="n">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="L10" t="n">
-        <v>640</v>
+        <v>1797</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O10" t="n">
-        <v>113.300380121246</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.967516099604429</v>
+        <v>-7.977185405255866</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.366896930413</v>
+        <v>113.4205130986293</v>
       </c>
       <c r="R10" t="n">
-        <v>46.84148921108301</v>
+        <v>192.2351979109165</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1134,55 +1134,55 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.933432483203658</v>
+        <v>-7.968396466543967</v>
       </c>
       <c r="D11" t="n">
-        <v>113.3845792663932</v>
+        <v>113.4224376104697</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.94706162816549</v>
+        <v>-7.977185405255866</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3834633741125</v>
+        <v>113.4205130986293</v>
       </c>
       <c r="G11" t="n">
-        <v>184.6359211476973</v>
+        <v>192.2351979109165</v>
       </c>
       <c r="H11" t="n">
-        <v>1.520466293300105</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670367082482041</v>
+        <v>0.165932890371619</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988040438610281</v>
+        <v>0.9989793013294958</v>
       </c>
       <c r="K11" t="n">
         <v>448</v>
       </c>
       <c r="L11" t="n">
-        <v>448</v>
+        <v>1797</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N11" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O11" t="n">
-        <v>113.40414682924</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.94706162816549</v>
+        <v>-7.977185405255866</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.3834633741125</v>
+        <v>113.4205130986293</v>
       </c>
       <c r="R11" t="n">
-        <v>184.6359211476973</v>
+        <v>192.2351979109165</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1199,55 +1199,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.768157142789494</v>
+        <v>-7.958137078159539</v>
       </c>
       <c r="D12" t="n">
-        <v>113.3950083108829</v>
+        <v>113.4313268021021</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.940502804834756</v>
+        <v>-7.96740944623679</v>
       </c>
       <c r="F12" t="n">
-        <v>113.4074847125975</v>
+        <v>113.4295442553027</v>
       </c>
       <c r="G12" t="n">
-        <v>175.8990429846085</v>
+        <v>190.7793721028872</v>
       </c>
       <c r="H12" t="n">
-        <v>19.2131772564903</v>
+        <v>1.049560575880218</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1670470881449684</v>
+        <v>0.1659515428274118</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857859582996207</v>
+        <v>0.5857860192332559</v>
       </c>
       <c r="K12" t="n">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="L12" t="n">
-        <v>448</v>
+        <v>1797</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N12" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O12" t="n">
-        <v>113.40414682924</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.940502804834756</v>
+        <v>-7.96740944623679</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.4074847125975</v>
+        <v>113.4295442553027</v>
       </c>
       <c r="R12" t="n">
-        <v>175.8990429846085</v>
+        <v>190.7793721028872</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1264,55 +1264,55 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.936039103109017</v>
+        <v>-7.958137078159539</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4058962555112</v>
+        <v>113.4313268021021</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.945010185139448</v>
+        <v>-7.96740944623679</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4052595780629</v>
+        <v>113.4295442553027</v>
       </c>
       <c r="G13" t="n">
-        <v>184.0206356205252</v>
+        <v>190.7793721028872</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1.049560575880218</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1671509593891647</v>
+        <v>0.1659515428274118</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9993065425060307</v>
+        <v>0.9996059269230192</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
       </c>
       <c r="L13" t="n">
-        <v>448</v>
+        <v>1797</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N13" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O13" t="n">
-        <v>113.40414682924</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.945010185139448</v>
+        <v>-7.96740944623679</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4052595780629</v>
+        <v>113.4295442553027</v>
       </c>
       <c r="R13" t="n">
-        <v>184.0206356205252</v>
+        <v>190.7793721028872</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1329,55 +1329,55 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.942136052756156</v>
+        <v>-7.958137078159539</v>
       </c>
       <c r="D14" t="n">
-        <v>113.3986317592951</v>
+        <v>113.4313268021021</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.954551212606916</v>
+        <v>-7.96740944623679</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3946681181817</v>
+        <v>113.4295442553027</v>
       </c>
       <c r="G14" t="n">
-        <v>197.5462164352109</v>
+        <v>190.7793721028872</v>
       </c>
       <c r="H14" t="n">
-        <v>1.447868276078202</v>
+        <v>1.049560575880218</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1672054240825258</v>
+        <v>0.1659515428274118</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9992178254423301</v>
+        <v>0.9996137514388314</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
       </c>
       <c r="L14" t="n">
-        <v>448</v>
+        <v>1797</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O14" t="n">
-        <v>113.40414682924</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.954551212606916</v>
+        <v>-7.96740944623679</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3946681181817</v>
+        <v>113.4295442553027</v>
       </c>
       <c r="R14" t="n">
-        <v>197.5462164352109</v>
+        <v>190.7793721028872</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.933993681694593</v>
+        <v>-7.95700705234331</v>
       </c>
       <c r="D15" t="n">
-        <v>113.4046855226286</v>
+        <v>113.4235523492253</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.94820520155889</v>
+        <v>-7.96580897647147</v>
       </c>
       <c r="F15" t="n">
-        <v>113.4013192671209</v>
+        <v>113.4216893818624</v>
       </c>
       <c r="G15" t="n">
-        <v>193.2024168706264</v>
+        <v>191.8384962765215</v>
       </c>
       <c r="H15" t="n">
-        <v>1.623151492345525</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.167234561623957</v>
+        <v>0.1659791619489825</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9993196113976123</v>
+        <v>0.9995826577953919</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.94820520155889</v>
+        <v>-7.96580897647147</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.4013192671209</v>
+        <v>113.4216893818624</v>
       </c>
       <c r="R15" t="n">
-        <v>193.2024168706264</v>
+        <v>191.8384962765215</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.946251589870515</v>
+        <v>-7.955211656639416</v>
       </c>
       <c r="D16" t="n">
-        <v>113.3989002789207</v>
+        <v>113.4192608497955</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964205157710241</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4173159478775</v>
       </c>
       <c r="G16" t="n">
-        <v>201.5693543386568</v>
+        <v>192.0884418589042</v>
       </c>
       <c r="H16" t="n">
-        <v>1.043655572841942</v>
+        <v>1.022710281492085</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1672627446219969</v>
+        <v>0.165981031646054</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9993228150237787</v>
+        <v>0.9995650602905213</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964205157710241</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4173159478775</v>
       </c>
       <c r="R16" t="n">
-        <v>201.5693543386568</v>
+        <v>192.0884418589042</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.946251589870515</v>
+        <v>-7.955431957738277</v>
       </c>
       <c r="D17" t="n">
-        <v>113.3989002789207</v>
+        <v>113.4183174813154</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964328512025832</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4163546419747</v>
       </c>
       <c r="G17" t="n">
-        <v>201.5693543386568</v>
+        <v>192.3254702771285</v>
       </c>
       <c r="H17" t="n">
-        <v>1.043655572841942</v>
+        <v>1.012591664773543</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1672627446219969</v>
+        <v>0.1659815068071628</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9993674364429008</v>
+        <v>0.9996089920721716</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964328512025832</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4163546419747</v>
       </c>
       <c r="R17" t="n">
-        <v>201.5693543386568</v>
+        <v>192.3254702771285</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,28 +1592,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.946251589870515</v>
+        <v>-7.955206461572007</v>
       </c>
       <c r="D18" t="n">
-        <v>113.3989002789207</v>
+        <v>113.4230882979347</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964217988028286</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4211129894032</v>
       </c>
       <c r="G18" t="n">
-        <v>201.5693543386568</v>
+        <v>192.2479420737263</v>
       </c>
       <c r="H18" t="n">
-        <v>1.043655572841942</v>
+        <v>1.025375391892289</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1672627446219969</v>
+        <v>0.1659855998290045</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9994130488550655</v>
+        <v>0.9996048815190173</v>
       </c>
       <c r="K18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964217988028286</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4211129894032</v>
       </c>
       <c r="R18" t="n">
-        <v>201.5693543386568</v>
+        <v>192.2479420737263</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.946251589870515</v>
+        <v>-7.954963996748734</v>
       </c>
       <c r="D19" t="n">
-        <v>113.3989002789207</v>
+        <v>113.4224876348112</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964053844228407</v>
       </c>
       <c r="F19" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4204906048223</v>
       </c>
       <c r="G19" t="n">
-        <v>201.5693543386568</v>
+        <v>192.2750906810768</v>
       </c>
       <c r="H19" t="n">
-        <v>1.043655572841942</v>
+        <v>1.034393661906775</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1672627446219969</v>
+        <v>0.165986180391056</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9995343807346668</v>
+        <v>0.999598616553215</v>
       </c>
       <c r="K19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.964053844228407</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4204906048223</v>
       </c>
       <c r="R19" t="n">
-        <v>201.5693543386568</v>
+        <v>192.2750906810768</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,28 +1722,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.946251589870515</v>
+        <v>-7.953619951126991</v>
       </c>
       <c r="D20" t="n">
-        <v>113.3989002789207</v>
+        <v>113.4224599493696</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.965317294512689</v>
       </c>
       <c r="F20" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4198789325556</v>
       </c>
       <c r="G20" t="n">
-        <v>201.5693543386568</v>
+        <v>192.3265586151201</v>
       </c>
       <c r="H20" t="n">
-        <v>1.043655572841942</v>
+        <v>1.331378770390421</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1672627446219969</v>
+        <v>0.1659862061204005</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9996622834089174</v>
+        <v>0.9996584035505938</v>
       </c>
       <c r="K20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.95498013695322</v>
+        <v>-7.965317294512689</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.3954162700476</v>
+        <v>113.4198789325556</v>
       </c>
       <c r="R20" t="n">
-        <v>201.5693543386568</v>
+        <v>192.3265586151201</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,28 +1787,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.942548622946206</v>
+        <v>-7.954946365154541</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4027174472648</v>
+        <v>113.4225110258566</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.955595765418487</v>
+        <v>-7.964007217673759</v>
       </c>
       <c r="F21" t="n">
-        <v>113.3974919726901</v>
+        <v>113.4205163205127</v>
       </c>
       <c r="G21" t="n">
-        <v>201.6358309383557</v>
+        <v>192.2992795001319</v>
       </c>
       <c r="H21" t="n">
-        <v>1.560739905657139</v>
+        <v>1.031188948191328</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1672637336237274</v>
+        <v>0.1659864854891455</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9997647393148812</v>
+        <v>0.9996949125878529</v>
       </c>
       <c r="K21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.955595765418487</v>
+        <v>-7.964007217673759</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.3974919726901</v>
+        <v>113.4205163205127</v>
       </c>
       <c r="R21" t="n">
-        <v>201.6358309383557</v>
+        <v>192.2992795001319</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.942548622946206</v>
+        <v>-7.955586639263958</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4027174472648</v>
+        <v>113.4216878694999</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.955595765418487</v>
+        <v>-7.964488180362835</v>
       </c>
       <c r="F22" t="n">
-        <v>113.3974919726901</v>
+        <v>113.419727939796</v>
       </c>
       <c r="G22" t="n">
-        <v>201.6358309383557</v>
+        <v>192.3010670863835</v>
       </c>
       <c r="H22" t="n">
-        <v>1.560739905657139</v>
+        <v>1.013065066817556</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1672637336237274</v>
+        <v>0.1659866240833176</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857864236396145</v>
+        <v>0.5857864050450684</v>
       </c>
       <c r="K22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.955595765418487</v>
+        <v>-7.964488180362835</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.3974919726901</v>
+        <v>113.419727939796</v>
       </c>
       <c r="R22" t="n">
-        <v>201.6358309383557</v>
+        <v>192.3010670863835</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,28 +1917,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.942548622946206</v>
+        <v>-7.95549622940778</v>
       </c>
       <c r="D23" t="n">
-        <v>113.4027174472648</v>
+        <v>113.4222926453692</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.955595765418487</v>
+        <v>-7.964547632269819</v>
       </c>
       <c r="F23" t="n">
-        <v>113.3974919726901</v>
+        <v>113.4203000449603</v>
       </c>
       <c r="G23" t="n">
-        <v>201.6358309383557</v>
+        <v>192.2991163347957</v>
       </c>
       <c r="H23" t="n">
-        <v>1.560739905657139</v>
+        <v>1.030112870418792</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1672637336237274</v>
+        <v>0.1659866850313042</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9999316597840509</v>
+        <v>0.9999889076958589</v>
       </c>
       <c r="K23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.955595765418487</v>
+        <v>-7.964547632269819</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.3974919726901</v>
+        <v>113.4203000449603</v>
       </c>
       <c r="R23" t="n">
-        <v>201.6358309383557</v>
+        <v>192.2991163347957</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,28 +1982,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.946251698733781</v>
+        <v>-7.955879509939915</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4007591403894</v>
+        <v>113.4222218561651</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964867439540529</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3972437276599</v>
+        <v>113.4202431820355</v>
       </c>
       <c r="G24" t="n">
-        <v>201.5290201095739</v>
+        <v>192.2993897010769</v>
       </c>
       <c r="H24" t="n">
-        <v>1.054941431662116</v>
+        <v>1.022890230209097</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1672644623970529</v>
+        <v>0.1659866969085505</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999462531079552</v>
+        <v>0.9999904176237093</v>
       </c>
       <c r="K24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964867439540529</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.3972437276599</v>
+        <v>113.4202431820355</v>
       </c>
       <c r="R24" t="n">
-        <v>201.5290201095739</v>
+        <v>192.2993897010769</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.946251698733781</v>
+        <v>-7.955485169684497</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4007591403894</v>
+        <v>113.4221624605986</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964703938918904</v>
       </c>
       <c r="F25" t="n">
-        <v>113.3972437276599</v>
+        <v>113.4201329489371</v>
       </c>
       <c r="G25" t="n">
-        <v>201.5290201095739</v>
+        <v>192.2995039698818</v>
       </c>
       <c r="H25" t="n">
-        <v>1.054941431662116</v>
+        <v>1.049161890431462</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1672644623970529</v>
+        <v>0.1659867084669248</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999499201381612</v>
+        <v>0.9999923479936499</v>
       </c>
       <c r="K25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964703938918904</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.3972437276599</v>
+        <v>113.4201329489371</v>
       </c>
       <c r="R25" t="n">
-        <v>201.5290201095739</v>
+        <v>192.2995039698818</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,28 +2112,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.946251698733781</v>
+        <v>-7.955488820008005</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4007591403894</v>
+        <v>113.4221049521014</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964744860264506</v>
       </c>
       <c r="F26" t="n">
-        <v>113.3972437276599</v>
+        <v>113.420067132179</v>
       </c>
       <c r="G26" t="n">
-        <v>201.5290201095739</v>
+        <v>192.3001058017242</v>
       </c>
       <c r="H26" t="n">
-        <v>1.054941431662116</v>
+        <v>1.05340601422083</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1672644623970529</v>
+        <v>0.1659867125507855</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999560559671313</v>
+        <v>0.9999937990432219</v>
       </c>
       <c r="K26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964744860264506</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.3972437276599</v>
+        <v>113.420067132179</v>
       </c>
       <c r="R26" t="n">
-        <v>201.5290201095739</v>
+        <v>192.3001058017242</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.946251698733781</v>
+        <v>-7.955488820008005</v>
       </c>
       <c r="D27" t="n">
-        <v>113.4007591403894</v>
+        <v>113.4221049521014</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964744860264506</v>
       </c>
       <c r="F27" t="n">
-        <v>113.3972437276599</v>
+        <v>113.420067132179</v>
       </c>
       <c r="G27" t="n">
-        <v>201.5290201095739</v>
+        <v>192.3001058017242</v>
       </c>
       <c r="H27" t="n">
-        <v>1.054941431662116</v>
+        <v>1.05340601422083</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1672644623970529</v>
+        <v>0.1659867125507855</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999669220338241</v>
+        <v>0.9999941264165236</v>
       </c>
       <c r="K27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964744860264506</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.3972437276599</v>
+        <v>113.420067132179</v>
       </c>
       <c r="R27" t="n">
-        <v>201.5290201095739</v>
+        <v>192.3001058017242</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,28 +2242,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.946251698733781</v>
+        <v>-7.955725841193806</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4007591403894</v>
+        <v>113.4221111069126</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964758621737007</v>
       </c>
       <c r="F28" t="n">
-        <v>113.3972437276599</v>
+        <v>113.4201224742237</v>
       </c>
       <c r="G28" t="n">
-        <v>201.5290201095739</v>
+        <v>192.299900872712</v>
       </c>
       <c r="H28" t="n">
-        <v>1.054941431662116</v>
+        <v>1.027996588392314</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1672644623970529</v>
+        <v>0.1659867134922579</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9999751789096847</v>
+        <v>0.9999961079236959</v>
       </c>
       <c r="K28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.955077087373747</v>
+        <v>-7.964758621737007</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.3972437276599</v>
+        <v>113.4201224742237</v>
       </c>
       <c r="R28" t="n">
-        <v>201.5290201095739</v>
+        <v>192.299900872712</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,28 +2307,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.946532559238973</v>
+        <v>-7.955586545111849</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4010426057025</v>
+        <v>113.4221275322138</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.955581788795644</v>
+        <v>-7.964734327600854</v>
       </c>
       <c r="F29" t="n">
-        <v>113.39743654376</v>
+        <v>113.4201135487608</v>
       </c>
       <c r="G29" t="n">
-        <v>201.5370621862919</v>
+        <v>192.3000924373932</v>
       </c>
       <c r="H29" t="n">
-        <v>1.08175817711812</v>
+        <v>1.041085418073421</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1672647718254439</v>
+        <v>0.1659867146174895</v>
       </c>
       <c r="J29" t="n">
-        <v>0.999977005290696</v>
+        <v>0.9999979418441761</v>
       </c>
       <c r="K29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.955581788795644</v>
+        <v>-7.964734327600854</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.39743654376</v>
+        <v>113.4201135487608</v>
       </c>
       <c r="R29" t="n">
-        <v>201.5370621862919</v>
+        <v>192.3000924373932</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,28 +2372,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.946532559238973</v>
+        <v>-7.955865707842976</v>
       </c>
       <c r="D30" t="n">
-        <v>113.4010426057025</v>
+        <v>113.4220919142889</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.955581788795644</v>
+        <v>-7.96469907883573</v>
       </c>
       <c r="F30" t="n">
-        <v>113.39743654376</v>
+        <v>113.4201471656596</v>
       </c>
       <c r="G30" t="n">
-        <v>201.5370621862919</v>
+        <v>192.3000095108909</v>
       </c>
       <c r="H30" t="n">
-        <v>1.08175817711812</v>
+        <v>1.005302724925546</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1672647718254439</v>
+        <v>0.1659867154277533</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999836097755116</v>
+        <v>0.9999986411212332</v>
       </c>
       <c r="K30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.955581788795644</v>
+        <v>-7.96469907883573</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.39743654376</v>
+        <v>113.4201471656596</v>
       </c>
       <c r="R30" t="n">
-        <v>201.5370621862919</v>
+        <v>192.3000095108909</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,28 +2437,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.945820403553133</v>
+        <v>-7.955865707842976</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4015251398767</v>
+        <v>113.4220919142889</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.956187581576668</v>
+        <v>-7.96469907883573</v>
       </c>
       <c r="F31" t="n">
-        <v>113.3973907549274</v>
+        <v>113.4201471656596</v>
       </c>
       <c r="G31" t="n">
-        <v>201.5518438106611</v>
+        <v>192.3000095108909</v>
       </c>
       <c r="H31" t="n">
-        <v>1.239434220736448</v>
+        <v>1.005302724925546</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1672648427122836</v>
+        <v>0.1659867154277533</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999886488732795</v>
+        <v>0.9999988738312905</v>
       </c>
       <c r="K31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.956187581576668</v>
+        <v>-7.96469907883573</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.3973907549274</v>
+        <v>113.4201471656596</v>
       </c>
       <c r="R31" t="n">
-        <v>201.5518438106611</v>
+        <v>192.3000095108909</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,28 +2502,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.94590553395524</v>
+        <v>-7.955624380502986</v>
       </c>
       <c r="D32" t="n">
-        <v>113.4019105180128</v>
+        <v>113.4221547343764</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.955533838652355</v>
+        <v>-7.964736115214218</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3980719938484</v>
+        <v>113.4201486955162</v>
       </c>
       <c r="G32" t="n">
-        <v>201.5457527640301</v>
+        <v>192.3000431638567</v>
       </c>
       <c r="H32" t="n">
-        <v>1.151050713956155</v>
+        <v>1.036982717291066</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1672648504092483</v>
+        <v>0.1659867156594171</v>
       </c>
       <c r="J32" t="n">
-        <v>0.585786439785161</v>
+        <v>0.535898387484154</v>
       </c>
       <c r="K32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.955533838652355</v>
+        <v>-7.964736115214218</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.3980719938484</v>
+        <v>113.4201486955162</v>
       </c>
       <c r="R32" t="n">
-        <v>201.5457527640301</v>
+        <v>192.3000431638567</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,31 +2567,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.786346190633474</v>
+        <v>-7.955631725119387</v>
       </c>
       <c r="D33" t="n">
-        <v>113.4655108071346</v>
+        <v>113.4221412224773</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.956042481152255</v>
+        <v>-7.964733753461502</v>
       </c>
       <c r="F33" t="n">
-        <v>113.3978424684017</v>
+        <v>113.4201373225436</v>
       </c>
       <c r="G33" t="n">
-        <v>201.5496185988955</v>
+        <v>192.3000314972221</v>
       </c>
       <c r="H33" t="n">
-        <v>20.28810943633699</v>
+        <v>1.035878014212471</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1672649251532706</v>
+        <v>0.1659867158072622</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999991342593436</v>
+        <v>0.9999994470295415</v>
       </c>
       <c r="K33" t="n">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="L33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.956042481152255</v>
+        <v>-7.964733753461502</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.3978424684017</v>
+        <v>113.4201373225436</v>
       </c>
       <c r="R33" t="n">
-        <v>201.5496185988955</v>
+        <v>192.3000314972221</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,31 +2632,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.786346190633474</v>
+        <v>-7.955642192583387</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4655108071346</v>
+        <v>113.4221396776847</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.956042481152255</v>
+        <v>-7.964720573720347</v>
       </c>
       <c r="F34" t="n">
-        <v>113.3978424684017</v>
+        <v>113.4201409845169</v>
       </c>
       <c r="G34" t="n">
-        <v>201.5496185988955</v>
+        <v>192.3000282930461</v>
       </c>
       <c r="H34" t="n">
-        <v>20.28810943633699</v>
+        <v>1.033186773693134</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1672649251532706</v>
+        <v>0.16598671586749</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9310350796674814</v>
+        <v>0.9999995294554931</v>
       </c>
       <c r="K34" t="n">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="L34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.956042481152255</v>
+        <v>-7.964720573720347</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.3978424684017</v>
+        <v>113.4201409845169</v>
       </c>
       <c r="R34" t="n">
-        <v>201.5496185988955</v>
+        <v>192.3000282930461</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,28 +2697,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.945699609242116</v>
+        <v>-7.955642192583387</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4014518736243</v>
+        <v>113.4221396776847</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964720573720347</v>
       </c>
       <c r="F35" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201409845169</v>
       </c>
       <c r="G35" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000282930461</v>
       </c>
       <c r="H35" t="n">
-        <v>1.199705521486637</v>
+        <v>1.033186773693134</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1672649487853293</v>
+        <v>0.16598671586749</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9643393690426458</v>
+        <v>0.999999842646412</v>
       </c>
       <c r="K35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964720573720347</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201409845169</v>
       </c>
       <c r="R35" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000282930461</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,28 +2762,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.945699609242116</v>
+        <v>-7.955642192583387</v>
       </c>
       <c r="D36" t="n">
-        <v>113.4014518736243</v>
+        <v>113.4221396776847</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964720573720347</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201409845169</v>
       </c>
       <c r="G36" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000282930461</v>
       </c>
       <c r="H36" t="n">
-        <v>1.199705521486637</v>
+        <v>1.033186773693134</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1672649487853293</v>
+        <v>0.16598671586749</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8829833304866356</v>
+        <v>0.8632869074913405</v>
       </c>
       <c r="K36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964720573720347</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201409845169</v>
       </c>
       <c r="R36" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000282930461</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,28 +2827,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.945699609242116</v>
+        <v>-7.955649734840782</v>
       </c>
       <c r="D37" t="n">
-        <v>113.4014518736243</v>
+        <v>113.4221451277394</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964723824214078</v>
       </c>
       <c r="F37" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201473794229</v>
       </c>
       <c r="G37" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000283317713</v>
       </c>
       <c r="H37" t="n">
-        <v>1.199705521486637</v>
+        <v>1.032698339209101</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1672649487853293</v>
+        <v>0.1659867158829147</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9660931257777458</v>
+        <v>0.9295970717549296</v>
       </c>
       <c r="K37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964723824214078</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201473794229</v>
       </c>
       <c r="R37" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000283317713</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.945699609242116</v>
+        <v>-7.955641265320156</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4014518736243</v>
+        <v>113.4221440394551</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964725518434763</v>
       </c>
       <c r="F38" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201440532686</v>
       </c>
       <c r="G38" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000296129864</v>
       </c>
       <c r="H38" t="n">
-        <v>1.199705521486637</v>
+        <v>1.033855053630929</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1672649487853293</v>
+        <v>0.165986715895388</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9863233957770211</v>
+        <v>0.9903256906501144</v>
       </c>
       <c r="K38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.955734656908541</v>
+        <v>-7.964725518434763</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3974504700172</v>
+        <v>113.4201440532686</v>
       </c>
       <c r="R38" t="n">
-        <v>201.5492779267237</v>
+        <v>192.3000296129864</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,28 +2957,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.944151209691593</v>
+        <v>-7.95564799398292</v>
       </c>
       <c r="D39" t="n">
-        <v>113.4022473182819</v>
+        <v>113.4221448950632</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.955658845949349</v>
+        <v>-7.96472297391633</v>
       </c>
       <c r="F39" t="n">
-        <v>113.3976588802194</v>
+        <v>113.420146950516</v>
       </c>
       <c r="G39" t="n">
-        <v>201.548637387944</v>
+        <v>192.3000293423617</v>
       </c>
       <c r="H39" t="n">
-        <v>1.375750083601205</v>
+        <v>1.032799695547889</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1672649602822251</v>
+        <v>0.1659867158970119</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9960295200926542</v>
+        <v>0.9929778743677897</v>
       </c>
       <c r="K39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.955658845949349</v>
+        <v>-7.96472297391633</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.3976588802194</v>
+        <v>113.420146950516</v>
       </c>
       <c r="R39" t="n">
-        <v>201.548637387944</v>
+        <v>192.3000293423617</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,28 +3022,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.944151209691593</v>
+        <v>-7.955638722385896</v>
       </c>
       <c r="D40" t="n">
-        <v>113.4022473182819</v>
+        <v>113.4221448359915</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.955658845949349</v>
+        <v>-7.964721475733107</v>
       </c>
       <c r="F40" t="n">
-        <v>113.3976588802194</v>
+        <v>113.4201451799751</v>
       </c>
       <c r="G40" t="n">
-        <v>201.548637387944</v>
+        <v>192.3000298407457</v>
       </c>
       <c r="H40" t="n">
-        <v>1.375750083601205</v>
+        <v>1.033684369837352</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1672649602822251</v>
+        <v>0.1659867158993925</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9972995841926229</v>
+        <v>0.9973979214624339</v>
       </c>
       <c r="K40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.955658845949349</v>
+        <v>-7.964721475733107</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.3976588802194</v>
+        <v>113.4201451799751</v>
       </c>
       <c r="R40" t="n">
-        <v>201.548637387944</v>
+        <v>192.3000298407457</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,28 +3087,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.944481751829538</v>
+        <v>-7.955646739800347</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4021438819134</v>
+        <v>113.4221467076525</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.955717531296178</v>
+        <v>-7.964724337993471</v>
       </c>
       <c r="F41" t="n">
-        <v>113.397663630881</v>
+        <v>113.4201481866089</v>
       </c>
       <c r="G41" t="n">
-        <v>201.5495547639427</v>
+        <v>192.3000296668141</v>
       </c>
       <c r="H41" t="n">
-        <v>1.343257740901413</v>
+        <v>1.033097674260253</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1672649608612206</v>
+        <v>0.1659867159006459</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9984752168400888</v>
+        <v>0.9978417641371027</v>
       </c>
       <c r="K41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.955717531296178</v>
+        <v>-7.964724337993471</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.397663630881</v>
+        <v>113.4201481866089</v>
       </c>
       <c r="R41" t="n">
-        <v>201.5495547639427</v>
+        <v>192.3000296668141</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.944346310866884</v>
+        <v>-7.955647110519954</v>
       </c>
       <c r="D42" t="n">
-        <v>113.402273660734</v>
+        <v>113.4221445327176</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.955787319446065</v>
+        <v>-7.964722062295208</v>
       </c>
       <c r="F42" t="n">
-        <v>113.3977118055722</v>
+        <v>113.4201465942991</v>
       </c>
       <c r="G42" t="n">
-        <v>201.5485608913659</v>
+        <v>192.3000297905193</v>
       </c>
       <c r="H42" t="n">
-        <v>1.367783935767395</v>
+        <v>1.032796492701719</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1672649628183854</v>
+        <v>0.1659867159018594</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5857862432115813</v>
+        <v>0.5857847309017434</v>
       </c>
       <c r="K42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.955787319446065</v>
+        <v>-7.964722062295208</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.3977118055722</v>
+        <v>113.4201465942991</v>
       </c>
       <c r="R42" t="n">
-        <v>201.5485608913659</v>
+        <v>192.3000297905193</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,28 +3217,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.944247826653581</v>
+        <v>-7.955647442485843</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4022378917554</v>
+        <v>113.4221444617532</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.955755469736996</v>
+        <v>-7.964722334095221</v>
       </c>
       <c r="F43" t="n">
-        <v>113.3976493963044</v>
+        <v>113.4201465365857</v>
       </c>
       <c r="G43" t="n">
-        <v>201.548865971249</v>
+        <v>192.3000297533219</v>
       </c>
       <c r="H43" t="n">
-        <v>1.375753067140865</v>
+        <v>1.032789645231266</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1672649675400545</v>
+        <v>0.165986715902361</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9997490044983015</v>
+        <v>0.9999999997622675</v>
       </c>
       <c r="K43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.955755469736996</v>
+        <v>-7.964722334095221</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.3976493963044</v>
+        <v>113.4201465365857</v>
       </c>
       <c r="R43" t="n">
-        <v>201.548865971249</v>
+        <v>192.3000297533219</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,28 +3282,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.944259104270574</v>
+        <v>-7.955647442485843</v>
       </c>
       <c r="D44" t="n">
-        <v>113.4022908726931</v>
+        <v>113.4221444617532</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.955758805740006</v>
+        <v>-7.964722334095221</v>
       </c>
       <c r="F44" t="n">
-        <v>113.3977055074704</v>
+        <v>113.4201465365857</v>
       </c>
       <c r="G44" t="n">
-        <v>201.5490210853312</v>
+        <v>192.3000297533219</v>
       </c>
       <c r="H44" t="n">
-        <v>1.374805105057293</v>
+        <v>1.032789645231266</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1672649688321347</v>
+        <v>0.165986715902361</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9998900262792223</v>
+        <v>0.9999999997752944</v>
       </c>
       <c r="K44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.955758805740006</v>
+        <v>-7.964722334095221</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.3977055074704</v>
+        <v>113.4201465365857</v>
       </c>
       <c r="R44" t="n">
-        <v>201.5490210853312</v>
+        <v>192.3000297533219</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.944238052873023</v>
+        <v>-7.955647442485843</v>
       </c>
       <c r="D45" t="n">
-        <v>113.4022411120174</v>
+        <v>113.4221444617532</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.955735203576253</v>
+        <v>-7.964722334095221</v>
       </c>
       <c r="F45" t="n">
-        <v>113.3976567714539</v>
+        <v>113.4201465365857</v>
       </c>
       <c r="G45" t="n">
-        <v>201.5489898900904</v>
+        <v>192.3000297533219</v>
       </c>
       <c r="H45" t="n">
-        <v>1.374499861243851</v>
+        <v>1.032789645231266</v>
       </c>
       <c r="I45" t="n">
-        <v>0.167264969023615</v>
+        <v>0.165986715902361</v>
       </c>
       <c r="J45" t="n">
-        <v>0.999894487561871</v>
+        <v>0.9999999997939799</v>
       </c>
       <c r="K45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.955735203576253</v>
+        <v>-7.964722334095221</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.3976567714539</v>
+        <v>113.4201465365857</v>
       </c>
       <c r="R45" t="n">
-        <v>201.5489898900904</v>
+        <v>192.3000297533219</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,28 +3412,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647777664079</v>
       </c>
       <c r="D46" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221445159829</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964722813114968</v>
       </c>
       <c r="F46" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201465591455</v>
       </c>
       <c r="G46" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297502222</v>
       </c>
       <c r="H46" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032806015453389</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159024908</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9999614790947603</v>
+        <v>0.9999999998006948</v>
       </c>
       <c r="K46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964722813114968</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201465591455</v>
       </c>
       <c r="R46" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297502222</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,28 +3477,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647707787822</v>
       </c>
       <c r="D47" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221447667313</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723261809652</v>
       </c>
       <c r="F47" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201466957217</v>
       </c>
       <c r="G47" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297599077</v>
       </c>
       <c r="H47" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032865032722862</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159026543</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999613521378026</v>
+        <v>0.9999999998110587</v>
       </c>
       <c r="K47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723261809652</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201466957217</v>
       </c>
       <c r="R47" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297599077</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,28 +3542,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955648126984983</v>
       </c>
       <c r="D48" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221452163147</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723112667216</v>
       </c>
       <c r="F48" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201472704312</v>
       </c>
       <c r="G48" t="n">
-        <v>201.5489972298822</v>
+        <v>192.300029760169</v>
       </c>
       <c r="H48" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032800351449123</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027514</v>
       </c>
       <c r="J48" t="n">
-        <v>0.999983057000126</v>
+        <v>0.9999999998234996</v>
       </c>
       <c r="K48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723112667216</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201472704312</v>
       </c>
       <c r="R48" t="n">
-        <v>201.5489972298822</v>
+        <v>192.300029760169</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,28 +3607,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955648126984983</v>
       </c>
       <c r="D49" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221452163147</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723112667216</v>
       </c>
       <c r="F49" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201472704312</v>
       </c>
       <c r="G49" t="n">
-        <v>201.5489972298822</v>
+        <v>192.300029760169</v>
       </c>
       <c r="H49" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032800351449123</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027514</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999900873322488</v>
+        <v>0.9999999998400393</v>
       </c>
       <c r="K49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723112667216</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201472704312</v>
       </c>
       <c r="R49" t="n">
-        <v>201.5489972298822</v>
+        <v>192.300029760169</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,28 +3672,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647960690353</v>
       </c>
       <c r="D50" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221451836781</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723148760932</v>
       </c>
       <c r="F50" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471932368</v>
       </c>
       <c r="G50" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297594381</v>
       </c>
       <c r="H50" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032823384746053</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027609</v>
       </c>
       <c r="J50" t="n">
-        <v>0.960848664557298</v>
+        <v>0.9999999998583757</v>
       </c>
       <c r="K50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723148760932</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471932368</v>
       </c>
       <c r="R50" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297594381</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647417159112</v>
       </c>
       <c r="D51" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221452679859</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723019659068</v>
       </c>
       <c r="F51" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471863047</v>
       </c>
       <c r="G51" t="n">
-        <v>201.5489972298822</v>
+        <v>192.300029758932</v>
       </c>
       <c r="H51" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032870549890744</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027688</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9905748752756118</v>
+        <v>0.9999999998659468</v>
       </c>
       <c r="K51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723019659068</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471863047</v>
       </c>
       <c r="R51" t="n">
-        <v>201.5489972298822</v>
+        <v>192.300029758932</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,28 +3802,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D52" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F52" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G52" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H52" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857688430935541</v>
+        <v>0.5857864398196168</v>
       </c>
       <c r="K52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R52" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,28 +3867,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D53" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F53" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G53" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H53" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999998401613219</v>
+        <v>0.999999999999738</v>
       </c>
       <c r="K53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R53" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.944265041961556</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D54" t="n">
-        <v>113.4022639162851</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F54" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G54" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H54" t="n">
-        <v>1.374619147212394</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1672649695634749</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9999998401096721</v>
+        <v>0.9999999999997371</v>
       </c>
       <c r="K54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.955763189861039</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.3976791760694</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R54" t="n">
-        <v>201.5489972298822</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,28 +3997,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.944296679447986</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D55" t="n">
-        <v>113.4022424567883</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.955773394079682</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F55" t="n">
-        <v>113.3976662622667</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G55" t="n">
-        <v>201.5489991691381</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H55" t="n">
-        <v>1.372056783793492</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1672649695731542</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999998393247981</v>
+        <v>0.9999999999997722</v>
       </c>
       <c r="K55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.955773394079682</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.3976662622667</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R55" t="n">
-        <v>201.5489991691381</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,28 +4062,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.944296679447986</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D56" t="n">
-        <v>113.4022424567883</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.955773394079682</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F56" t="n">
-        <v>113.3976662622667</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G56" t="n">
-        <v>201.5489991691381</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H56" t="n">
-        <v>1.372056783793492</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1672649695731542</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999998388997184</v>
+        <v>0.9999999999997713</v>
       </c>
       <c r="K56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.955773394079682</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.3976662622667</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R56" t="n">
-        <v>201.5489991691381</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,28 +4127,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.944265060722527</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D57" t="n">
-        <v>113.4022594313313</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.955765423988363</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F57" t="n">
-        <v>113.3976738076554</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G57" t="n">
-        <v>201.548997589393</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H57" t="n">
-        <v>1.374884001244561</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1672649695970472</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999998387407367</v>
+        <v>0.99999999999977</v>
       </c>
       <c r="K57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.955765423988363</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.3976738076554</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R57" t="n">
-        <v>201.548997589393</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,28 +4192,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.944265060722527</v>
+        <v>-7.955647802387655</v>
       </c>
       <c r="D58" t="n">
-        <v>113.4022594313313</v>
+        <v>113.4221452076372</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.955765423988363</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="F58" t="n">
-        <v>113.3976738076554</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="G58" t="n">
-        <v>201.548997589393</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="H58" t="n">
-        <v>1.374884001244561</v>
+        <v>1.032832568293105</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1672649695970472</v>
+        <v>0.1659867159027733</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999998382281072</v>
+        <v>0.9999999999997682</v>
       </c>
       <c r="K58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.955765423988363</v>
+        <v>-7.964723071151993</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.3976738076554</v>
+        <v>113.4201471994308</v>
       </c>
       <c r="R58" t="n">
-        <v>201.548997589393</v>
+        <v>192.3000297586933</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,28 +4257,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.944265060722527</v>
+        <v>-7.955647807531643</v>
       </c>
       <c r="D59" t="n">
-        <v>113.4022594313313</v>
+        <v>113.4221452129757</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.955765423988363</v>
+        <v>-7.964723070189466</v>
       </c>
       <c r="F59" t="n">
-        <v>113.3976738076554</v>
+        <v>113.4201472061138</v>
       </c>
       <c r="G59" t="n">
-        <v>201.548997589393</v>
+        <v>192.3000297586868</v>
       </c>
       <c r="H59" t="n">
-        <v>1.374884001244561</v>
+        <v>1.032831873326231</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1672649695970472</v>
+        <v>0.1659867159027734</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999208079819</v>
+        <v>0.9999999999998641</v>
       </c>
       <c r="K59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.955765423988363</v>
+        <v>-7.964723070189466</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.3976738076554</v>
+        <v>113.4201472061138</v>
       </c>
       <c r="R59" t="n">
-        <v>201.548997589393</v>
+        <v>192.3000297586868</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,28 +4322,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.944268778878221</v>
+        <v>-7.95564783648077</v>
       </c>
       <c r="D60" t="n">
-        <v>113.4022599742552</v>
+        <v>113.422145206735</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.95577173210177</v>
+        <v>-7.964723076956096</v>
       </c>
       <c r="F60" t="n">
-        <v>113.3976733177217</v>
+        <v>113.4201472047567</v>
       </c>
       <c r="G60" t="n">
-        <v>201.5489978964061</v>
+        <v>192.3000297586781</v>
       </c>
       <c r="H60" t="n">
-        <v>1.375193637784911</v>
+        <v>1.03282934879353</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1672649695996091</v>
+        <v>0.1659867159027735</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999205999265</v>
+        <v>0.9999999999998681</v>
       </c>
       <c r="K60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.95577173210177</v>
+        <v>-7.964723076956096</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.3976733177217</v>
+        <v>113.4201472047567</v>
       </c>
       <c r="R60" t="n">
-        <v>201.5489978964061</v>
+        <v>192.3000297586781</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,28 +4387,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.944293928704707</v>
+        <v>-7.95564783648077</v>
       </c>
       <c r="D61" t="n">
-        <v>113.4022476763676</v>
+        <v>113.422145206735</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.955767878870729</v>
+        <v>-7.964723076956096</v>
       </c>
       <c r="F61" t="n">
-        <v>113.3976725845471</v>
+        <v>113.4201472047567</v>
       </c>
       <c r="G61" t="n">
-        <v>201.5489977081486</v>
+        <v>192.3000297586781</v>
       </c>
       <c r="H61" t="n">
-        <v>1.371726273641369</v>
+        <v>1.03282934879353</v>
       </c>
       <c r="I61" t="n">
-        <v>0.167264969604075</v>
+        <v>0.1659867159027735</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999996021969</v>
+        <v>0.9999999999999383</v>
       </c>
       <c r="K61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.955767878870729</v>
+        <v>-7.964723076956096</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.3976725845471</v>
+        <v>113.4201472047567</v>
       </c>
       <c r="R61" t="n">
-        <v>201.5489977081486</v>
+        <v>192.3000297586781</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,28 +4452,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.944266009105303</v>
+        <v>-7.955647907803661</v>
       </c>
       <c r="D62" t="n">
-        <v>113.4022593502896</v>
+        <v>113.4221452053122</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.955769837018132</v>
+        <v>-7.964723074788745</v>
       </c>
       <c r="F62" t="n">
-        <v>113.3976723450653</v>
+        <v>113.4201472195136</v>
       </c>
       <c r="G62" t="n">
-        <v>201.5489976404461</v>
+        <v>192.3000297586783</v>
       </c>
       <c r="H62" t="n">
-        <v>1.375298205874308</v>
+        <v>1.03282098505678</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1672649696056893</v>
+        <v>0.1659867159027735</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5857864398028599</v>
+        <v>0.5857864398196168</v>
       </c>
       <c r="K62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.955769837018132</v>
+        <v>-7.964723074788745</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.3976723450653</v>
+        <v>113.4201472195136</v>
       </c>
       <c r="R62" t="n">
-        <v>201.5489976404461</v>
+        <v>192.3000297586783</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,28 +4517,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.944265435200792</v>
+        <v>-7.955647907803661</v>
       </c>
       <c r="D63" t="n">
-        <v>113.4022583033011</v>
+        <v>113.4221452053122</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.955769436829348</v>
+        <v>-7.964723074788745</v>
       </c>
       <c r="F63" t="n">
-        <v>113.397671228812</v>
+        <v>113.4201472195136</v>
       </c>
       <c r="G63" t="n">
-        <v>201.5489976498093</v>
+        <v>192.3000297586783</v>
       </c>
       <c r="H63" t="n">
-        <v>1.375318973958806</v>
+        <v>1.03282098505678</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1672649696065558</v>
+        <v>0.1659867159027735</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999999998716547</v>
+        <v>0.9999999999999689</v>
       </c>
       <c r="K63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.955769436829348</v>
+        <v>-7.964723074788745</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.397671228812</v>
+        <v>113.4201472195136</v>
       </c>
       <c r="R63" t="n">
-        <v>201.5489976498093</v>
+        <v>192.3000297586783</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,28 +4582,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.944265435200792</v>
+        <v>-7.955647907803661</v>
       </c>
       <c r="D64" t="n">
-        <v>113.4022583033011</v>
+        <v>113.4221452053122</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.955769436829348</v>
+        <v>-7.964723074788745</v>
       </c>
       <c r="F64" t="n">
-        <v>113.397671228812</v>
+        <v>113.4201472195136</v>
       </c>
       <c r="G64" t="n">
-        <v>201.5489976498093</v>
+        <v>192.3000297586783</v>
       </c>
       <c r="H64" t="n">
-        <v>1.375318973958806</v>
+        <v>1.03282098505678</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1672649696065558</v>
+        <v>0.1659867159027735</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9999999998833653</v>
+        <v>0.9322787418723586</v>
       </c>
       <c r="K64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.955769436829348</v>
+        <v>-7.964723074788745</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.397671228812</v>
+        <v>113.4201472195136</v>
       </c>
       <c r="R64" t="n">
-        <v>201.5489976498093</v>
+        <v>192.3000297586783</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,28 +4647,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.944265782506026</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D65" t="n">
-        <v>113.4022580091681</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.955769887981933</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F65" t="n">
-        <v>113.3976708932627</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G65" t="n">
-        <v>201.5489976639463</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H65" t="n">
-        <v>1.375331389211244</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1672649696065662</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J65" t="n">
-        <v>0.963562249648206</v>
+        <v>0.9833157499116917</v>
       </c>
       <c r="K65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.955769887981933</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.3976708932627</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R65" t="n">
-        <v>201.5489976639463</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,28 +4712,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.944265462538506</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D66" t="n">
-        <v>113.4022580999669</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.955769727407284</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F66" t="n">
-        <v>113.3976709205074</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G66" t="n">
-        <v>201.5489976635088</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H66" t="n">
-        <v>1.375350444882252</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1672649696066048</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9405378477323751</v>
+        <v>0.9074753301843602</v>
       </c>
       <c r="K66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.955769727407284</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.3976709205074</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R66" t="n">
-        <v>201.5489976635088</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,28 +4777,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.944265125570693</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D67" t="n">
-        <v>113.4022583715817</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.955769634608884</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F67" t="n">
-        <v>113.3976710947661</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G67" t="n">
-        <v>201.5489976530291</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H67" t="n">
-        <v>1.375379635630905</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1672649696066242</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9810482625664284</v>
+        <v>0.9861798544012894</v>
       </c>
       <c r="K67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.955769634608884</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.3976710947661</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R67" t="n">
-        <v>201.5489976530291</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,28 +4842,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.944265240345934</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D68" t="n">
-        <v>113.4022580203964</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.955769488391129</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F68" t="n">
-        <v>113.3976708476494</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G68" t="n">
-        <v>201.5489976565803</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H68" t="n">
-        <v>1.375348433530159</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1672649696066974</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9887187249460924</v>
+        <v>0.9322724063351717</v>
       </c>
       <c r="K68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.955769488391129</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.3976708476494</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R68" t="n">
-        <v>201.5489976565803</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,28 +4907,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.944265240345934</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D69" t="n">
-        <v>113.4022580203964</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.955769488391129</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F69" t="n">
-        <v>113.3976708476494</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G69" t="n">
-        <v>201.5489976565803</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H69" t="n">
-        <v>1.375348433530159</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1672649696066974</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9943710176083347</v>
+        <v>0.9605866284498358</v>
       </c>
       <c r="K69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.955769488391129</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.3976708476494</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R69" t="n">
-        <v>201.5489976565803</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,28 +4972,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.944265327158272</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D70" t="n">
-        <v>113.4022580643628</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.955769507017897</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F70" t="n">
-        <v>113.3976709188036</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G70" t="n">
-        <v>201.5489976573276</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H70" t="n">
-        <v>1.375340281842264</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1672649696067071</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9967392493596694</v>
+        <v>0.9064130408525942</v>
       </c>
       <c r="K70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.955769507017897</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.3976709188036</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R70" t="n">
-        <v>201.5489976573276</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.944265274829674</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D71" t="n">
-        <v>113.4022579843357</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.955769501135061</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F71" t="n">
-        <v>113.3976708202569</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G71" t="n">
-        <v>201.5489976573534</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H71" t="n">
-        <v>1.375345834508133</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1672649696067078</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9973930783531711</v>
+        <v>0.9821573120658156</v>
       </c>
       <c r="K71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.955769501135061</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.3976708202569</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R71" t="n">
-        <v>201.5489976573534</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,28 +5102,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.944265274829674</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D72" t="n">
-        <v>113.4022579843357</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.955769501135061</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F72" t="n">
-        <v>113.3976708202569</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G72" t="n">
-        <v>201.5489976573534</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H72" t="n">
-        <v>1.375345834508133</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1672649696067078</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857845865439467</v>
+        <v>0.5857606721303295</v>
       </c>
       <c r="K72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.955769501135061</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.3976708202569</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R72" t="n">
-        <v>201.5489976573534</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,28 +5167,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.944265274829674</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D73" t="n">
-        <v>113.4022579843357</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.955769501135061</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F73" t="n">
-        <v>113.3976708202569</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G73" t="n">
-        <v>201.5489976573534</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H73" t="n">
-        <v>1.375345834508133</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1672649696067078</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J73" t="n">
-        <v>0.999963499707043</v>
+        <v>0.9993760884834755</v>
       </c>
       <c r="K73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.955769501135061</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.3976708202569</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R73" t="n">
-        <v>201.5489976573534</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,28 +5232,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.944265361807938</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D74" t="n">
-        <v>113.4022579725447</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.955769519969673</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F74" t="n">
-        <v>113.3976708356372</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G74" t="n">
-        <v>201.5489976573717</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H74" t="n">
-        <v>1.375337687824576</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1672649696067082</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9999725172432015</v>
+        <v>0.9994708568607321</v>
       </c>
       <c r="K74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.955769519969673</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.3976708356372</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R74" t="n">
-        <v>201.5489976573717</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,28 +5297,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.944265361807938</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D75" t="n">
-        <v>113.4022579725447</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.955769519969673</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F75" t="n">
-        <v>113.3976708356372</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G75" t="n">
-        <v>201.5489976573717</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H75" t="n">
-        <v>1.375337687824576</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1672649696067082</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9999881850950461</v>
+        <v>0.9996411756058285</v>
       </c>
       <c r="K75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.955769519969673</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.3976708356372</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R75" t="n">
-        <v>201.5489976573717</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,28 +5362,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.94426530753106</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D76" t="n">
-        <v>113.4022580354854</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.955769509170755</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F76" t="n">
-        <v>113.3976708812417</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G76" t="n">
-        <v>201.5489976573745</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H76" t="n">
-        <v>1.375342885685186</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1672649696067083</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999983483090618</v>
+        <v>0.9998307461670178</v>
       </c>
       <c r="K76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.955769509170755</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.3976708812417</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R76" t="n">
-        <v>201.5489976573745</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,28 +5427,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.944265332714456</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D77" t="n">
-        <v>113.4022580164962</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.9557695164022</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F77" t="n">
-        <v>113.3976708694105</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G77" t="n">
-        <v>201.5489976573603</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H77" t="n">
-        <v>1.375340739500229</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1672649696067085</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999999999972009</v>
+        <v>0.9999968282020583</v>
       </c>
       <c r="K77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.9557695164022</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.3976708694105</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R77" t="n">
-        <v>201.5489976573603</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,28 +5492,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D78" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F78" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G78" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H78" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999999999975122</v>
+        <v>0.9999999999954274</v>
       </c>
       <c r="K78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R78" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,28 +5557,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D79" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F79" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G79" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H79" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999999999972053</v>
+        <v>0.9999999999954274</v>
       </c>
       <c r="K79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R79" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,28 +5622,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D80" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F80" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G80" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H80" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9609683002684021</v>
+        <v>0.9999999999986346</v>
       </c>
       <c r="K80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R80" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,28 +5687,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D81" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F81" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G81" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H81" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9881520881204388</v>
+        <v>0.9999999999993558</v>
       </c>
       <c r="K81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R81" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,28 +5752,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D82" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F82" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G82" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H82" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5358788259469954</v>
+        <v>0.5857864398196168</v>
       </c>
       <c r="K82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R82" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,28 +5817,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D83" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F83" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G83" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H83" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9941675161673331</v>
+        <v>0.9999999999999956</v>
       </c>
       <c r="K83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R83" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,28 +5882,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D84" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F84" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G84" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H84" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9960867933308108</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="K84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R84" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,28 +5947,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D85" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F85" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G85" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H85" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9981819034497836</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="K85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R85" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,28 +6012,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D86" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F86" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G86" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H86" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9981819034496633</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="K86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R86" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,28 +6077,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D87" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F87" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G87" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H87" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9992258668320518</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="K87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R87" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,28 +6142,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D88" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F88" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G88" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H88" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9996069301226732</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="K88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R88" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,28 +6207,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D89" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F89" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G89" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H89" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9997324255119757</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="K89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R89" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,28 +6272,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D90" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F90" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G90" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H90" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J90" t="n">
-        <v>0.999865249203251</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="K90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R90" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,28 +6337,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D91" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F91" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G91" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H91" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999185040069252</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="K91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R91" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,28 +6402,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D92" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F92" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G92" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H92" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5857864390264594</v>
+        <v>0.5857864398196168</v>
       </c>
       <c r="K92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R92" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,28 +6467,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D93" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F93" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G93" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H93" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9999999999999551</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R93" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,28 +6532,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D94" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F94" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G94" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H94" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9999999999999514</v>
+        <v>0.9299145599763953</v>
       </c>
       <c r="K94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R94" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D95" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F95" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G95" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H95" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9145804824122519</v>
+        <v>0.9609206391256356</v>
       </c>
       <c r="K95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R95" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,28 +6662,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D96" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F96" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G96" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H96" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8755625489824259</v>
+        <v>0.8435460623565126</v>
       </c>
       <c r="K96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R96" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,28 +6727,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D97" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F97" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G97" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H97" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J97" t="n">
-        <v>0.971875481272406</v>
+        <v>0.9711109232174423</v>
       </c>
       <c r="K97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R97" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,28 +6792,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D98" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F98" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G98" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H98" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9839516500496863</v>
+        <v>0.9573457132263975</v>
       </c>
       <c r="K98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R98" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,28 +6857,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D99" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F99" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G99" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H99" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9939105553526122</v>
+        <v>0.990164768271361</v>
       </c>
       <c r="K99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R99" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,28 +6922,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D100" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F100" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G100" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H100" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9960005363267842</v>
+        <v>0.9635800606007225</v>
       </c>
       <c r="K100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R100" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,28 +6987,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D101" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F101" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G101" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H101" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9966049222063892</v>
+        <v>0.9948646036605517</v>
       </c>
       <c r="K101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R101" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,28 +7052,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D102" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F102" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G102" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H102" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5857827213080761</v>
+        <v>0.5857821503530068</v>
       </c>
       <c r="K102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R102" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,28 +7117,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D103" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F103" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G103" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H103" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9996597461356624</v>
+        <v>0.9993190601847757</v>
       </c>
       <c r="K103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R103" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,28 +7182,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D104" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F104" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G104" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H104" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J104" t="n">
-        <v>0.999880499239308</v>
+        <v>0.9997694793980596</v>
       </c>
       <c r="K104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R104" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,28 +7247,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D105" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F105" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G105" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H105" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J105" t="n">
-        <v>0.999963027428199</v>
+        <v>0.9998173537458751</v>
       </c>
       <c r="K105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R105" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,28 +7312,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D106" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F106" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G106" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H106" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J106" t="n">
-        <v>0.999963027428199</v>
+        <v>0.9999019384704589</v>
       </c>
       <c r="K106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R106" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,28 +7377,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D107" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F107" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G107" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H107" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9999836708076779</v>
+        <v>0.9999559523753531</v>
       </c>
       <c r="K107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R107" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,28 +7442,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D108" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F108" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G108" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H108" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999964018623607</v>
+        <v>0.9999818268119737</v>
       </c>
       <c r="K108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R108" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,28 +7507,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D109" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F109" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G109" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H109" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9999960315064644</v>
+        <v>0.9999902746359182</v>
       </c>
       <c r="K109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R109" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,28 +7572,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.944265286931406</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D110" t="n">
-        <v>113.4022580189411</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F110" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G110" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H110" t="n">
-        <v>1.375345321002559</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9698405603861658</v>
+        <v>0.9999957382924075</v>
       </c>
       <c r="K110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.955769508941528</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.3976708565749</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R110" t="n">
-        <v>201.5489976573644</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,28 +7637,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D111" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F111" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G111" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H111" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9932378178308301</v>
+        <v>0.9999991875495292</v>
       </c>
       <c r="K111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R111" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,28 +7702,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D112" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F112" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G112" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H112" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857825268360856</v>
+        <v>0.5857864398196163</v>
       </c>
       <c r="K112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R112" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,28 +7767,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D113" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F113" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G113" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H113" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9999976534201629</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K113" t="n">
         <v>448</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R113" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,28 +7832,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D114" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F114" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G114" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H114" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9191783905439804</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K114" t="n">
         <v>448</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R114" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,28 +7897,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D115" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F115" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G115" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H115" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9794577110032608</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K115" t="n">
         <v>448</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R115" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,28 +7962,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D116" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F116" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G116" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H116" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9985748472123442</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K116" t="n">
         <v>448</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R116" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,28 +8027,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D117" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F117" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G117" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H117" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9991717141566734</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K117" t="n">
         <v>448</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R117" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,28 +8092,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D118" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F118" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G118" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H118" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9997992951340856</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K118" t="n">
         <v>448</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R118" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,28 +8157,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D119" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F119" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G119" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H119" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9999599275204684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K119" t="n">
         <v>448</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R119" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,28 +8222,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D120" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F120" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G120" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H120" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9999928886063162</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K120" t="n">
         <v>448</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R120" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,28 +8287,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D121" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F121" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G121" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H121" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9999963452430631</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K121" t="n">
         <v>448</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R121" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,28 +8352,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D122" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F122" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G122" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H122" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5857864398027178</v>
+        <v>0.5857864398196168</v>
       </c>
       <c r="K122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R122" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,25 +8417,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D123" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F123" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G123" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H123" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R123" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,28 +8482,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D124" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F124" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G124" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H124" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0.9365165677338795</v>
       </c>
       <c r="K124" t="n">
         <v>448</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R124" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,28 +8547,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D125" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F125" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G125" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H125" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J125" t="n">
-        <v>0.9334514819063026</v>
+        <v>0.9793944901103413</v>
       </c>
       <c r="K125" t="n">
         <v>448</v>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R125" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,28 +8612,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D126" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F126" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G126" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H126" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9538867692991363</v>
+        <v>0.9673541152985535</v>
       </c>
       <c r="K126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R126" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,28 +8677,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D127" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F127" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G127" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H127" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9794980665794379</v>
+        <v>0.9900797040622116</v>
       </c>
       <c r="K127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R127" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,28 +8742,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D128" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F128" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G128" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H128" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9881590421323285</v>
+        <v>0.8947810162242247</v>
       </c>
       <c r="K128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R128" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,28 +8807,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D129" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F129" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G129" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H129" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9953338605425223</v>
+        <v>0.9848073194894785</v>
       </c>
       <c r="K129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R129" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,28 +8872,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D130" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F130" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G130" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H130" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9963238491687944</v>
+        <v>0.8759132023749751</v>
       </c>
       <c r="K130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R130" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,28 +8937,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D131" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F131" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G131" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H131" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9985018662127156</v>
+        <v>0.9378590534611603</v>
       </c>
       <c r="K131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R131" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D132" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F132" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G132" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H132" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5857860600482985</v>
+        <v>0.5856735371012358</v>
       </c>
       <c r="K132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R132" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,28 +9067,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D133" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F133" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G133" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H133" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9996508377566061</v>
+        <v>0.9990102715366453</v>
       </c>
       <c r="K133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R133" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,28 +9132,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D134" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F134" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G134" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H134" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9998430474064468</v>
+        <v>0.9992510224934567</v>
       </c>
       <c r="K134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R134" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,28 +9197,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D135" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F135" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G135" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H135" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9999044234480806</v>
+        <v>0.9999156654934519</v>
       </c>
       <c r="K135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R135" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,28 +9262,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D136" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F136" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G136" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H136" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9999634099890071</v>
+        <v>0.9999372714845937</v>
       </c>
       <c r="K136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R136" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,28 +9327,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D137" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F137" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G137" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H137" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0.9999989460865611</v>
       </c>
       <c r="K137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R137" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,28 +9392,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D138" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F138" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G138" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H138" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0.9999994262908903</v>
       </c>
       <c r="K138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R138" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,28 +9457,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D139" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F139" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G139" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H139" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0.9999996985913751</v>
       </c>
       <c r="K139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R139" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,28 +9522,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D140" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F140" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G140" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H140" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J140" t="n">
-        <v>0.957599833779548</v>
+        <v>0.9999999436768766</v>
       </c>
       <c r="K140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R140" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,28 +9587,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D141" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F141" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G141" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H141" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9788478210255094</v>
+        <v>0.9999999981351042</v>
       </c>
       <c r="K141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R141" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,28 +9652,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D142" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F142" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G142" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H142" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5856637753730516</v>
+        <v>0.5857864398196168</v>
       </c>
       <c r="K142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R142" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D143" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F143" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G143" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H143" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K143" t="n">
         <v>448</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R143" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,28 +9782,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D144" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F144" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G144" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H144" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9384413929044009</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K144" t="n">
         <v>448</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R144" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,28 +9847,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D145" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F145" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G145" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H145" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9839655714248627</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K145" t="n">
         <v>448</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R145" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,28 +9912,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D146" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F146" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G146" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H146" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9915568340206341</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K146" t="n">
         <v>448</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R146" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,28 +9977,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D147" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F147" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G147" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H147" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9981596732989675</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K147" t="n">
         <v>448</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R147" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,28 +10042,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D148" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F148" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G148" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H148" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9992420168309044</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K148" t="n">
         <v>448</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R148" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,28 +10107,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D149" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F149" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G149" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H149" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J149" t="n">
-        <v>0.999543467380855</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K149" t="n">
         <v>448</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R149" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,28 +10172,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D150" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F150" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G150" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H150" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J150" t="n">
-        <v>0.9996581653706615</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K150" t="n">
         <v>448</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R150" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,28 +10237,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.94426528808116</v>
+        <v>-7.955647862536924</v>
       </c>
       <c r="D151" t="n">
-        <v>113.4022580226732</v>
+        <v>113.4221452123436</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="F151" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="G151" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="H151" t="n">
-        <v>1.375345170106959</v>
+        <v>1.032825630126906</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1672649696067086</v>
+        <v>0.1659867159027736</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9996603709953841</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K151" t="n">
         <v>448</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.955769508829102</v>
+        <v>-7.964723070337179</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.3976708608103</v>
+        <v>113.4201472175591</v>
       </c>
       <c r="R151" t="n">
-        <v>201.5489976573645</v>
+        <v>192.3000297586765</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44648.96944444445</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.114491162029665</v>
+        <v>-6.806682905073734</v>
       </c>
       <c r="D2" t="n">
-        <v>113.2894003782121</v>
+        <v>112.6313603826122</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.097389288750838</v>
+        <v>-7.959679046798781</v>
       </c>
       <c r="F2" t="n">
-        <v>113.440140045418</v>
+        <v>113.471273857799</v>
       </c>
       <c r="G2" t="n">
-        <v>83.47316913249566</v>
+        <v>144.207852044531</v>
       </c>
       <c r="H2" t="n">
-        <v>16.70262954058463</v>
+        <v>158.1620506435048</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1593056971558577</v>
+        <v>0.1660179223243435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9275020149706339</v>
+        <v>0.8972636147527782</v>
       </c>
       <c r="K2" t="n">
-        <v>1271</v>
+        <v>2030</v>
       </c>
       <c r="L2" t="n">
-        <v>190</v>
+        <v>1797</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>44648.96944444445</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.06119715316683</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O2" t="n">
-        <v>113.490313362148</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.097389288750838</v>
+        <v>-7.959679046798781</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.440140045418</v>
+        <v>113.471273857799</v>
       </c>
       <c r="R2" t="n">
-        <v>83.47316913249566</v>
+        <v>144.207852044531</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -617,31 +617,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.372565671558577</v>
+        <v>-8.41915246918764</v>
       </c>
       <c r="D3" t="n">
-        <v>113.2274751968769</v>
+        <v>112.3946463219599</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.932799380708783</v>
       </c>
       <c r="F3" t="n">
-        <v>113.3985386739666</v>
+        <v>113.425678131983</v>
       </c>
       <c r="G3" t="n">
-        <v>163.1187862883281</v>
+        <v>64.59344343033763</v>
       </c>
       <c r="H3" t="n">
-        <v>64.87776779219081</v>
+        <v>125.707289023984</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1654374015547841</v>
+        <v>0.1668483627592266</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9669172257839797</v>
+        <v>0.9535338415751048</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>707</v>
       </c>
       <c r="L3" t="n">
         <v>448</v>
@@ -656,13 +656,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.932799380708783</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.3985386739666</v>
+        <v>113.425678131983</v>
       </c>
       <c r="R3" t="n">
-        <v>163.1187862883281</v>
+        <v>64.59344343033763</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -682,31 +682,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.372565671558577</v>
+        <v>-7.970834531789913</v>
       </c>
       <c r="D4" t="n">
-        <v>113.2274751968769</v>
+        <v>113.3206328899575</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.940105964128625</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3740926382856</v>
       </c>
       <c r="G4" t="n">
-        <v>163.1187862883281</v>
+        <v>59.87351375253832</v>
       </c>
       <c r="H4" t="n">
-        <v>64.87776779219081</v>
+        <v>6.806949901387352</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1654374015547841</v>
+        <v>0.1672011457542387</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9840595900497705</v>
+        <v>0.9873071359649095</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>640</v>
       </c>
       <c r="L4" t="n">
         <v>448</v>
@@ -721,13 +721,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.940105964128625</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3740926382856</v>
       </c>
       <c r="R4" t="n">
-        <v>163.1187862883281</v>
+        <v>59.87351375253832</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -747,31 +747,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.372565671558577</v>
+        <v>-7.970834531789913</v>
       </c>
       <c r="D5" t="n">
-        <v>113.2274751968769</v>
+        <v>113.3206328899575</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.940105964128625</v>
       </c>
       <c r="F5" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3740926382856</v>
       </c>
       <c r="G5" t="n">
-        <v>163.1187862883281</v>
+        <v>59.87351375253832</v>
       </c>
       <c r="H5" t="n">
-        <v>64.87776779219081</v>
+        <v>6.806949901387352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1654374015547841</v>
+        <v>0.1672011457542387</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9914361621198112</v>
+        <v>0.9912992929103972</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>640</v>
       </c>
       <c r="L5" t="n">
         <v>448</v>
@@ -786,13 +786,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.940105964128625</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3740926382856</v>
       </c>
       <c r="R5" t="n">
-        <v>163.1187862883281</v>
+        <v>59.87351375253832</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -812,31 +812,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.372565671558577</v>
+        <v>-7.96289419116862</v>
       </c>
       <c r="D6" t="n">
-        <v>113.2274751968769</v>
+        <v>113.3871774453693</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="F6" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="G6" t="n">
-        <v>163.1187862883281</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="H6" t="n">
-        <v>64.87776779219081</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1654374015547841</v>
+        <v>0.1683805998350725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9930787194446946</v>
+        <v>0.9964133659542356</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>448</v>
       </c>
       <c r="L6" t="n">
         <v>448</v>
@@ -851,13 +851,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="R6" t="n">
-        <v>163.1187862883281</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -877,31 +877,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.372565671558577</v>
+        <v>-7.96289419116862</v>
       </c>
       <c r="D7" t="n">
-        <v>113.2274751968769</v>
+        <v>113.3871774453693</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="G7" t="n">
-        <v>163.1187862883281</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="H7" t="n">
-        <v>64.87776779219081</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1654374015547841</v>
+        <v>0.1683805998350725</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9947749176640995</v>
+        <v>0.9971400843086599</v>
       </c>
       <c r="K7" t="n">
-        <v>295</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
         <v>448</v>
@@ -916,13 +916,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.930850230520639</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.3985386739666</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="R7" t="n">
-        <v>163.1187862883281</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.812627030317237</v>
+        <v>-7.96289419116862</v>
       </c>
       <c r="D8" t="n">
-        <v>113.3761450299772</v>
+        <v>113.3871774453693</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.975083285960825</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="F8" t="n">
-        <v>113.4159166278759</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="G8" t="n">
-        <v>166.37193546165</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="H8" t="n">
-        <v>18.5878471745897</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1655879541017533</v>
+        <v>0.1683805998350725</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9976377412814083</v>
+        <v>0.9969978562957987</v>
       </c>
       <c r="K8" t="n">
-        <v>177</v>
+        <v>448</v>
       </c>
       <c r="L8" t="n">
         <v>448</v>
@@ -981,13 +981,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.975083285960825</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.4159166278759</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="R8" t="n">
-        <v>166.37193546165</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.968396466543967</v>
+        <v>-7.96289419116862</v>
       </c>
       <c r="D9" t="n">
-        <v>113.4224376104697</v>
+        <v>113.3871774453693</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.977185405255866</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="F9" t="n">
-        <v>113.4205130986293</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="G9" t="n">
-        <v>192.2351979109165</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.165932890371619</v>
+        <v>0.1683805998350725</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9978403729615043</v>
+        <v>0.9974782859440594</v>
       </c>
       <c r="K9" t="n">
         <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O9" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.977185405255866</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.4205130986293</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="R9" t="n">
-        <v>192.2351979109165</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1069,55 +1069,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.968396466543967</v>
+        <v>-7.96289419116862</v>
       </c>
       <c r="D10" t="n">
-        <v>113.4224376104697</v>
+        <v>113.3871774453693</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.977185405255866</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="F10" t="n">
-        <v>113.4205130986293</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="G10" t="n">
-        <v>192.2351979109165</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.165932890371619</v>
+        <v>0.1683805998350725</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9985004614606213</v>
+        <v>0.9975279857358523</v>
       </c>
       <c r="K10" t="n">
         <v>448</v>
       </c>
       <c r="L10" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O10" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.977185405255866</v>
+        <v>-7.955311447900468</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.4205130986293</v>
+        <v>113.3920597566289</v>
       </c>
       <c r="R10" t="n">
-        <v>192.2351979109165</v>
+        <v>32.52473522538737</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1134,55 +1134,55 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.968396466543967</v>
+        <v>-7.96399487508369</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4224376104697</v>
+        <v>113.3857032850115</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.977185405255866</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4205130986293</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="G11" t="n">
-        <v>192.2351979109165</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.165932890371619</v>
+        <v>0.1683922785541698</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9989793013294958</v>
+        <v>0.9974721964578881</v>
       </c>
       <c r="K11" t="n">
         <v>448</v>
       </c>
       <c r="L11" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N11" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O11" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.977185405255866</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4205130986293</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="R11" t="n">
-        <v>192.2351979109165</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1199,55 +1199,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.958137078159539</v>
+        <v>-7.96399487508369</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4313268021021</v>
+        <v>113.3857032850115</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.96740944623679</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="F12" t="n">
-        <v>113.4295442553027</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="G12" t="n">
-        <v>190.7793721028872</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="H12" t="n">
-        <v>1.049560575880218</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1659515428274118</v>
+        <v>0.1683922785541698</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857860192332559</v>
+        <v>0.5857846111283116</v>
       </c>
       <c r="K12" t="n">
         <v>448</v>
       </c>
       <c r="L12" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N12" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O12" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.96740944623679</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.4295442553027</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="R12" t="n">
-        <v>190.7793721028872</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1264,55 +1264,55 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.958137078159539</v>
+        <v>-7.96399487508369</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4313268021021</v>
+        <v>113.3857032850115</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.96740944623679</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4295442553027</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="G13" t="n">
-        <v>190.7793721028872</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="H13" t="n">
-        <v>1.049560575880218</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1659515428274118</v>
+        <v>0.1683922785541698</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9996059269230192</v>
+        <v>0.9993615638627572</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
       </c>
       <c r="L13" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N13" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O13" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.96740944623679</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4295442553027</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="R13" t="n">
-        <v>190.7793721028872</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1329,55 +1329,55 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.958137078159539</v>
+        <v>-7.96399487508369</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4313268021021</v>
+        <v>113.3857032850115</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.96740944623679</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="F14" t="n">
-        <v>113.4295442553027</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="G14" t="n">
-        <v>190.7793721028872</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="H14" t="n">
-        <v>1.049560575880218</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1659515428274118</v>
+        <v>0.1683922785541698</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9996137514388314</v>
+        <v>0.9995478044982176</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
       </c>
       <c r="L14" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O14" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.96740944623679</v>
+        <v>-7.956331657969793</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4295442553027</v>
+        <v>113.3904557786728</v>
       </c>
       <c r="R14" t="n">
-        <v>190.7793721028872</v>
+        <v>31.55832279562068</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.95700705234331</v>
+        <v>-7.966918825285509</v>
       </c>
       <c r="D15" t="n">
-        <v>113.4235523492253</v>
+        <v>113.3884778595855</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.96580897647147</v>
+        <v>-7.959215727448647</v>
       </c>
       <c r="F15" t="n">
-        <v>113.4216893818624</v>
+        <v>113.3931641913244</v>
       </c>
       <c r="G15" t="n">
-        <v>191.8384962765215</v>
+        <v>31.06943921440235</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1659791619489825</v>
+        <v>0.1684008092593045</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9995826577953919</v>
+        <v>0.9996593783364759</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.96580897647147</v>
+        <v>-7.959215727448647</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.4216893818624</v>
+        <v>113.3931641913244</v>
       </c>
       <c r="R15" t="n">
-        <v>191.8384962765215</v>
+        <v>31.06943921440235</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.955211656639416</v>
+        <v>-7.966918825285509</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4192608497955</v>
+        <v>113.3884778595855</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.964205157710241</v>
+        <v>-7.959215727448647</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4173159478775</v>
+        <v>113.3931641913244</v>
       </c>
       <c r="G16" t="n">
-        <v>192.0884418589042</v>
+        <v>31.06943921440235</v>
       </c>
       <c r="H16" t="n">
-        <v>1.022710281492085</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.165981031646054</v>
+        <v>0.1684008092593045</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9995650602905213</v>
+        <v>0.9998030295538838</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.964205157710241</v>
+        <v>-7.959215727448647</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4173159478775</v>
+        <v>113.3931641913244</v>
       </c>
       <c r="R16" t="n">
-        <v>192.0884418589042</v>
+        <v>31.06943921440235</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.955431957738277</v>
+        <v>-7.966961801752602</v>
       </c>
       <c r="D17" t="n">
-        <v>113.4183174813154</v>
+        <v>113.3891775009643</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.964328512025832</v>
+        <v>-7.959268353895316</v>
       </c>
       <c r="F17" t="n">
-        <v>113.4163546419747</v>
+        <v>113.3938799677567</v>
       </c>
       <c r="G17" t="n">
-        <v>192.3254702771285</v>
+        <v>31.18836634314257</v>
       </c>
       <c r="H17" t="n">
-        <v>1.012591664773543</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1659815068071628</v>
+        <v>0.1684031778106401</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9996089920721716</v>
+        <v>0.9998785374025141</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.964328512025832</v>
+        <v>-7.959268353895316</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.4163546419747</v>
+        <v>113.3938799677567</v>
       </c>
       <c r="R17" t="n">
-        <v>192.3254702771285</v>
+        <v>31.18836634314257</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,28 +1592,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.955206461572007</v>
+        <v>-7.966961801752602</v>
       </c>
       <c r="D18" t="n">
-        <v>113.4230882979347</v>
+        <v>113.3891775009643</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.964217988028286</v>
+        <v>-7.959268353895316</v>
       </c>
       <c r="F18" t="n">
-        <v>113.4211129894032</v>
+        <v>113.3938799677567</v>
       </c>
       <c r="G18" t="n">
-        <v>192.2479420737263</v>
+        <v>31.18836634314257</v>
       </c>
       <c r="H18" t="n">
-        <v>1.025375391892289</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1659855998290045</v>
+        <v>0.1684031778106401</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9996048815190173</v>
+        <v>0.9999188189263744</v>
       </c>
       <c r="K18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.964217988028286</v>
+        <v>-7.959268353895316</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.4211129894032</v>
+        <v>113.3938799677567</v>
       </c>
       <c r="R18" t="n">
-        <v>192.2479420737263</v>
+        <v>31.18836634314257</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.954963996748734</v>
+        <v>-7.966976099458903</v>
       </c>
       <c r="D19" t="n">
-        <v>113.4224876348112</v>
+        <v>113.389213121457</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.964053844228407</v>
+        <v>-7.959292067710139</v>
       </c>
       <c r="F19" t="n">
-        <v>113.4204906048223</v>
+        <v>113.3939312593667</v>
       </c>
       <c r="G19" t="n">
-        <v>192.2750906810768</v>
+        <v>31.30401944056413</v>
       </c>
       <c r="H19" t="n">
-        <v>1.034393661906775</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.165986180391056</v>
+        <v>0.1684042896377444</v>
       </c>
       <c r="J19" t="n">
-        <v>0.999598616553215</v>
+        <v>0.9999385346827335</v>
       </c>
       <c r="K19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.964053844228407</v>
+        <v>-7.959292067710139</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.4204906048223</v>
+        <v>113.3939312593667</v>
       </c>
       <c r="R19" t="n">
-        <v>192.2750906810768</v>
+        <v>31.30401944056413</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,28 +1722,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.953619951126991</v>
+        <v>-7.966976099458903</v>
       </c>
       <c r="D20" t="n">
-        <v>113.4224599493696</v>
+        <v>113.389213121457</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.965317294512689</v>
+        <v>-7.959292067710139</v>
       </c>
       <c r="F20" t="n">
-        <v>113.4198789325556</v>
+        <v>113.3939312593667</v>
       </c>
       <c r="G20" t="n">
-        <v>192.3265586151201</v>
+        <v>31.30401944056413</v>
       </c>
       <c r="H20" t="n">
-        <v>1.331378770390421</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1659862061204005</v>
+        <v>0.1684042896377444</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9996584035505938</v>
+        <v>0.9999506110359688</v>
       </c>
       <c r="K20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.965317294512689</v>
+        <v>-7.959292067710139</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.4198789325556</v>
+        <v>113.3939312593667</v>
       </c>
       <c r="R20" t="n">
-        <v>192.3265586151201</v>
+        <v>31.30401944056413</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,28 +1787,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.954946365154541</v>
+        <v>-7.967084738059017</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4225110258566</v>
+        <v>113.3898165010603</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.964007217673759</v>
+        <v>-7.959399252067382</v>
       </c>
       <c r="F21" t="n">
-        <v>113.4205163205127</v>
+        <v>113.394532224619</v>
       </c>
       <c r="G21" t="n">
-        <v>192.2992795001319</v>
+        <v>31.28618283784871</v>
       </c>
       <c r="H21" t="n">
-        <v>1.031188948191328</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1659864854891455</v>
+        <v>0.1684047897121541</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9996949125878529</v>
+        <v>0.9999659893293794</v>
       </c>
       <c r="K21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.964007217673759</v>
+        <v>-7.959399252067382</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.4205163205127</v>
+        <v>113.394532224619</v>
       </c>
       <c r="R21" t="n">
-        <v>192.2992795001319</v>
+        <v>31.28618283784871</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.955586639263958</v>
+        <v>-7.967084738059017</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4216878694999</v>
+        <v>113.3898165010603</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.964488180362835</v>
+        <v>-7.959399252067382</v>
       </c>
       <c r="F22" t="n">
-        <v>113.419727939796</v>
+        <v>113.394532224619</v>
       </c>
       <c r="G22" t="n">
-        <v>192.3010670863835</v>
+        <v>31.28618283784871</v>
       </c>
       <c r="H22" t="n">
-        <v>1.013065066817556</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1659866240833176</v>
+        <v>0.1684047897121541</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857864050450684</v>
+        <v>0.58578643958861</v>
       </c>
       <c r="K22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.964488180362835</v>
+        <v>-7.959399252067382</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.419727939796</v>
+        <v>113.394532224619</v>
       </c>
       <c r="R22" t="n">
-        <v>192.3010670863835</v>
+        <v>31.28618283784871</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,28 +1917,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.95549622940778</v>
+        <v>-7.967084738059017</v>
       </c>
       <c r="D23" t="n">
-        <v>113.4222926453692</v>
+        <v>113.3898165010603</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.964547632269819</v>
+        <v>-7.959399252067382</v>
       </c>
       <c r="F23" t="n">
-        <v>113.4203000449603</v>
+        <v>113.394532224619</v>
       </c>
       <c r="G23" t="n">
-        <v>192.2991163347957</v>
+        <v>31.28618283784871</v>
       </c>
       <c r="H23" t="n">
-        <v>1.030112870418792</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1659866850313042</v>
+        <v>0.1684047897121541</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9999889076958589</v>
+        <v>0.9999852435392466</v>
       </c>
       <c r="K23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.964547632269819</v>
+        <v>-7.959399252067382</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.4203000449603</v>
+        <v>113.394532224619</v>
       </c>
       <c r="R23" t="n">
-        <v>192.2991163347957</v>
+        <v>31.28618283784871</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,28 +1982,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.955879509939915</v>
+        <v>-7.96653975968744</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4222218561651</v>
+        <v>113.3897203543098</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.964867439540529</v>
+        <v>-7.958854320438025</v>
       </c>
       <c r="F24" t="n">
-        <v>113.4202431820355</v>
+        <v>113.3944361492626</v>
       </c>
       <c r="G24" t="n">
-        <v>192.2993897010769</v>
+        <v>31.28675626088726</v>
       </c>
       <c r="H24" t="n">
-        <v>1.022890230209097</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1659866969085505</v>
+        <v>0.1684049187435534</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999904176237093</v>
+        <v>0.9999931466276456</v>
       </c>
       <c r="K24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.964867439540529</v>
+        <v>-7.958854320438025</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.4202431820355</v>
+        <v>113.3944361492626</v>
       </c>
       <c r="R24" t="n">
-        <v>192.2993897010769</v>
+        <v>31.28675626088726</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.955485169684497</v>
+        <v>-7.966735427226508</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4221624605986</v>
+        <v>113.3900818040557</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.964703938918904</v>
+        <v>-7.959049706992072</v>
       </c>
       <c r="F25" t="n">
-        <v>113.4201329489371</v>
+        <v>113.3947971343404</v>
       </c>
       <c r="G25" t="n">
-        <v>192.2995039698818</v>
+        <v>31.28330892957603</v>
       </c>
       <c r="H25" t="n">
-        <v>1.049161890431462</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1659867084669248</v>
+        <v>0.1684049817199254</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999923479936499</v>
+        <v>0.9999944116487151</v>
       </c>
       <c r="K25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.964703938918904</v>
+        <v>-7.959049706992072</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.4201329489371</v>
+        <v>113.3947971343404</v>
       </c>
       <c r="R25" t="n">
-        <v>192.2995039698818</v>
+        <v>31.28330892957603</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,28 +2112,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.955488820008005</v>
+        <v>-7.966613008684378</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4221049521014</v>
+        <v>113.389965450698</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.964744860264506</v>
+        <v>-7.958927449829067</v>
       </c>
       <c r="F26" t="n">
-        <v>113.420067132179</v>
+        <v>113.3946810477494</v>
       </c>
       <c r="G26" t="n">
-        <v>192.3001058017242</v>
+        <v>31.28528888890332</v>
       </c>
       <c r="H26" t="n">
-        <v>1.05340601422083</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1659867125507855</v>
+        <v>0.1684049949357275</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999937990432219</v>
+        <v>0.9999975766732064</v>
       </c>
       <c r="K26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.964744860264506</v>
+        <v>-7.958927449829067</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.420067132179</v>
+        <v>113.3946810477494</v>
       </c>
       <c r="R26" t="n">
-        <v>192.3001058017242</v>
+        <v>31.28528888890332</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.955488820008005</v>
+        <v>-7.9664934429038</v>
       </c>
       <c r="D27" t="n">
-        <v>113.4221049521014</v>
+        <v>113.390089762344</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.964744860264506</v>
+        <v>-7.95880781854968</v>
       </c>
       <c r="F27" t="n">
-        <v>113.420067132179</v>
+        <v>113.3948052491771</v>
       </c>
       <c r="G27" t="n">
-        <v>192.3001058017242</v>
+        <v>31.28448529103781</v>
       </c>
       <c r="H27" t="n">
-        <v>1.05340601422083</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1659867125507855</v>
+        <v>0.1684050390633976</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999941264165236</v>
+        <v>0.9999986163537971</v>
       </c>
       <c r="K27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.964744860264506</v>
+        <v>-7.95880781854968</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.420067132179</v>
+        <v>113.3948052491771</v>
       </c>
       <c r="R27" t="n">
-        <v>192.3001058017242</v>
+        <v>31.28448529103781</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,28 +2242,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.955725841193806</v>
+        <v>-7.9664934429038</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4221111069126</v>
+        <v>113.390089762344</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.964758621737007</v>
+        <v>-7.95880781854968</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4201224742237</v>
+        <v>113.3948052491771</v>
       </c>
       <c r="G28" t="n">
-        <v>192.299900872712</v>
+        <v>31.28448529103781</v>
       </c>
       <c r="H28" t="n">
-        <v>1.027996588392314</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1659867134922579</v>
+        <v>0.1684050390633976</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9999961079236959</v>
+        <v>0.9999991521199479</v>
       </c>
       <c r="K28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.964758621737007</v>
+        <v>-7.95880781854968</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4201224742237</v>
+        <v>113.3948052491771</v>
       </c>
       <c r="R28" t="n">
-        <v>192.299900872712</v>
+        <v>31.28448529103781</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,28 +2307,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.955586545111849</v>
+        <v>-7.966358381932573</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4221275322138</v>
+        <v>113.3900826862587</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.964734327600854</v>
+        <v>-7.958672761597558</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4201135487608</v>
+        <v>113.3947981782158</v>
       </c>
       <c r="G29" t="n">
-        <v>192.3000924373932</v>
+        <v>31.28453459559766</v>
       </c>
       <c r="H29" t="n">
-        <v>1.041085418073421</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1659867146174895</v>
+        <v>0.1684050426534964</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999979418441761</v>
+        <v>0.9999994910594677</v>
       </c>
       <c r="K29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.964734327600854</v>
+        <v>-7.958672761597558</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4201135487608</v>
+        <v>113.3947981782158</v>
       </c>
       <c r="R29" t="n">
-        <v>192.3000924373932</v>
+        <v>31.28453459559766</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,28 +2372,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.955865707842976</v>
+        <v>-7.966498118807929</v>
       </c>
       <c r="D30" t="n">
-        <v>113.4220919142889</v>
+        <v>113.3901602097621</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.96469907883573</v>
+        <v>-7.958812495144397</v>
       </c>
       <c r="F30" t="n">
-        <v>113.4201471656596</v>
+        <v>113.3948756977967</v>
       </c>
       <c r="G30" t="n">
-        <v>192.3000095108909</v>
+        <v>31.28449376403044</v>
       </c>
       <c r="H30" t="n">
-        <v>1.005302724925546</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1659867154277533</v>
+        <v>0.1684050438152687</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999986411212332</v>
+        <v>0.9999996036338835</v>
       </c>
       <c r="K30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.96469907883573</v>
+        <v>-7.958812495144397</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.4201471656596</v>
+        <v>113.3948756977967</v>
       </c>
       <c r="R30" t="n">
-        <v>192.3000095108909</v>
+        <v>31.28449376403044</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,28 +2437,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.955865707842976</v>
+        <v>-7.966467937273054</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4220919142889</v>
+        <v>113.3902112929314</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.96469907883573</v>
+        <v>-7.958782295147453</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4201471656596</v>
+        <v>113.3949267499388</v>
       </c>
       <c r="G31" t="n">
-        <v>192.3000095108909</v>
+        <v>31.28426725175515</v>
       </c>
       <c r="H31" t="n">
-        <v>1.005302724925546</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1659867154277533</v>
+        <v>0.1684050459648489</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999988738312905</v>
+        <v>0.9999997064031989</v>
       </c>
       <c r="K31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.96469907883573</v>
+        <v>-7.958782295147453</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4201471656596</v>
+        <v>113.3949267499388</v>
       </c>
       <c r="R31" t="n">
-        <v>192.3000095108909</v>
+        <v>31.28426725175515</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,28 +2502,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.955624380502986</v>
+        <v>-7.966332561267168</v>
       </c>
       <c r="D32" t="n">
-        <v>113.4221547343764</v>
+        <v>113.3901560119186</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.964736115214218</v>
+        <v>-7.958646935635814</v>
       </c>
       <c r="F32" t="n">
-        <v>113.4201486955162</v>
+        <v>113.3948714947772</v>
       </c>
       <c r="G32" t="n">
-        <v>192.3000431638567</v>
+        <v>31.28446961401145</v>
       </c>
       <c r="H32" t="n">
-        <v>1.036982717291066</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1659867156594171</v>
+        <v>0.1684050488491711</v>
       </c>
       <c r="J32" t="n">
-        <v>0.535898387484154</v>
+        <v>0.4807407016195364</v>
       </c>
       <c r="K32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.964736115214218</v>
+        <v>-7.958646935635814</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.4201486955162</v>
+        <v>113.3948714947772</v>
       </c>
       <c r="R32" t="n">
-        <v>192.3000431638567</v>
+        <v>31.28446961401145</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,28 +2567,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.955631725119387</v>
+        <v>-7.966399999720196</v>
       </c>
       <c r="D33" t="n">
-        <v>113.4221412224773</v>
+        <v>113.3901655914531</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.964733753461502</v>
+        <v>-7.95871437353338</v>
       </c>
       <c r="F33" t="n">
-        <v>113.4201373225436</v>
+        <v>113.3948810741651</v>
       </c>
       <c r="G33" t="n">
-        <v>192.3000314972221</v>
+        <v>31.28446280187341</v>
       </c>
       <c r="H33" t="n">
-        <v>1.035878014212471</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1659867158072622</v>
+        <v>0.1684050497470969</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999994470295415</v>
+        <v>0.9878538059827444</v>
       </c>
       <c r="K33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.964733753461502</v>
+        <v>-7.95871437353338</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.4201373225436</v>
+        <v>113.3948810741651</v>
       </c>
       <c r="R33" t="n">
-        <v>192.3000314972221</v>
+        <v>31.28446280187341</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,28 +2632,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.955642192583387</v>
+        <v>-7.966369754584187</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4221396776847</v>
+        <v>113.3901968360773</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.964720573720347</v>
+        <v>-7.958684120952822</v>
       </c>
       <c r="F34" t="n">
-        <v>113.4201409845169</v>
+        <v>113.3949123060699</v>
       </c>
       <c r="G34" t="n">
-        <v>192.3000282930461</v>
+        <v>31.28437146360005</v>
       </c>
       <c r="H34" t="n">
-        <v>1.033186773693134</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.16598671586749</v>
+        <v>0.1684050502988626</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9999995294554931</v>
+        <v>0.9961253438766932</v>
       </c>
       <c r="K34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.964720573720347</v>
+        <v>-7.958684120952822</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.4201409845169</v>
+        <v>113.3949123060699</v>
       </c>
       <c r="R34" t="n">
-        <v>192.3000282930461</v>
+        <v>31.28437146360005</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,28 +2697,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.955642192583387</v>
+        <v>-7.966345965477596</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4221396776847</v>
+        <v>113.3901904898438</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.964720573720347</v>
+        <v>-7.958660338485624</v>
       </c>
       <c r="F35" t="n">
-        <v>113.4201409845169</v>
+        <v>113.3949059705957</v>
       </c>
       <c r="G35" t="n">
-        <v>192.3000282930461</v>
+        <v>31.2844529212058</v>
       </c>
       <c r="H35" t="n">
-        <v>1.033186773693134</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.16598671586749</v>
+        <v>0.1684050508402597</v>
       </c>
       <c r="J35" t="n">
-        <v>0.999999842646412</v>
+        <v>0.9976675452258181</v>
       </c>
       <c r="K35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.964720573720347</v>
+        <v>-7.958660338485624</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.4201409845169</v>
+        <v>113.3949059705957</v>
       </c>
       <c r="R35" t="n">
-        <v>192.3000282930461</v>
+        <v>31.2844529212058</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,28 +2762,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.955642192583387</v>
+        <v>-7.966417786317989</v>
       </c>
       <c r="D36" t="n">
-        <v>113.4221396776847</v>
+        <v>113.3902195905522</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.964720573720347</v>
+        <v>-7.958732158828479</v>
       </c>
       <c r="F36" t="n">
-        <v>113.4201409845169</v>
+        <v>113.3949350713041</v>
       </c>
       <c r="G36" t="n">
-        <v>192.3000282930461</v>
+        <v>31.28444681989971</v>
       </c>
       <c r="H36" t="n">
-        <v>1.033186773693134</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.16598671586749</v>
+        <v>0.1684050510586993</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8632869074913405</v>
+        <v>0.9382013450955276</v>
       </c>
       <c r="K36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.964720573720347</v>
+        <v>-7.958732158828479</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.4201409845169</v>
+        <v>113.3949350713041</v>
       </c>
       <c r="R36" t="n">
-        <v>192.3000282930461</v>
+        <v>31.28444681989971</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,28 +2827,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.955649734840782</v>
+        <v>-7.966417786317989</v>
       </c>
       <c r="D37" t="n">
-        <v>113.4221451277394</v>
+        <v>113.3902195905522</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.964723824214078</v>
+        <v>-7.958732158828479</v>
       </c>
       <c r="F37" t="n">
-        <v>113.4201473794229</v>
+        <v>113.3949350713041</v>
       </c>
       <c r="G37" t="n">
-        <v>192.3000283317713</v>
+        <v>31.28444681989971</v>
       </c>
       <c r="H37" t="n">
-        <v>1.032698339209101</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1659867158829147</v>
+        <v>0.1684050510586993</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9295970717549296</v>
+        <v>0.9868798980662642</v>
       </c>
       <c r="K37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.964723824214078</v>
+        <v>-7.958732158828479</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.4201473794229</v>
+        <v>113.3949350713041</v>
       </c>
       <c r="R37" t="n">
-        <v>192.3000283317713</v>
+        <v>31.28444681989971</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.955641265320156</v>
+        <v>-7.96638411620651</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4221440394551</v>
+        <v>113.3902093675346</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.964725518434763</v>
+        <v>-7.958698489593697</v>
       </c>
       <c r="F38" t="n">
-        <v>113.4201440532686</v>
+        <v>113.3949248493558</v>
       </c>
       <c r="G38" t="n">
-        <v>192.3000296129864</v>
+        <v>31.2844575746687</v>
       </c>
       <c r="H38" t="n">
-        <v>1.033855053630929</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.165986715895388</v>
+        <v>0.1684050514288893</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9903256906501144</v>
+        <v>0.9910543026115454</v>
       </c>
       <c r="K38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.964725518434763</v>
+        <v>-7.958698489593697</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.4201440532686</v>
+        <v>113.3949248493558</v>
       </c>
       <c r="R38" t="n">
-        <v>192.3000296129864</v>
+        <v>31.2844575746687</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,28 +2957,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.95564799398292</v>
+        <v>-7.96638411620651</v>
       </c>
       <c r="D39" t="n">
-        <v>113.4221448950632</v>
+        <v>113.3902093675346</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.96472297391633</v>
+        <v>-7.958698489593697</v>
       </c>
       <c r="F39" t="n">
-        <v>113.420146950516</v>
+        <v>113.3949248493558</v>
       </c>
       <c r="G39" t="n">
-        <v>192.3000293423617</v>
+        <v>31.2844575746687</v>
       </c>
       <c r="H39" t="n">
-        <v>1.032799695547889</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1659867158970119</v>
+        <v>0.1684050514288893</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9929778743677897</v>
+        <v>0.9948762822894724</v>
       </c>
       <c r="K39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.96472297391633</v>
+        <v>-7.958698489593697</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.420146950516</v>
+        <v>113.3949248493558</v>
       </c>
       <c r="R39" t="n">
-        <v>192.3000293423617</v>
+        <v>31.2844575746687</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,28 +3022,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.955638722385896</v>
+        <v>-7.96638411620651</v>
       </c>
       <c r="D40" t="n">
-        <v>113.4221448359915</v>
+        <v>113.3902093675346</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.964721475733107</v>
+        <v>-7.958698489593697</v>
       </c>
       <c r="F40" t="n">
-        <v>113.4201451799751</v>
+        <v>113.3949248493558</v>
       </c>
       <c r="G40" t="n">
-        <v>192.3000298407457</v>
+        <v>31.2844575746687</v>
       </c>
       <c r="H40" t="n">
-        <v>1.033684369837352</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1659867158993925</v>
+        <v>0.1684050514288893</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9973979214624339</v>
+        <v>0.9953395190634691</v>
       </c>
       <c r="K40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.964721475733107</v>
+        <v>-7.958698489593697</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.4201451799751</v>
+        <v>113.3949248493558</v>
       </c>
       <c r="R40" t="n">
-        <v>192.3000298407457</v>
+        <v>31.2844575746687</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,28 +3087,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.955646739800347</v>
+        <v>-7.966391348982533</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4221467076525</v>
+        <v>113.3902106654763</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.964724337993471</v>
+        <v>-7.958705721389269</v>
       </c>
       <c r="F41" t="n">
-        <v>113.4201481866089</v>
+        <v>113.3949261457514</v>
       </c>
       <c r="G41" t="n">
-        <v>192.3000296668141</v>
+        <v>31.2844455458326</v>
       </c>
       <c r="H41" t="n">
-        <v>1.033097674260253</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1659867159006459</v>
+        <v>0.1684050515222561</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9978417641371027</v>
+        <v>0.9957330021034447</v>
       </c>
       <c r="K41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.964724337993471</v>
+        <v>-7.958705721389269</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.4201481866089</v>
+        <v>113.3949261457514</v>
       </c>
       <c r="R41" t="n">
-        <v>192.3000296668141</v>
+        <v>31.2844455458326</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.955647110519954</v>
+        <v>-7.966391348982533</v>
       </c>
       <c r="D42" t="n">
-        <v>113.4221445327176</v>
+        <v>113.3902106654763</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.964722062295208</v>
+        <v>-7.958705721389269</v>
       </c>
       <c r="F42" t="n">
-        <v>113.4201465942991</v>
+        <v>113.3949261457514</v>
       </c>
       <c r="G42" t="n">
-        <v>192.3000297905193</v>
+        <v>31.2844455458326</v>
       </c>
       <c r="H42" t="n">
-        <v>1.032796492701719</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1659867159018594</v>
+        <v>0.1684050515222561</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5857847309017434</v>
+        <v>0.5857835291929302</v>
       </c>
       <c r="K42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.964722062295208</v>
+        <v>-7.958705721389269</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.4201465942991</v>
+        <v>113.3949261457514</v>
       </c>
       <c r="R42" t="n">
-        <v>192.3000297905193</v>
+        <v>31.2844455458326</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,28 +3217,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.955647442485843</v>
+        <v>-7.966389550847834</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4221444617532</v>
+        <v>113.3902102259909</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.964722334095221</v>
+        <v>-7.958703923180806</v>
       </c>
       <c r="F43" t="n">
-        <v>113.4201465365857</v>
+        <v>113.3949257061227</v>
       </c>
       <c r="G43" t="n">
-        <v>192.3000297533219</v>
+        <v>31.2844446407952</v>
       </c>
       <c r="H43" t="n">
-        <v>1.032789645231266</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.165986715902361</v>
+        <v>0.1684050515242907</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9999999997622675</v>
+        <v>0.9999999883978411</v>
       </c>
       <c r="K43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.964722334095221</v>
+        <v>-7.958703923180806</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.4201465365857</v>
+        <v>113.3949257061227</v>
       </c>
       <c r="R43" t="n">
-        <v>192.3000297533219</v>
+        <v>31.2844446407952</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,28 +3282,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.955647442485843</v>
+        <v>-7.966384748469192</v>
       </c>
       <c r="D44" t="n">
-        <v>113.4221444617532</v>
+        <v>113.3902087137918</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.964722334095221</v>
+        <v>-7.9586991209796</v>
       </c>
       <c r="F44" t="n">
-        <v>113.4201465365857</v>
+        <v>113.3949241941632</v>
       </c>
       <c r="G44" t="n">
-        <v>192.3000297533219</v>
+        <v>31.2844468175422</v>
       </c>
       <c r="H44" t="n">
-        <v>1.032789645231266</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.165986715902361</v>
+        <v>0.16840505156521</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9999999997752944</v>
+        <v>0.9999999900219642</v>
       </c>
       <c r="K44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.964722334095221</v>
+        <v>-7.9586991209796</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.4201465365857</v>
+        <v>113.3949241941632</v>
       </c>
       <c r="R44" t="n">
-        <v>192.3000297533219</v>
+        <v>31.2844468175422</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.955647442485843</v>
+        <v>-7.966382634279751</v>
       </c>
       <c r="D45" t="n">
-        <v>113.4221444617532</v>
+        <v>113.3902086442653</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.964722334095221</v>
+        <v>-7.958697006830533</v>
       </c>
       <c r="F45" t="n">
-        <v>113.4201465365857</v>
+        <v>113.3949241246794</v>
       </c>
       <c r="G45" t="n">
-        <v>192.3000297533219</v>
+        <v>31.28444731278487</v>
       </c>
       <c r="H45" t="n">
-        <v>1.032789645231266</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.165986715902361</v>
+        <v>0.1684050515727628</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9999999997939799</v>
+        <v>0.999999991599163</v>
       </c>
       <c r="K45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.964722334095221</v>
+        <v>-7.958697006830533</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.4201465365857</v>
+        <v>113.3949241246794</v>
       </c>
       <c r="R45" t="n">
-        <v>192.3000297533219</v>
+        <v>31.28444731278487</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,28 +3412,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.955647777664079</v>
+        <v>-7.966384098907713</v>
       </c>
       <c r="D46" t="n">
-        <v>113.4221445159829</v>
+        <v>113.3902094727707</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.964722813114968</v>
+        <v>-7.958698471299859</v>
       </c>
       <c r="F46" t="n">
-        <v>113.4201465591455</v>
+        <v>113.3949249529381</v>
       </c>
       <c r="G46" t="n">
-        <v>192.3000297502222</v>
+        <v>31.28444536654485</v>
       </c>
       <c r="H46" t="n">
-        <v>1.032806015453389</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1659867159024908</v>
+        <v>0.1684050515748199</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9999999998006948</v>
+        <v>0.9999999919811996</v>
       </c>
       <c r="K46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.964722813114968</v>
+        <v>-7.958698471299859</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.4201465591455</v>
+        <v>113.3949249529381</v>
       </c>
       <c r="R46" t="n">
-        <v>192.3000297502222</v>
+        <v>31.28444536654485</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,28 +3477,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.955647707787822</v>
+        <v>-7.966386378777772</v>
       </c>
       <c r="D47" t="n">
-        <v>113.4221447667313</v>
+        <v>113.3902104211869</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.964723261809652</v>
+        <v>-7.958700751250973</v>
       </c>
       <c r="F47" t="n">
-        <v>113.4201466957217</v>
+        <v>113.3949259015152</v>
       </c>
       <c r="G47" t="n">
-        <v>192.3000297599077</v>
+        <v>31.28444636111563</v>
       </c>
       <c r="H47" t="n">
-        <v>1.032865032722862</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1659867159026543</v>
+        <v>0.1684050515850238</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999999998110587</v>
+        <v>0.9999999949060314</v>
       </c>
       <c r="K47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.964723261809652</v>
+        <v>-7.958700751250973</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.4201466957217</v>
+        <v>113.3949259015152</v>
       </c>
       <c r="R47" t="n">
-        <v>192.3000297599077</v>
+        <v>31.28444636111563</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,28 +3542,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.955648126984983</v>
+        <v>-7.966383642861091</v>
       </c>
       <c r="D48" t="n">
-        <v>113.4221452163147</v>
+        <v>113.3902091975716</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.964723112667216</v>
+        <v>-7.958698015346519</v>
       </c>
       <c r="F48" t="n">
-        <v>113.4201472704312</v>
+        <v>113.3949246778888</v>
       </c>
       <c r="G48" t="n">
-        <v>192.300029760169</v>
+        <v>31.28444651098469</v>
       </c>
       <c r="H48" t="n">
-        <v>1.032800351449123</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1659867159027514</v>
+        <v>0.1684050515864794</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999999998234996</v>
+        <v>0.9999999958415557</v>
       </c>
       <c r="K48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.964723112667216</v>
+        <v>-7.958698015346519</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.4201472704312</v>
+        <v>113.3949246778888</v>
       </c>
       <c r="R48" t="n">
-        <v>192.300029760169</v>
+        <v>31.28444651098469</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,28 +3607,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.955648126984983</v>
+        <v>-7.966383772879599</v>
       </c>
       <c r="D49" t="n">
-        <v>113.4221452163147</v>
+        <v>113.3902094022944</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.964723112667216</v>
+        <v>-7.958698145358321</v>
       </c>
       <c r="F49" t="n">
-        <v>113.4201472704312</v>
+        <v>113.3949248826019</v>
       </c>
       <c r="G49" t="n">
-        <v>192.300029760169</v>
+        <v>31.28444642875263</v>
       </c>
       <c r="H49" t="n">
-        <v>1.032800351449123</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1659867159027514</v>
+        <v>0.1684050515901293</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999999998400393</v>
+        <v>0.999999996940476</v>
       </c>
       <c r="K49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.964723112667216</v>
+        <v>-7.958698145358321</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.4201472704312</v>
+        <v>113.3949248826019</v>
       </c>
       <c r="R49" t="n">
-        <v>192.300029760169</v>
+        <v>31.28444642875263</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,28 +3672,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.955647960690353</v>
+        <v>-7.966382896145727</v>
       </c>
       <c r="D50" t="n">
-        <v>113.4221451836781</v>
+        <v>113.3902091007235</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.964723148760932</v>
+        <v>-7.958697268617427</v>
       </c>
       <c r="F50" t="n">
-        <v>113.4201471932368</v>
+        <v>113.3949245810093</v>
       </c>
       <c r="G50" t="n">
-        <v>192.3000297594381</v>
+        <v>31.28444634256269</v>
       </c>
       <c r="H50" t="n">
-        <v>1.032823384746053</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1659867159027609</v>
+        <v>0.1684050515911904</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999999998583757</v>
+        <v>0.9999999972274629</v>
       </c>
       <c r="K50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.964723148760932</v>
+        <v>-7.958697268617427</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.4201471932368</v>
+        <v>113.3949245810093</v>
       </c>
       <c r="R50" t="n">
-        <v>192.3000297594381</v>
+        <v>31.28444634256269</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.955647417159112</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D51" t="n">
-        <v>113.4221452679859</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.964723019659068</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F51" t="n">
-        <v>113.4201471863047</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G51" t="n">
-        <v>192.300029758932</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H51" t="n">
-        <v>1.032870549890744</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1659867159027688</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999999998659468</v>
+        <v>0.9999999976906031</v>
       </c>
       <c r="K51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.964723019659068</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.4201471863047</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R51" t="n">
-        <v>192.300029758932</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,28 +3802,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D52" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F52" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G52" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H52" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857864398196168</v>
+        <v>0.5857864397881289</v>
       </c>
       <c r="K52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R52" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,28 +3867,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D53" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F53" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G53" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H53" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J53" t="n">
-        <v>0.999999999999738</v>
+        <v>0.9999999998972602</v>
       </c>
       <c r="K53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R53" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D54" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F54" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G54" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H54" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9999999999997371</v>
+        <v>0.9999999999046549</v>
       </c>
       <c r="K54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R54" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,28 +3997,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D55" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F55" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G55" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H55" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999999999997722</v>
+        <v>0.9999999999270832</v>
       </c>
       <c r="K55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R55" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,28 +4062,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D56" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F56" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G56" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H56" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999999999997713</v>
+        <v>0.9999999999266271</v>
       </c>
       <c r="K56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R56" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,28 +4127,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D57" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F57" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G57" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H57" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J57" t="n">
-        <v>0.99999999999977</v>
+        <v>0.9999999999539169</v>
       </c>
       <c r="K57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R57" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,28 +4192,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.955647802387655</v>
+        <v>-7.966382543161444</v>
       </c>
       <c r="D58" t="n">
-        <v>113.4221452076372</v>
+        <v>113.3902089683697</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="F58" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="G58" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="H58" t="n">
-        <v>1.032832568293105</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1659867159027733</v>
+        <v>0.16840505159193</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999999997682</v>
+        <v>0.9999999999693014</v>
       </c>
       <c r="K58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.964723071151993</v>
+        <v>-7.958696915636621</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.4201471994308</v>
+        <v>113.3949244486572</v>
       </c>
       <c r="R58" t="n">
-        <v>192.3000297586933</v>
+        <v>31.28444638517161</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,28 +4257,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.955647807531643</v>
+        <v>-7.966382962782008</v>
       </c>
       <c r="D59" t="n">
-        <v>113.4221452129757</v>
+        <v>113.3902091440601</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.964723070189466</v>
+        <v>-7.958697335258193</v>
       </c>
       <c r="F59" t="n">
-        <v>113.4201472061138</v>
+        <v>113.3949246243541</v>
       </c>
       <c r="G59" t="n">
-        <v>192.3000297586868</v>
+        <v>31.28444639756935</v>
       </c>
       <c r="H59" t="n">
-        <v>1.032831873326231</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1659867159027734</v>
+        <v>0.1684050515920694</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999999998641</v>
+        <v>0.9999999999742624</v>
       </c>
       <c r="K59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.964723070189466</v>
+        <v>-7.958697335258193</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.4201472061138</v>
+        <v>113.3949246243541</v>
       </c>
       <c r="R59" t="n">
-        <v>192.3000297586868</v>
+        <v>31.28444639756935</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,28 +4322,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.95564783648077</v>
+        <v>-7.966382962782008</v>
       </c>
       <c r="D60" t="n">
-        <v>113.422145206735</v>
+        <v>113.3902091440601</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.964723076956096</v>
+        <v>-7.958697335258193</v>
       </c>
       <c r="F60" t="n">
-        <v>113.4201472047567</v>
+        <v>113.3949246243541</v>
       </c>
       <c r="G60" t="n">
-        <v>192.3000297586781</v>
+        <v>31.28444639756935</v>
       </c>
       <c r="H60" t="n">
-        <v>1.03282934879353</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1659867159027735</v>
+        <v>0.1684050515920694</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999999998681</v>
+        <v>0.9999999999744944</v>
       </c>
       <c r="K60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.964723076956096</v>
+        <v>-7.958697335258193</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.4201472047567</v>
+        <v>113.3949246243541</v>
       </c>
       <c r="R60" t="n">
-        <v>192.3000297586781</v>
+        <v>31.28444639756935</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,28 +4387,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.95564783648077</v>
+        <v>-7.966382970709013</v>
       </c>
       <c r="D61" t="n">
-        <v>113.422145206735</v>
+        <v>113.390209147506</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.964723076956096</v>
+        <v>-7.95869734318432</v>
       </c>
       <c r="F61" t="n">
-        <v>113.4201472047567</v>
+        <v>113.3949246277986</v>
       </c>
       <c r="G61" t="n">
-        <v>192.3000297586781</v>
+        <v>31.28444638681253</v>
       </c>
       <c r="H61" t="n">
-        <v>1.03282934879353</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1659867159027735</v>
+        <v>0.1684050515920965</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999999999383</v>
+        <v>0.9999999999825944</v>
       </c>
       <c r="K61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.964723076956096</v>
+        <v>-7.95869734318432</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.4201472047567</v>
+        <v>113.3949246277986</v>
       </c>
       <c r="R61" t="n">
-        <v>192.3000297586781</v>
+        <v>31.28444638681253</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,28 +4452,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.955647907803661</v>
+        <v>-7.966382964295712</v>
       </c>
       <c r="D62" t="n">
-        <v>113.4221452053122</v>
+        <v>113.3902091440974</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.964723074788745</v>
+        <v>-7.958697336771291</v>
       </c>
       <c r="F62" t="n">
-        <v>113.4201472195136</v>
+        <v>113.3949246243905</v>
       </c>
       <c r="G62" t="n">
-        <v>192.3000297586783</v>
+        <v>31.28444639014518</v>
       </c>
       <c r="H62" t="n">
-        <v>1.03282098505678</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1659867159027735</v>
+        <v>0.1684050515921305</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5857864398196168</v>
+        <v>0.4807407016195394</v>
       </c>
       <c r="K62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.964723074788745</v>
+        <v>-7.958697336771291</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.4201472195136</v>
+        <v>113.3949246243905</v>
       </c>
       <c r="R62" t="n">
-        <v>192.3000297586783</v>
+        <v>31.28444639014518</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,28 +4517,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.955647907803661</v>
+        <v>-7.966382964295712</v>
       </c>
       <c r="D63" t="n">
-        <v>113.4221452053122</v>
+        <v>113.3902091440974</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.964723074788745</v>
+        <v>-7.958697336771291</v>
       </c>
       <c r="F63" t="n">
-        <v>113.4201472195136</v>
+        <v>113.3949246243905</v>
       </c>
       <c r="G63" t="n">
-        <v>192.3000297586783</v>
+        <v>31.28444639014518</v>
       </c>
       <c r="H63" t="n">
-        <v>1.03282098505678</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1659867159027735</v>
+        <v>0.1684050515921305</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999999999999689</v>
+        <v>0.9595503585032928</v>
       </c>
       <c r="K63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.964723074788745</v>
+        <v>-7.958697336771291</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.4201472195136</v>
+        <v>113.3949246243905</v>
       </c>
       <c r="R63" t="n">
-        <v>192.3000297586783</v>
+        <v>31.28444639014518</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,28 +4582,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.955647907803661</v>
+        <v>-7.966382965835473</v>
       </c>
       <c r="D64" t="n">
-        <v>113.4221452053122</v>
+        <v>113.3902091458209</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.964723074788745</v>
+        <v>-7.958697338311193</v>
       </c>
       <c r="F64" t="n">
-        <v>113.4201472195136</v>
+        <v>113.3949246261142</v>
       </c>
       <c r="G64" t="n">
-        <v>192.3000297586783</v>
+        <v>31.28444639185863</v>
       </c>
       <c r="H64" t="n">
-        <v>1.03282098505678</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1659867159027735</v>
+        <v>0.168405051592159</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9322787418723586</v>
+        <v>0.9825287193983182</v>
       </c>
       <c r="K64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.964723074788745</v>
+        <v>-7.958697338311193</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.4201472195136</v>
+        <v>113.3949246261142</v>
       </c>
       <c r="R64" t="n">
-        <v>192.3000297586783</v>
+        <v>31.28444639185863</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,28 +4647,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382965835473</v>
       </c>
       <c r="D65" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091458209</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697338311193</v>
       </c>
       <c r="F65" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246261142</v>
       </c>
       <c r="G65" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639185863</v>
       </c>
       <c r="H65" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.168405051592159</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9833157499116917</v>
+        <v>0.9967342746906271</v>
       </c>
       <c r="K65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697338311193</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246261142</v>
       </c>
       <c r="R65" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639185863</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,28 +4712,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382965835473</v>
       </c>
       <c r="D66" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091458209</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697338311193</v>
       </c>
       <c r="F66" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246261142</v>
       </c>
       <c r="G66" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639185863</v>
       </c>
       <c r="H66" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.168405051592159</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9074753301843602</v>
+        <v>0.9987757465654191</v>
       </c>
       <c r="K66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697338311193</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246261142</v>
       </c>
       <c r="R66" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639185863</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,28 +4777,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D67" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F67" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G67" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H67" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9861798544012894</v>
+        <v>0.9644786386233719</v>
       </c>
       <c r="K67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R67" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,28 +4842,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D68" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F68" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G68" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H68" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9322724063351717</v>
+        <v>0.9017848562346017</v>
       </c>
       <c r="K68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R68" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,28 +4907,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D69" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F69" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G69" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H69" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9605866284498358</v>
+        <v>0.9795615549254304</v>
       </c>
       <c r="K69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R69" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,28 +4972,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D70" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F70" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G70" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H70" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9064130408525942</v>
+        <v>0.9899185046806497</v>
       </c>
       <c r="K70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R70" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D71" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F71" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G71" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H71" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9821573120658156</v>
+        <v>0.9945146977590267</v>
       </c>
       <c r="K71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R71" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,28 +5102,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D72" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F72" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G72" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H72" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857606721303295</v>
+        <v>0.585783768735109</v>
       </c>
       <c r="K72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R72" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,28 +5167,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D73" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F73" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G73" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H73" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9993760884834755</v>
+        <v>0.999999999998832</v>
       </c>
       <c r="K73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R73" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,28 +5232,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D74" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F74" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G74" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H74" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9994708568607321</v>
+        <v>0.9999999999988223</v>
       </c>
       <c r="K74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R74" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,28 +5297,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D75" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F75" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G75" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H75" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9996411756058285</v>
+        <v>0.9999999999997076</v>
       </c>
       <c r="K75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R75" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,28 +5362,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D76" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F76" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G76" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H76" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9998307461670178</v>
+        <v>0.9999999999997431</v>
       </c>
       <c r="K76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R76" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,28 +5427,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382964752142</v>
       </c>
       <c r="D77" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902091455444</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="F77" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="G77" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="H77" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921637</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999968282020583</v>
+        <v>0.9999999999997595</v>
       </c>
       <c r="K77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869733722779</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949246258376</v>
       </c>
       <c r="R77" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639097743</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,28 +5492,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382731951829</v>
       </c>
       <c r="D78" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090524361</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.9586971044275</v>
       </c>
       <c r="F78" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245327266</v>
       </c>
       <c r="G78" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639126731</v>
       </c>
       <c r="H78" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921829</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999999999954274</v>
+        <v>0.9999999999997247</v>
       </c>
       <c r="K78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.9586971044275</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245327266</v>
       </c>
       <c r="R78" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639126731</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,28 +5557,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382731951829</v>
       </c>
       <c r="D79" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090524361</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.9586971044275</v>
       </c>
       <c r="F79" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245327266</v>
       </c>
       <c r="G79" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639126731</v>
       </c>
       <c r="H79" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921829</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999999999954274</v>
+        <v>0.9999999999997187</v>
       </c>
       <c r="K79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.9586971044275</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245327266</v>
       </c>
       <c r="R79" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639126731</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,28 +5622,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382835644167</v>
       </c>
       <c r="D80" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090941357</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="F80" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="G80" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="H80" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921834</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999999999986346</v>
+        <v>0.9999999999997367</v>
       </c>
       <c r="K80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="R80" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,28 +5687,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382835644167</v>
       </c>
       <c r="D81" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090941357</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="F81" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="G81" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="H81" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921834</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9999999999993558</v>
+        <v>0.9999999999997338</v>
       </c>
       <c r="K81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="R81" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,28 +5752,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382835644167</v>
       </c>
       <c r="D82" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090941357</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="F82" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="G82" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="H82" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921834</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5857864398196168</v>
+        <v>0.5857864397881289</v>
       </c>
       <c r="K82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="R82" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,28 +5817,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382835644167</v>
       </c>
       <c r="D83" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090941357</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="F83" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="G83" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="H83" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921834</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999999999999956</v>
+        <v>0.9999999999999583</v>
       </c>
       <c r="K83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="R83" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,28 +5882,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382835644167</v>
       </c>
       <c r="D84" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090941357</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="F84" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="G84" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="H84" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921834</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.99999999999996</v>
       </c>
       <c r="K84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="R84" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,28 +5947,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382835644167</v>
       </c>
       <c r="D85" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090941357</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="F85" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="G85" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="H85" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921834</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999611</v>
       </c>
       <c r="K85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697208119864</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245744274</v>
       </c>
       <c r="R85" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639158588</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,28 +6012,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D86" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F86" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G86" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H86" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999536</v>
       </c>
       <c r="K86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R86" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,28 +6077,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D87" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F87" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G87" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H87" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999523</v>
       </c>
       <c r="K87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R87" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,28 +6142,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D88" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F88" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G88" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H88" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999603</v>
       </c>
       <c r="K88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R88" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,28 +6207,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D89" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F89" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G89" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H89" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999603</v>
       </c>
       <c r="K89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R89" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,28 +6272,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D90" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F90" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G90" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H90" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J90" t="n">
-        <v>0.999999999999996</v>
+        <v>0.9999999999999607</v>
       </c>
       <c r="K90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R90" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,28 +6337,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D91" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F91" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G91" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H91" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J91" t="n">
-        <v>0.999999999999996</v>
+        <v>0.9999999999999603</v>
       </c>
       <c r="K91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R91" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,28 +6402,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382843250752</v>
       </c>
       <c r="D92" t="n">
-        <v>113.4221452123436</v>
+        <v>113.390209097236</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="F92" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="G92" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="H92" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921872</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5857864398196168</v>
+        <v>0.5358983874467569</v>
       </c>
       <c r="K92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869721572643</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245775278</v>
       </c>
       <c r="R92" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639135087</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,28 +6467,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382709926088</v>
       </c>
       <c r="D93" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090440181</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869708240176</v>
       </c>
       <c r="F93" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245243083</v>
       </c>
       <c r="G93" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639128435</v>
       </c>
       <c r="H93" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.168405051592189</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0.9999999999999627</v>
       </c>
       <c r="K93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.95869708240176</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245243083</v>
       </c>
       <c r="R93" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639128435</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,28 +6532,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D94" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F94" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G94" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H94" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9299145599763953</v>
+        <v>0.9999999999999609</v>
       </c>
       <c r="K94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R94" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D95" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F95" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G95" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H95" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9609206391256356</v>
+        <v>0.9999999999999587</v>
       </c>
       <c r="K95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R95" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,28 +6662,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D96" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F96" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G96" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H96" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8435460623565126</v>
+        <v>0.9170647725790613</v>
       </c>
       <c r="K96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R96" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,28 +6727,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D97" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F97" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G97" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H97" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9711109232174423</v>
+        <v>0.9341234476796613</v>
       </c>
       <c r="K97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R97" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,28 +6792,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D98" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F98" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G98" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H98" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9573457132263975</v>
+        <v>0.9806546529149975</v>
       </c>
       <c r="K98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R98" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,28 +6857,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D99" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F99" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G99" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H99" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J99" t="n">
-        <v>0.990164768271361</v>
+        <v>0.9918859792084923</v>
       </c>
       <c r="K99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R99" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,28 +6922,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D100" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F100" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G100" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H100" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9635800606007225</v>
+        <v>0.9932818064279352</v>
       </c>
       <c r="K100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R100" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,28 +6987,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D101" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F101" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G101" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H101" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9948646036605517</v>
+        <v>0.9511522497480585</v>
       </c>
       <c r="K101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R101" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,28 +7052,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D102" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F102" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G102" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H102" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5857821503530068</v>
+        <v>0.585610113508337</v>
       </c>
       <c r="K102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R102" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,28 +7117,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D103" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F103" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G103" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H103" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9993190601847757</v>
+        <v>0.9980196285342305</v>
       </c>
       <c r="K103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R103" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,28 +7182,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D104" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F104" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G104" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H104" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9997694793980596</v>
+        <v>0.9986375211323989</v>
       </c>
       <c r="K104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R104" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,28 +7247,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D105" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F105" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G105" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H105" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9998173537458751</v>
+        <v>0.9994152431299653</v>
       </c>
       <c r="K105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R105" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,28 +7312,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D106" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F106" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G106" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H106" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9999019384704589</v>
+        <v>0.9997563636754642</v>
       </c>
       <c r="K106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R106" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,28 +7377,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D107" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F107" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G107" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H107" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9999559523753531</v>
+        <v>0.9998130413399242</v>
       </c>
       <c r="K107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R107" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,28 +7442,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D108" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F108" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G108" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H108" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999818268119737</v>
+        <v>0.9999550033939271</v>
       </c>
       <c r="K108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R108" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,28 +7507,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D109" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F109" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G109" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H109" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9999902746359182</v>
+        <v>0.999995945895258</v>
       </c>
       <c r="K109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R109" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,28 +7572,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D110" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F110" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G110" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H110" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9999957382924075</v>
+        <v>0.999995945895258</v>
       </c>
       <c r="K110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R110" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,28 +7637,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D111" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F111" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G111" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H111" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9999991875495292</v>
+        <v>0.999996915862932</v>
       </c>
       <c r="K111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R111" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,28 +7702,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D112" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F112" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G112" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H112" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857864398196163</v>
+        <v>0.5857864397846692</v>
       </c>
       <c r="K112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R112" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,28 +7767,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D113" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F113" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G113" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H113" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999734</v>
       </c>
       <c r="K113" t="n">
         <v>448</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R113" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,28 +7832,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D114" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F114" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G114" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H114" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999774</v>
       </c>
       <c r="K114" t="n">
         <v>448</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R114" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,28 +7897,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D115" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F115" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G115" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H115" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999776</v>
       </c>
       <c r="K115" t="n">
         <v>448</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R115" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,28 +7962,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D116" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F116" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G116" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H116" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="K116" t="n">
         <v>448</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R116" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,28 +8027,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D117" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F117" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G117" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H117" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="K117" t="n">
         <v>448</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R117" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,28 +8092,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D118" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F118" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G118" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H118" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="K118" t="n">
         <v>448</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R118" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,28 +8157,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D119" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F119" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G119" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H119" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="K119" t="n">
         <v>448</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R119" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,28 +8222,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D120" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F120" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G120" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H120" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="K120" t="n">
         <v>448</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R120" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,28 +8287,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D121" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F121" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G121" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H121" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="K121" t="n">
         <v>448</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R121" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,28 +8352,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D122" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F122" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G122" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H122" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5857864398196168</v>
+        <v>0.5358983874467569</v>
       </c>
       <c r="K122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R122" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,28 +8417,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D123" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F123" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G123" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H123" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0.9999999999999907</v>
       </c>
       <c r="K123" t="n">
         <v>448</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R123" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,28 +8482,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D124" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F124" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G124" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H124" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9365165677338795</v>
+        <v>0.9999999999999911</v>
       </c>
       <c r="K124" t="n">
         <v>448</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R124" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,28 +8547,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D125" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F125" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G125" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H125" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J125" t="n">
-        <v>0.9793944901103413</v>
+        <v>0.9999999999999916</v>
       </c>
       <c r="K125" t="n">
         <v>448</v>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R125" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,28 +8612,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D126" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F126" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G126" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H126" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9673541152985535</v>
+        <v>0.9681906342051313</v>
       </c>
       <c r="K126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R126" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,28 +8677,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D127" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F127" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G127" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H127" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9900797040622116</v>
+        <v>0.9059624573287065</v>
       </c>
       <c r="K127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R127" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,28 +8742,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D128" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F128" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G128" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H128" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J128" t="n">
-        <v>0.8947810162242247</v>
+        <v>0.980827987435716</v>
       </c>
       <c r="K128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R128" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,28 +8807,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D129" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F129" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G129" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H129" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9848073194894785</v>
+        <v>0.9875327832286657</v>
       </c>
       <c r="K129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R129" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,28 +8872,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D130" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F130" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G130" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H130" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J130" t="n">
-        <v>0.8759132023749751</v>
+        <v>0.9924765036974367</v>
       </c>
       <c r="K130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R130" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,28 +8937,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D131" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F131" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G131" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H131" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9378590534611603</v>
+        <v>0.8825719066198042</v>
       </c>
       <c r="K131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R131" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D132" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F132" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G132" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H132" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5856735371012358</v>
+        <v>0.5857116664925949</v>
       </c>
       <c r="K132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R132" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,28 +9067,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D133" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F133" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G133" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H133" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9990102715366453</v>
+        <v>0.9991924391701007</v>
       </c>
       <c r="K133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R133" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,28 +9132,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D134" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F134" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G134" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H134" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9992510224934567</v>
+        <v>0.999192452223477</v>
       </c>
       <c r="K134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R134" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,28 +9197,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D135" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F135" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G135" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H135" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9999156654934519</v>
+        <v>0.9994280170306404</v>
       </c>
       <c r="K135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R135" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,28 +9262,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D136" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F136" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G136" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H136" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9999372714845937</v>
+        <v>0.9997538180934803</v>
       </c>
       <c r="K136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R136" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,28 +9327,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D137" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F137" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G137" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H137" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9999989460865611</v>
+        <v>0.9997995433205874</v>
       </c>
       <c r="K137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R137" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,28 +9392,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D138" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F138" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G138" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H138" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9999994262908903</v>
+        <v>0.9998885091683596</v>
       </c>
       <c r="K138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R138" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,28 +9457,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D139" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F139" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G139" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H139" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9999996985913751</v>
+        <v>0.9998945012256842</v>
       </c>
       <c r="K139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R139" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,28 +9522,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D140" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F140" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G140" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H140" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9999999436768766</v>
+        <v>0.9999292789059765</v>
       </c>
       <c r="K140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R140" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,28 +9587,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D141" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F141" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G141" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H141" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9999999981351042</v>
+        <v>0.9999684674836716</v>
       </c>
       <c r="K141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R141" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,28 +9652,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D142" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F142" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G142" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H142" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5857864398196168</v>
+        <v>0.5857864396531171</v>
       </c>
       <c r="K142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R142" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D143" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F143" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G143" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H143" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J143" t="n">
         <v>0.9999999999999998</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R143" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,25 +9782,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D144" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F144" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G144" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H144" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J144" t="n">
         <v>0.9999999999999998</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R144" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,25 +9847,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D145" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F145" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G145" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H145" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J145" t="n">
         <v>0.9999999999999998</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R145" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,25 +9912,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D146" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F146" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G146" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H146" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J146" t="n">
         <v>0.9999999999999998</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R146" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,25 +9977,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D147" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F147" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G147" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H147" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J147" t="n">
         <v>0.9999999999999998</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R147" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,25 +10042,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D148" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F148" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G148" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H148" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J148" t="n">
         <v>0.9999999999999998</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R148" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,25 +10107,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D149" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F149" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G149" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H149" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J149" t="n">
         <v>0.9999999999999998</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R149" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,25 +10172,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D150" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F150" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G150" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H150" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J150" t="n">
         <v>0.9999999999999998</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R150" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,25 +10237,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.955647862536924</v>
+        <v>-7.966382755019392</v>
       </c>
       <c r="D151" t="n">
-        <v>113.4221452123436</v>
+        <v>113.3902090622171</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="F151" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="G151" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="H151" t="n">
-        <v>1.032825630126906</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1659867159027736</v>
+        <v>0.1684050515921917</v>
       </c>
       <c r="J151" t="n">
         <v>0.9999999999999998</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.964723070337179</v>
+        <v>-7.958697127495086</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.4201472175591</v>
+        <v>113.3949245425079</v>
       </c>
       <c r="R151" t="n">
-        <v>192.3000297586765</v>
+        <v>31.28444639152855</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>45108.22361111111</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.806682905073734</v>
+        <v>-8.123418571441711</v>
       </c>
       <c r="D2" t="n">
-        <v>112.6313603826122</v>
+        <v>113.2883878823748</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.959679046798781</v>
+        <v>-7.965241506325668</v>
       </c>
       <c r="F2" t="n">
-        <v>113.471273857799</v>
+        <v>113.5290296073224</v>
       </c>
       <c r="G2" t="n">
-        <v>144.207852044531</v>
+        <v>56.43885942739092</v>
       </c>
       <c r="H2" t="n">
-        <v>158.1620506435048</v>
+        <v>31.80143088794345</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1660179223243435</v>
+        <v>0.162682815959465</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8972636147527782</v>
+        <v>0.893501070049649</v>
       </c>
       <c r="K2" t="n">
-        <v>2030</v>
+        <v>372</v>
       </c>
       <c r="L2" t="n">
-        <v>1797</v>
+        <v>1106</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>45108.22361111111</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.96676678729651</v>
       </c>
       <c r="O2" t="n">
-        <v>113.491685257373</v>
+        <v>113.530336586576</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.959679046798781</v>
+        <v>-7.965241506325668</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.471273857799</v>
+        <v>113.5290296073224</v>
       </c>
       <c r="R2" t="n">
-        <v>144.207852044531</v>
+        <v>56.43885942739092</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -614,55 +614,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45108.22361111111</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.41915246918764</v>
+        <v>-7.985983099398696</v>
       </c>
       <c r="D3" t="n">
-        <v>112.3946463219599</v>
+        <v>113.2316532261747</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.932799380708783</v>
+        <v>-7.925461636791883</v>
       </c>
       <c r="F3" t="n">
-        <v>113.425678131983</v>
+        <v>113.5016326767669</v>
       </c>
       <c r="G3" t="n">
-        <v>64.59344343033763</v>
+        <v>77.26476828957485</v>
       </c>
       <c r="H3" t="n">
-        <v>125.707289023984</v>
+        <v>30.48352272754391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1668483627592266</v>
+        <v>0.1642728369893018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9535338415751048</v>
+        <v>0.944671255851471</v>
       </c>
       <c r="K3" t="n">
-        <v>707</v>
+        <v>1932</v>
       </c>
       <c r="L3" t="n">
-        <v>448</v>
+        <v>1106</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45108.22361111111</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96676678729651</v>
       </c>
       <c r="O3" t="n">
-        <v>113.40414682924</v>
+        <v>113.530336586576</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.932799380708783</v>
+        <v>-7.925461636791883</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.425678131983</v>
+        <v>113.5016326767669</v>
       </c>
       <c r="R3" t="n">
-        <v>64.59344343033763</v>
+        <v>77.26476828957485</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -679,55 +679,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.970834531789913</v>
+        <v>-7.839934535787364</v>
       </c>
       <c r="D4" t="n">
-        <v>113.3206328899575</v>
+        <v>113.5846768104069</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.940105964128625</v>
+        <v>-7.984456357712192</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3740926382856</v>
+        <v>113.3712482455571</v>
       </c>
       <c r="G4" t="n">
-        <v>59.87351375253832</v>
+        <v>235.6268059196385</v>
       </c>
       <c r="H4" t="n">
-        <v>6.806949901387352</v>
+        <v>28.47439659677435</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1672011457542387</v>
+        <v>0.1684471195395173</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9873071359649095</v>
+        <v>0.9842855477916116</v>
       </c>
       <c r="K4" t="n">
+        <v>164</v>
+      </c>
+      <c r="L4" t="n">
         <v>640</v>
       </c>
-      <c r="L4" t="n">
-        <v>448</v>
-      </c>
       <c r="M4" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O4" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.940105964128625</v>
+        <v>-7.984456357712192</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3740926382856</v>
+        <v>113.3712482455571</v>
       </c>
       <c r="R4" t="n">
-        <v>59.87351375253832</v>
+        <v>235.6268059196385</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -744,55 +744,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.970834531789913</v>
+        <v>-7.839934535787364</v>
       </c>
       <c r="D5" t="n">
-        <v>113.3206328899575</v>
+        <v>113.5846768104069</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.940105964128625</v>
+        <v>-7.984456357712192</v>
       </c>
       <c r="F5" t="n">
-        <v>113.3740926382856</v>
+        <v>113.3712482455571</v>
       </c>
       <c r="G5" t="n">
-        <v>59.87351375253832</v>
+        <v>235.6268059196385</v>
       </c>
       <c r="H5" t="n">
-        <v>6.806949901387352</v>
+        <v>28.47439659677435</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1672011457542387</v>
+        <v>0.1684471195395173</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9912992929103972</v>
+        <v>0.9914077842120059</v>
       </c>
       <c r="K5" t="n">
+        <v>164</v>
+      </c>
+      <c r="L5" t="n">
         <v>640</v>
       </c>
-      <c r="L5" t="n">
-        <v>448</v>
-      </c>
       <c r="M5" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O5" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.940105964128625</v>
+        <v>-7.984456357712192</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.3740926382856</v>
+        <v>113.3712482455571</v>
       </c>
       <c r="R5" t="n">
-        <v>59.87351375253832</v>
+        <v>235.6268059196385</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -809,55 +809,55 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.96289419116862</v>
+        <v>-7.378334047427309</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3871774453693</v>
+        <v>113.3232112436799</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.979999728801901</v>
       </c>
       <c r="F6" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4214107858041</v>
       </c>
       <c r="G6" t="n">
-        <v>32.52473522538737</v>
+        <v>170.8185534311434</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>67.77168532677244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1683805998350725</v>
+        <v>0.1685775214384621</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9964133659542356</v>
+        <v>0.9943133435117989</v>
       </c>
       <c r="K6" t="n">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>448</v>
+        <v>1797</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>45488.02986111111</v>
       </c>
       <c r="N6" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.98235949442294</v>
       </c>
       <c r="O6" t="n">
-        <v>113.40414682924</v>
+        <v>113.491685257373</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.979999728801901</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4214107858041</v>
       </c>
       <c r="R6" t="n">
-        <v>32.52473522538737</v>
+        <v>170.8185534311434</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -877,31 +877,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.96289419116862</v>
+        <v>-7.412122704826398</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3871774453693</v>
+        <v>113.335633489885</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.944576900386338</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4258869067473</v>
       </c>
       <c r="G7" t="n">
-        <v>32.52473522538737</v>
+        <v>170.4702081386448</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>60.03575365073047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1683805998350725</v>
+        <v>0.1686965753514359</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9971400843086599</v>
+        <v>0.9957003638834764</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="L7" t="n">
         <v>448</v>
@@ -916,13 +916,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.944576900386338</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4258869067473</v>
       </c>
       <c r="R7" t="n">
-        <v>32.52473522538737</v>
+        <v>170.4702081386448</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.96289419116862</v>
+        <v>-7.721511387174121</v>
       </c>
       <c r="D8" t="n">
-        <v>113.3871774453693</v>
+        <v>113.4552080305066</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="G8" t="n">
-        <v>32.52473522538737</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>28.13366928028265</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1683805998350725</v>
+        <v>0.1690124411329649</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9969978562957987</v>
+        <v>0.9972072473165028</v>
       </c>
       <c r="K8" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L8" t="n">
         <v>448</v>
@@ -981,13 +981,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="R8" t="n">
-        <v>32.52473522538737</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1007,31 +1007,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.96289419116862</v>
+        <v>-7.721511387174121</v>
       </c>
       <c r="D9" t="n">
-        <v>113.3871774453693</v>
+        <v>113.4552080305066</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="G9" t="n">
-        <v>32.52473522538737</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>28.13366928028265</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1683805998350725</v>
+        <v>0.1690124411329649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9974782859440594</v>
+        <v>0.9978650064925484</v>
       </c>
       <c r="K9" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L9" t="n">
         <v>448</v>
@@ -1046,13 +1046,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="R9" t="n">
-        <v>32.52473522538737</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1072,31 +1072,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.96289419116862</v>
+        <v>-7.721511387174121</v>
       </c>
       <c r="D10" t="n">
-        <v>113.3871774453693</v>
+        <v>113.4552080305066</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="F10" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="G10" t="n">
-        <v>32.52473522538737</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>28.13366928028265</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1683805998350725</v>
+        <v>0.1690124411329649</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9975279857358523</v>
+        <v>0.9990495278145127</v>
       </c>
       <c r="K10" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L10" t="n">
         <v>448</v>
@@ -1111,13 +1111,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.955311447900468</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.3920597566289</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="R10" t="n">
-        <v>32.52473522538737</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.96399487508369</v>
+        <v>-7.721511387174121</v>
       </c>
       <c r="D11" t="n">
-        <v>113.3857032850115</v>
+        <v>113.4552080305066</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3904557786728</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="G11" t="n">
-        <v>31.55832279562068</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>28.13366928028265</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1683922785541698</v>
+        <v>0.1690124411329649</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9974721964578881</v>
+        <v>0.9993682608015807</v>
       </c>
       <c r="K11" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L11" t="n">
         <v>448</v>
@@ -1176,13 +1176,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.970956528644989</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.3904557786728</v>
+        <v>113.4124726050466</v>
       </c>
       <c r="R11" t="n">
-        <v>31.55832279562068</v>
+        <v>189.6294332462795</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1202,28 +1202,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.96399487508369</v>
+        <v>-7.945831688387732</v>
       </c>
       <c r="D12" t="n">
-        <v>113.3857032850115</v>
+        <v>113.4024489910476</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.961084060854737</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3904557786728</v>
+        <v>113.3927678758242</v>
       </c>
       <c r="G12" t="n">
-        <v>31.55832279562068</v>
+        <v>212.1537392636762</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2.003251299055409</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1683922785541698</v>
+        <v>0.1690545638980567</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857846111283116</v>
+        <v>0.5857862994667566</v>
       </c>
       <c r="K12" t="n">
         <v>448</v>
@@ -1241,13 +1241,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.961084060854737</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.3904557786728</v>
+        <v>113.3927678758242</v>
       </c>
       <c r="R12" t="n">
-        <v>31.55832279562068</v>
+        <v>212.1537392636762</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.96399487508369</v>
+        <v>-7.945831688387732</v>
       </c>
       <c r="D13" t="n">
-        <v>113.3857032850115</v>
+        <v>113.4024489910476</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.961084060854737</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3904557786728</v>
+        <v>113.3927678758242</v>
       </c>
       <c r="G13" t="n">
-        <v>31.55832279562068</v>
+        <v>212.1537392636762</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2.003251299055409</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1683922785541698</v>
+        <v>0.1690545638980567</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9993615638627572</v>
+        <v>0.999671128866374</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
@@ -1306,13 +1306,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.961084060854737</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3904557786728</v>
+        <v>113.3927678758242</v>
       </c>
       <c r="R13" t="n">
-        <v>31.55832279562068</v>
+        <v>212.1537392636762</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1332,28 +1332,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.96399487508369</v>
+        <v>-7.974053600541414</v>
       </c>
       <c r="D14" t="n">
-        <v>113.3857032850115</v>
+        <v>113.3922043800019</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.965837963216316</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3904557786728</v>
+        <v>113.3975588004978</v>
       </c>
       <c r="G14" t="n">
-        <v>31.55832279562068</v>
+        <v>32.84019137638025</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.087298443468895</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1683922785541698</v>
+        <v>0.1690700500161219</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9995478044982176</v>
+        <v>0.9997301651490993</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
@@ -1371,13 +1371,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.956331657969793</v>
+        <v>-7.965837963216316</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3904557786728</v>
+        <v>113.3975588004978</v>
       </c>
       <c r="R14" t="n">
-        <v>31.55832279562068</v>
+        <v>32.84019137638025</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.966918825285509</v>
+        <v>-7.974053600541414</v>
       </c>
       <c r="D15" t="n">
-        <v>113.3884778595855</v>
+        <v>113.3922043800019</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.959215727448647</v>
+        <v>-7.965837963216316</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3931641913244</v>
+        <v>113.3975588004978</v>
       </c>
       <c r="G15" t="n">
-        <v>31.06943921440235</v>
+        <v>32.84019137638025</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1.087298443468895</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1684008092593045</v>
+        <v>0.1690700500161219</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9996593783364759</v>
+        <v>0.9998042343560469</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.959215727448647</v>
+        <v>-7.965837963216316</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3931641913244</v>
+        <v>113.3975588004978</v>
       </c>
       <c r="R15" t="n">
-        <v>31.06943921440235</v>
+        <v>32.84019137638025</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.966918825285509</v>
+        <v>-7.974053600541414</v>
       </c>
       <c r="D16" t="n">
-        <v>113.3884778595855</v>
+        <v>113.3922043800019</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.959215727448647</v>
+        <v>-7.965837963216316</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3931641913244</v>
+        <v>113.3975588004978</v>
       </c>
       <c r="G16" t="n">
-        <v>31.06943921440235</v>
+        <v>32.84019137638025</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>1.087298443468895</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1684008092593045</v>
+        <v>0.1690700500161219</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9998030295538838</v>
+        <v>0.9998202597937714</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.959215727448647</v>
+        <v>-7.965837963216316</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3931641913244</v>
+        <v>113.3975588004978</v>
       </c>
       <c r="R16" t="n">
-        <v>31.06943921440235</v>
+        <v>32.84019137638025</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.966961801752602</v>
+        <v>-7.947990806156594</v>
       </c>
       <c r="D17" t="n">
-        <v>113.3891775009643</v>
+        <v>113.4013911869872</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.959268353895316</v>
+        <v>-7.958071970676858</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3938799677567</v>
+        <v>113.3993917684213</v>
       </c>
       <c r="G17" t="n">
-        <v>31.18836634314257</v>
+        <v>191.1126782014585</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>1.142394737069206</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1684031778106401</v>
+        <v>0.1690927632681842</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9998785374025141</v>
+        <v>0.9997900876558613</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.959268353895316</v>
+        <v>-7.958071970676858</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3938799677567</v>
+        <v>113.3993917684213</v>
       </c>
       <c r="R17" t="n">
-        <v>31.18836634314257</v>
+        <v>191.1126782014585</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,28 +1592,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.966961801752602</v>
+        <v>-7.947990806156594</v>
       </c>
       <c r="D18" t="n">
-        <v>113.3891775009643</v>
+        <v>113.4013911869872</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.959268353895316</v>
+        <v>-7.958071970676858</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3938799677567</v>
+        <v>113.3993917684213</v>
       </c>
       <c r="G18" t="n">
-        <v>31.18836634314257</v>
+        <v>191.1126782014585</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>1.142394737069206</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1684031778106401</v>
+        <v>0.1690927632681842</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9999188189263744</v>
+        <v>0.9998323032652979</v>
       </c>
       <c r="K18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.959268353895316</v>
+        <v>-7.958071970676858</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3938799677567</v>
+        <v>113.3993917684213</v>
       </c>
       <c r="R18" t="n">
-        <v>31.18836634314257</v>
+        <v>191.1126782014585</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.966976099458903</v>
+        <v>-7.947990806156594</v>
       </c>
       <c r="D19" t="n">
-        <v>113.389213121457</v>
+        <v>113.4013911869872</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.959292067710139</v>
+        <v>-7.958071970676858</v>
       </c>
       <c r="F19" t="n">
-        <v>113.3939312593667</v>
+        <v>113.3993917684213</v>
       </c>
       <c r="G19" t="n">
-        <v>31.30401944056413</v>
+        <v>191.1126782014585</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.142394737069206</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1684042896377444</v>
+        <v>0.1690927632681842</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9999385346827335</v>
+        <v>0.9998898154147892</v>
       </c>
       <c r="K19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.959292067710139</v>
+        <v>-7.958071970676858</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3939312593667</v>
+        <v>113.3993917684213</v>
       </c>
       <c r="R19" t="n">
-        <v>31.30401944056413</v>
+        <v>191.1126782014585</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,31 +1722,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.966976099458903</v>
+        <v>-7.733740794821325</v>
       </c>
       <c r="D20" t="n">
-        <v>113.389213121457</v>
+        <v>113.4574494807383</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.959292067710139</v>
+        <v>-7.967360996895797</v>
       </c>
       <c r="F20" t="n">
-        <v>113.3939312593667</v>
+        <v>113.4055656652612</v>
       </c>
       <c r="G20" t="n">
-        <v>31.30401944056413</v>
+        <v>192.404141867577</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>26.5986312656832</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1684042896377444</v>
+        <v>0.1690937914280469</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9999506110359688</v>
+        <v>0.9999259320389413</v>
       </c>
       <c r="K20" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.959292067710139</v>
+        <v>-7.967360996895797</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.3939312593667</v>
+        <v>113.4055656652612</v>
       </c>
       <c r="R20" t="n">
-        <v>31.30401944056413</v>
+        <v>192.404141867577</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,28 +1787,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.967084738059017</v>
+        <v>-7.951225420354709</v>
       </c>
       <c r="D21" t="n">
-        <v>113.3898165010603</v>
+        <v>113.4032244098595</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.959399252067382</v>
+        <v>-7.960569093013889</v>
       </c>
       <c r="F21" t="n">
-        <v>113.394532224619</v>
+        <v>113.4014023252051</v>
       </c>
       <c r="G21" t="n">
-        <v>31.28618283784871</v>
+        <v>190.9308486855389</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>1.058168034824086</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1684047897121541</v>
+        <v>0.169100043382313</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9999659893293794</v>
+        <v>0.9999226689787089</v>
       </c>
       <c r="K21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.959399252067382</v>
+        <v>-7.960569093013889</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.394532224619</v>
+        <v>113.4014023252051</v>
       </c>
       <c r="R21" t="n">
-        <v>31.28618283784871</v>
+        <v>190.9308486855389</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.967084738059017</v>
+        <v>-7.951225420354709</v>
       </c>
       <c r="D22" t="n">
-        <v>113.3898165010603</v>
+        <v>113.4032244098595</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.959399252067382</v>
+        <v>-7.960569093013889</v>
       </c>
       <c r="F22" t="n">
-        <v>113.394532224619</v>
+        <v>113.4014023252051</v>
       </c>
       <c r="G22" t="n">
-        <v>31.28618283784871</v>
+        <v>190.9308486855389</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>1.058168034824086</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1684047897121541</v>
+        <v>0.169100043382313</v>
       </c>
       <c r="J22" t="n">
-        <v>0.58578643958861</v>
+        <v>0.5857864382575663</v>
       </c>
       <c r="K22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.959399252067382</v>
+        <v>-7.960569093013889</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.394532224619</v>
+        <v>113.4014023252051</v>
       </c>
       <c r="R22" t="n">
-        <v>31.28618283784871</v>
+        <v>190.9308486855389</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,28 +1917,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.967084738059017</v>
+        <v>-7.951077127536545</v>
       </c>
       <c r="D23" t="n">
-        <v>113.3898165010603</v>
+        <v>113.4062831328138</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.959399252067382</v>
+        <v>-7.961269628458602</v>
       </c>
       <c r="F23" t="n">
-        <v>113.394532224619</v>
+        <v>113.4042623248089</v>
       </c>
       <c r="G23" t="n">
-        <v>31.28618283784871</v>
+        <v>191.1088833907678</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>1.154996329498191</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1684047897121541</v>
+        <v>0.1691039977406381</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9999852435392466</v>
+        <v>0.9999606007511661</v>
       </c>
       <c r="K23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.959399252067382</v>
+        <v>-7.961269628458602</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.394532224619</v>
+        <v>113.4042623248089</v>
       </c>
       <c r="R23" t="n">
-        <v>31.28618283784871</v>
+        <v>191.1088833907678</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,28 +1982,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.96653975968744</v>
+        <v>-7.951077127536545</v>
       </c>
       <c r="D24" t="n">
-        <v>113.3897203543098</v>
+        <v>113.4062831328138</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.958854320438025</v>
+        <v>-7.961269628458602</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3944361492626</v>
+        <v>113.4042623248089</v>
       </c>
       <c r="G24" t="n">
-        <v>31.28675626088726</v>
+        <v>191.1088833907678</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>1.154996329498191</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1684049187435534</v>
+        <v>0.1691039977406381</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999931466276456</v>
+        <v>0.9999705108773026</v>
       </c>
       <c r="K24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.958854320438025</v>
+        <v>-7.961269628458602</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.3944361492626</v>
+        <v>113.4042623248089</v>
       </c>
       <c r="R24" t="n">
-        <v>31.28675626088726</v>
+        <v>191.1088833907678</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.966735427226508</v>
+        <v>-7.951204331496024</v>
       </c>
       <c r="D25" t="n">
-        <v>113.3900818040557</v>
+        <v>113.4048965752525</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.959049706992072</v>
+        <v>-7.963202229182353</v>
       </c>
       <c r="F25" t="n">
-        <v>113.3947971343404</v>
+        <v>113.4025199285018</v>
       </c>
       <c r="G25" t="n">
-        <v>31.28330892957603</v>
+        <v>191.099237036366</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>1.35953591425721</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1684049817199254</v>
+        <v>0.1691047997403729</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999944116487151</v>
+        <v>0.9999810762413123</v>
       </c>
       <c r="K25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.959049706992072</v>
+        <v>-7.963202229182353</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.3947971343404</v>
+        <v>113.4025199285018</v>
       </c>
       <c r="R25" t="n">
-        <v>31.28330892957603</v>
+        <v>191.099237036366</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,28 +2112,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.966613008684378</v>
+        <v>-7.950905683509085</v>
       </c>
       <c r="D26" t="n">
-        <v>113.389965450698</v>
+        <v>113.4055594512814</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.958927449829067</v>
+        <v>-7.962869549151065</v>
       </c>
       <c r="F26" t="n">
-        <v>113.3946810477494</v>
+        <v>113.4031883296397</v>
       </c>
       <c r="G26" t="n">
-        <v>31.28528888890332</v>
+        <v>191.1048004977522</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>1.355705419672844</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1684049949357275</v>
+        <v>0.1691050999013513</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999975766732064</v>
+        <v>0.9999892557806809</v>
       </c>
       <c r="K26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.958927449829067</v>
+        <v>-7.962869549151065</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.3946810477494</v>
+        <v>113.4031883296397</v>
       </c>
       <c r="R26" t="n">
-        <v>31.28528888890332</v>
+        <v>191.1048004977522</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.9664934429038</v>
+        <v>-7.950905683509085</v>
       </c>
       <c r="D27" t="n">
-        <v>113.390089762344</v>
+        <v>113.4055594512814</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.95880781854968</v>
+        <v>-7.962869549151065</v>
       </c>
       <c r="F27" t="n">
-        <v>113.3948052491771</v>
+        <v>113.4031883296397</v>
       </c>
       <c r="G27" t="n">
-        <v>31.28448529103781</v>
+        <v>191.1048004977522</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>1.355705419672844</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1684050390633976</v>
+        <v>0.1691050999013513</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999986163537971</v>
+        <v>0.9999895799314991</v>
       </c>
       <c r="K27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.95880781854968</v>
+        <v>-7.962869549151065</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.3948052491771</v>
+        <v>113.4031883296397</v>
       </c>
       <c r="R27" t="n">
-        <v>31.28448529103781</v>
+        <v>191.1048004977522</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,28 +2242,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.9664934429038</v>
+        <v>-7.951179047055369</v>
       </c>
       <c r="D28" t="n">
-        <v>113.390089762344</v>
+        <v>113.4053365936689</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.95880781854968</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="F28" t="n">
-        <v>113.3948052491771</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="G28" t="n">
-        <v>31.28448529103781</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>1.318008888930439</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1684050390633976</v>
+        <v>0.1691051338030654</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9999991521199479</v>
+        <v>0.999990858020806</v>
       </c>
       <c r="K28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.95880781854968</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.3948052491771</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="R28" t="n">
-        <v>31.28448529103781</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,28 +2307,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.966358381932573</v>
+        <v>-7.951179047055369</v>
       </c>
       <c r="D29" t="n">
-        <v>113.3900826862587</v>
+        <v>113.4053365936689</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.958672761597558</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="F29" t="n">
-        <v>113.3947981782158</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="G29" t="n">
-        <v>31.28453459559766</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>1.318008888930439</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1684050426534964</v>
+        <v>0.1691051338030654</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999994910594677</v>
+        <v>0.9999916102890299</v>
       </c>
       <c r="K29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.958672761597558</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.3947981782158</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="R29" t="n">
-        <v>31.28453459559766</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,28 +2372,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.966498118807929</v>
+        <v>-7.951179047055369</v>
       </c>
       <c r="D30" t="n">
-        <v>113.3901602097621</v>
+        <v>113.4053365936689</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.958812495144397</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3948756977967</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="G30" t="n">
-        <v>31.28449376403044</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>1.318008888930439</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1684050438152687</v>
+        <v>0.1691051338030654</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999996036338835</v>
+        <v>0.9999917832936677</v>
       </c>
       <c r="K30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.958812495144397</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.3948756977967</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="R30" t="n">
-        <v>31.28449376403044</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,28 +2437,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.966467937273054</v>
+        <v>-7.951179047055369</v>
       </c>
       <c r="D31" t="n">
-        <v>113.3902112929314</v>
+        <v>113.4053365936689</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.958782295147453</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="F31" t="n">
-        <v>113.3949267499388</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="G31" t="n">
-        <v>31.28426725175515</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>1.318008888930439</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1684050459648489</v>
+        <v>0.1691051338030654</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999997064031989</v>
+        <v>0.9999920664825945</v>
       </c>
       <c r="K31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.958782295147453</v>
+        <v>-7.962810165802256</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.3949267499388</v>
+        <v>113.4030309830541</v>
       </c>
       <c r="R31" t="n">
-        <v>31.28426725175515</v>
+        <v>191.1068511525971</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,28 +2502,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.966332561267168</v>
+        <v>-7.951023734943191</v>
       </c>
       <c r="D32" t="n">
-        <v>113.3901560119186</v>
+        <v>113.4054298074241</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.958646935635814</v>
+        <v>-7.962726965177824</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3948714947772</v>
+        <v>113.403109966885</v>
       </c>
       <c r="G32" t="n">
-        <v>31.28446961401145</v>
+        <v>191.1065518452235</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>1.32617902431781</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1684050488491711</v>
+        <v>0.1691051397724328</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4807407016195364</v>
+        <v>0.5857864397557262</v>
       </c>
       <c r="K32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.958646935635814</v>
+        <v>-7.962726965177824</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.3948714947772</v>
+        <v>113.403109966885</v>
       </c>
       <c r="R32" t="n">
-        <v>31.28446961401145</v>
+        <v>191.1065518452235</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,28 +2567,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.966399999720196</v>
+        <v>-7.950974282129074</v>
       </c>
       <c r="D33" t="n">
-        <v>113.3901655914531</v>
+        <v>113.4054904576493</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.95871437353338</v>
+        <v>-7.962674897155891</v>
       </c>
       <c r="F33" t="n">
-        <v>113.3948810741651</v>
+        <v>113.4031710333757</v>
       </c>
       <c r="G33" t="n">
-        <v>31.28446280187341</v>
+        <v>191.1070301184417</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1.32588484856407</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1684050497470969</v>
+        <v>0.1691051429829434</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9878538059827444</v>
+        <v>0.9999995401917932</v>
       </c>
       <c r="K33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.95871437353338</v>
+        <v>-7.962674897155891</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.3948810741651</v>
+        <v>113.4031710333757</v>
       </c>
       <c r="R33" t="n">
-        <v>31.28446280187341</v>
+        <v>191.1070301184417</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,28 +2632,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.966369754584187</v>
+        <v>-7.950974282129074</v>
       </c>
       <c r="D34" t="n">
-        <v>113.3901968360773</v>
+        <v>113.4054904576493</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.958684120952822</v>
+        <v>-7.962674897155891</v>
       </c>
       <c r="F34" t="n">
-        <v>113.3949123060699</v>
+        <v>113.4031710333757</v>
       </c>
       <c r="G34" t="n">
-        <v>31.28437146360005</v>
+        <v>191.1070301184417</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>1.32588484856407</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1684050502988626</v>
+        <v>0.1691051429829434</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9961253438766932</v>
+        <v>0.9999996306901939</v>
       </c>
       <c r="K34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.958684120952822</v>
+        <v>-7.962674897155891</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.3949123060699</v>
+        <v>113.4031710333757</v>
       </c>
       <c r="R34" t="n">
-        <v>31.28437146360005</v>
+        <v>191.1070301184417</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,28 +2697,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.966345965477596</v>
+        <v>-7.951046372895291</v>
       </c>
       <c r="D35" t="n">
-        <v>113.3901904898438</v>
+        <v>113.4054760442229</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.958660338485624</v>
+        <v>-7.96266783883795</v>
       </c>
       <c r="F35" t="n">
-        <v>113.3949059705957</v>
+        <v>113.4031723680219</v>
       </c>
       <c r="G35" t="n">
-        <v>31.2844529212058</v>
+        <v>191.1067563780107</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>1.31691462936161</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1684050508402597</v>
+        <v>0.1691051442333481</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9976675452258181</v>
+        <v>0.9999997580055852</v>
       </c>
       <c r="K35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.958660338485624</v>
+        <v>-7.96266783883795</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.3949059705957</v>
+        <v>113.4031723680219</v>
       </c>
       <c r="R35" t="n">
-        <v>31.2844529212058</v>
+        <v>191.1067563780107</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,28 +2762,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.966417786317989</v>
+        <v>-7.95104495048012</v>
       </c>
       <c r="D36" t="n">
-        <v>113.3902195905522</v>
+        <v>113.405473589229</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.958732158828479</v>
+        <v>-7.962675513590823</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3949350713041</v>
+        <v>113.4031680831597</v>
       </c>
       <c r="G36" t="n">
-        <v>31.28444681989971</v>
+        <v>191.1068810064998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>1.317946060417118</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1684050510586993</v>
+        <v>0.1691051451719836</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9382013450955276</v>
+        <v>0.8359544754416229</v>
       </c>
       <c r="K36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.958732158828479</v>
+        <v>-7.962675513590823</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.3949350713041</v>
+        <v>113.4031680831597</v>
       </c>
       <c r="R36" t="n">
-        <v>31.28444681989971</v>
+        <v>191.1068810064998</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,28 +2827,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.966417786317989</v>
+        <v>-7.951050679778569</v>
       </c>
       <c r="D37" t="n">
-        <v>113.3902195905522</v>
+        <v>113.405414388891</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.958732158828479</v>
+        <v>-7.962641057071258</v>
       </c>
       <c r="F37" t="n">
-        <v>113.3949350713041</v>
+        <v>113.4031168575626</v>
       </c>
       <c r="G37" t="n">
-        <v>31.28444681989971</v>
+        <v>191.106840562707</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>1.313392120443696</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1684050510586993</v>
+        <v>0.1691051456433077</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9868798980662642</v>
+        <v>0.9142025000566898</v>
       </c>
       <c r="K37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.958732158828479</v>
+        <v>-7.962641057071258</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.3949350713041</v>
+        <v>113.4031168575626</v>
       </c>
       <c r="R37" t="n">
-        <v>31.28444681989971</v>
+        <v>191.106840562707</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.96638411620651</v>
+        <v>-7.951011990104142</v>
       </c>
       <c r="D38" t="n">
-        <v>113.3902093675346</v>
+        <v>113.4054711079762</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.958698489593697</v>
+        <v>-7.962653650226426</v>
       </c>
       <c r="F38" t="n">
-        <v>113.3949248493558</v>
+        <v>113.4031634101664</v>
       </c>
       <c r="G38" t="n">
-        <v>31.2844575746687</v>
+        <v>191.1068440297379</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>1.319203379307432</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1684050514288893</v>
+        <v>0.1691051457081586</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9910543026115454</v>
+        <v>0.9762703918081514</v>
       </c>
       <c r="K38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.958698489593697</v>
+        <v>-7.962653650226426</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3949248493558</v>
+        <v>113.4031634101664</v>
       </c>
       <c r="R38" t="n">
-        <v>31.2844575746687</v>
+        <v>191.1068440297379</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,28 +2957,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.96638411620651</v>
+        <v>-7.951025446436135</v>
       </c>
       <c r="D39" t="n">
-        <v>113.3902093675346</v>
+        <v>113.4054559443418</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.958698489593697</v>
+        <v>-7.962664398975313</v>
       </c>
       <c r="F39" t="n">
-        <v>113.3949248493558</v>
+        <v>113.4031487804718</v>
       </c>
       <c r="G39" t="n">
-        <v>31.2844575746687</v>
+        <v>191.1068567873871</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>1.318896620348548</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1684050514288893</v>
+        <v>0.1691051458933296</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9948762822894724</v>
+        <v>0.9922794051275333</v>
       </c>
       <c r="K39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.958698489593697</v>
+        <v>-7.962664398975313</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.3949248493558</v>
+        <v>113.4031487804718</v>
       </c>
       <c r="R39" t="n">
-        <v>31.2844575746687</v>
+        <v>191.1068567873871</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,28 +3022,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.96638411620651</v>
+        <v>-7.951019994381615</v>
       </c>
       <c r="D40" t="n">
-        <v>113.3902093675346</v>
+        <v>113.4054586483464</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.958698489593697</v>
+        <v>-7.962657673226698</v>
       </c>
       <c r="F40" t="n">
-        <v>113.3949248493558</v>
+        <v>113.4031517381942</v>
       </c>
       <c r="G40" t="n">
-        <v>31.2844575746687</v>
+        <v>191.1068511616565</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>1.318752263059754</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1684050514288893</v>
+        <v>0.1691051459663857</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9953395190634691</v>
+        <v>0.9307520809411161</v>
       </c>
       <c r="K40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.958698489593697</v>
+        <v>-7.962657673226698</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.3949248493558</v>
+        <v>113.4031517381942</v>
       </c>
       <c r="R40" t="n">
-        <v>31.2844575746687</v>
+        <v>191.1068511616565</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,28 +3087,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.966391348982533</v>
+        <v>-7.951019994381615</v>
       </c>
       <c r="D41" t="n">
-        <v>113.3902106654763</v>
+        <v>113.4054586483464</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.958705721389269</v>
+        <v>-7.962657673226698</v>
       </c>
       <c r="F41" t="n">
-        <v>113.3949261457514</v>
+        <v>113.4031517381942</v>
       </c>
       <c r="G41" t="n">
-        <v>31.2844455458326</v>
+        <v>191.1068511616565</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>1.318752263059754</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1684050515222561</v>
+        <v>0.1691051459663857</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9957330021034447</v>
+        <v>0.9817215341374347</v>
       </c>
       <c r="K41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.958705721389269</v>
+        <v>-7.962657673226698</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.3949261457514</v>
+        <v>113.4031517381942</v>
       </c>
       <c r="R41" t="n">
-        <v>31.2844455458326</v>
+        <v>191.1068511616565</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.966391348982533</v>
+        <v>-7.951038988526521</v>
       </c>
       <c r="D42" t="n">
-        <v>113.3902106654763</v>
+        <v>113.4054447461643</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.958705721389269</v>
+        <v>-7.962649162428923</v>
       </c>
       <c r="F42" t="n">
-        <v>113.3949261457514</v>
+        <v>113.4031432885071</v>
       </c>
       <c r="G42" t="n">
-        <v>31.2844455458326</v>
+        <v>191.1068502056624</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>1.315635466675851</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1684050515222561</v>
+        <v>0.1691051459938404</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5857835291929302</v>
+        <v>0.585782473623943</v>
       </c>
       <c r="K42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.958705721389269</v>
+        <v>-7.962649162428923</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.3949261457514</v>
+        <v>113.4031432885071</v>
       </c>
       <c r="R42" t="n">
-        <v>31.2844455458326</v>
+        <v>191.1068502056624</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,28 +3217,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.966389550847834</v>
+        <v>-7.95104966601451</v>
       </c>
       <c r="D43" t="n">
-        <v>113.3902102259909</v>
+        <v>113.4054443863717</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.958703923180806</v>
+        <v>-7.962656578982083</v>
       </c>
       <c r="F43" t="n">
-        <v>113.3949257061227</v>
+        <v>113.4031435751587</v>
       </c>
       <c r="G43" t="n">
-        <v>31.2844446407952</v>
+        <v>191.1068498386653</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>1.315265943955156</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1684050515242907</v>
+        <v>0.1691051460104448</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9999999883978411</v>
+        <v>0.9991160355064529</v>
       </c>
       <c r="K43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.958703923180806</v>
+        <v>-7.962656578982083</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.3949257061227</v>
+        <v>113.4031435751587</v>
       </c>
       <c r="R43" t="n">
-        <v>31.2844446407952</v>
+        <v>191.1068498386653</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,28 +3282,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.966384748469192</v>
+        <v>-7.9510160886788</v>
       </c>
       <c r="D44" t="n">
-        <v>113.3902087137918</v>
+        <v>113.405446776591</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.9586991209796</v>
+        <v>-7.962656461151779</v>
       </c>
       <c r="F44" t="n">
-        <v>113.3949241941632</v>
+        <v>113.4031393324532</v>
       </c>
       <c r="G44" t="n">
-        <v>31.2844468175422</v>
+        <v>191.1068513522209</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>1.319057499172082</v>
       </c>
       <c r="I44" t="n">
-        <v>0.16840505156521</v>
+        <v>0.1691051460293912</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9999999900219642</v>
+        <v>0.9993951133248106</v>
       </c>
       <c r="K44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.9586991209796</v>
+        <v>-7.962656461151779</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.3949241941632</v>
+        <v>113.4031393324532</v>
       </c>
       <c r="R44" t="n">
-        <v>31.2844468175422</v>
+        <v>191.1068513522209</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.966382634279751</v>
+        <v>-7.95101357704295</v>
       </c>
       <c r="D45" t="n">
-        <v>113.3902086442653</v>
+        <v>113.4054451631666</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.958697006830533</v>
+        <v>-7.962654349091318</v>
       </c>
       <c r="F45" t="n">
-        <v>113.3949241246794</v>
+        <v>113.4031376399299</v>
       </c>
       <c r="G45" t="n">
-        <v>31.28444731278487</v>
+        <v>191.1068509004414</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>1.319102776024732</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1684050515727628</v>
+        <v>0.1691051460338124</v>
       </c>
       <c r="J45" t="n">
-        <v>0.999999991599163</v>
+        <v>0.9996749618772689</v>
       </c>
       <c r="K45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.958697006830533</v>
+        <v>-7.962654349091318</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.3949241246794</v>
+        <v>113.4031376399299</v>
       </c>
       <c r="R45" t="n">
-        <v>31.28444731278487</v>
+        <v>191.1068509004414</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,28 +3412,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.966384098907713</v>
+        <v>-7.951019480926141</v>
       </c>
       <c r="D46" t="n">
-        <v>113.3902094727707</v>
+        <v>113.405445250388</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.958698471299859</v>
+        <v>-7.962657083039216</v>
       </c>
       <c r="F46" t="n">
-        <v>113.3949249529381</v>
+        <v>113.4031383554704</v>
       </c>
       <c r="G46" t="n">
-        <v>31.28444536654485</v>
+        <v>191.106851063431</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>1.318743567534294</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1684050515748199</v>
+        <v>0.1691051460343842</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9999999919811996</v>
+        <v>0.9998289802379188</v>
       </c>
       <c r="K46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.958698471299859</v>
+        <v>-7.962657083039216</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.3949249529381</v>
+        <v>113.4031383554704</v>
       </c>
       <c r="R46" t="n">
-        <v>31.28444536654485</v>
+        <v>191.106851063431</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,28 +3477,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.966386378777772</v>
+        <v>-7.951020272873685</v>
       </c>
       <c r="D47" t="n">
-        <v>113.3902104211869</v>
+        <v>113.4054453415666</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.958700751250973</v>
+        <v>-7.962656703158181</v>
       </c>
       <c r="F47" t="n">
-        <v>113.3949259015152</v>
+        <v>113.4031386789677</v>
       </c>
       <c r="G47" t="n">
-        <v>31.28444636111563</v>
+        <v>191.1068509341378</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>1.318610778233795</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1684050515850238</v>
+        <v>0.1691051460359941</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999999949060314</v>
+        <v>0.9998793811227935</v>
       </c>
       <c r="K47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.958700751250973</v>
+        <v>-7.962656703158181</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.3949259015152</v>
+        <v>113.4031386789677</v>
       </c>
       <c r="R47" t="n">
-        <v>31.28444636111563</v>
+        <v>191.1068509341378</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,28 +3542,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.966383642861091</v>
+        <v>-7.951013563904604</v>
       </c>
       <c r="D48" t="n">
-        <v>113.3902091975716</v>
+        <v>113.4054452757872</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.958698015346519</v>
+        <v>-7.962656301018125</v>
       </c>
       <c r="F48" t="n">
-        <v>113.3949246778888</v>
+        <v>113.4031373630103</v>
       </c>
       <c r="G48" t="n">
-        <v>31.28444651098469</v>
+        <v>191.1068508941854</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>1.319325452319653</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1684050515864794</v>
+        <v>0.1691051460364836</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999999958415557</v>
+        <v>0.9999921957267776</v>
       </c>
       <c r="K48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.958698015346519</v>
+        <v>-7.962656301018125</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.3949246778888</v>
+        <v>113.4031373630103</v>
       </c>
       <c r="R48" t="n">
-        <v>31.28444651098469</v>
+        <v>191.1068508941854</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,28 +3607,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.966383772879599</v>
+        <v>-7.951015502238771</v>
       </c>
       <c r="D49" t="n">
-        <v>113.3902094022944</v>
+        <v>113.4054450411377</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.958698145358321</v>
+        <v>-7.962656991982197</v>
       </c>
       <c r="F49" t="n">
-        <v>113.3949248826019</v>
+        <v>113.4031373756184</v>
       </c>
       <c r="G49" t="n">
-        <v>31.28444642875263</v>
+        <v>191.1068509033859</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>1.319184103467129</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1684050515901293</v>
+        <v>0.1691051460366504</v>
       </c>
       <c r="J49" t="n">
-        <v>0.999999996940476</v>
+        <v>0.9999997829980016</v>
       </c>
       <c r="K49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.958698145358321</v>
+        <v>-7.962656991982197</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.3949248826019</v>
+        <v>113.4031373756184</v>
       </c>
       <c r="R49" t="n">
-        <v>31.28444642875263</v>
+        <v>191.1068509033859</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,28 +3672,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.966382896145727</v>
+        <v>-7.951015502238771</v>
       </c>
       <c r="D50" t="n">
-        <v>113.3902091007235</v>
+        <v>113.4054450411377</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.958697268617427</v>
+        <v>-7.962656991982197</v>
       </c>
       <c r="F50" t="n">
-        <v>113.3949245810093</v>
+        <v>113.4031373756184</v>
       </c>
       <c r="G50" t="n">
-        <v>31.28444634256269</v>
+        <v>191.1068509033859</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>1.319184103467129</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1684050515911904</v>
+        <v>0.1691051460366504</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999999972274629</v>
+        <v>0.9999998655681533</v>
       </c>
       <c r="K50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.958697268617427</v>
+        <v>-7.962656991982197</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.3949245810093</v>
+        <v>113.4031373756184</v>
       </c>
       <c r="R50" t="n">
-        <v>31.28444634256269</v>
+        <v>191.1068509033859</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951017004732058</v>
       </c>
       <c r="D51" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054458438939</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657460570039</v>
       </c>
       <c r="F51" t="n">
-        <v>113.3949244486572</v>
+        <v>113.403138383325</v>
       </c>
       <c r="G51" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508836991</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>1.319066943770447</v>
       </c>
       <c r="I51" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460366962</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999999976906031</v>
+        <v>0.9999999004889687</v>
       </c>
       <c r="K51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657460570039</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.3949244486572</v>
+        <v>113.403138383325</v>
       </c>
       <c r="R51" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508836991</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,28 +3802,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951016649720363</v>
       </c>
       <c r="D52" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054458320666</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657606784114</v>
       </c>
       <c r="F52" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031382721368</v>
       </c>
       <c r="G52" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508982592</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>1.319123741500718</v>
       </c>
       <c r="I52" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460367351</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857864397881289</v>
+        <v>0.5857864397791805</v>
       </c>
       <c r="K52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657606784114</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031382721368</v>
       </c>
       <c r="R52" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508982592</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,28 +3867,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951015780474926</v>
       </c>
       <c r="D53" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054456556488</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657254388495</v>
       </c>
       <c r="F53" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031379932672</v>
       </c>
       <c r="G53" t="n">
-        <v>31.28444638517161</v>
+        <v>191.106850897399</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>1.319182309640055</v>
       </c>
       <c r="I53" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460368422</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999999998972602</v>
+        <v>0.9999999800565547</v>
       </c>
       <c r="K53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657254388495</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031379932672</v>
       </c>
       <c r="R53" t="n">
-        <v>31.28444638517161</v>
+        <v>191.106850897399</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951015780474926</v>
       </c>
       <c r="D54" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054456556488</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657254388495</v>
       </c>
       <c r="F54" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031379932672</v>
       </c>
       <c r="G54" t="n">
-        <v>31.28444638517161</v>
+        <v>191.106850897399</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>1.319182309640055</v>
       </c>
       <c r="I54" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460368422</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9999999999046549</v>
+        <v>0.999999985283806</v>
       </c>
       <c r="K54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657254388495</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031379932672</v>
       </c>
       <c r="R54" t="n">
-        <v>31.28444638517161</v>
+        <v>191.106850897399</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,28 +3997,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951015981530507</v>
       </c>
       <c r="D55" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054456941336</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.96265705341721</v>
       </c>
       <c r="F55" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031381114473</v>
       </c>
       <c r="G55" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508912845</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>1.319136752922133</v>
       </c>
       <c r="I55" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460368768</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999999999270832</v>
+        <v>0.9999999901198734</v>
       </c>
       <c r="K55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.96265705341721</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031381114473</v>
       </c>
       <c r="R55" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508912845</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,28 +4062,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951015656701395</v>
       </c>
       <c r="D56" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054456824208</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657258093533</v>
       </c>
       <c r="F56" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031379947703</v>
       </c>
       <c r="G56" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508933955</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>1.319196755177896</v>
       </c>
       <c r="I56" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460368992</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999999999266271</v>
+        <v>0.9999999943159148</v>
       </c>
       <c r="K56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657258093533</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031379947703</v>
       </c>
       <c r="R56" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508933955</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,28 +4127,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951016032145662</v>
       </c>
       <c r="D57" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054454616794</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657298702534</v>
       </c>
       <c r="F57" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031378404028</v>
       </c>
       <c r="G57" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508912081</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>1.319158812463718</v>
       </c>
       <c r="I57" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460369066</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999999999539169</v>
+        <v>0.9999999980668131</v>
       </c>
       <c r="K57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657298702534</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031378404028</v>
       </c>
       <c r="R57" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508912081</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,28 +4192,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.966382543161444</v>
+        <v>-7.951016032145662</v>
       </c>
       <c r="D58" t="n">
-        <v>113.3902089683697</v>
+        <v>113.4054454616794</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657298702534</v>
       </c>
       <c r="F58" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031378404028</v>
       </c>
       <c r="G58" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508912081</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>1.319158812463718</v>
       </c>
       <c r="I58" t="n">
-        <v>0.16840505159193</v>
+        <v>0.1691051460369066</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999999693014</v>
+        <v>0.9999999992655688</v>
       </c>
       <c r="K58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.958696915636621</v>
+        <v>-7.962657298702534</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.3949244486572</v>
+        <v>113.4031378404028</v>
       </c>
       <c r="R58" t="n">
-        <v>31.28444638517161</v>
+        <v>191.1068508912081</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,28 +4257,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.966382962782008</v>
+        <v>-7.951015991273775</v>
       </c>
       <c r="D59" t="n">
-        <v>113.3902091440601</v>
+        <v>113.4054454471842</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.958697335258193</v>
+        <v>-7.962657261800685</v>
       </c>
       <c r="F59" t="n">
-        <v>113.3949246243541</v>
+        <v>113.4031378251206</v>
       </c>
       <c r="G59" t="n">
-        <v>31.28444639756935</v>
+        <v>191.1068508922204</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>1.319159262343363</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1684050515920694</v>
+        <v>0.1691051460369198</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999999742624</v>
+        <v>0.9999999997513658</v>
       </c>
       <c r="K59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.958697335258193</v>
+        <v>-7.962657261800685</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.3949246243541</v>
+        <v>113.4031378251206</v>
       </c>
       <c r="R59" t="n">
-        <v>31.28444639756935</v>
+        <v>191.1068508922204</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,28 +4322,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.966382962782008</v>
+        <v>-7.951015991273775</v>
       </c>
       <c r="D60" t="n">
-        <v>113.3902091440601</v>
+        <v>113.4054454471842</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.958697335258193</v>
+        <v>-7.962657261800685</v>
       </c>
       <c r="F60" t="n">
-        <v>113.3949246243541</v>
+        <v>113.4031378251206</v>
       </c>
       <c r="G60" t="n">
-        <v>31.28444639756935</v>
+        <v>191.1068508922204</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>1.319159262343363</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1684050515920694</v>
+        <v>0.1691051460369198</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999999744944</v>
+        <v>0.9999999998694153</v>
       </c>
       <c r="K60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.958697335258193</v>
+        <v>-7.962657261800685</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.3949246243541</v>
+        <v>113.4031378251206</v>
       </c>
       <c r="R60" t="n">
-        <v>31.28444639756935</v>
+        <v>191.1068508922204</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,28 +4387,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.966382970709013</v>
+        <v>-7.951015998402637</v>
       </c>
       <c r="D61" t="n">
-        <v>113.390209147506</v>
+        <v>113.4054454750344</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.95869734318432</v>
+        <v>-7.962657242972802</v>
       </c>
       <c r="F61" t="n">
-        <v>113.3949246277986</v>
+        <v>113.4031378581163</v>
       </c>
       <c r="G61" t="n">
-        <v>31.28444638681253</v>
+        <v>191.1068508921331</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>1.319156320988943</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1684050515920965</v>
+        <v>0.1691051460369211</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999999825944</v>
+        <v>0.9999999999013711</v>
       </c>
       <c r="K61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.95869734318432</v>
+        <v>-7.962657242972802</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.3949246277986</v>
+        <v>113.4031378581163</v>
       </c>
       <c r="R61" t="n">
-        <v>31.28444638681253</v>
+        <v>191.1068508921331</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,28 +4452,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.966382964295712</v>
+        <v>-7.951016005499502</v>
       </c>
       <c r="D62" t="n">
-        <v>113.3902091440974</v>
+        <v>113.4054455002914</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.958697336771291</v>
+        <v>-7.9626572529413</v>
       </c>
       <c r="F62" t="n">
-        <v>113.3949246243905</v>
+        <v>113.403137882804</v>
       </c>
       <c r="G62" t="n">
-        <v>31.28444639014518</v>
+        <v>191.1068508921805</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>1.319156646395478</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1684050515921305</v>
+        <v>0.1691051460369214</v>
       </c>
       <c r="J62" t="n">
-        <v>0.4807407016195394</v>
+        <v>0.5857864397791814</v>
       </c>
       <c r="K62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.958697336771291</v>
+        <v>-7.9626572529413</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.3949246243905</v>
+        <v>113.403137882804</v>
       </c>
       <c r="R62" t="n">
-        <v>31.28444639014518</v>
+        <v>191.1068508921805</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,28 +4517,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.966382964295712</v>
+        <v>-7.951015999763996</v>
       </c>
       <c r="D63" t="n">
-        <v>113.3902091440974</v>
+        <v>113.4054455161057</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.958697336771291</v>
+        <v>-7.962657258412793</v>
       </c>
       <c r="F63" t="n">
-        <v>113.3949246243905</v>
+        <v>113.4031378963967</v>
       </c>
       <c r="G63" t="n">
-        <v>31.28444639014518</v>
+        <v>191.1068508921621</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>1.319157916344514</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1684050515921305</v>
+        <v>0.1691051460369215</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9595503585032928</v>
+        <v>0.9999999999985925</v>
       </c>
       <c r="K63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.958697336771291</v>
+        <v>-7.962657258412793</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.3949246243905</v>
+        <v>113.4031378963967</v>
       </c>
       <c r="R63" t="n">
-        <v>31.28444639014518</v>
+        <v>191.1068508921621</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,28 +4582,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.966382965835473</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D64" t="n">
-        <v>113.3902091458209</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.958697338311193</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F64" t="n">
-        <v>113.3949246261142</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G64" t="n">
-        <v>31.28444639185863</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I64" t="n">
-        <v>0.168405051592159</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9825287193983182</v>
+        <v>0.9999999999986917</v>
       </c>
       <c r="K64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.958697338311193</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.3949246261142</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R64" t="n">
-        <v>31.28444639185863</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,28 +4647,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.966382965835473</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D65" t="n">
-        <v>113.3902091458209</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.958697338311193</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F65" t="n">
-        <v>113.3949246261142</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G65" t="n">
-        <v>31.28444639185863</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I65" t="n">
-        <v>0.168405051592159</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9967342746906271</v>
+        <v>0.9999999999995062</v>
       </c>
       <c r="K65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.958697338311193</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.3949246261142</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R65" t="n">
-        <v>31.28444639185863</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,28 +4712,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.966382965835473</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D66" t="n">
-        <v>113.3902091458209</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.958697338311193</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F66" t="n">
-        <v>113.3949246261142</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G66" t="n">
-        <v>31.28444639185863</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I66" t="n">
-        <v>0.168405051592159</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9987757465654191</v>
+        <v>0.7720970962677787</v>
       </c>
       <c r="K66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.958697338311193</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.3949246261142</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R66" t="n">
-        <v>31.28444639185863</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,28 +4777,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D67" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F67" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G67" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9644786386233719</v>
+        <v>0.9003891278503455</v>
       </c>
       <c r="K67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R67" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,28 +4842,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D68" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F68" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G68" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9017848562346017</v>
+        <v>0.9564758007200972</v>
       </c>
       <c r="K68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R68" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,28 +4907,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D69" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F69" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G69" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9795615549254304</v>
+        <v>0.9867790457380313</v>
       </c>
       <c r="K69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R69" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,28 +4972,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D70" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F70" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G70" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9899185046806497</v>
+        <v>0.9597885425224485</v>
       </c>
       <c r="K70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R70" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D71" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F71" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G71" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9945146977590267</v>
+        <v>0.980182818769033</v>
       </c>
       <c r="K71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R71" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,28 +5102,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D72" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F72" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G72" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J72" t="n">
-        <v>0.585783768735109</v>
+        <v>0.5857754662461961</v>
       </c>
       <c r="K72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R72" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,28 +5167,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D73" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F73" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G73" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J73" t="n">
-        <v>0.999999999998832</v>
+        <v>0.9979511062996895</v>
       </c>
       <c r="K73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R73" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,28 +5232,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D74" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F74" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G74" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9999999999988223</v>
+        <v>0.9995039761576993</v>
       </c>
       <c r="K74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R74" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,28 +5297,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D75" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F75" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G75" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9999999999997076</v>
+        <v>0.9997787725317366</v>
       </c>
       <c r="K75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R75" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,28 +5362,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D76" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F76" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G76" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999999999997431</v>
+        <v>0.9999692582933295</v>
       </c>
       <c r="K76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R76" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,28 +5427,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.966382964752142</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D77" t="n">
-        <v>113.3902091455444</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F77" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G77" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1684050515921637</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999999999997595</v>
+        <v>0.9999775609192811</v>
       </c>
       <c r="K77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.95869733722779</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.3949246258376</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R77" t="n">
-        <v>31.28444639097743</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,28 +5492,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.966382731951829</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D78" t="n">
-        <v>113.3902090524361</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.9586971044275</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F78" t="n">
-        <v>113.3949245327266</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G78" t="n">
-        <v>31.28444639126731</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1684050515921829</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999999999997247</v>
+        <v>0.9999906245492007</v>
       </c>
       <c r="K78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.9586971044275</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.3949245327266</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R78" t="n">
-        <v>31.28444639126731</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,28 +5557,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.966382731951829</v>
+        <v>-7.95101598353852</v>
       </c>
       <c r="D79" t="n">
-        <v>113.3902090524361</v>
+        <v>113.4054455044251</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.9586971044275</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="F79" t="n">
-        <v>113.3949245327266</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="G79" t="n">
-        <v>31.28444639126731</v>
+        <v>191.106850892166</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>1.319158609153208</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1684050515921829</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999999999997187</v>
+        <v>0.9999943323718309</v>
       </c>
       <c r="K79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.9586971044275</v>
+        <v>-7.962657248301186</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.3949245327266</v>
+        <v>113.4031378835042</v>
       </c>
       <c r="R79" t="n">
-        <v>31.28444639126731</v>
+        <v>191.106850892166</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,28 +5622,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.966382835644167</v>
+        <v>-7.951015983106257</v>
       </c>
       <c r="D80" t="n">
-        <v>113.3902090941357</v>
+        <v>113.405445504898</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657248926789</v>
       </c>
       <c r="F80" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378837674</v>
       </c>
       <c r="G80" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921633</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>1.319158729028149</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1684050515921834</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999999999997367</v>
+        <v>0.9999973009487119</v>
       </c>
       <c r="K80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657248926789</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378837674</v>
       </c>
       <c r="R80" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921633</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,28 +5687,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.966382835644167</v>
+        <v>-7.951015983106257</v>
       </c>
       <c r="D81" t="n">
-        <v>113.3902090941357</v>
+        <v>113.405445504898</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657248926789</v>
       </c>
       <c r="F81" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378837674</v>
       </c>
       <c r="G81" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921633</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>1.319158729028149</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1684050515921834</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9999999999997338</v>
+        <v>0.9999991313357365</v>
       </c>
       <c r="K81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657248926789</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378837674</v>
       </c>
       <c r="R81" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921633</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,28 +5752,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.966382835644167</v>
+        <v>-7.951015983106257</v>
       </c>
       <c r="D82" t="n">
-        <v>113.3902090941357</v>
+        <v>113.405445504898</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657248926789</v>
       </c>
       <c r="F82" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378837674</v>
       </c>
       <c r="G82" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921633</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>1.319158729028149</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1684050515921834</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5857864397881289</v>
+        <v>0.5857864397791138</v>
       </c>
       <c r="K82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657248926789</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378837674</v>
       </c>
       <c r="R82" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921633</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,28 +5817,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.966382835644167</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D83" t="n">
-        <v>113.3902090941357</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F83" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G83" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1684050515921834</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999999999999583</v>
+        <v>0.9999999999999714</v>
       </c>
       <c r="K83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R83" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,28 +5882,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.966382835644167</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D84" t="n">
-        <v>113.3902090941357</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F84" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G84" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1684050515921834</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J84" t="n">
-        <v>0.99999999999996</v>
+        <v>0.9999999999999787</v>
       </c>
       <c r="K84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R84" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,28 +5947,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.966382835644167</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D85" t="n">
-        <v>113.3902090941357</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F85" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G85" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1684050515921834</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999999999999611</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="K85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.958697208119864</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.3949245744274</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R85" t="n">
-        <v>31.28444639158588</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,28 +6012,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D86" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F86" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G86" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999999999999536</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="K86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R86" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,28 +6077,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D87" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F87" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G87" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999999999999523</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="K87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R87" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,28 +6142,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D88" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F88" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G88" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999999999999603</v>
+        <v>0.9999999999999922</v>
       </c>
       <c r="K88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R88" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,28 +6207,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D89" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F89" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G89" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999603</v>
+        <v>0.9999999999999971</v>
       </c>
       <c r="K89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R89" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,28 +6272,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D90" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F90" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G90" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9999999999999607</v>
+        <v>0.9999999999999973</v>
       </c>
       <c r="K90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R90" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,28 +6337,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D91" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F91" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G91" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999999999999603</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="K91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R91" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,28 +6402,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.966382843250752</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D92" t="n">
-        <v>113.390209097236</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F92" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G92" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1684050515921872</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5358983874467569</v>
+        <v>0.5857864397791813</v>
       </c>
       <c r="K92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.95869721572643</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.3949245775278</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R92" t="n">
-        <v>31.28444639135087</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,28 +6467,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.966382709926088</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D93" t="n">
-        <v>113.3902090440181</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.95869708240176</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F93" t="n">
-        <v>113.3949245243083</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G93" t="n">
-        <v>31.28444639128435</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I93" t="n">
-        <v>0.168405051592189</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9999999999999627</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="K93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.95869708240176</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.3949245243083</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R93" t="n">
-        <v>31.28444639128435</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,28 +6532,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D94" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F94" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G94" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9999999999999609</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="K94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R94" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D95" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F95" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G95" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9999999999999587</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R95" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,28 +6662,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D96" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F96" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G96" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9170647725790613</v>
+        <v>0.9614668834458446</v>
       </c>
       <c r="K96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R96" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,28 +6727,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D97" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F97" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G97" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9341234476796613</v>
+        <v>0.9489445429277727</v>
       </c>
       <c r="K97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R97" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,28 +6792,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D98" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F98" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G98" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9806546529149975</v>
+        <v>0.9523932083455569</v>
       </c>
       <c r="K98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R98" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,28 +6857,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D99" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F99" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G99" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9918859792084923</v>
+        <v>0.9377061115663422</v>
       </c>
       <c r="K99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R99" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,28 +6922,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D100" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F100" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G100" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9932818064279352</v>
+        <v>0.8868699877266605</v>
       </c>
       <c r="K100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R100" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,28 +6987,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D101" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F101" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G101" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9511522497480585</v>
+        <v>0.9563755434215702</v>
       </c>
       <c r="K101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R101" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,28 +7052,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D102" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F102" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G102" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J102" t="n">
-        <v>0.585610113508337</v>
+        <v>0.5856050858821248</v>
       </c>
       <c r="K102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R102" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,28 +7117,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D103" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F103" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G103" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9980196285342305</v>
+        <v>0.997239731021383</v>
       </c>
       <c r="K103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R103" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,28 +7182,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D104" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F104" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G104" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9986375211323989</v>
+        <v>0.9991181708130191</v>
       </c>
       <c r="K104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R104" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,28 +7247,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D105" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F105" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G105" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9994152431299653</v>
+        <v>0.9994735033684392</v>
       </c>
       <c r="K105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R105" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,28 +7312,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D106" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F106" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G106" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9997563636754642</v>
+        <v>0.999704675117597</v>
       </c>
       <c r="K106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R106" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,28 +7377,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D107" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F107" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G107" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9998130413399242</v>
+        <v>0.9998724009470785</v>
       </c>
       <c r="K107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R107" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,28 +7442,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D108" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F108" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G108" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999550033939271</v>
+        <v>0.9999326289513416</v>
       </c>
       <c r="K108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R108" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,28 +7507,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D109" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F109" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G109" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J109" t="n">
-        <v>0.999995945895258</v>
+        <v>0.9999637450591109</v>
       </c>
       <c r="K109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R109" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,28 +7572,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D110" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F110" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G110" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J110" t="n">
-        <v>0.999995945895258</v>
+        <v>0.9999896062351611</v>
       </c>
       <c r="K110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R110" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,28 +7637,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D111" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F111" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G111" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J111" t="n">
-        <v>0.999996915862932</v>
+        <v>0.9999966251819844</v>
       </c>
       <c r="K111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R111" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,28 +7702,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D112" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F112" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G112" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857864397846692</v>
+        <v>0.5857864397750848</v>
       </c>
       <c r="K112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R112" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,28 +7767,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D113" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F113" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G113" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9999999999999734</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K113" t="n">
         <v>448</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R113" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,28 +7832,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D114" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F114" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G114" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9999999999999774</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K114" t="n">
         <v>448</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R114" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,28 +7897,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D115" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F115" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G115" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9999999999999776</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K115" t="n">
         <v>448</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R115" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,28 +7962,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D116" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F116" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G116" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K116" t="n">
         <v>448</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R116" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,28 +8027,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D117" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F117" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G117" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K117" t="n">
         <v>448</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R117" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,28 +8092,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D118" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F118" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G118" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K118" t="n">
         <v>448</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R118" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,28 +8157,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D119" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F119" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G119" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K119" t="n">
         <v>448</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R119" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,28 +8222,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D120" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F120" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G120" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K120" t="n">
         <v>448</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R120" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,28 +8287,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D121" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F121" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G121" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K121" t="n">
         <v>448</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R121" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,28 +8352,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D122" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F122" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G122" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5358983874467569</v>
+        <v>0.5857864397791813</v>
       </c>
       <c r="K122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R122" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,28 +8417,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D123" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F123" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G123" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9999999999999907</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K123" t="n">
         <v>448</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R123" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,28 +8482,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D124" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F124" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G124" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9999999999999911</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K124" t="n">
         <v>448</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R124" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,29 +8547,29 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D125" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F125" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G125" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H125" t="n">
+        <v>1.31915645461616</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.1691051460369216</v>
+      </c>
+      <c r="J125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="n">
-        <v>0.1684050515921917</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.9999999999999916</v>
-      </c>
       <c r="K125" t="n">
         <v>448</v>
       </c>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R125" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,28 +8612,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D126" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F126" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G126" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9681906342051313</v>
+        <v>0.8306134655234721</v>
       </c>
       <c r="K126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R126" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,28 +8677,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D127" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F127" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G127" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9059624573287065</v>
+        <v>0.8971051019340718</v>
       </c>
       <c r="K127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R127" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,28 +8742,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D128" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F128" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G128" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J128" t="n">
-        <v>0.980827987435716</v>
+        <v>0.9457704436813229</v>
       </c>
       <c r="K128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R128" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,28 +8807,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D129" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F129" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G129" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9875327832286657</v>
+        <v>0.9098456434715341</v>
       </c>
       <c r="K129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R129" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,28 +8872,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D130" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F130" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G130" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9924765036974367</v>
+        <v>0.9137410034503026</v>
       </c>
       <c r="K130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R130" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,28 +8937,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D131" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F131" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G131" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J131" t="n">
-        <v>0.8825719066198042</v>
+        <v>0.9795300472392073</v>
       </c>
       <c r="K131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R131" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D132" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F132" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G132" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5857116664925949</v>
+        <v>0.5857351009922384</v>
       </c>
       <c r="K132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R132" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,28 +9067,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D133" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F133" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G133" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9991924391701007</v>
+        <v>0.9985639036399839</v>
       </c>
       <c r="K133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R133" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,28 +9132,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D134" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F134" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G134" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J134" t="n">
-        <v>0.999192452223477</v>
+        <v>0.9985515905574295</v>
       </c>
       <c r="K134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R134" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,28 +9197,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D135" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F135" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G135" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9994280170306404</v>
+        <v>0.9989233374924557</v>
       </c>
       <c r="K135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R135" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,28 +9262,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D136" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F136" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G136" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9997538180934803</v>
+        <v>0.9991159661718063</v>
       </c>
       <c r="K136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R136" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,28 +9327,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D137" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F137" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G137" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9997995433205874</v>
+        <v>0.9994882942673802</v>
       </c>
       <c r="K137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R137" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,28 +9392,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D138" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F138" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G138" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9998885091683596</v>
+        <v>0.9997293202478902</v>
       </c>
       <c r="K138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R138" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,28 +9457,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D139" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F139" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G139" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9998945012256842</v>
+        <v>0.9998877341162712</v>
       </c>
       <c r="K139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R139" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,28 +9522,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D140" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F140" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G140" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9999292789059765</v>
+        <v>0.9999690610048267</v>
       </c>
       <c r="K140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R140" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,28 +9587,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D141" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F141" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G141" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9999684674836716</v>
+        <v>0.9999731097012858</v>
       </c>
       <c r="K141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R141" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,28 +9652,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D142" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F142" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G142" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5857864396531171</v>
+        <v>0.5857864397575618</v>
       </c>
       <c r="K142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R142" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D143" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F143" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G143" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J143" t="n">
         <v>0.9999999999999998</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R143" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,25 +9782,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D144" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F144" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G144" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J144" t="n">
         <v>0.9999999999999998</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R144" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,25 +9847,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D145" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F145" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G145" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J145" t="n">
         <v>0.9999999999999998</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R145" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,25 +9912,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D146" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F146" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G146" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J146" t="n">
         <v>0.9999999999999998</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R146" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,25 +9977,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D147" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F147" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G147" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J147" t="n">
         <v>0.9999999999999998</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R147" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,25 +10042,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D148" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F148" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G148" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J148" t="n">
         <v>0.9999999999999998</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R148" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,25 +10107,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D149" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F149" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G149" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J149" t="n">
         <v>0.9999999999999998</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R149" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,25 +10172,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D150" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F150" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G150" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J150" t="n">
         <v>0.9999999999999998</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R150" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,25 +10237,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.966382755019392</v>
+        <v>-7.951016005878953</v>
       </c>
       <c r="D151" t="n">
-        <v>113.3902090622171</v>
+        <v>113.4054455000344</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="F151" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="G151" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>1.31915645461616</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1684050515921917</v>
+        <v>0.1691051460369216</v>
       </c>
       <c r="J151" t="n">
         <v>0.9999999999999998</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.958697127495086</v>
+        <v>-7.962657251628346</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.3949245425079</v>
+        <v>113.4031378828824</v>
       </c>
       <c r="R151" t="n">
-        <v>31.28444639152855</v>
+        <v>191.1068508921616</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.123418571441711</v>
+        <v>-7.546622452827696</v>
       </c>
       <c r="D2" t="n">
-        <v>113.2883878823748</v>
+        <v>113.0387077883158</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.965241506325668</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="F2" t="n">
-        <v>113.5290296073224</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="G2" t="n">
-        <v>56.43885942739092</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="H2" t="n">
-        <v>31.80143088794345</v>
+        <v>53.02927486634655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.162682815959465</v>
+        <v>0.1656085835217772</v>
       </c>
       <c r="J2" t="n">
-        <v>0.893501070049649</v>
+        <v>0.8855270073296839</v>
       </c>
       <c r="K2" t="n">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="L2" t="n">
-        <v>1106</v>
+        <v>640</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.96676678729651</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O2" t="n">
-        <v>113.530336586576</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.965241506325668</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.5290296073224</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="R2" t="n">
-        <v>56.43885942739092</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -614,55 +614,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.985983099398696</v>
+        <v>-8.320893038956484</v>
       </c>
       <c r="D3" t="n">
-        <v>113.2316532261747</v>
+        <v>113.2645639611476</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.925461636791883</v>
+        <v>-7.963246988469745</v>
       </c>
       <c r="F3" t="n">
-        <v>113.5016326767669</v>
+        <v>113.3659848220018</v>
       </c>
       <c r="G3" t="n">
-        <v>77.26476828957485</v>
+        <v>15.68772298812132</v>
       </c>
       <c r="H3" t="n">
-        <v>30.48352272754391</v>
+        <v>41.30566424992134</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1642728369893018</v>
+        <v>0.1668829836221697</v>
       </c>
       <c r="J3" t="n">
-        <v>0.944671255851471</v>
+        <v>0.9628083160417138</v>
       </c>
       <c r="K3" t="n">
-        <v>1932</v>
+        <v>1188</v>
       </c>
       <c r="L3" t="n">
-        <v>1106</v>
+        <v>640</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.96676678729651</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O3" t="n">
-        <v>113.530336586576</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.925461636791883</v>
+        <v>-7.963246988469745</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.5016326767669</v>
+        <v>113.3659848220018</v>
       </c>
       <c r="R3" t="n">
-        <v>77.26476828957485</v>
+        <v>15.68772298812132</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -682,31 +682,31 @@
         <v>44877.10347222222</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.839934535787364</v>
+        <v>-8.320893038956484</v>
       </c>
       <c r="D4" t="n">
-        <v>113.5846768104069</v>
+        <v>113.2645639611476</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.963246988469745</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3659848220018</v>
       </c>
       <c r="G4" t="n">
-        <v>235.6268059196385</v>
+        <v>15.68772298812132</v>
       </c>
       <c r="H4" t="n">
-        <v>28.47439659677435</v>
+        <v>41.30566424992134</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1684471195395173</v>
+        <v>0.1668829836221697</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9842855477916116</v>
+        <v>0.9802734387072481</v>
       </c>
       <c r="K4" t="n">
-        <v>164</v>
+        <v>1188</v>
       </c>
       <c r="L4" t="n">
         <v>640</v>
@@ -721,13 +721,13 @@
         <v>113.300380121246</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.963246988469745</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3659848220018</v>
       </c>
       <c r="R4" t="n">
-        <v>235.6268059196385</v>
+        <v>15.68772298812132</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -744,55 +744,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.839934535787364</v>
+        <v>-7.909557864802434</v>
       </c>
       <c r="D5" t="n">
-        <v>113.5846768104069</v>
+        <v>113.3876920849047</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.918477296204387</v>
       </c>
       <c r="F5" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3888527824062</v>
       </c>
       <c r="G5" t="n">
-        <v>235.6268059196385</v>
+        <v>172.6556087903089</v>
       </c>
       <c r="H5" t="n">
-        <v>28.47439659677435</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1684471195395173</v>
+        <v>0.166924167699079</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9914077842120059</v>
+        <v>0.9952670546453941</v>
       </c>
       <c r="K5" t="n">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="L5" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O5" t="n">
-        <v>113.300380121246</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.918477296204387</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3888527824062</v>
       </c>
       <c r="R5" t="n">
-        <v>235.6268059196385</v>
+        <v>172.6556087903089</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -809,55 +809,55 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.378334047427309</v>
+        <v>-8.005531394163578</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3232112436799</v>
+        <v>113.3932647074152</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.979999728801901</v>
+        <v>-7.967251116782395</v>
       </c>
       <c r="F6" t="n">
-        <v>113.4214107858041</v>
+        <v>113.4042695709975</v>
       </c>
       <c r="G6" t="n">
-        <v>170.8185534311434</v>
+        <v>15.89204906639645</v>
       </c>
       <c r="H6" t="n">
-        <v>67.77168532677244</v>
+        <v>4.425710113122269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1685775214384621</v>
+        <v>0.1672257648338478</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9943133435117989</v>
+        <v>0.9967622002519902</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>1705</v>
       </c>
       <c r="L6" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N6" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O6" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.979999728801901</v>
+        <v>-7.967251116782395</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.4214107858041</v>
+        <v>113.4042695709975</v>
       </c>
       <c r="R6" t="n">
-        <v>170.8185534311434</v>
+        <v>15.89204906639645</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -877,31 +877,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.412122704826398</v>
+        <v>-8.005531394163578</v>
       </c>
       <c r="D7" t="n">
-        <v>113.335633489885</v>
+        <v>113.3932647074152</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.944576900386338</v>
+        <v>-7.967251116782395</v>
       </c>
       <c r="F7" t="n">
-        <v>113.4258869067473</v>
+        <v>113.4042695709975</v>
       </c>
       <c r="G7" t="n">
-        <v>170.4702081386448</v>
+        <v>15.89204906639645</v>
       </c>
       <c r="H7" t="n">
-        <v>60.03575365073047</v>
+        <v>4.425710113122269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1686965753514359</v>
+        <v>0.1672257648338478</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9957003638834764</v>
+        <v>0.9973529029870234</v>
       </c>
       <c r="K7" t="n">
-        <v>295</v>
+        <v>1705</v>
       </c>
       <c r="L7" t="n">
         <v>448</v>
@@ -916,13 +916,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.944576900386338</v>
+        <v>-7.967251116782395</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4258869067473</v>
+        <v>113.4042695709975</v>
       </c>
       <c r="R7" t="n">
-        <v>170.4702081386448</v>
+        <v>15.89204906639645</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.957338050929294</v>
       </c>
       <c r="D8" t="n">
-        <v>113.4552080305066</v>
+        <v>113.401197440419</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.965107387501271</v>
       </c>
       <c r="F8" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3966239747559</v>
       </c>
       <c r="G8" t="n">
-        <v>189.6294332462795</v>
+        <v>210.2411175648093</v>
       </c>
       <c r="H8" t="n">
-        <v>28.13366928028265</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1673582580778559</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9972072473165028</v>
+        <v>0.9982603961204223</v>
       </c>
       <c r="K8" t="n">
-        <v>1364</v>
+        <v>448</v>
       </c>
       <c r="L8" t="n">
         <v>448</v>
@@ -981,13 +981,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.965107387501271</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3966239747559</v>
       </c>
       <c r="R8" t="n">
-        <v>189.6294332462795</v>
+        <v>210.2411175648093</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1007,31 +1007,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.957338050929294</v>
       </c>
       <c r="D9" t="n">
-        <v>113.4552080305066</v>
+        <v>113.401197440419</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.965107387501271</v>
       </c>
       <c r="F9" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3966239747559</v>
       </c>
       <c r="G9" t="n">
-        <v>189.6294332462795</v>
+        <v>210.2411175648093</v>
       </c>
       <c r="H9" t="n">
-        <v>28.13366928028265</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1673582580778559</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9978650064925484</v>
+        <v>0.9984940447994121</v>
       </c>
       <c r="K9" t="n">
-        <v>1364</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
         <v>448</v>
@@ -1046,13 +1046,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.965107387501271</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3966239747559</v>
       </c>
       <c r="R9" t="n">
-        <v>189.6294332462795</v>
+        <v>210.2411175648093</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1072,31 +1072,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.957338050929294</v>
       </c>
       <c r="D10" t="n">
-        <v>113.4552080305066</v>
+        <v>113.401197440419</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.965107387501271</v>
       </c>
       <c r="F10" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3966239747559</v>
       </c>
       <c r="G10" t="n">
-        <v>189.6294332462795</v>
+        <v>210.2411175648093</v>
       </c>
       <c r="H10" t="n">
-        <v>28.13366928028265</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1673582580778559</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9990495278145127</v>
+        <v>0.9990494863763518</v>
       </c>
       <c r="K10" t="n">
-        <v>1364</v>
+        <v>448</v>
       </c>
       <c r="L10" t="n">
         <v>448</v>
@@ -1111,13 +1111,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.965107387501271</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3966239747559</v>
       </c>
       <c r="R10" t="n">
-        <v>189.6294332462795</v>
+        <v>210.2411175648093</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.913879929717166</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4552080305066</v>
+        <v>113.4146601563828</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.956763772430929</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4124726050466</v>
+        <v>113.385204953574</v>
       </c>
       <c r="G11" t="n">
-        <v>189.6294332462795</v>
+        <v>214.2247624287202</v>
       </c>
       <c r="H11" t="n">
-        <v>28.13366928028265</v>
+        <v>5.767252128895795</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1674162980552552</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9993682608015807</v>
+        <v>0.9991642511793081</v>
       </c>
       <c r="K11" t="n">
-        <v>1364</v>
+        <v>448</v>
       </c>
       <c r="L11" t="n">
         <v>448</v>
@@ -1176,13 +1176,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.956763772430929</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4124726050466</v>
+        <v>113.385204953574</v>
       </c>
       <c r="R11" t="n">
-        <v>189.6294332462795</v>
+        <v>214.2247624287202</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1202,28 +1202,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.945831688387732</v>
+        <v>-7.949524269355775</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4024489910476</v>
+        <v>113.3851299768235</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.957890177412192</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3927678758242</v>
+        <v>113.3817979969236</v>
       </c>
       <c r="G12" t="n">
-        <v>212.1537392636762</v>
+        <v>201.5264919481271</v>
       </c>
       <c r="H12" t="n">
-        <v>2.003251299055409</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1690545638980567</v>
+        <v>0.1674464847330747</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857862994667566</v>
+        <v>0.5857863010354841</v>
       </c>
       <c r="K12" t="n">
         <v>448</v>
@@ -1241,13 +1241,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.957890177412192</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.3927678758242</v>
+        <v>113.3817979969236</v>
       </c>
       <c r="R12" t="n">
-        <v>212.1537392636762</v>
+        <v>201.5264919481271</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.945831688387732</v>
+        <v>-7.949524269355775</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4024489910476</v>
+        <v>113.3851299768235</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.957890177412192</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3927678758242</v>
+        <v>113.3817979969236</v>
       </c>
       <c r="G13" t="n">
-        <v>212.1537392636762</v>
+        <v>201.5264919481271</v>
       </c>
       <c r="H13" t="n">
-        <v>2.003251299055409</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1690545638980567</v>
+        <v>0.1674464847330747</v>
       </c>
       <c r="J13" t="n">
-        <v>0.999671128866374</v>
+        <v>0.9998795799302416</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
@@ -1306,13 +1306,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.957890177412192</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3927678758242</v>
+        <v>113.3817979969236</v>
       </c>
       <c r="R13" t="n">
-        <v>212.1537392636762</v>
+        <v>201.5264919481271</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1332,28 +1332,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.974053600541414</v>
+        <v>-7.949524269355775</v>
       </c>
       <c r="D14" t="n">
-        <v>113.3922043800019</v>
+        <v>113.3851299768235</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.957890177412192</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3817979969236</v>
       </c>
       <c r="G14" t="n">
-        <v>32.84019137638025</v>
+        <v>201.5264919481271</v>
       </c>
       <c r="H14" t="n">
-        <v>1.087298443468895</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1690700500161219</v>
+        <v>0.1674464847330747</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9997301651490993</v>
+        <v>0.9998877788814236</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
@@ -1371,13 +1371,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.957890177412192</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3817979969236</v>
       </c>
       <c r="R14" t="n">
-        <v>32.84019137638025</v>
+        <v>201.5264919481271</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.974053600541414</v>
+        <v>-7.935601717046218</v>
       </c>
       <c r="D15" t="n">
-        <v>113.3922043800019</v>
+        <v>113.3929479911911</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.952558286979321</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3851769166627</v>
       </c>
       <c r="G15" t="n">
-        <v>32.84019137638025</v>
+        <v>204.4125138969521</v>
       </c>
       <c r="H15" t="n">
-        <v>1.087298443468895</v>
+        <v>2.070619598231591</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1690700500161219</v>
+        <v>0.1674522400075861</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9998042343560469</v>
+        <v>0.9998868094460532</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.952558286979321</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3851769166627</v>
       </c>
       <c r="R15" t="n">
-        <v>32.84019137638025</v>
+        <v>204.4125138969521</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.974053600541414</v>
+        <v>-7.946504755705056</v>
       </c>
       <c r="D16" t="n">
-        <v>113.3922043800019</v>
+        <v>113.3898481330848</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="G16" t="n">
-        <v>32.84019137638025</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="H16" t="n">
-        <v>1.087298443468895</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1690700500161219</v>
+        <v>0.1674584527243454</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9998202597937714</v>
+        <v>0.9998942725066243</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="R16" t="n">
-        <v>32.84019137638025</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.947990806156594</v>
+        <v>-7.946504755705056</v>
       </c>
       <c r="D17" t="n">
-        <v>113.4013911869872</v>
+        <v>113.3898481330848</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="G17" t="n">
-        <v>191.1126782014585</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="H17" t="n">
-        <v>1.142394737069206</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1690927632681842</v>
+        <v>0.1674584527243454</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9997900876558613</v>
+        <v>0.999912467663717</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="R17" t="n">
-        <v>191.1126782014585</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,28 +1592,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.947990806156594</v>
+        <v>-7.946504755705056</v>
       </c>
       <c r="D18" t="n">
-        <v>113.4013911869872</v>
+        <v>113.3898481330848</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="G18" t="n">
-        <v>191.1126782014585</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="H18" t="n">
-        <v>1.142394737069206</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1690927632681842</v>
+        <v>0.1674584527243454</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9998323032652979</v>
+        <v>0.9999196197973464</v>
       </c>
       <c r="K18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="R18" t="n">
-        <v>191.1126782014585</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.947990806156594</v>
+        <v>-7.946504755705056</v>
       </c>
       <c r="D19" t="n">
-        <v>113.4013911869872</v>
+        <v>113.3898481330848</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="F19" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="G19" t="n">
-        <v>191.1126782014585</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="H19" t="n">
-        <v>1.142394737069206</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1690927632681842</v>
+        <v>0.1674584527243454</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9998898154147892</v>
+        <v>0.9999444674171794</v>
       </c>
       <c r="K19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.954178364050809</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3851128783859</v>
       </c>
       <c r="R19" t="n">
-        <v>191.1126782014585</v>
+        <v>211.4309430733772</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,31 +1722,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.733740794821325</v>
+        <v>-7.946668469397824</v>
       </c>
       <c r="D20" t="n">
-        <v>113.4574494807383</v>
+        <v>113.3917881171236</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.967360996895797</v>
+        <v>-7.954351820443476</v>
       </c>
       <c r="F20" t="n">
-        <v>113.4055656652612</v>
+        <v>113.3870689944351</v>
       </c>
       <c r="G20" t="n">
-        <v>192.404141867577</v>
+        <v>211.3117120134771</v>
       </c>
       <c r="H20" t="n">
-        <v>26.5986312656832</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1690937914280469</v>
+        <v>0.1674590545937902</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9999259320389413</v>
+        <v>0.9999602825370363</v>
       </c>
       <c r="K20" t="n">
-        <v>1364</v>
+        <v>448</v>
       </c>
       <c r="L20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.967360996895797</v>
+        <v>-7.954351820443476</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.4055656652612</v>
+        <v>113.3870689944351</v>
       </c>
       <c r="R20" t="n">
-        <v>192.404141867577</v>
+        <v>211.3117120134771</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,28 +1787,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.951225420354709</v>
+        <v>-7.946763910479405</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4032244098595</v>
+        <v>113.3899423618294</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.954445041142851</v>
       </c>
       <c r="F21" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3852195544397</v>
       </c>
       <c r="G21" t="n">
-        <v>190.9308486855389</v>
+        <v>211.3389208623864</v>
       </c>
       <c r="H21" t="n">
-        <v>1.058168034824086</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.169100043382313</v>
+        <v>0.1674596594224201</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9999226689787089</v>
+        <v>0.9999645280114151</v>
       </c>
       <c r="K21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.954445041142851</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3852195544397</v>
       </c>
       <c r="R21" t="n">
-        <v>190.9308486855389</v>
+        <v>211.3389208623864</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.951225420354709</v>
+        <v>-7.946059602032945</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4032244098595</v>
+        <v>113.3909516894748</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.953745908034771</v>
       </c>
       <c r="F22" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3862374821572</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9308486855389</v>
+        <v>211.2754686404485</v>
       </c>
       <c r="H22" t="n">
-        <v>1.058168034824086</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.169100043382313</v>
+        <v>0.1674601661653307</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857864382575663</v>
+        <v>0.5857864394148075</v>
       </c>
       <c r="K22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.953745908034771</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3862374821572</v>
       </c>
       <c r="R22" t="n">
-        <v>190.9308486855389</v>
+        <v>211.2754686404485</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,28 +1917,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.951077127536545</v>
+        <v>-7.946059602032945</v>
       </c>
       <c r="D23" t="n">
-        <v>113.4062831328138</v>
+        <v>113.3909516894748</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.953745908034771</v>
       </c>
       <c r="F23" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3862374821572</v>
       </c>
       <c r="G23" t="n">
-        <v>191.1088833907678</v>
+        <v>211.2754686404485</v>
       </c>
       <c r="H23" t="n">
-        <v>1.154996329498191</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1691039977406381</v>
+        <v>0.1674601661653307</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9999606007511661</v>
+        <v>0.9999737642029122</v>
       </c>
       <c r="K23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.953745908034771</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3862374821572</v>
       </c>
       <c r="R23" t="n">
-        <v>191.1088833907678</v>
+        <v>211.2754686404485</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,28 +1982,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.951077127536545</v>
+        <v>-7.946059602032945</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4062831328138</v>
+        <v>113.3909516894748</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.953745908034771</v>
       </c>
       <c r="F24" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3862374821572</v>
       </c>
       <c r="G24" t="n">
-        <v>191.1088833907678</v>
+        <v>211.2754686404485</v>
       </c>
       <c r="H24" t="n">
-        <v>1.154996329498191</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1691039977406381</v>
+        <v>0.1674601661653307</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999705108773026</v>
+        <v>0.9999785185990927</v>
       </c>
       <c r="K24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.953745908034771</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3862374821572</v>
       </c>
       <c r="R24" t="n">
-        <v>191.1088833907678</v>
+        <v>211.2754686404485</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.951204331496024</v>
+        <v>-7.945842035588897</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4048965752525</v>
+        <v>113.3902620825425</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.963202229182353</v>
+        <v>-7.953528372457105</v>
       </c>
       <c r="F25" t="n">
-        <v>113.4025199285018</v>
+        <v>113.3855479290327</v>
       </c>
       <c r="G25" t="n">
-        <v>191.099237036366</v>
+        <v>211.2750898651424</v>
       </c>
       <c r="H25" t="n">
-        <v>1.35953591425721</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1691047997403729</v>
+        <v>0.1674604012014128</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999810762413123</v>
+        <v>0.9999806052705118</v>
       </c>
       <c r="K25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.963202229182353</v>
+        <v>-7.953528372457105</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.4025199285018</v>
+        <v>113.3855479290327</v>
       </c>
       <c r="R25" t="n">
-        <v>191.099237036366</v>
+        <v>211.2750898651424</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,28 +2112,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.950905683509085</v>
+        <v>-7.946166834202591</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4055594512814</v>
+        <v>113.3901053027265</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.953852218927377</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3853895631269</v>
       </c>
       <c r="G26" t="n">
-        <v>191.1048004977522</v>
+        <v>211.2867724145995</v>
       </c>
       <c r="H26" t="n">
-        <v>1.355705419672844</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1691050999013513</v>
+        <v>0.1674605385051542</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999892557806809</v>
+        <v>0.9999826494067827</v>
       </c>
       <c r="K26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.953852218927377</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3853895631269</v>
       </c>
       <c r="R26" t="n">
-        <v>191.1048004977522</v>
+        <v>211.2867724145995</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.950905683509085</v>
+        <v>-7.945888272878911</v>
       </c>
       <c r="D27" t="n">
-        <v>113.4055594512814</v>
+        <v>113.3899567578227</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.953666747189164</v>
       </c>
       <c r="F27" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3851842590068</v>
       </c>
       <c r="G27" t="n">
-        <v>191.1048004977522</v>
+        <v>211.2848627443359</v>
       </c>
       <c r="H27" t="n">
-        <v>1.355705419672844</v>
+        <v>1.012092090187369</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1691050999013513</v>
+        <v>0.1674605546991929</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999895799314991</v>
+        <v>0.9999863363162603</v>
       </c>
       <c r="K27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.953666747189164</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3851842590068</v>
       </c>
       <c r="R27" t="n">
-        <v>191.1048004977522</v>
+        <v>211.2848627443359</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,28 +2242,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.946121525636462</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4053365936689</v>
+        <v>113.3900326875898</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953807078497266</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3853172278817</v>
       </c>
       <c r="G28" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2847097143843</v>
       </c>
       <c r="H28" t="n">
-        <v>1.318008888930439</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1674605696754811</v>
       </c>
       <c r="J28" t="n">
-        <v>0.999990858020806</v>
+        <v>0.9999881513126199</v>
       </c>
       <c r="K28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953807078497266</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3853172278817</v>
       </c>
       <c r="R28" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2847097143843</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,28 +2307,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.946121525636462</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4053365936689</v>
+        <v>113.3900326875898</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953807078497266</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3853172278817</v>
       </c>
       <c r="G29" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2847097143843</v>
       </c>
       <c r="H29" t="n">
-        <v>1.318008888930439</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1674605696754811</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999916102890299</v>
+        <v>0.9999904273387301</v>
       </c>
       <c r="K29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953807078497266</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3853172278817</v>
       </c>
       <c r="R29" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2847097143843</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,28 +2372,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.946058902915562</v>
       </c>
       <c r="D30" t="n">
-        <v>113.4053365936689</v>
+        <v>113.3900804436338</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953776117263844</v>
       </c>
       <c r="F30" t="n">
-        <v>113.4030309830541</v>
+        <v>113.385345631805</v>
       </c>
       <c r="G30" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2843152874097</v>
       </c>
       <c r="H30" t="n">
-        <v>1.318008888930439</v>
+        <v>1.004115424848236</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1674605713961728</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999917832936677</v>
+        <v>0.9999911632234626</v>
       </c>
       <c r="K30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953776117263844</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.4030309830541</v>
+        <v>113.385345631805</v>
       </c>
       <c r="R30" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2843152874097</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,28 +2437,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.946058902915562</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4053365936689</v>
+        <v>113.3900804436338</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953776117263844</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4030309830541</v>
+        <v>113.385345631805</v>
       </c>
       <c r="G31" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2843152874097</v>
       </c>
       <c r="H31" t="n">
-        <v>1.318008888930439</v>
+        <v>1.004115424848236</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1674605713961728</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999920664825945</v>
+        <v>0.9999914008818902</v>
       </c>
       <c r="K31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.953776117263844</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4030309830541</v>
+        <v>113.385345631805</v>
       </c>
       <c r="R31" t="n">
-        <v>191.1068511525971</v>
+        <v>211.2843152874097</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,28 +2502,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.951023734943191</v>
+        <v>-7.946104424737497</v>
       </c>
       <c r="D32" t="n">
-        <v>113.4054298074241</v>
+        <v>113.3901039910686</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.962726965177824</v>
+        <v>-7.953823167245752</v>
       </c>
       <c r="F32" t="n">
-        <v>113.403109966885</v>
+        <v>113.3853682185896</v>
       </c>
       <c r="G32" t="n">
-        <v>191.1065518452235</v>
+        <v>211.2844361873318</v>
       </c>
       <c r="H32" t="n">
-        <v>1.32617902431781</v>
+        <v>1.004315547869017</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1691051397724328</v>
+        <v>0.1674605725410888</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5857864397557262</v>
+        <v>0.5857864397863501</v>
       </c>
       <c r="K32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.962726965177824</v>
+        <v>-7.953823167245752</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.403109966885</v>
+        <v>113.3853682185896</v>
       </c>
       <c r="R32" t="n">
-        <v>191.1065518452235</v>
+        <v>211.2844361873318</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,28 +2567,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.950974282129074</v>
+        <v>-7.946104424737497</v>
       </c>
       <c r="D33" t="n">
-        <v>113.4054904576493</v>
+        <v>113.3901039910686</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.953823167245752</v>
       </c>
       <c r="F33" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3853682185896</v>
       </c>
       <c r="G33" t="n">
-        <v>191.1070301184417</v>
+        <v>211.2844361873318</v>
       </c>
       <c r="H33" t="n">
-        <v>1.32588484856407</v>
+        <v>1.004315547869017</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1691051429829434</v>
+        <v>0.1674605725410888</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999995401917932</v>
+        <v>0.9999972582880304</v>
       </c>
       <c r="K33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.953823167245752</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3853682185896</v>
       </c>
       <c r="R33" t="n">
-        <v>191.1070301184417</v>
+        <v>211.2844361873318</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,28 +2632,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.950974282129074</v>
+        <v>-7.946063104397863</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4054904576493</v>
+        <v>113.3900610310351</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.953785496270741</v>
       </c>
       <c r="F34" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3853230248212</v>
       </c>
       <c r="G34" t="n">
-        <v>191.1070301184417</v>
+        <v>211.2844100206139</v>
       </c>
       <c r="H34" t="n">
-        <v>1.32588484856407</v>
+        <v>1.004790103655077</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1691051429829434</v>
+        <v>0.1674605729005763</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9999996306901939</v>
+        <v>0.9999973075609186</v>
       </c>
       <c r="K34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.953785496270741</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3853230248212</v>
       </c>
       <c r="R34" t="n">
-        <v>191.1070301184417</v>
+        <v>211.2844100206139</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,28 +2697,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.951046372895291</v>
+        <v>-7.946065206146482</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4054760442229</v>
+        <v>113.3901077445488</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.96266783883795</v>
+        <v>-7.95380883449546</v>
       </c>
       <c r="F35" t="n">
-        <v>113.4031723680219</v>
+        <v>113.3853567017939</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1067563780107</v>
+        <v>211.2844462551113</v>
       </c>
       <c r="H35" t="n">
-        <v>1.31691462936161</v>
+        <v>1.007553660047179</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1691051442333481</v>
+        <v>0.1674605731431835</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9999997580055852</v>
+        <v>0.9188270283324126</v>
       </c>
       <c r="K35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.96266783883795</v>
+        <v>-7.95380883449546</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.4031723680219</v>
+        <v>113.3853567017939</v>
       </c>
       <c r="R35" t="n">
-        <v>191.1067563780107</v>
+        <v>211.2844462551113</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,28 +2762,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.95104495048012</v>
+        <v>-7.946080339402012</v>
       </c>
       <c r="D36" t="n">
-        <v>113.405473589229</v>
+        <v>113.3900609538992</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.962675513590823</v>
+        <v>-7.953783285823345</v>
       </c>
       <c r="F36" t="n">
-        <v>113.4031680831597</v>
+        <v>113.3853348719852</v>
       </c>
       <c r="G36" t="n">
-        <v>191.1068810064998</v>
+        <v>211.2844442058222</v>
       </c>
       <c r="H36" t="n">
-        <v>1.317946060417118</v>
+        <v>1.002260335784189</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1691051451719836</v>
+        <v>0.1674605733646221</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8359544754416229</v>
+        <v>0.9354095122281628</v>
       </c>
       <c r="K36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.962675513590823</v>
+        <v>-7.953783285823345</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.4031680831597</v>
+        <v>113.3853348719852</v>
       </c>
       <c r="R36" t="n">
-        <v>191.1068810064998</v>
+        <v>211.2844442058222</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,28 +2827,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.951050679778569</v>
+        <v>-7.946086830561256</v>
       </c>
       <c r="D37" t="n">
-        <v>113.405414388891</v>
+        <v>113.3900636253677</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.962641057071258</v>
+        <v>-7.953798571075157</v>
       </c>
       <c r="F37" t="n">
-        <v>113.4031168575626</v>
+        <v>113.3853321473969</v>
       </c>
       <c r="G37" t="n">
-        <v>191.106840562707</v>
+        <v>211.2844459027591</v>
       </c>
       <c r="H37" t="n">
-        <v>1.313392120443696</v>
+        <v>1.003404591423718</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1691051456433077</v>
+        <v>0.1674605734481966</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9142025000566898</v>
+        <v>0.974964528763984</v>
       </c>
       <c r="K37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.962641057071258</v>
+        <v>-7.953798571075157</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.4031168575626</v>
+        <v>113.3853321473969</v>
       </c>
       <c r="R37" t="n">
-        <v>191.106840562707</v>
+        <v>211.2844459027591</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.951011990104142</v>
+        <v>-7.946087687678196</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4054711079762</v>
+        <v>113.3900565977474</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.962653650226426</v>
+        <v>-7.953795383311338</v>
       </c>
       <c r="F38" t="n">
-        <v>113.4031634101664</v>
+        <v>113.3853276014036</v>
       </c>
       <c r="G38" t="n">
-        <v>191.1068440297379</v>
+        <v>211.2844465654359</v>
       </c>
       <c r="H38" t="n">
-        <v>1.319203379307432</v>
+        <v>1.0028783014584</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1691051457081586</v>
+        <v>0.1674605734571719</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9762703918081514</v>
+        <v>0.9900513258427934</v>
       </c>
       <c r="K38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.962653650226426</v>
+        <v>-7.953795383311338</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.4031634101664</v>
+        <v>113.3853276014036</v>
       </c>
       <c r="R38" t="n">
-        <v>191.1068440297379</v>
+        <v>211.2844465654359</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,28 +2957,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.951025446436135</v>
+        <v>-7.946089814871352</v>
       </c>
       <c r="D39" t="n">
-        <v>113.4054559443418</v>
+        <v>113.3900564732056</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.962664398975313</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="F39" t="n">
-        <v>113.4031487804718</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="G39" t="n">
-        <v>191.1068567873871</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="H39" t="n">
-        <v>1.318896620348548</v>
+        <v>1.002501804450669</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1691051458933296</v>
+        <v>0.1674605734586177</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9922794051275333</v>
+        <v>0.996246962357351</v>
       </c>
       <c r="K39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.962664398975313</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.4031487804718</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="R39" t="n">
-        <v>191.1068567873871</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,28 +3022,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.951019994381615</v>
+        <v>-7.946089814871352</v>
       </c>
       <c r="D40" t="n">
-        <v>113.4054586483464</v>
+        <v>113.3900564732056</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="F40" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="G40" t="n">
-        <v>191.1068511616565</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="H40" t="n">
-        <v>1.318752263059754</v>
+        <v>1.002501804450669</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1691051459663857</v>
+        <v>0.1674605734586177</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9307520809411161</v>
+        <v>0.9973354910464605</v>
       </c>
       <c r="K40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="R40" t="n">
-        <v>191.1068511616565</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,28 +3087,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.951019994381615</v>
+        <v>-7.946089814871352</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4054586483464</v>
+        <v>113.3900564732056</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="F41" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="G41" t="n">
-        <v>191.1068511616565</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="H41" t="n">
-        <v>1.318752263059754</v>
+        <v>1.002501804450669</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1691051459663857</v>
+        <v>0.1674605734586177</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9817215341374347</v>
+        <v>0.9987183022172175</v>
       </c>
       <c r="K41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="R41" t="n">
-        <v>191.1068511616565</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.951038988526521</v>
+        <v>-7.946089814871352</v>
       </c>
       <c r="D42" t="n">
-        <v>113.4054447461643</v>
+        <v>113.3900564732056</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.962649162428923</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="F42" t="n">
-        <v>113.4031432885071</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="G42" t="n">
-        <v>191.1068502056624</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="H42" t="n">
-        <v>1.315635466675851</v>
+        <v>1.002501804450669</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1691051459938404</v>
+        <v>0.1674605734586177</v>
       </c>
       <c r="J42" t="n">
-        <v>0.585782473623943</v>
+        <v>0.5857861007471011</v>
       </c>
       <c r="K42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.962649162428923</v>
+        <v>-7.953794616924554</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.4031432885071</v>
+        <v>113.3853292522232</v>
       </c>
       <c r="R42" t="n">
-        <v>191.1068502056624</v>
+        <v>211.2844464952338</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,28 +3217,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.95104966601451</v>
+        <v>-7.9460817538015</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4054443863717</v>
+        <v>113.3900616104065</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.962656578982083</v>
+        <v>-7.953794845401112</v>
       </c>
       <c r="F43" t="n">
-        <v>113.4031435751587</v>
+        <v>113.3853293034549</v>
       </c>
       <c r="G43" t="n">
-        <v>191.1068498386653</v>
+        <v>211.2844462945346</v>
       </c>
       <c r="H43" t="n">
-        <v>1.315265943955156</v>
+        <v>1.003580391225151</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1691051460104448</v>
+        <v>0.1674605734588873</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9991160355064529</v>
+        <v>0.999810013985316</v>
       </c>
       <c r="K43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.962656578982083</v>
+        <v>-7.953794845401112</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.4031435751587</v>
+        <v>113.3853293034549</v>
       </c>
       <c r="R43" t="n">
-        <v>191.1068498386653</v>
+        <v>211.2844462945346</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,28 +3282,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.9510160886788</v>
+        <v>-7.946088928511201</v>
       </c>
       <c r="D44" t="n">
-        <v>113.405446776591</v>
+        <v>113.3900575570798</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.962656461151779</v>
+        <v>-7.953796884694227</v>
       </c>
       <c r="F44" t="n">
-        <v>113.4031393324532</v>
+        <v>113.3853284008927</v>
       </c>
       <c r="G44" t="n">
-        <v>191.1068513522209</v>
+        <v>211.2844463889036</v>
       </c>
       <c r="H44" t="n">
-        <v>1.319057499172082</v>
+        <v>1.00291220085946</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1691051460293912</v>
+        <v>0.1674605734599168</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9993951133248106</v>
+        <v>0.9998666614749728</v>
       </c>
       <c r="K44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.962656461151779</v>
+        <v>-7.953796884694227</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.4031393324532</v>
+        <v>113.3853284008927</v>
       </c>
       <c r="R44" t="n">
-        <v>191.1068513522209</v>
+        <v>211.2844463889036</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.95101357704295</v>
+        <v>-7.946090596149623</v>
       </c>
       <c r="D45" t="n">
-        <v>113.4054451631666</v>
+        <v>113.3900563096483</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.962654349091318</v>
+        <v>-7.953795654200656</v>
       </c>
       <c r="F45" t="n">
-        <v>113.4031376399299</v>
+        <v>113.3853289316051</v>
       </c>
       <c r="G45" t="n">
-        <v>191.1068509004414</v>
+        <v>211.2844464028119</v>
       </c>
       <c r="H45" t="n">
-        <v>1.319102776024732</v>
+        <v>1.002535112458738</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1691051460338124</v>
+        <v>0.1674605734603764</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9996749618772689</v>
+        <v>0.9999103664657775</v>
       </c>
       <c r="K45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.962654349091318</v>
+        <v>-7.953795654200656</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.4031376399299</v>
+        <v>113.3853289316051</v>
       </c>
       <c r="R45" t="n">
-        <v>191.1068509004414</v>
+        <v>211.2844464028119</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,28 +3412,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.951019480926141</v>
+        <v>-7.946090596149623</v>
       </c>
       <c r="D46" t="n">
-        <v>113.405445250388</v>
+        <v>113.3900563096483</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.962657083039216</v>
+        <v>-7.953795654200656</v>
       </c>
       <c r="F46" t="n">
-        <v>113.4031383554704</v>
+        <v>113.3853289316051</v>
       </c>
       <c r="G46" t="n">
-        <v>191.106851063431</v>
+        <v>211.2844464028119</v>
       </c>
       <c r="H46" t="n">
-        <v>1.318743567534294</v>
+        <v>1.002535112458738</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1691051460343842</v>
+        <v>0.1674605734603764</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9998289802379188</v>
+        <v>0.999966666807095</v>
       </c>
       <c r="K46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.962657083039216</v>
+        <v>-7.953795654200656</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.4031383554704</v>
+        <v>113.3853289316051</v>
       </c>
       <c r="R46" t="n">
-        <v>191.106851063431</v>
+        <v>211.2844464028119</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,28 +3477,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.951020272873685</v>
+        <v>-7.946090596149623</v>
       </c>
       <c r="D47" t="n">
-        <v>113.4054453415666</v>
+        <v>113.3900563096483</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.962656703158181</v>
+        <v>-7.953795654200656</v>
       </c>
       <c r="F47" t="n">
-        <v>113.4031386789677</v>
+        <v>113.3853289316051</v>
       </c>
       <c r="G47" t="n">
-        <v>191.1068509341378</v>
+        <v>211.2844464028119</v>
       </c>
       <c r="H47" t="n">
-        <v>1.318610778233795</v>
+        <v>1.002535112458738</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1691051460359941</v>
+        <v>0.1674605734603764</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9998793811227935</v>
+        <v>0.9999781460843514</v>
       </c>
       <c r="K47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.962656703158181</v>
+        <v>-7.953795654200656</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.4031386789677</v>
+        <v>113.3853289316051</v>
       </c>
       <c r="R47" t="n">
-        <v>191.1068509341378</v>
+        <v>211.2844464028119</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,28 +3542,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.951013563904604</v>
+        <v>-7.946089733438493</v>
       </c>
       <c r="D48" t="n">
-        <v>113.4054452757872</v>
+        <v>113.3900574410085</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.962656301018125</v>
+        <v>-7.953795783774559</v>
       </c>
       <c r="F48" t="n">
-        <v>113.4031373630103</v>
+        <v>113.3853294541533</v>
       </c>
       <c r="G48" t="n">
-        <v>191.1068508941854</v>
+        <v>211.284446401072</v>
       </c>
       <c r="H48" t="n">
-        <v>1.319325452319653</v>
+        <v>1.002664222958077</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1691051460364836</v>
+        <v>0.1674605734604214</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999921957267776</v>
+        <v>0.9999876059133813</v>
       </c>
       <c r="K48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.962656301018125</v>
+        <v>-7.953795783774559</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.4031373630103</v>
+        <v>113.3853294541533</v>
       </c>
       <c r="R48" t="n">
-        <v>191.1068508941854</v>
+        <v>211.284446401072</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,28 +3607,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.951015502238771</v>
+        <v>-7.946084616426377</v>
       </c>
       <c r="D49" t="n">
-        <v>113.4054450411377</v>
+        <v>113.3900598598117</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.953795512003264</v>
       </c>
       <c r="F49" t="n">
-        <v>113.4031373756184</v>
+        <v>113.385328900192</v>
       </c>
       <c r="G49" t="n">
-        <v>191.1068509033859</v>
+        <v>211.2844463888633</v>
       </c>
       <c r="H49" t="n">
-        <v>1.319184103467129</v>
+        <v>1.003294658168038</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1691051460366504</v>
+        <v>0.1674605734604722</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999997829980016</v>
+        <v>0.9999937556198158</v>
       </c>
       <c r="K49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.953795512003264</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.4031373756184</v>
+        <v>113.385328900192</v>
       </c>
       <c r="R49" t="n">
-        <v>191.1068509033859</v>
+        <v>211.2844463888633</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,28 +3672,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.951015502238771</v>
+        <v>-7.9460883839859</v>
       </c>
       <c r="D50" t="n">
-        <v>113.4054450411377</v>
+        <v>113.3900576281037</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.953795613142156</v>
       </c>
       <c r="F50" t="n">
-        <v>113.4031373756184</v>
+        <v>113.3853289179941</v>
       </c>
       <c r="G50" t="n">
-        <v>191.1068509033859</v>
+        <v>211.2844463904892</v>
       </c>
       <c r="H50" t="n">
-        <v>1.319184103467129</v>
+        <v>1.002817604263079</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1691051460366504</v>
+        <v>0.1674605734605168</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999998655681533</v>
+        <v>0.9999960741494442</v>
       </c>
       <c r="K50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.953795613142156</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.4031373756184</v>
+        <v>113.3853289179941</v>
       </c>
       <c r="R50" t="n">
-        <v>191.1068509033859</v>
+        <v>211.2844463904892</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.951017004732058</v>
+        <v>-7.946089191424498</v>
       </c>
       <c r="D51" t="n">
-        <v>113.4054458438939</v>
+        <v>113.3900575341931</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.962657460570039</v>
+        <v>-7.953795737372437</v>
       </c>
       <c r="F51" t="n">
-        <v>113.403138383325</v>
+        <v>113.38532924326</v>
       </c>
       <c r="G51" t="n">
-        <v>191.1068508836991</v>
+        <v>211.2844463935924</v>
       </c>
       <c r="H51" t="n">
-        <v>1.319066943770447</v>
+        <v>1.002728709092846</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1691051460366962</v>
+        <v>0.1674605734605421</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999999004889687</v>
+        <v>0.9999973208011118</v>
       </c>
       <c r="K51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.962657460570039</v>
+        <v>-7.953795737372437</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.403138383325</v>
+        <v>113.38532924326</v>
       </c>
       <c r="R51" t="n">
-        <v>191.1068508836991</v>
+        <v>211.2844463935924</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,28 +3802,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.951016649720363</v>
+        <v>-7.94608928341804</v>
       </c>
       <c r="D52" t="n">
-        <v>113.4054458320666</v>
+        <v>113.3900573813478</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.962657606784114</v>
+        <v>-7.953795631837122</v>
       </c>
       <c r="F52" t="n">
-        <v>113.4031382721368</v>
+        <v>113.3853292116089</v>
       </c>
       <c r="G52" t="n">
-        <v>191.1068508982592</v>
+        <v>211.2844463921465</v>
       </c>
       <c r="H52" t="n">
-        <v>1.319123741500718</v>
+        <v>1.002703007739591</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1691051460367351</v>
+        <v>0.1674605734605525</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857864397791805</v>
+        <v>0.5857864397996938</v>
       </c>
       <c r="K52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.962657606784114</v>
+        <v>-7.953795631837122</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.4031382721368</v>
+        <v>113.3853292116089</v>
       </c>
       <c r="R52" t="n">
-        <v>191.1068508982592</v>
+        <v>211.2844463921465</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,28 +3867,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.951015780474926</v>
+        <v>-7.946089009430722</v>
       </c>
       <c r="D53" t="n">
-        <v>113.4054456556488</v>
+        <v>113.3900575568558</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.95379580571818</v>
       </c>
       <c r="F53" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3853291123278</v>
       </c>
       <c r="G53" t="n">
-        <v>191.106850897399</v>
+        <v>211.284446392247</v>
       </c>
       <c r="H53" t="n">
-        <v>1.319182309640055</v>
+        <v>1.002761281841268</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1691051460368422</v>
+        <v>0.167460573460559</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999999800565547</v>
+        <v>0.9999994862171429</v>
       </c>
       <c r="K53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.95379580571818</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3853291123278</v>
       </c>
       <c r="R53" t="n">
-        <v>191.106850897399</v>
+        <v>211.284446392247</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.951015780474926</v>
+        <v>-7.946089189696141</v>
       </c>
       <c r="D54" t="n">
-        <v>113.4054456556488</v>
+        <v>113.3900574248694</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.953795825682947</v>
       </c>
       <c r="F54" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3853290786929</v>
       </c>
       <c r="G54" t="n">
-        <v>191.106850897399</v>
+        <v>211.2844463914461</v>
       </c>
       <c r="H54" t="n">
-        <v>1.319182309640055</v>
+        <v>1.002740424418249</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1691051460368422</v>
+        <v>0.1674605734605673</v>
       </c>
       <c r="J54" t="n">
-        <v>0.999999985283806</v>
+        <v>0.999999984795557</v>
       </c>
       <c r="K54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.953795825682947</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3853290786929</v>
       </c>
       <c r="R54" t="n">
-        <v>191.106850897399</v>
+        <v>211.2844463914461</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,28 +3997,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.951015981530507</v>
+        <v>-7.94608959354971</v>
       </c>
       <c r="D55" t="n">
-        <v>113.4054456941336</v>
+        <v>113.3900573607004</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.96265705341721</v>
+        <v>-7.953795843784032</v>
       </c>
       <c r="F55" t="n">
-        <v>113.4031381114473</v>
+        <v>113.3853292511999</v>
       </c>
       <c r="G55" t="n">
-        <v>191.1068508912845</v>
+        <v>211.2844463911533</v>
       </c>
       <c r="H55" t="n">
-        <v>1.319136752922133</v>
+        <v>1.002690232483624</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1691051460368768</v>
+        <v>0.1674605734605726</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999999901198734</v>
+        <v>0.9999999855337303</v>
       </c>
       <c r="K55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.96265705341721</v>
+        <v>-7.953795843784032</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.4031381114473</v>
+        <v>113.3853292511999</v>
       </c>
       <c r="R55" t="n">
-        <v>191.1068508912845</v>
+        <v>211.2844463911533</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,28 +4062,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.951015656701395</v>
+        <v>-7.94608959354971</v>
       </c>
       <c r="D56" t="n">
-        <v>113.4054456824208</v>
+        <v>113.3900573607004</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.962657258093533</v>
+        <v>-7.953795843784032</v>
       </c>
       <c r="F56" t="n">
-        <v>113.4031379947703</v>
+        <v>113.3853292511999</v>
       </c>
       <c r="G56" t="n">
-        <v>191.1068508933955</v>
+        <v>211.2844463911533</v>
       </c>
       <c r="H56" t="n">
-        <v>1.319196755177896</v>
+        <v>1.002690232483624</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1691051460368992</v>
+        <v>0.1674605734605726</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999999943159148</v>
+        <v>0.9999999855337256</v>
       </c>
       <c r="K56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.962657258093533</v>
+        <v>-7.953795843784032</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.4031379947703</v>
+        <v>113.3853292511999</v>
       </c>
       <c r="R56" t="n">
-        <v>191.1068508933955</v>
+        <v>211.2844463911533</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,28 +4127,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.951016032145662</v>
+        <v>-7.946088959265129</v>
       </c>
       <c r="D57" t="n">
-        <v>113.4054454616794</v>
+        <v>113.3900577051912</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="F57" t="n">
-        <v>113.4031378404028</v>
+        <v>113.385329234021</v>
       </c>
       <c r="G57" t="n">
-        <v>191.1068508912081</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="H57" t="n">
-        <v>1.319158812463718</v>
+        <v>1.002766931886902</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1691051460369066</v>
+        <v>0.1674605734605752</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999999980668131</v>
+        <v>0.9999999855337149</v>
       </c>
       <c r="K57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.4031378404028</v>
+        <v>113.385329234021</v>
       </c>
       <c r="R57" t="n">
-        <v>191.1068508912081</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,28 +4192,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.951016032145662</v>
+        <v>-7.946088959265129</v>
       </c>
       <c r="D58" t="n">
-        <v>113.4054454616794</v>
+        <v>113.3900577051912</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="F58" t="n">
-        <v>113.4031378404028</v>
+        <v>113.385329234021</v>
       </c>
       <c r="G58" t="n">
-        <v>191.1068508912081</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="H58" t="n">
-        <v>1.319158812463718</v>
+        <v>1.002766931886902</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1691051460369066</v>
+        <v>0.1674605734605752</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999992655688</v>
+        <v>0.9999999855337143</v>
       </c>
       <c r="K58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.4031378404028</v>
+        <v>113.385329234021</v>
       </c>
       <c r="R58" t="n">
-        <v>191.1068508912081</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,28 +4257,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.951015991273775</v>
+        <v>-7.946088959265129</v>
       </c>
       <c r="D59" t="n">
-        <v>113.4054454471842</v>
+        <v>113.3900577051912</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="F59" t="n">
-        <v>113.4031378251206</v>
+        <v>113.385329234021</v>
       </c>
       <c r="G59" t="n">
-        <v>191.1068508922204</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="H59" t="n">
-        <v>1.319159262343363</v>
+        <v>1.002766931886902</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1691051460369198</v>
+        <v>0.1674605734605752</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999997513658</v>
+        <v>0.9999999867463005</v>
       </c>
       <c r="K59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.4031378251206</v>
+        <v>113.385329234021</v>
       </c>
       <c r="R59" t="n">
-        <v>191.1068508922204</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,28 +4322,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.951015991273775</v>
+        <v>-7.946088959265129</v>
       </c>
       <c r="D60" t="n">
-        <v>113.4054454471842</v>
+        <v>113.3900577051912</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="F60" t="n">
-        <v>113.4031378251206</v>
+        <v>113.385329234021</v>
       </c>
       <c r="G60" t="n">
-        <v>191.1068508922204</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="H60" t="n">
-        <v>1.319159262343363</v>
+        <v>1.002766931886902</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1691051460369198</v>
+        <v>0.1674605734605752</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999998694153</v>
+        <v>0.9999999881795759</v>
       </c>
       <c r="K60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.953795798976357</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.4031378251206</v>
+        <v>113.385329234021</v>
       </c>
       <c r="R60" t="n">
-        <v>191.1068508922204</v>
+        <v>211.2844463913146</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,28 +4387,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.951015998402637</v>
+        <v>-7.946089099725943</v>
       </c>
       <c r="D61" t="n">
-        <v>113.4054454750344</v>
+        <v>113.3900576115435</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.962657242972802</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="F61" t="n">
-        <v>113.4031378581163</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="G61" t="n">
-        <v>191.1068508921331</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="H61" t="n">
-        <v>1.319156320988943</v>
+        <v>1.002749975671022</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1691051460369211</v>
+        <v>0.1674605734605758</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999999013711</v>
+        <v>0.9999999904984312</v>
       </c>
       <c r="K61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.962657242972802</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.4031378581163</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="R61" t="n">
-        <v>191.1068508921331</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,28 +4452,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.951016005499502</v>
+        <v>-7.946089099725943</v>
       </c>
       <c r="D62" t="n">
-        <v>113.4054455002914</v>
+        <v>113.3900576115435</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.9626572529413</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="F62" t="n">
-        <v>113.403137882804</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="G62" t="n">
-        <v>191.1068508921805</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="H62" t="n">
-        <v>1.319156646395478</v>
+        <v>1.002749975671022</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1691051460369214</v>
+        <v>0.1674605734605758</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5857864397791814</v>
+        <v>0.5857864398003182</v>
       </c>
       <c r="K62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.9626572529413</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.403137882804</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="R62" t="n">
-        <v>191.1068508921805</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,28 +4517,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.951015999763996</v>
+        <v>-7.946089099725943</v>
       </c>
       <c r="D63" t="n">
-        <v>113.4054455161057</v>
+        <v>113.3900576115435</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.962657258412793</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="F63" t="n">
-        <v>113.4031378963967</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="G63" t="n">
-        <v>191.1068508921621</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="H63" t="n">
-        <v>1.319157916344514</v>
+        <v>1.002749975671022</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1691051460369215</v>
+        <v>0.1674605734605758</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999999999985925</v>
+        <v>0.9999999999981615</v>
       </c>
       <c r="K63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.962657258412793</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.4031378963967</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="R63" t="n">
-        <v>191.1068508921621</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,28 +4582,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089099725943</v>
       </c>
       <c r="D64" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900576115435</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="F64" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="G64" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="H64" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002749975671022</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605758</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9999999999986917</v>
+        <v>0.9999999999981362</v>
       </c>
       <c r="K64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795809119363</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292203289</v>
       </c>
       <c r="R64" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913595</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,28 +4647,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D65" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F65" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G65" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H65" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9999999999995062</v>
+        <v>0.9361047058043858</v>
       </c>
       <c r="K65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R65" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,28 +4712,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D66" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F66" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G66" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H66" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7720970962677787</v>
+        <v>0.9335132369540633</v>
       </c>
       <c r="K66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R66" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,28 +4777,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D67" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F67" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G67" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H67" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9003891278503455</v>
+        <v>0.9864394117612785</v>
       </c>
       <c r="K67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R67" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,28 +4842,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D68" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F68" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G68" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H68" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9564758007200972</v>
+        <v>0.9915777273503227</v>
       </c>
       <c r="K68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R68" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,28 +4907,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D69" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F69" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G69" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H69" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9867790457380313</v>
+        <v>0.9934345442972992</v>
       </c>
       <c r="K69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R69" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,28 +4972,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D70" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F70" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G70" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H70" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9597885425224485</v>
+        <v>0.9944896588968071</v>
       </c>
       <c r="K70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R70" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D71" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F71" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G71" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H71" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J71" t="n">
-        <v>0.980182818769033</v>
+        <v>0.9969335609914648</v>
       </c>
       <c r="K71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R71" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,28 +5102,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D72" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F72" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G72" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H72" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857754662461961</v>
+        <v>0.5857850237223322</v>
       </c>
       <c r="K72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R72" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,28 +5167,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D73" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F73" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G73" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H73" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9979511062996895</v>
+        <v>0.9997607963263077</v>
       </c>
       <c r="K73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R73" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,28 +5232,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D74" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F74" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G74" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H74" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9995039761576993</v>
+        <v>0.9998676807871423</v>
       </c>
       <c r="K74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R74" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,28 +5297,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D75" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F75" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G75" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H75" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9997787725317366</v>
+        <v>0.9999706809643183</v>
       </c>
       <c r="K75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R75" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,28 +5362,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D76" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F76" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G76" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H76" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999692582933295</v>
+        <v>0.9999860441857206</v>
       </c>
       <c r="K76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R76" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,28 +5427,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D77" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F77" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G77" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H77" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999775609192811</v>
+        <v>0.9999880397250392</v>
       </c>
       <c r="K77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R77" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,28 +5492,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D78" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F78" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G78" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H78" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999906245492007</v>
+        <v>0.9999881289384606</v>
       </c>
       <c r="K78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R78" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,28 +5557,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D79" t="n">
-        <v>113.4054455044251</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F79" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G79" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H79" t="n">
-        <v>1.319158609153208</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999943323718309</v>
+        <v>0.9999983703739292</v>
       </c>
       <c r="K79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R79" t="n">
-        <v>191.106850892166</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,28 +5622,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.951015983106257</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D80" t="n">
-        <v>113.405445504898</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F80" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G80" t="n">
-        <v>191.1068508921633</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H80" t="n">
-        <v>1.319158729028149</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999973009487119</v>
+        <v>0.9999999999999707</v>
       </c>
       <c r="K80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R80" t="n">
-        <v>191.1068508921633</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,28 +5687,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.951015983106257</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D81" t="n">
-        <v>113.405445504898</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F81" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G81" t="n">
-        <v>191.1068508921633</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H81" t="n">
-        <v>1.319158729028149</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9999991313357365</v>
+        <v>0.9999999999999916</v>
       </c>
       <c r="K81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R81" t="n">
-        <v>191.1068508921633</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,28 +5752,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.951015983106257</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D82" t="n">
-        <v>113.405445504898</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F82" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G82" t="n">
-        <v>191.1068508921633</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H82" t="n">
-        <v>1.319158729028149</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5857864397791138</v>
+        <v>0.5857864398003182</v>
       </c>
       <c r="K82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R82" t="n">
-        <v>191.1068508921633</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,28 +5817,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D83" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F83" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G83" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H83" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999999999999714</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R83" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,28 +5882,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D84" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F84" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G84" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H84" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9999999999999787</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R84" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,28 +5947,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D85" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F85" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G85" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H85" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R85" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,28 +6012,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D86" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F86" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G86" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H86" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R86" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,28 +6077,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D87" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F87" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G87" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H87" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R87" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,28 +6142,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D88" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F88" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G88" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H88" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999999999999922</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R88" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,28 +6207,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D89" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F89" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G89" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H89" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999971</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R89" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,28 +6272,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D90" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F90" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G90" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H90" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R90" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,28 +6337,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089229821241</v>
       </c>
       <c r="D91" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900575416487</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="F91" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="G91" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="H91" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002734657581288</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="K91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795821486753</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292226653</v>
       </c>
       <c r="R91" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913525</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,28 +6402,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089105815772</v>
       </c>
       <c r="D92" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576107674</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="F92" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="G92" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="H92" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002749992408294</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5857864397791813</v>
+        <v>0.5857864398003182</v>
       </c>
       <c r="K92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="R92" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,28 +6467,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089105815772</v>
       </c>
       <c r="D93" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576107674</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="F93" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="G93" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="H93" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002749992408294</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="R93" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,28 +6532,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089105815772</v>
       </c>
       <c r="D94" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576107674</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="F94" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="G94" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="H94" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002749992408294</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="R94" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089105815772</v>
       </c>
       <c r="D95" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576107674</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="F95" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="G95" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="H95" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002749992408294</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9829533805101638</v>
       </c>
       <c r="K95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795815337827</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292194738</v>
       </c>
       <c r="R95" t="n">
-        <v>191.1068508921616</v>
+        <v>211.2844463913546</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,28 +6662,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D96" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F96" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G96" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H96" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9614668834458446</v>
+        <v>0.9535418862348057</v>
       </c>
       <c r="K96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R96" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,28 +6727,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D97" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F97" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G97" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H97" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9489445429277727</v>
+        <v>0.9228660890800716</v>
       </c>
       <c r="K97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R97" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,28 +6792,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D98" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F98" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G98" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H98" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9523932083455569</v>
+        <v>0.9788843111723928</v>
       </c>
       <c r="K98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R98" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,28 +6857,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D99" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F99" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G99" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H99" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9377061115663422</v>
+        <v>0.9107804718767245</v>
       </c>
       <c r="K99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R99" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,28 +6922,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D100" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F100" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G100" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H100" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8868699877266605</v>
+        <v>0.9840356569089597</v>
       </c>
       <c r="K100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R100" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,28 +6987,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D101" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F101" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G101" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H101" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9563755434215702</v>
+        <v>0.9921156018335754</v>
       </c>
       <c r="K101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R101" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,28 +7052,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D102" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F102" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G102" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H102" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5856050858821248</v>
+        <v>0.5857778456579467</v>
       </c>
       <c r="K102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R102" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,28 +7117,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D103" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F103" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G103" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H103" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J103" t="n">
-        <v>0.997239731021383</v>
+        <v>0.9989704225709219</v>
       </c>
       <c r="K103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R103" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,28 +7182,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D104" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F104" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G104" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H104" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9991181708130191</v>
+        <v>0.9994512143567815</v>
       </c>
       <c r="K104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R104" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,28 +7247,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D105" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F105" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G105" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H105" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9994735033684392</v>
+        <v>0.9995689839639333</v>
       </c>
       <c r="K105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R105" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,28 +7312,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D106" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F106" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G106" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H106" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J106" t="n">
-        <v>0.999704675117597</v>
+        <v>0.9998292089628807</v>
       </c>
       <c r="K106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R106" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,28 +7377,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D107" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F107" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G107" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H107" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9998724009470785</v>
+        <v>0.9999426734501884</v>
       </c>
       <c r="K107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R107" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,28 +7442,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D108" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F108" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G108" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H108" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999326289513416</v>
+        <v>0.9999744695482931</v>
       </c>
       <c r="K108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R108" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,28 +7507,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D109" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F109" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G109" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H109" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9999637450591109</v>
+        <v>0.9999911197530847</v>
       </c>
       <c r="K109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R109" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,28 +7572,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D110" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F110" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G110" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H110" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9999896062351611</v>
+        <v>0.9999932885118537</v>
       </c>
       <c r="K110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R110" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,28 +7637,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D111" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F111" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G111" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H111" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9999966251819844</v>
+        <v>0.9999988094297233</v>
       </c>
       <c r="K111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R111" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,28 +7702,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D112" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F112" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G112" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H112" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857864397750848</v>
+        <v>0.5857864398003182</v>
       </c>
       <c r="K112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R112" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,25 +7767,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D113" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F113" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G113" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H113" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J113" t="n">
         <v>0.9999999999999998</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R113" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,25 +7832,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D114" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F114" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G114" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H114" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J114" t="n">
         <v>0.9999999999999998</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R114" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,25 +7897,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D115" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F115" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G115" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H115" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J115" t="n">
         <v>0.9999999999999998</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R115" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,25 +7962,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D116" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F116" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G116" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H116" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J116" t="n">
         <v>0.9999999999999998</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R116" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,25 +8027,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D117" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F117" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G117" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H117" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J117" t="n">
         <v>0.9999999999999998</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R117" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,25 +8092,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D118" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F118" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G118" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H118" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J118" t="n">
         <v>0.9999999999999998</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R118" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,25 +8157,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D119" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F119" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G119" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H119" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J119" t="n">
         <v>0.9999999999999998</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R119" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,25 +8222,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D120" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F120" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G120" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H120" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J120" t="n">
         <v>0.9999999999999998</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R120" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,25 +8287,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D121" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F121" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G121" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H121" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J121" t="n">
         <v>0.9999999999999998</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R121" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,28 +8352,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D122" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F122" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G122" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H122" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5857864397791813</v>
+        <v>0.5857864398003182</v>
       </c>
       <c r="K122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R122" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,25 +8417,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D123" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F123" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G123" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H123" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J123" t="n">
         <v>0.9999999999999998</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R123" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,28 +8482,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D124" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F124" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G124" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H124" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>448</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R124" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,28 +8547,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D125" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F125" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G125" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H125" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0.9008908941394203</v>
       </c>
       <c r="K125" t="n">
         <v>448</v>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R125" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,28 +8612,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D126" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F126" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G126" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H126" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J126" t="n">
-        <v>0.8306134655234721</v>
+        <v>0.8920685962019792</v>
       </c>
       <c r="K126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R126" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,28 +8677,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D127" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F127" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G127" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H127" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J127" t="n">
-        <v>0.8971051019340718</v>
+        <v>0.9245278250255748</v>
       </c>
       <c r="K127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R127" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,28 +8742,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D128" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F128" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G128" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H128" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9457704436813229</v>
+        <v>0.9625422145601713</v>
       </c>
       <c r="K128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R128" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,28 +8807,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D129" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F129" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G129" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H129" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9098456434715341</v>
+        <v>0.9135376211135193</v>
       </c>
       <c r="K129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R129" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,28 +8872,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D130" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F130" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G130" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H130" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9137410034503026</v>
+        <v>0.992661927088346</v>
       </c>
       <c r="K130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R130" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,28 +8937,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D131" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F131" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G131" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H131" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J131" t="n">
-        <v>0.9795300472392073</v>
+        <v>0.996894128263549</v>
       </c>
       <c r="K131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R131" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D132" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F132" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G132" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H132" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5857351009922384</v>
+        <v>0.5857849553705957</v>
       </c>
       <c r="K132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R132" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,28 +9067,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D133" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F133" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G133" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H133" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9985639036399839</v>
+        <v>0.9994269591380702</v>
       </c>
       <c r="K133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R133" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,28 +9132,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D134" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F134" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G134" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H134" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9985515905574295</v>
+        <v>0.9996443390287267</v>
       </c>
       <c r="K134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R134" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,28 +9197,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D135" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F135" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G135" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H135" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9989233374924557</v>
+        <v>0.9996968892928498</v>
       </c>
       <c r="K135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R135" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,28 +9262,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D136" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F136" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G136" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H136" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9991159661718063</v>
+        <v>0.9997906874352023</v>
       </c>
       <c r="K136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R136" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,28 +9327,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D137" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F137" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G137" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H137" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9994882942673802</v>
+        <v>0.9998570516895395</v>
       </c>
       <c r="K137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R137" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,28 +9392,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D138" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F138" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G138" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H138" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9997293202478902</v>
+        <v>0.9999604997921734</v>
       </c>
       <c r="K138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R138" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,28 +9457,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D139" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F139" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G139" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H139" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9998877341162712</v>
+        <v>0.9999689371540514</v>
       </c>
       <c r="K139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R139" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,28 +9522,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D140" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F140" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G140" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H140" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9999690610048267</v>
+        <v>0.9999838363130562</v>
       </c>
       <c r="K140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R140" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,28 +9587,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D141" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F141" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G141" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H141" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9999731097012858</v>
+        <v>0.9999951311904897</v>
       </c>
       <c r="K141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R141" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,28 +9652,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D142" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F142" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G142" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H142" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5857864397575618</v>
+        <v>0.5857864397954302</v>
       </c>
       <c r="K142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R142" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D143" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F143" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G143" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H143" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999990888448</v>
       </c>
       <c r="K143" t="n">
         <v>448</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R143" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,25 +9782,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D144" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F144" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G144" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H144" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J144" t="n">
         <v>0.9999999999999998</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R144" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,25 +9847,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D145" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F145" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G145" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H145" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J145" t="n">
         <v>0.9999999999999998</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R145" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,25 +9912,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D146" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F146" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G146" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H146" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J146" t="n">
         <v>0.9999999999999998</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R146" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,25 +9977,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D147" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F147" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G147" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H147" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J147" t="n">
         <v>0.9999999999999998</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R147" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,25 +10042,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D148" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F148" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G148" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H148" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J148" t="n">
         <v>0.9999999999999998</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R148" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,25 +10107,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D149" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F149" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G149" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H149" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J149" t="n">
         <v>0.9999999999999998</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R149" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,25 +10172,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D150" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F150" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G150" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H150" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J150" t="n">
         <v>0.9999999999999998</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R150" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,25 +10237,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.946089111316303</v>
       </c>
       <c r="D151" t="n">
-        <v>113.4054455000344</v>
+        <v>113.3900576120834</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="F151" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="G151" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="H151" t="n">
-        <v>1.31915645461616</v>
+        <v>1.002750011926406</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1674605734605759</v>
       </c>
       <c r="J151" t="n">
         <v>0.9999999999999998</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.953795820988366</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3853292206977</v>
       </c>
       <c r="R151" t="n">
-        <v>191.1068508921616</v>
+        <v>211.284446391355</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -570,10 +570,10 @@
         <v>53.02927486634655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1656085835217772</v>
+        <v>0.1715631323408532</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8855270073296839</v>
+        <v>0.9009577922452022</v>
       </c>
       <c r="K2" t="n">
         <v>122</v>
@@ -617,31 +617,31 @@
         <v>44877.10347222222</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.320893038956484</v>
+        <v>-7.546622452827696</v>
       </c>
       <c r="D3" t="n">
-        <v>113.2645639611476</v>
+        <v>113.0387077883158</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.963246988469745</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="F3" t="n">
-        <v>113.3659848220018</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="G3" t="n">
-        <v>15.68772298812132</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="H3" t="n">
-        <v>41.30566424992134</v>
+        <v>53.02927486634655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1668829836221697</v>
+        <v>0.1715631323408532</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9628083160417138</v>
+        <v>0.9677330424272658</v>
       </c>
       <c r="K3" t="n">
-        <v>1188</v>
+        <v>122</v>
       </c>
       <c r="L3" t="n">
         <v>640</v>
@@ -656,13 +656,13 @@
         <v>113.300380121246</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.963246988469745</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.3659848220018</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="R3" t="n">
-        <v>15.68772298812132</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -682,31 +682,31 @@
         <v>44877.10347222222</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.320893038956484</v>
+        <v>-7.546622452827696</v>
       </c>
       <c r="D4" t="n">
-        <v>113.2645639611476</v>
+        <v>113.0387077883158</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.963246988469745</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3659848220018</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="G4" t="n">
-        <v>15.68772298812132</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="H4" t="n">
-        <v>41.30566424992134</v>
+        <v>53.02927486634655</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1668829836221697</v>
+        <v>0.1715631323408532</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9802734387072481</v>
+        <v>0.9883094863608078</v>
       </c>
       <c r="K4" t="n">
-        <v>1188</v>
+        <v>122</v>
       </c>
       <c r="L4" t="n">
         <v>640</v>
@@ -721,13 +721,13 @@
         <v>113.300380121246</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.963246988469745</v>
+        <v>-7.927170613095884</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3659848220018</v>
+        <v>113.3287864261403</v>
       </c>
       <c r="R4" t="n">
-        <v>15.68772298812132</v>
+        <v>142.9547122220439</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -744,55 +744,55 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.909557864802434</v>
+        <v>-7.858555565151647</v>
       </c>
       <c r="D5" t="n">
-        <v>113.3876920849047</v>
+        <v>113.4107725420507</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.918477296204387</v>
+        <v>-7.971985766096306</v>
       </c>
       <c r="F5" t="n">
-        <v>113.3888527824062</v>
+        <v>113.3610016932639</v>
       </c>
       <c r="G5" t="n">
-        <v>172.6556087903089</v>
+        <v>203.4863038092525</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>13.75251169830607</v>
       </c>
       <c r="I5" t="n">
-        <v>0.166924167699079</v>
+        <v>0.1726811380586165</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9952670546453941</v>
+        <v>0.9935434855553996</v>
       </c>
       <c r="K5" t="n">
-        <v>448</v>
+        <v>1426</v>
       </c>
       <c r="L5" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O5" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.918477296204387</v>
+        <v>-7.971985766096306</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.3888527824062</v>
+        <v>113.3610016932639</v>
       </c>
       <c r="R5" t="n">
-        <v>172.6556087903089</v>
+        <v>203.4863038092525</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -812,31 +812,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.005531394163578</v>
+        <v>-7.811756964843161</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3932647074152</v>
+        <v>113.3081159867739</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.967251116782395</v>
+        <v>-7.921641950311717</v>
       </c>
       <c r="F6" t="n">
-        <v>113.4042695709975</v>
+        <v>113.3902473349208</v>
       </c>
       <c r="G6" t="n">
-        <v>15.89204906639645</v>
+        <v>143.4895054400216</v>
       </c>
       <c r="H6" t="n">
-        <v>4.425710113122269</v>
+        <v>15.20319771763709</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1672257648338478</v>
+        <v>0.1727283551197991</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9967622002519902</v>
+        <v>0.9969789699641317</v>
       </c>
       <c r="K6" t="n">
-        <v>1705</v>
+        <v>915</v>
       </c>
       <c r="L6" t="n">
         <v>448</v>
@@ -851,13 +851,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.967251116782395</v>
+        <v>-7.921641950311717</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.4042695709975</v>
+        <v>113.3902473349208</v>
       </c>
       <c r="R6" t="n">
-        <v>15.89204906639645</v>
+        <v>143.4895054400216</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -877,31 +877,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.005531394163578</v>
+        <v>-7.928586061310773</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3932647074152</v>
+        <v>113.4108420713752</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.967251116782395</v>
+        <v>-7.974606469007474</v>
       </c>
       <c r="F7" t="n">
-        <v>113.4042695709975</v>
+        <v>113.3967947498779</v>
       </c>
       <c r="G7" t="n">
-        <v>15.89204906639645</v>
+        <v>196.819428124952</v>
       </c>
       <c r="H7" t="n">
-        <v>4.425710113122269</v>
+        <v>5.345954312623224</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1672257648338478</v>
+        <v>0.1730107618557985</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9973529029870234</v>
+        <v>0.9974825131462747</v>
       </c>
       <c r="K7" t="n">
-        <v>1705</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
         <v>448</v>
@@ -916,13 +916,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.967251116782395</v>
+        <v>-7.974606469007474</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4042695709975</v>
+        <v>113.3967947498779</v>
       </c>
       <c r="R7" t="n">
-        <v>15.89204906639645</v>
+        <v>196.819428124952</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.957338050929294</v>
+        <v>-7.892702168245481</v>
       </c>
       <c r="D8" t="n">
-        <v>113.401197440419</v>
+        <v>113.3591764837048</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.965107387501271</v>
+        <v>-7.93121967430404</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3966239747559</v>
+        <v>113.3812870047765</v>
       </c>
       <c r="G8" t="n">
-        <v>210.2411175648093</v>
+        <v>150.3800944279623</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4.926839091192245</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1673582580778559</v>
+        <v>0.1730188399563284</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9982603961204223</v>
+        <v>0.9980353418379475</v>
       </c>
       <c r="K8" t="n">
         <v>448</v>
@@ -981,13 +981,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.965107387501271</v>
+        <v>-7.93121967430404</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.3966239747559</v>
+        <v>113.3812870047765</v>
       </c>
       <c r="R8" t="n">
-        <v>210.2411175648093</v>
+        <v>150.3800944279623</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1007,28 +1007,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.957338050929294</v>
+        <v>-7.929585727327905</v>
       </c>
       <c r="D9" t="n">
-        <v>113.401197440419</v>
+        <v>113.3965492068524</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.965107387501271</v>
+        <v>-7.954521308140227</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3966239747559</v>
+        <v>113.3702429523729</v>
       </c>
       <c r="G9" t="n">
-        <v>210.2411175648093</v>
+        <v>226.2546495195696</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4.010100716946692</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1673582580778559</v>
+        <v>0.1733060143107615</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9984940447994121</v>
+        <v>0.9986659870199158</v>
       </c>
       <c r="K9" t="n">
         <v>448</v>
@@ -1046,13 +1046,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.965107387501271</v>
+        <v>-7.954521308140227</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.3966239747559</v>
+        <v>113.3702429523729</v>
       </c>
       <c r="R9" t="n">
-        <v>210.2411175648093</v>
+        <v>226.2546495195696</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.957338050929294</v>
+        <v>-7.929585727327905</v>
       </c>
       <c r="D10" t="n">
-        <v>113.401197440419</v>
+        <v>113.3965492068524</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.965107387501271</v>
+        <v>-7.954521308140227</v>
       </c>
       <c r="F10" t="n">
-        <v>113.3966239747559</v>
+        <v>113.3702429523729</v>
       </c>
       <c r="G10" t="n">
-        <v>210.2411175648093</v>
+        <v>226.2546495195696</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4.010100716946692</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1673582580778559</v>
+        <v>0.1733060143107615</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9990494863763518</v>
+        <v>0.9994265440901307</v>
       </c>
       <c r="K10" t="n">
         <v>448</v>
@@ -1111,13 +1111,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.965107387501271</v>
+        <v>-7.954521308140227</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.3966239747559</v>
+        <v>113.3702429523729</v>
       </c>
       <c r="R10" t="n">
-        <v>210.2411175648093</v>
+        <v>226.2546495195696</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.913879929717166</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4146601563828</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.956763772430929</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F11" t="n">
-        <v>113.385204953574</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G11" t="n">
-        <v>214.2247624287202</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H11" t="n">
-        <v>5.767252128895795</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1674162980552552</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9991642511793081</v>
+        <v>0.9994361741657245</v>
       </c>
       <c r="K11" t="n">
         <v>448</v>
@@ -1176,13 +1176,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.956763772430929</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.385204953574</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R11" t="n">
-        <v>214.2247624287202</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1202,28 +1202,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.949524269355775</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D12" t="n">
-        <v>113.3851299768235</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.957890177412192</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3817979969236</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G12" t="n">
-        <v>201.5264919481271</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1674464847330747</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857863010354841</v>
+        <v>0.5857863757941844</v>
       </c>
       <c r="K12" t="n">
         <v>448</v>
@@ -1241,13 +1241,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.957890177412192</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.3817979969236</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R12" t="n">
-        <v>201.5264919481271</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.949524269355775</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D13" t="n">
-        <v>113.3851299768235</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.957890177412192</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3817979969236</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G13" t="n">
-        <v>201.5264919481271</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1674464847330747</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9998795799302416</v>
+        <v>0.9997951571828221</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
@@ -1306,13 +1306,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.957890177412192</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3817979969236</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R13" t="n">
-        <v>201.5264919481271</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1332,28 +1332,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.949524269355775</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D14" t="n">
-        <v>113.3851299768235</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.957890177412192</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3817979969236</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G14" t="n">
-        <v>201.5264919481271</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1674464847330747</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9998877788814236</v>
+        <v>0.9998405497825978</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
@@ -1371,13 +1371,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.957890177412192</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3817979969236</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R14" t="n">
-        <v>201.5264919481271</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1397,28 +1397,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.935601717046218</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D15" t="n">
-        <v>113.3929479911911</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.952558286979321</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3851769166627</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G15" t="n">
-        <v>204.4125138969521</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H15" t="n">
-        <v>2.070619598231591</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1674522400075861</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9998868094460532</v>
+        <v>0.9998685582366981</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
@@ -1436,13 +1436,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.952558286979321</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3851769166627</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R15" t="n">
-        <v>204.4125138969521</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.946504755705056</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D16" t="n">
-        <v>113.3898481330848</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G16" t="n">
-        <v>211.4309430733772</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1674584527243454</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9998942725066243</v>
+        <v>0.999884804576434</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
@@ -1501,13 +1501,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R16" t="n">
-        <v>211.4309430733772</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.946504755705056</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D17" t="n">
-        <v>113.3898481330848</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G17" t="n">
-        <v>211.4309430733772</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1674584527243454</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J17" t="n">
-        <v>0.999912467663717</v>
+        <v>0.9998883129979773</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R17" t="n">
-        <v>211.4309430733772</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1592,28 +1592,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.946504755705056</v>
+        <v>-7.929546222213183</v>
       </c>
       <c r="D18" t="n">
-        <v>113.3898481330848</v>
+        <v>113.3942908188028</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="G18" t="n">
-        <v>211.4309430733772</v>
+        <v>204.001456977407</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2.773186357956961</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1674584527243454</v>
+        <v>0.1733728696866569</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9999196197973464</v>
+        <v>0.9999323330844374</v>
       </c>
       <c r="K18" t="n">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.952329538591787</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3840477811278</v>
       </c>
       <c r="R18" t="n">
-        <v>211.4309430733772</v>
+        <v>204.001456977407</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.946504755705056</v>
+        <v>-7.929706507150629</v>
       </c>
       <c r="D19" t="n">
-        <v>113.3898481330848</v>
+        <v>113.3935438641681</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.95258645682273</v>
       </c>
       <c r="F19" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3832715329485</v>
       </c>
       <c r="G19" t="n">
-        <v>211.4309430733772</v>
+        <v>203.9721470075558</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2.784314757787269</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1674584527243454</v>
+        <v>0.1733734051212645</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9999444674171794</v>
+        <v>0.9999526395544823</v>
       </c>
       <c r="K19" t="n">
         <v>448</v>
@@ -1696,13 +1696,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.954178364050809</v>
+        <v>-7.95258645682273</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3851128783859</v>
+        <v>113.3832715329485</v>
       </c>
       <c r="R19" t="n">
-        <v>211.4309430733772</v>
+        <v>203.9721470075558</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,28 +1722,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.946668469397824</v>
+        <v>-7.929907540300105</v>
       </c>
       <c r="D20" t="n">
-        <v>113.3917881171236</v>
+        <v>113.393565431852</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.954351820443476</v>
+        <v>-7.950508298145606</v>
       </c>
       <c r="F20" t="n">
-        <v>113.3870689944351</v>
+        <v>113.3843457262941</v>
       </c>
       <c r="G20" t="n">
-        <v>211.3117120134771</v>
+        <v>203.9047443777434</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2.505644182098483</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1674590545937902</v>
+        <v>0.1733757699497886</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9999602825370363</v>
+        <v>0.9999738806588669</v>
       </c>
       <c r="K20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.954351820443476</v>
+        <v>-7.950508298145606</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.3870689944351</v>
+        <v>113.3843457262941</v>
       </c>
       <c r="R20" t="n">
-        <v>211.3117120134771</v>
+        <v>203.9047443777434</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1787,28 +1787,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.946763910479405</v>
+        <v>-7.929907540300105</v>
       </c>
       <c r="D21" t="n">
-        <v>113.3899423618294</v>
+        <v>113.393565431852</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.954445041142851</v>
+        <v>-7.950508298145606</v>
       </c>
       <c r="F21" t="n">
-        <v>113.3852195544397</v>
+        <v>113.3843457262941</v>
       </c>
       <c r="G21" t="n">
-        <v>211.3389208623864</v>
+        <v>203.9047443777434</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2.505644182098483</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1674596594224201</v>
+        <v>0.1733757699497886</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9999645280114151</v>
+        <v>0.9999776622232902</v>
       </c>
       <c r="K21" t="n">
         <v>448</v>
@@ -1826,13 +1826,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.954445041142851</v>
+        <v>-7.950508298145606</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.3852195544397</v>
+        <v>113.3843457262941</v>
       </c>
       <c r="R21" t="n">
-        <v>211.3389208623864</v>
+        <v>203.9047443777434</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,28 +1852,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.946059602032945</v>
+        <v>-7.929907540300105</v>
       </c>
       <c r="D22" t="n">
-        <v>113.3909516894748</v>
+        <v>113.393565431852</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.953745908034771</v>
+        <v>-7.950508298145606</v>
       </c>
       <c r="F22" t="n">
-        <v>113.3862374821572</v>
+        <v>113.3843457262941</v>
       </c>
       <c r="G22" t="n">
-        <v>211.2754686404485</v>
+        <v>203.9047443777434</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2.505644182098483</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1674601661653307</v>
+        <v>0.1733757699497886</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857864394148075</v>
+        <v>0.585786439664001</v>
       </c>
       <c r="K22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.953745908034771</v>
+        <v>-7.950508298145606</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.3862374821572</v>
+        <v>113.3843457262941</v>
       </c>
       <c r="R22" t="n">
-        <v>211.2754686404485</v>
+        <v>203.9047443777434</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,28 +1917,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.946059602032945</v>
+        <v>-7.929415475686325</v>
       </c>
       <c r="D23" t="n">
-        <v>113.3909516894748</v>
+        <v>113.3935048227279</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.953745908034771</v>
+        <v>-7.951185716995162</v>
       </c>
       <c r="F23" t="n">
-        <v>113.3862374821572</v>
+        <v>113.3837597881661</v>
       </c>
       <c r="G23" t="n">
-        <v>211.2754686404485</v>
+        <v>203.9089208355431</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2.647973285730444</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1674601661653307</v>
+        <v>0.1733759141057741</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9999737642029122</v>
+        <v>0.9999944598632561</v>
       </c>
       <c r="K23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.953745908034771</v>
+        <v>-7.951185716995162</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.3862374821572</v>
+        <v>113.3837597881661</v>
       </c>
       <c r="R23" t="n">
-        <v>211.2754686404485</v>
+        <v>203.9089208355431</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,28 +1982,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.946059602032945</v>
+        <v>-7.929440720223146</v>
       </c>
       <c r="D24" t="n">
-        <v>113.3909516894748</v>
+        <v>113.3932688593167</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.953745908034771</v>
+        <v>-7.951118174285319</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3862374821572</v>
+        <v>113.3835653543464</v>
       </c>
       <c r="G24" t="n">
-        <v>211.2754686404485</v>
+        <v>203.908935419028</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2.63668756118357</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1674601661653307</v>
+        <v>0.1733761027040764</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999785185990927</v>
+        <v>0.9999937506778265</v>
       </c>
       <c r="K24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.953745908034771</v>
+        <v>-7.951118174285319</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.3862374821572</v>
+        <v>113.3835653543464</v>
       </c>
       <c r="R24" t="n">
-        <v>211.2754686404485</v>
+        <v>203.908935419028</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.945842035588897</v>
+        <v>-7.929257737553749</v>
       </c>
       <c r="D25" t="n">
-        <v>113.3902620825425</v>
+        <v>113.3932681249433</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.953528372457105</v>
+        <v>-7.950744035900926</v>
       </c>
       <c r="F25" t="n">
-        <v>113.3855479290327</v>
+        <v>113.3836631088591</v>
       </c>
       <c r="G25" t="n">
-        <v>211.2750898651424</v>
+        <v>203.8804294204684</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2.612860634957471</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1674604012014128</v>
+        <v>0.1733766943163833</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999806052705118</v>
+        <v>0.9999927639146243</v>
       </c>
       <c r="K25" t="n">
         <v>448</v>
@@ -2086,13 +2086,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.953528372457105</v>
+        <v>-7.950744035900926</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.3855479290327</v>
+        <v>113.3836631088591</v>
       </c>
       <c r="R25" t="n">
-        <v>211.2750898651424</v>
+        <v>203.8804294204684</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,28 +2112,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.946166834202591</v>
+        <v>-7.92973918608689</v>
       </c>
       <c r="D26" t="n">
-        <v>113.3901053027265</v>
+        <v>113.3918862142014</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.953852218927377</v>
+        <v>-7.950516305058799</v>
       </c>
       <c r="F26" t="n">
-        <v>113.3853895631269</v>
+        <v>113.382606731012</v>
       </c>
       <c r="G26" t="n">
-        <v>211.2867724145995</v>
+        <v>203.861012509583</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2.526240906145739</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1674605385051542</v>
+        <v>0.1733774094546093</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999826494067827</v>
+        <v>0.9999930348583236</v>
       </c>
       <c r="K26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.953852218927377</v>
+        <v>-7.950516305058799</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.3853895631269</v>
+        <v>113.382606731012</v>
       </c>
       <c r="R26" t="n">
-        <v>211.2867724145995</v>
+        <v>203.861012509583</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,28 +2177,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.945888272878911</v>
+        <v>-7.92973918608689</v>
       </c>
       <c r="D27" t="n">
-        <v>113.3899567578227</v>
+        <v>113.3918862142014</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.953666747189164</v>
+        <v>-7.950516305058799</v>
       </c>
       <c r="F27" t="n">
-        <v>113.3851842590068</v>
+        <v>113.382606731012</v>
       </c>
       <c r="G27" t="n">
-        <v>211.2848627443359</v>
+        <v>203.861012509583</v>
       </c>
       <c r="H27" t="n">
-        <v>1.012092090187369</v>
+        <v>2.526240906145739</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1674605546991929</v>
+        <v>0.1733774094546093</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999863363162603</v>
+        <v>0.9999942698633211</v>
       </c>
       <c r="K27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.953666747189164</v>
+        <v>-7.950516305058799</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.3851842590068</v>
+        <v>113.382606731012</v>
       </c>
       <c r="R27" t="n">
-        <v>211.2848627443359</v>
+        <v>203.861012509583</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,28 +2242,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.946121525636462</v>
+        <v>-7.92973918608689</v>
       </c>
       <c r="D28" t="n">
-        <v>113.3900326875898</v>
+        <v>113.3918862142014</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.953807078497266</v>
+        <v>-7.950516305058799</v>
       </c>
       <c r="F28" t="n">
-        <v>113.3853172278817</v>
+        <v>113.382606731012</v>
       </c>
       <c r="G28" t="n">
-        <v>211.2847097143843</v>
+        <v>203.861012509583</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2.526240906145739</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1674605696754811</v>
+        <v>0.1733774094546093</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9999881513126199</v>
+        <v>0.9999940543179774</v>
       </c>
       <c r="K28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.953807078497266</v>
+        <v>-7.950516305058799</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.3853172278817</v>
+        <v>113.382606731012</v>
       </c>
       <c r="R28" t="n">
-        <v>211.2847097143843</v>
+        <v>203.861012509583</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,28 +2307,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.946121525636462</v>
+        <v>-7.929348168373472</v>
       </c>
       <c r="D29" t="n">
-        <v>113.3900326875898</v>
+        <v>113.3917984187202</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.953807078497266</v>
+        <v>-7.949950616014533</v>
       </c>
       <c r="F29" t="n">
-        <v>113.3853172278817</v>
+        <v>113.3826002239042</v>
       </c>
       <c r="G29" t="n">
-        <v>211.2847097143843</v>
+        <v>203.8534943236571</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2.504857555369682</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1674605696754811</v>
+        <v>0.1733774810469319</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999904273387301</v>
+        <v>0.9999944909780241</v>
       </c>
       <c r="K29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.953807078497266</v>
+        <v>-7.949950616014533</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.3853172278817</v>
+        <v>113.3826002239042</v>
       </c>
       <c r="R29" t="n">
-        <v>211.2847097143843</v>
+        <v>203.8534943236571</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,28 +2372,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.946058902915562</v>
+        <v>-7.929453598316095</v>
       </c>
       <c r="D30" t="n">
-        <v>113.3900804436338</v>
+        <v>113.3922110837693</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.953776117263844</v>
+        <v>-7.950139571439986</v>
       </c>
       <c r="F30" t="n">
-        <v>113.385345631805</v>
+        <v>113.3829743967511</v>
       </c>
       <c r="G30" t="n">
-        <v>211.2843152874097</v>
+        <v>203.8562405151012</v>
       </c>
       <c r="H30" t="n">
-        <v>1.004115424848236</v>
+        <v>2.515065990583104</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1674605713961728</v>
+        <v>0.1733775075196355</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999911632234626</v>
+        <v>0.9999945659018518</v>
       </c>
       <c r="K30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.953776117263844</v>
+        <v>-7.950139571439986</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.385345631805</v>
+        <v>113.3829743967511</v>
       </c>
       <c r="R30" t="n">
-        <v>211.2843152874097</v>
+        <v>203.8562405151012</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,28 +2437,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.946058902915562</v>
+        <v>-7.929451481897826</v>
       </c>
       <c r="D31" t="n">
-        <v>113.3900804436338</v>
+        <v>113.3920545108957</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.953776117263844</v>
+        <v>-7.950188455004326</v>
       </c>
       <c r="F31" t="n">
-        <v>113.385345631805</v>
+        <v>113.3827946313145</v>
       </c>
       <c r="G31" t="n">
-        <v>211.2843152874097</v>
+        <v>203.8571992085623</v>
       </c>
       <c r="H31" t="n">
-        <v>1.004115424848236</v>
+        <v>2.521285417943885</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1674605713961728</v>
+        <v>0.1733775257045688</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999914008818902</v>
+        <v>0.999995359611371</v>
       </c>
       <c r="K31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.953776117263844</v>
+        <v>-7.950188455004326</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.385345631805</v>
+        <v>113.3827946313145</v>
       </c>
       <c r="R31" t="n">
-        <v>211.2843152874097</v>
+        <v>203.8571992085623</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,28 +2502,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.946104424737497</v>
+        <v>-7.929451481897826</v>
       </c>
       <c r="D32" t="n">
-        <v>113.3901039910686</v>
+        <v>113.3920545108957</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.953823167245752</v>
+        <v>-7.950188455004326</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3853682185896</v>
+        <v>113.3827946313145</v>
       </c>
       <c r="G32" t="n">
-        <v>211.2844361873318</v>
+        <v>203.8571992085623</v>
       </c>
       <c r="H32" t="n">
-        <v>1.004315547869017</v>
+        <v>2.521285417943885</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1674605725410888</v>
+        <v>0.1733775257045688</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5857864397863501</v>
+        <v>0.5857864397221018</v>
       </c>
       <c r="K32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.953823167245752</v>
+        <v>-7.950188455004326</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.3853682185896</v>
+        <v>113.3827946313145</v>
       </c>
       <c r="R32" t="n">
-        <v>211.2844361873318</v>
+        <v>203.8571992085623</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,28 +2567,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.946104424737497</v>
+        <v>-7.929236469585986</v>
       </c>
       <c r="D33" t="n">
-        <v>113.3901039910686</v>
+        <v>113.3920309708312</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.953823167245752</v>
+        <v>-7.950059001036379</v>
       </c>
       <c r="F33" t="n">
-        <v>113.3853682185896</v>
+        <v>113.3827329879047</v>
       </c>
       <c r="G33" t="n">
-        <v>211.2844361873318</v>
+        <v>203.8569733354497</v>
       </c>
       <c r="H33" t="n">
-        <v>1.004315547869017</v>
+        <v>2.53168358608246</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1674605725410888</v>
+        <v>0.1733775333078449</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999972582880304</v>
+        <v>0.9999988520594968</v>
       </c>
       <c r="K33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.953823167245752</v>
+        <v>-7.950059001036379</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.3853682185896</v>
+        <v>113.3827329879047</v>
       </c>
       <c r="R33" t="n">
-        <v>211.2844361873318</v>
+        <v>203.8569733354497</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,28 +2632,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.946063104397863</v>
+        <v>-7.929301479401518</v>
       </c>
       <c r="D34" t="n">
-        <v>113.3900610310351</v>
+        <v>113.392055032121</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.953785496270741</v>
+        <v>-7.950160642468394</v>
       </c>
       <c r="F34" t="n">
-        <v>113.3853230248212</v>
+        <v>113.3827407801003</v>
       </c>
       <c r="G34" t="n">
-        <v>211.2844100206139</v>
+        <v>203.8567672287879</v>
       </c>
       <c r="H34" t="n">
-        <v>1.004790103655077</v>
+        <v>2.536133386529063</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1674605729005763</v>
+        <v>0.1733775362042931</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9999973075609186</v>
+        <v>0.9999993276698369</v>
       </c>
       <c r="K34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.953785496270741</v>
+        <v>-7.950160642468394</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.3853230248212</v>
+        <v>113.3827407801003</v>
       </c>
       <c r="R34" t="n">
-        <v>211.2844100206139</v>
+        <v>203.8567672287879</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,28 +2697,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.946065206146482</v>
+        <v>-7.929218539256859</v>
       </c>
       <c r="D35" t="n">
-        <v>113.3901077445488</v>
+        <v>113.3920157000898</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.95380883449546</v>
+        <v>-7.950117287084931</v>
       </c>
       <c r="F35" t="n">
-        <v>113.3853567017939</v>
+        <v>113.382683865807</v>
       </c>
       <c r="G35" t="n">
-        <v>211.2844462551113</v>
+        <v>203.8565568374489</v>
       </c>
       <c r="H35" t="n">
-        <v>1.007553660047179</v>
+        <v>2.540942144013478</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1674605731431835</v>
+        <v>0.1733775400059642</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9188270283324126</v>
+        <v>0.8993148254545709</v>
       </c>
       <c r="K35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.95380883449546</v>
+        <v>-7.950117287084931</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.3853567017939</v>
+        <v>113.382683865807</v>
       </c>
       <c r="R35" t="n">
-        <v>211.2844462551113</v>
+        <v>203.8565568374489</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,28 +2762,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.946080339402012</v>
+        <v>-7.929503764193456</v>
       </c>
       <c r="D36" t="n">
-        <v>113.3900609538992</v>
+        <v>113.3919191298423</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.953783285823345</v>
+        <v>-7.950116670652265</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3853348719852</v>
+        <v>113.3827149255162</v>
       </c>
       <c r="G36" t="n">
-        <v>211.2844442058222</v>
+        <v>203.8565712971321</v>
       </c>
       <c r="H36" t="n">
-        <v>1.002260335784189</v>
+        <v>2.506188669891273</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1674605733646221</v>
+        <v>0.1733775402324708</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9354095122281628</v>
+        <v>0.9728302229810016</v>
       </c>
       <c r="K36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.953783285823345</v>
+        <v>-7.950116670652265</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.3853348719852</v>
+        <v>113.3827149255162</v>
       </c>
       <c r="R36" t="n">
-        <v>211.2844442058222</v>
+        <v>203.8565712971321</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,28 +2827,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.946086830561256</v>
+        <v>-7.929503764193456</v>
       </c>
       <c r="D37" t="n">
-        <v>113.3900636253677</v>
+        <v>113.3919191298423</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.953798571075157</v>
+        <v>-7.950116670652265</v>
       </c>
       <c r="F37" t="n">
-        <v>113.3853321473969</v>
+        <v>113.3827149255162</v>
       </c>
       <c r="G37" t="n">
-        <v>211.2844459027591</v>
+        <v>203.8565712971321</v>
       </c>
       <c r="H37" t="n">
-        <v>1.003404591423718</v>
+        <v>2.506188669891273</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1674605734481966</v>
+        <v>0.1733775402324708</v>
       </c>
       <c r="J37" t="n">
-        <v>0.974964528763984</v>
+        <v>0.995606120880468</v>
       </c>
       <c r="K37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.953798571075157</v>
+        <v>-7.950116670652265</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.3853321473969</v>
+        <v>113.3827149255162</v>
       </c>
       <c r="R37" t="n">
-        <v>211.2844459027591</v>
+        <v>203.8565712971321</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.946087687678196</v>
+        <v>-7.929212292080783</v>
       </c>
       <c r="D38" t="n">
-        <v>113.3900565977474</v>
+        <v>113.3920314047164</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.953795383311338</v>
+        <v>-7.950105401080529</v>
       </c>
       <c r="F38" t="n">
-        <v>113.3853276014036</v>
+        <v>113.3827020704446</v>
       </c>
       <c r="G38" t="n">
-        <v>211.2844465654359</v>
+        <v>203.8565980800153</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0028783014584</v>
+        <v>2.54025736099628</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1674605734571719</v>
+        <v>0.1733775403079961</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9900513258427934</v>
+        <v>0.9968491519744349</v>
       </c>
       <c r="K38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.953795383311338</v>
+        <v>-7.950105401080529</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3853276014036</v>
+        <v>113.3827020704446</v>
       </c>
       <c r="R38" t="n">
-        <v>211.2844465654359</v>
+        <v>203.8565980800153</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,28 +2957,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.946089814871352</v>
+        <v>-7.929175853584017</v>
       </c>
       <c r="D39" t="n">
-        <v>113.3900564732056</v>
+        <v>113.3920402652118</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950099810596384</v>
       </c>
       <c r="F39" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3826971613137</v>
       </c>
       <c r="G39" t="n">
-        <v>211.2844464952338</v>
+        <v>203.8565872366486</v>
       </c>
       <c r="H39" t="n">
-        <v>1.002501804450669</v>
+        <v>2.544007776102789</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1674605734586177</v>
+        <v>0.1733775404402692</v>
       </c>
       <c r="J39" t="n">
-        <v>0.996246962357351</v>
+        <v>0.99732476388786</v>
       </c>
       <c r="K39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950099810596384</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3826971613137</v>
       </c>
       <c r="R39" t="n">
-        <v>211.2844464952338</v>
+        <v>203.8565872366486</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,28 +3022,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.946089814871352</v>
+        <v>-7.92928785844547</v>
       </c>
       <c r="D40" t="n">
-        <v>113.3900564732056</v>
+        <v>113.391998457654</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950117234451352</v>
       </c>
       <c r="F40" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3826975885587</v>
       </c>
       <c r="G40" t="n">
-        <v>211.2844464952338</v>
+        <v>203.856582558367</v>
       </c>
       <c r="H40" t="n">
-        <v>1.002501804450669</v>
+        <v>2.532508138669491</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1674605734586177</v>
+        <v>0.173377540482198</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9973354910464605</v>
+        <v>0.998009923493162</v>
       </c>
       <c r="K40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950117234451352</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3826975885587</v>
       </c>
       <c r="R40" t="n">
-        <v>211.2844464952338</v>
+        <v>203.856582558367</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,28 +3087,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.946089814871352</v>
+        <v>-7.929210151701521</v>
       </c>
       <c r="D41" t="n">
-        <v>113.3900564732056</v>
+        <v>113.3920300027007</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950103408467843</v>
       </c>
       <c r="F41" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3827006090464</v>
       </c>
       <c r="G41" t="n">
-        <v>211.2844464952338</v>
+        <v>203.8565831911595</v>
       </c>
       <c r="H41" t="n">
-        <v>1.002501804450669</v>
+        <v>2.540275035117945</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1674605734586177</v>
+        <v>0.1733775404966894</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9987183022172175</v>
+        <v>0.9987533286987808</v>
       </c>
       <c r="K41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950103408467843</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3827006090464</v>
       </c>
       <c r="R41" t="n">
-        <v>211.2844464952338</v>
+        <v>203.8565831911595</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.946089814871352</v>
+        <v>-7.929185414080957</v>
       </c>
       <c r="D42" t="n">
-        <v>113.3900564732056</v>
+        <v>113.392037351734</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950106417651085</v>
       </c>
       <c r="F42" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3826955675344</v>
       </c>
       <c r="G42" t="n">
-        <v>211.2844464952338</v>
+        <v>203.8565848504114</v>
       </c>
       <c r="H42" t="n">
-        <v>1.002501804450669</v>
+        <v>2.543648637653942</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1674605734586177</v>
+        <v>0.1733775405059109</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5857861007471011</v>
+        <v>0.5857859663207852</v>
       </c>
       <c r="K42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.953794616924554</v>
+        <v>-7.950106417651085</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.3853292522232</v>
+        <v>113.3826955675344</v>
       </c>
       <c r="R42" t="n">
-        <v>211.2844464952338</v>
+        <v>203.8565848504114</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,28 +3217,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.9460817538015</v>
+        <v>-7.929222332147156</v>
       </c>
       <c r="D43" t="n">
-        <v>113.3900616104065</v>
+        <v>113.3920250667955</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.953794845401112</v>
+        <v>-7.950106713482298</v>
       </c>
       <c r="F43" t="n">
-        <v>113.3853293034549</v>
+        <v>113.3826996360193</v>
       </c>
       <c r="G43" t="n">
-        <v>211.2844462945346</v>
+        <v>203.8565836041361</v>
       </c>
       <c r="H43" t="n">
-        <v>1.003580391225151</v>
+        <v>2.539195931983789</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1674605734588873</v>
+        <v>0.1733775405152526</v>
       </c>
       <c r="J43" t="n">
-        <v>0.999810013985316</v>
+        <v>0.9999990084290182</v>
       </c>
       <c r="K43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.953794845401112</v>
+        <v>-7.950106713482298</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.3853293034549</v>
+        <v>113.3826996360193</v>
       </c>
       <c r="R43" t="n">
-        <v>211.2844462945346</v>
+        <v>203.8565836041361</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,28 +3282,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.946088928511201</v>
+        <v>-7.929209592445787</v>
       </c>
       <c r="D44" t="n">
-        <v>113.3900575570798</v>
+        <v>113.3920309026597</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.953796884694227</v>
+        <v>-7.950110848896411</v>
       </c>
       <c r="F44" t="n">
-        <v>113.3853284008927</v>
+        <v>113.3826979363669</v>
       </c>
       <c r="G44" t="n">
-        <v>211.2844463889036</v>
+        <v>203.8565840546451</v>
       </c>
       <c r="H44" t="n">
-        <v>1.00291220085946</v>
+        <v>2.54124768641731</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1674605734599168</v>
+        <v>0.173377540524556</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9998666614749728</v>
+        <v>0.999999177801269</v>
       </c>
       <c r="K44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.953796884694227</v>
+        <v>-7.950110848896411</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.3853284008927</v>
+        <v>113.3826979363669</v>
       </c>
       <c r="R44" t="n">
-        <v>211.2844463889036</v>
+        <v>203.8565840546451</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.946090596149623</v>
+        <v>-7.929209592445787</v>
       </c>
       <c r="D45" t="n">
-        <v>113.3900563096483</v>
+        <v>113.3920309026597</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.953795654200656</v>
+        <v>-7.950110848896411</v>
       </c>
       <c r="F45" t="n">
-        <v>113.3853289316051</v>
+        <v>113.3826979363669</v>
       </c>
       <c r="G45" t="n">
-        <v>211.2844464028119</v>
+        <v>203.8565840546451</v>
       </c>
       <c r="H45" t="n">
-        <v>1.002535112458738</v>
+        <v>2.54124768641731</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1674605734603764</v>
+        <v>0.173377540524556</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9999103664657775</v>
+        <v>0.9999992699886178</v>
       </c>
       <c r="K45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.953795654200656</v>
+        <v>-7.950110848896411</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.3853289316051</v>
+        <v>113.3826979363669</v>
       </c>
       <c r="R45" t="n">
-        <v>211.2844464028119</v>
+        <v>203.8565840546451</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,28 +3412,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.946090596149623</v>
+        <v>-7.929213541484962</v>
       </c>
       <c r="D46" t="n">
-        <v>113.3900563096483</v>
+        <v>113.3920289972861</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.953795654200656</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="F46" t="n">
-        <v>113.3853289316051</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="G46" t="n">
-        <v>211.2844464028119</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="H46" t="n">
-        <v>1.002535112458738</v>
+        <v>2.54071227640338</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1674605734603764</v>
+        <v>0.1733775405249137</v>
       </c>
       <c r="J46" t="n">
-        <v>0.999966666807095</v>
+        <v>0.999999210042268</v>
       </c>
       <c r="K46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.953795654200656</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.3853289316051</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="R46" t="n">
-        <v>211.2844464028119</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,28 +3477,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.946090596149623</v>
+        <v>-7.929213541484962</v>
       </c>
       <c r="D47" t="n">
-        <v>113.3900563096483</v>
+        <v>113.3920289972861</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.953795654200656</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="F47" t="n">
-        <v>113.3853289316051</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="G47" t="n">
-        <v>211.2844464028119</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="H47" t="n">
-        <v>1.002535112458738</v>
+        <v>2.54071227640338</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1674605734603764</v>
+        <v>0.1733775405249137</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9999781460843514</v>
+        <v>0.9305689472725099</v>
       </c>
       <c r="K47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.953795654200656</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.3853289316051</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="R47" t="n">
-        <v>211.2844464028119</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,28 +3542,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.946089733438493</v>
+        <v>-7.929213541484962</v>
       </c>
       <c r="D48" t="n">
-        <v>113.3900574410085</v>
+        <v>113.3920289972861</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.953795783774559</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="F48" t="n">
-        <v>113.3853294541533</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="G48" t="n">
-        <v>211.284446401072</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="H48" t="n">
-        <v>1.002664222958077</v>
+        <v>2.54071227640338</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1674605734604214</v>
+        <v>0.1733775405249137</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999876059133813</v>
+        <v>0.9673295422384175</v>
       </c>
       <c r="K48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.953795783774559</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.3853294541533</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="R48" t="n">
-        <v>211.284446401072</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,28 +3607,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.946084616426377</v>
+        <v>-7.929213541484962</v>
       </c>
       <c r="D49" t="n">
-        <v>113.3900598598117</v>
+        <v>113.3920289972861</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.953795512003264</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="F49" t="n">
-        <v>113.385328900192</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="G49" t="n">
-        <v>211.2844463888633</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="H49" t="n">
-        <v>1.003294658168038</v>
+        <v>2.54071227640338</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1674605734604722</v>
+        <v>0.1733775405249137</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999937556198158</v>
+        <v>0.980729908966085</v>
       </c>
       <c r="K49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.953795512003264</v>
+        <v>-7.950110394316023</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.385328900192</v>
+        <v>113.3826979973447</v>
       </c>
       <c r="R49" t="n">
-        <v>211.2844463888633</v>
+        <v>203.8565840584928</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,28 +3672,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.9460883839859</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D50" t="n">
-        <v>113.3900576281037</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.953795613142156</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F50" t="n">
-        <v>113.3853289179941</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G50" t="n">
-        <v>211.2844463904892</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H50" t="n">
-        <v>1.002817604263079</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1674605734605168</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999960741494442</v>
+        <v>0.9720538422172761</v>
       </c>
       <c r="K50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.953795613142156</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.3853289179941</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R50" t="n">
-        <v>211.2844463904892</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.946089191424498</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D51" t="n">
-        <v>113.3900575341931</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.953795737372437</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F51" t="n">
-        <v>113.38532924326</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G51" t="n">
-        <v>211.2844463935924</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H51" t="n">
-        <v>1.002728709092846</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1674605734605421</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999973208011118</v>
+        <v>0.981046859067812</v>
       </c>
       <c r="K51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.953795737372437</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.38532924326</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R51" t="n">
-        <v>211.2844463935924</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,28 +3802,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.94608928341804</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D52" t="n">
-        <v>113.3900573813478</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.953795631837122</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F52" t="n">
-        <v>113.3853292116089</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G52" t="n">
-        <v>211.2844463921465</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H52" t="n">
-        <v>1.002703007739591</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1674605734605525</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857864397996938</v>
+        <v>0.5857802296440181</v>
       </c>
       <c r="K52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.953795631837122</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.3853292116089</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R52" t="n">
-        <v>211.2844463921465</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,28 +3867,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.946089009430722</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D53" t="n">
-        <v>113.3900575568558</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.95379580571818</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F53" t="n">
-        <v>113.3853291123278</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G53" t="n">
-        <v>211.284446392247</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H53" t="n">
-        <v>1.002761281841268</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I53" t="n">
-        <v>0.167460573460559</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999994862171429</v>
+        <v>0.9988310479089071</v>
       </c>
       <c r="K53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.95379580571818</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.3853291123278</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R53" t="n">
-        <v>211.284446392247</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,28 +3932,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.946089189696141</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D54" t="n">
-        <v>113.3900574248694</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.953795825682947</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F54" t="n">
-        <v>113.3853290786929</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G54" t="n">
-        <v>211.2844463914461</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H54" t="n">
-        <v>1.002740424418249</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1674605734605673</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J54" t="n">
-        <v>0.999999984795557</v>
+        <v>0.9995997142630262</v>
       </c>
       <c r="K54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.953795825682947</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.3853290786929</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R54" t="n">
-        <v>211.2844463914461</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,28 +3997,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.94608959354971</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D55" t="n">
-        <v>113.3900573607004</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.953795843784032</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F55" t="n">
-        <v>113.3853292511999</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G55" t="n">
-        <v>211.2844463911533</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H55" t="n">
-        <v>1.002690232483624</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1674605734605726</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999999855337303</v>
+        <v>0.9997689854037122</v>
       </c>
       <c r="K55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.953795843784032</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.3853292511999</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R55" t="n">
-        <v>211.2844463911533</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,28 +4062,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.94608959354971</v>
+        <v>-7.929214521493305</v>
       </c>
       <c r="D56" t="n">
-        <v>113.3900573607004</v>
+        <v>113.3920307118693</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.953795843784032</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="F56" t="n">
-        <v>113.3853292511999</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="G56" t="n">
-        <v>211.2844463911533</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="H56" t="n">
-        <v>1.002690232483624</v>
+        <v>2.540546828111428</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1674605734605726</v>
+        <v>0.1733775405263044</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999999855337256</v>
+        <v>0.9998448085295166</v>
       </c>
       <c r="K56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.953795843784032</v>
+        <v>-7.95011001354677</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.3853292511999</v>
+        <v>113.3827003195491</v>
       </c>
       <c r="R56" t="n">
-        <v>211.2844463911533</v>
+        <v>203.8565840899801</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,28 +4127,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.946088959265129</v>
+        <v>-7.929214906233056</v>
       </c>
       <c r="D57" t="n">
-        <v>113.3900577051912</v>
+        <v>113.3920299198652</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109363789391</v>
       </c>
       <c r="F57" t="n">
-        <v>113.385329234021</v>
+        <v>113.3826999894726</v>
       </c>
       <c r="G57" t="n">
-        <v>211.2844463913146</v>
+        <v>203.8565841348504</v>
       </c>
       <c r="H57" t="n">
-        <v>1.002766931886902</v>
+        <v>2.540421050595485</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1674605734605752</v>
+        <v>0.1733775405269685</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999999855337149</v>
+        <v>0.9999383094400345</v>
       </c>
       <c r="K57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109363789391</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.385329234021</v>
+        <v>113.3826999894726</v>
       </c>
       <c r="R57" t="n">
-        <v>211.2844463913146</v>
+        <v>203.8565841348504</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,28 +4192,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.946088959265129</v>
+        <v>-7.929214906233056</v>
       </c>
       <c r="D58" t="n">
-        <v>113.3900577051912</v>
+        <v>113.3920299198652</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109363789391</v>
       </c>
       <c r="F58" t="n">
-        <v>113.385329234021</v>
+        <v>113.3826999894726</v>
       </c>
       <c r="G58" t="n">
-        <v>211.2844463913146</v>
+        <v>203.8565841348504</v>
       </c>
       <c r="H58" t="n">
-        <v>1.002766931886902</v>
+        <v>2.540421050595485</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1674605734605752</v>
+        <v>0.1733775405269685</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999855337143</v>
+        <v>0.9999618399601939</v>
       </c>
       <c r="K58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109363789391</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.385329234021</v>
+        <v>113.3826999894726</v>
       </c>
       <c r="R58" t="n">
-        <v>211.2844463913146</v>
+        <v>203.8565841348504</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,28 +4257,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.946088959265129</v>
+        <v>-7.929212668941971</v>
       </c>
       <c r="D59" t="n">
-        <v>113.3900577051912</v>
+        <v>113.3920302672888</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109403712559</v>
       </c>
       <c r="F59" t="n">
-        <v>113.385329234021</v>
+        <v>113.3826993200504</v>
       </c>
       <c r="G59" t="n">
-        <v>211.2844463913146</v>
+        <v>203.8565841423385</v>
       </c>
       <c r="H59" t="n">
-        <v>1.002766931886902</v>
+        <v>2.540697923770764</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1674605734605752</v>
+        <v>0.173377540527096</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999867463005</v>
+        <v>0.999999981298643</v>
       </c>
       <c r="K59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109403712559</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.385329234021</v>
+        <v>113.3826993200504</v>
       </c>
       <c r="R59" t="n">
-        <v>211.2844463913146</v>
+        <v>203.8565841423385</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,28 +4322,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.946088959265129</v>
+        <v>-7.929214118491752</v>
       </c>
       <c r="D60" t="n">
-        <v>113.3900577051912</v>
+        <v>113.392030424997</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109571369448</v>
       </c>
       <c r="F60" t="n">
-        <v>113.385329234021</v>
+        <v>113.3827000501545</v>
       </c>
       <c r="G60" t="n">
-        <v>211.2844463913146</v>
+        <v>203.856584147687</v>
       </c>
       <c r="H60" t="n">
-        <v>1.002766931886902</v>
+        <v>2.540542066092091</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1674605734605752</v>
+        <v>0.17337754052712</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999881795759</v>
+        <v>0.9999999968807165</v>
       </c>
       <c r="K60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.953795798976357</v>
+        <v>-7.950109571369448</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.385329234021</v>
+        <v>113.3827000501545</v>
       </c>
       <c r="R60" t="n">
-        <v>211.2844463913146</v>
+        <v>203.856584147687</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,28 +4387,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.946089099725943</v>
+        <v>-7.929213283054819</v>
       </c>
       <c r="D61" t="n">
-        <v>113.3900576115435</v>
+        <v>113.3920303738175</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="F61" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="G61" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="H61" t="n">
-        <v>1.002749975671022</v>
+        <v>2.540671524871793</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1674605734605758</v>
+        <v>0.1733775405272502</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999904984312</v>
+        <v>0.9999999982090586</v>
       </c>
       <c r="K61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="R61" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,28 +4452,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.946089099725943</v>
+        <v>-7.929213283054819</v>
       </c>
       <c r="D62" t="n">
-        <v>113.3900576115435</v>
+        <v>113.3920303738175</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="F62" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="G62" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="H62" t="n">
-        <v>1.002749975671022</v>
+        <v>2.540671524871793</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1674605734605758</v>
+        <v>0.1733775405272502</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5857864398003182</v>
+        <v>0.5857864397261447</v>
       </c>
       <c r="K62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="R62" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,28 +4517,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.946089099725943</v>
+        <v>-7.929213283054819</v>
       </c>
       <c r="D63" t="n">
-        <v>113.3900576115435</v>
+        <v>113.3920303738175</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="F63" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="G63" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="H63" t="n">
-        <v>1.002749975671022</v>
+        <v>2.540671524871793</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1674605734605758</v>
+        <v>0.1733775405272502</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999999999981615</v>
+        <v>0.999999999993523</v>
       </c>
       <c r="K63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="R63" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,28 +4582,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.946089099725943</v>
+        <v>-7.929213283054819</v>
       </c>
       <c r="D64" t="n">
-        <v>113.3900576115435</v>
+        <v>113.3920303738175</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="F64" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="G64" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="H64" t="n">
-        <v>1.002749975671022</v>
+        <v>2.540671524871793</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1674605734605758</v>
+        <v>0.1733775405272502</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9999999999981362</v>
+        <v>0.9999999999930866</v>
       </c>
       <c r="K64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.953795809119363</v>
+        <v>-7.950109800700305</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.3853292203289</v>
+        <v>113.3826995235214</v>
       </c>
       <c r="R64" t="n">
-        <v>211.2844463913595</v>
+        <v>203.8565841453588</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,28 +4647,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213477420982</v>
       </c>
       <c r="D65" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305647853</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950110170506164</v>
       </c>
       <c r="F65" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996361425</v>
       </c>
       <c r="G65" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841441016</v>
       </c>
       <c r="H65" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540692855524184</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272609</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9361047058043858</v>
+        <v>0.915531958766567</v>
       </c>
       <c r="K65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950110170506164</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996361425</v>
       </c>
       <c r="R65" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841441016</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,28 +4712,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213080319728</v>
       </c>
       <c r="D66" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305644696</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109914255834</v>
       </c>
       <c r="F66" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826995729384</v>
       </c>
       <c r="G66" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443378</v>
       </c>
       <c r="H66" t="n">
-        <v>1.002734657581288</v>
+        <v>2.54070998076029</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.173377540527278</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9335132369540633</v>
+        <v>0.9536900144898165</v>
       </c>
       <c r="K66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109914255834</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826995729384</v>
       </c>
       <c r="R66" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443378</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,28 +4777,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213080319728</v>
       </c>
       <c r="D67" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305644696</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109914255834</v>
       </c>
       <c r="F67" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826995729384</v>
       </c>
       <c r="G67" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443378</v>
       </c>
       <c r="H67" t="n">
-        <v>1.002734657581288</v>
+        <v>2.54070998076029</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.173377540527278</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9864394117612785</v>
+        <v>0.9939390980234004</v>
       </c>
       <c r="K67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109914255834</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826995729384</v>
       </c>
       <c r="R67" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443378</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,28 +4842,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213080319728</v>
       </c>
       <c r="D68" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305644696</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109914255834</v>
       </c>
       <c r="F68" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826995729384</v>
       </c>
       <c r="G68" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443378</v>
       </c>
       <c r="H68" t="n">
-        <v>1.002734657581288</v>
+        <v>2.54070998076029</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.173377540527278</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9915777273503227</v>
+        <v>0.9980625796249367</v>
       </c>
       <c r="K68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109914255834</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826995729384</v>
       </c>
       <c r="R68" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443378</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,28 +4907,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213484997275</v>
       </c>
       <c r="D69" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304897086</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109969955981</v>
       </c>
       <c r="F69" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996540046</v>
       </c>
       <c r="G69" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443834</v>
       </c>
       <c r="H69" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540667550660763</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272806</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9934345442972992</v>
+        <v>0.9985604589493885</v>
       </c>
       <c r="K69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109969955981</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996540046</v>
       </c>
       <c r="R69" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443834</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,28 +4972,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213484997275</v>
       </c>
       <c r="D70" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304897086</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109969955981</v>
       </c>
       <c r="F70" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996540046</v>
       </c>
       <c r="G70" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443834</v>
       </c>
       <c r="H70" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540667550660763</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272806</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9944896588968071</v>
+        <v>0.9993943782431867</v>
       </c>
       <c r="K70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109969955981</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996540046</v>
       </c>
       <c r="R70" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443834</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213501663584</v>
       </c>
       <c r="D71" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305224373</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.9501099794912</v>
       </c>
       <c r="F71" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996899174</v>
       </c>
       <c r="G71" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443191</v>
       </c>
       <c r="H71" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540666683632394</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272808</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9969335609914648</v>
+        <v>0.9996339900543634</v>
       </c>
       <c r="K71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.9501099794912</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996899174</v>
       </c>
       <c r="R71" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443191</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,28 +5102,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213225583621</v>
       </c>
       <c r="D72" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030583586</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109950945675</v>
       </c>
       <c r="F72" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996405355</v>
       </c>
       <c r="G72" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443376</v>
       </c>
       <c r="H72" t="n">
-        <v>1.002734657581288</v>
+        <v>2.54069677988276</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857850237223322</v>
+        <v>0.5857864112426724</v>
       </c>
       <c r="K72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109950945675</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996405355</v>
       </c>
       <c r="R72" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443376</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,28 +5167,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213225583621</v>
       </c>
       <c r="D73" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030583586</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109950945675</v>
       </c>
       <c r="F73" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996405355</v>
       </c>
       <c r="G73" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443376</v>
       </c>
       <c r="H73" t="n">
-        <v>1.002734657581288</v>
+        <v>2.54069677988276</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9997607963263077</v>
+        <v>0.9999999999999292</v>
       </c>
       <c r="K73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109950945675</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996405355</v>
       </c>
       <c r="R73" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443376</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,28 +5232,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213482615126</v>
       </c>
       <c r="D74" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304803172</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="F74" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="G74" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="H74" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540664476727819</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9998676807871423</v>
+        <v>0.9999999999999312</v>
       </c>
       <c r="K74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="R74" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,28 +5297,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213482615126</v>
       </c>
       <c r="D75" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304803172</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="F75" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="G75" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="H75" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540664476727819</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9999706809643183</v>
+        <v>0.9356711573203071</v>
       </c>
       <c r="K75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="R75" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,28 +5362,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213482615126</v>
       </c>
       <c r="D76" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304803172</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="F76" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="G76" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="H76" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540664476727819</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999860441857206</v>
+        <v>0.9641901812595857</v>
       </c>
       <c r="K76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="R76" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,28 +5427,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213482615126</v>
       </c>
       <c r="D77" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304803172</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="F77" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="G77" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="H77" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540664476727819</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999880397250392</v>
+        <v>0.9865995102920622</v>
       </c>
       <c r="K77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="R77" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,28 +5492,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213482615126</v>
       </c>
       <c r="D78" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304803172</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="F78" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="G78" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="H78" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540664476727819</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272812</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999881289384606</v>
+        <v>0.9189462762194577</v>
       </c>
       <c r="K78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109942291478</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996559032</v>
       </c>
       <c r="R78" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443414</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,28 +5557,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213468887544</v>
       </c>
       <c r="D79" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305000229</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="F79" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="G79" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="H79" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540666601746664</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272814</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999983703739292</v>
+        <v>0.9780710412878511</v>
       </c>
       <c r="K79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="R79" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,28 +5622,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213468887544</v>
       </c>
       <c r="D80" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305000229</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="F80" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="G80" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="H80" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540666601746664</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272814</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999999999999707</v>
+        <v>0.9578299939492245</v>
       </c>
       <c r="K80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="R80" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,28 +5687,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213468887544</v>
       </c>
       <c r="D81" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305000229</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="F81" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="G81" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="H81" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540666601746664</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272814</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9999999999999916</v>
+        <v>0.9901071346208089</v>
       </c>
       <c r="K81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="R81" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,28 +5752,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213468887544</v>
       </c>
       <c r="D82" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305000229</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="F82" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="G82" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="H82" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540666601746664</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272814</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5857864398003182</v>
+        <v>0.5857806725403274</v>
       </c>
       <c r="K82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109946041671</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996678044</v>
       </c>
       <c r="R82" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443228</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,28 +5817,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213461937775</v>
       </c>
       <c r="D83" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304993128</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.95010995504632</v>
       </c>
       <c r="F83" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996599701</v>
       </c>
       <c r="G83" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443211</v>
       </c>
       <c r="H83" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668541550027</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272814</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999976</v>
       </c>
       <c r="K83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.95010995504632</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996599701</v>
       </c>
       <c r="R83" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443211</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,28 +5882,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213471732838</v>
       </c>
       <c r="D84" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920305002799</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109956349188</v>
       </c>
       <c r="F84" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996647291</v>
       </c>
       <c r="G84" t="n">
-        <v>211.2844463913525</v>
+        <v>203.856584144323</v>
       </c>
       <c r="H84" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540667509034182</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272814</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999758</v>
       </c>
       <c r="K84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109956349188</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996647291</v>
       </c>
       <c r="R84" t="n">
-        <v>211.2844463913525</v>
+        <v>203.856584144323</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,28 +5947,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213463787175</v>
       </c>
       <c r="D85" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304991436</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109957069607</v>
       </c>
       <c r="F85" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996597231</v>
       </c>
       <c r="G85" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443256</v>
       </c>
       <c r="H85" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668562692127</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999758</v>
       </c>
       <c r="K85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109957069607</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996597231</v>
       </c>
       <c r="R85" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443256</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,28 +6012,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.929213463787175</v>
       </c>
       <c r="D86" t="n">
-        <v>113.3900575416487</v>
+        <v>113.3920304991436</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109957069607</v>
       </c>
       <c r="F86" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996597231</v>
       </c>
       <c r="G86" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443256</v>
       </c>
       <c r="H86" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668562692127</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999758</v>
       </c>
       <c r="K86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109957069607</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996597231</v>
       </c>
       <c r="R86" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443256</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,28 +6077,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D87" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F87" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G87" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H87" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999782</v>
       </c>
       <c r="K87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R87" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,28 +6142,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D88" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F88" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G88" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H88" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999853</v>
       </c>
       <c r="K88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R88" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,28 +6207,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D89" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F89" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G89" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H89" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999913</v>
       </c>
       <c r="K89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R89" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,28 +6272,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D90" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F90" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G90" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H90" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999913</v>
       </c>
       <c r="K90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R90" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,28 +6337,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.946089229821241</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D91" t="n">
-        <v>113.3900575416487</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F91" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G91" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H91" t="n">
-        <v>1.002734657581288</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999942</v>
       </c>
       <c r="K91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.953795821486753</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.3853292226653</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R91" t="n">
-        <v>211.2844463913525</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,28 +6402,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.946089105815772</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D92" t="n">
-        <v>113.3900576107674</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F92" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G92" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H92" t="n">
-        <v>1.002749992408294</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5857864398003182</v>
+        <v>0.5857864397261446</v>
       </c>
       <c r="K92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R92" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,25 +6467,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.946089105815772</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D93" t="n">
-        <v>113.3900576107674</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F93" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G93" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H93" t="n">
-        <v>1.002749992408294</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J93" t="n">
         <v>0.9999999999999998</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R93" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,25 +6532,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.946089105815772</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D94" t="n">
-        <v>113.3900576107674</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F94" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G94" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H94" t="n">
-        <v>1.002749992408294</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J94" t="n">
         <v>0.9999999999999998</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R94" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,28 +6597,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.946089105815772</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D95" t="n">
-        <v>113.3900576107674</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F95" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G95" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H95" t="n">
-        <v>1.002749992408294</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9829533805101638</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.953795815337827</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.3853292194738</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R95" t="n">
-        <v>211.2844463913546</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,28 +6662,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D96" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F96" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G96" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H96" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9535418862348057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R96" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,28 +6727,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D97" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F97" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G97" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H97" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9228660890800716</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R97" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,28 +6792,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D98" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F98" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G98" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H98" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9788843111723928</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R98" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,28 +6857,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D99" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F99" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G99" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H99" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9107804718767245</v>
+        <v>0.9519267578003761</v>
       </c>
       <c r="K99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R99" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,28 +6922,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D100" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F100" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G100" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H100" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9840356569089597</v>
+        <v>0.9712191157375786</v>
       </c>
       <c r="K100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R100" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,28 +6987,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D101" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F101" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G101" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H101" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9921156018335754</v>
+        <v>0.9848391268387665</v>
       </c>
       <c r="K101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R101" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,28 +7052,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D102" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F102" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G102" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H102" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5857778456579467</v>
+        <v>0.5857811486446584</v>
       </c>
       <c r="K102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R102" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,28 +7117,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D103" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F103" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G103" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H103" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9989704225709219</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R103" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,28 +7182,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D104" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F104" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G104" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H104" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9994512143567815</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R104" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,28 +7247,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D105" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F105" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G105" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H105" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9995689839639333</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R105" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,28 +7312,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D106" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F106" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G106" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H106" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9998292089628807</v>
+        <v>0.8969130530690349</v>
       </c>
       <c r="K106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R106" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,28 +7377,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D107" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F107" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G107" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H107" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9999426734501884</v>
+        <v>0.9415597600179415</v>
       </c>
       <c r="K107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R107" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,28 +7442,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C108" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D108" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F108" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G108" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H108" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9999744695482931</v>
+        <v>0.9120491813519637</v>
       </c>
       <c r="K108" t="n">
         <v>448</v>
@@ -7481,13 +7481,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P108" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q108" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R108" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S108" t="b">
         <v>0</v>
@@ -7507,28 +7507,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C109" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D109" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F109" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G109" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H109" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9999911197530847</v>
+        <v>0.9686937087422524</v>
       </c>
       <c r="K109" t="n">
         <v>448</v>
@@ -7546,13 +7546,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P109" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q109" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R109" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S109" t="b">
         <v>0</v>
@@ -7572,28 +7572,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C110" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D110" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F110" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G110" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H110" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J110" t="n">
-        <v>0.9999932885118537</v>
+        <v>0.9886928486901885</v>
       </c>
       <c r="K110" t="n">
         <v>448</v>
@@ -7611,13 +7611,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P110" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q110" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R110" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S110" t="b">
         <v>0</v>
@@ -7637,28 +7637,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C111" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D111" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F111" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G111" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H111" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9999988094297233</v>
+        <v>0.935368292521062</v>
       </c>
       <c r="K111" t="n">
         <v>448</v>
@@ -7676,13 +7676,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P111" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q111" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R111" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S111" t="b">
         <v>0</v>
@@ -7702,28 +7702,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C112" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D112" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F112" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G112" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H112" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5857864398003182</v>
+        <v>0.5857723420428534</v>
       </c>
       <c r="K112" t="n">
         <v>448</v>
@@ -7741,13 +7741,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P112" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q112" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R112" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -7767,28 +7767,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C113" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D113" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F113" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G113" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H113" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9985456602994852</v>
       </c>
       <c r="K113" t="n">
         <v>448</v>
@@ -7806,13 +7806,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P113" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q113" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R113" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -7832,28 +7832,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D114" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F114" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G114" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H114" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9992817320882875</v>
       </c>
       <c r="K114" t="n">
         <v>448</v>
@@ -7871,13 +7871,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P114" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q114" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R114" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S114" t="b">
         <v>0</v>
@@ -7897,28 +7897,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D115" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F115" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G115" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H115" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9998304869759526</v>
       </c>
       <c r="K115" t="n">
         <v>448</v>
@@ -7936,13 +7936,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P115" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q115" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R115" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S115" t="b">
         <v>0</v>
@@ -7962,28 +7962,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D116" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F116" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G116" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H116" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9998493022724788</v>
       </c>
       <c r="K116" t="n">
         <v>448</v>
@@ -8001,13 +8001,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P116" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q116" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R116" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S116" t="b">
         <v>0</v>
@@ -8027,28 +8027,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C117" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D117" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F117" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G117" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H117" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999542681462623</v>
       </c>
       <c r="K117" t="n">
         <v>448</v>
@@ -8066,13 +8066,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P117" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R117" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -8092,28 +8092,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D118" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F118" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G118" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H118" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999745388478078</v>
       </c>
       <c r="K118" t="n">
         <v>448</v>
@@ -8131,13 +8131,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P118" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q118" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R118" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S118" t="b">
         <v>0</v>
@@ -8157,28 +8157,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D119" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F119" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G119" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H119" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999960053656675</v>
       </c>
       <c r="K119" t="n">
         <v>448</v>
@@ -8196,13 +8196,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P119" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q119" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R119" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S119" t="b">
         <v>0</v>
@@ -8222,28 +8222,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D120" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F120" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G120" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H120" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999960053656675</v>
       </c>
       <c r="K120" t="n">
         <v>448</v>
@@ -8261,13 +8261,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P120" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q120" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R120" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
@@ -8287,28 +8287,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D121" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F121" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G121" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H121" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999960053656675</v>
       </c>
       <c r="K121" t="n">
         <v>448</v>
@@ -8326,13 +8326,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P121" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q121" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R121" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S121" t="b">
         <v>0</v>
@@ -8352,28 +8352,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D122" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F122" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G122" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H122" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5857864398003182</v>
+        <v>0.5857864397261447</v>
       </c>
       <c r="K122" t="n">
         <v>448</v>
@@ -8391,13 +8391,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P122" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q122" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R122" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S122" t="b">
         <v>0</v>
@@ -8417,28 +8417,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C123" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D123" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F123" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G123" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H123" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v>448</v>
@@ -8456,13 +8456,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P123" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q123" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R123" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S123" t="b">
         <v>0</v>
@@ -8482,25 +8482,25 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C124" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D124" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F124" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G124" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H124" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -8521,13 +8521,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P124" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q124" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R124" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S124" t="b">
         <v>0</v>
@@ -8547,28 +8547,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C125" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D125" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F125" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G125" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H125" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J125" t="n">
-        <v>0.9008908941394203</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
         <v>448</v>
@@ -8586,13 +8586,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P125" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q125" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R125" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S125" t="b">
         <v>0</v>
@@ -8612,28 +8612,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C126" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D126" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F126" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G126" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H126" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J126" t="n">
-        <v>0.8920685962019792</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>448</v>
@@ -8651,13 +8651,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P126" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q126" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R126" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S126" t="b">
         <v>0</v>
@@ -8677,28 +8677,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C127" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D127" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F127" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G127" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H127" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J127" t="n">
-        <v>0.9245278250255748</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>448</v>
@@ -8716,13 +8716,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P127" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q127" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R127" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S127" t="b">
         <v>0</v>
@@ -8742,28 +8742,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C128" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D128" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F128" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G128" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H128" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9625422145601713</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>448</v>
@@ -8781,13 +8781,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P128" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q128" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R128" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S128" t="b">
         <v>0</v>
@@ -8807,28 +8807,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C129" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D129" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F129" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G129" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H129" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J129" t="n">
-        <v>0.9135376211135193</v>
+        <v>0.9526388006846805</v>
       </c>
       <c r="K129" t="n">
         <v>448</v>
@@ -8846,13 +8846,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P129" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q129" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R129" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S129" t="b">
         <v>0</v>
@@ -8872,28 +8872,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C130" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D130" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F130" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G130" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H130" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J130" t="n">
-        <v>0.992661927088346</v>
+        <v>0.9660030523009936</v>
       </c>
       <c r="K130" t="n">
         <v>448</v>
@@ -8911,13 +8911,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P130" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q130" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R130" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S130" t="b">
         <v>0</v>
@@ -8937,28 +8937,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C131" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D131" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F131" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G131" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H131" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J131" t="n">
-        <v>0.996894128263549</v>
+        <v>0.9885309341603041</v>
       </c>
       <c r="K131" t="n">
         <v>448</v>
@@ -8976,13 +8976,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P131" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q131" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R131" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S131" t="b">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C132" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D132" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F132" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G132" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H132" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5857849553705957</v>
+        <v>0.585779980309367</v>
       </c>
       <c r="K132" t="n">
         <v>448</v>
@@ -9041,13 +9041,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P132" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q132" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R132" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S132" t="b">
         <v>0</v>
@@ -9067,28 +9067,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D133" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F133" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G133" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H133" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9994269591380702</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>448</v>
@@ -9106,13 +9106,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P133" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q133" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R133" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S133" t="b">
         <v>0</v>
@@ -9132,28 +9132,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C134" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.92921347034456</v>
       </c>
       <c r="D134" t="n">
-        <v>113.3900576120834</v>
+        <v>113.392030499146</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="F134" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="G134" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H134" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540668296768338</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J134" t="n">
-        <v>0.9996443390287267</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
         <v>448</v>
@@ -9171,13 +9171,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P134" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109961439832</v>
       </c>
       <c r="Q134" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996607021</v>
       </c>
       <c r="R134" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S134" t="b">
         <v>0</v>
@@ -9197,28 +9197,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D135" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F135" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G135" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H135" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9996968892928498</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>448</v>
@@ -9236,13 +9236,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P135" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q135" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R135" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S135" t="b">
         <v>0</v>
@@ -9262,28 +9262,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D136" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F136" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G136" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H136" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9997906874352023</v>
+        <v>0.8981340109371362</v>
       </c>
       <c r="K136" t="n">
         <v>448</v>
@@ -9301,13 +9301,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P136" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q136" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R136" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S136" t="b">
         <v>0</v>
@@ -9327,28 +9327,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C137" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D137" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F137" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G137" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H137" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J137" t="n">
-        <v>0.9998570516895395</v>
+        <v>0.9516213707492301</v>
       </c>
       <c r="K137" t="n">
         <v>448</v>
@@ -9366,13 +9366,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P137" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q137" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R137" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S137" t="b">
         <v>0</v>
@@ -9392,28 +9392,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C138" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D138" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F138" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G138" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H138" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J138" t="n">
-        <v>0.9999604997921734</v>
+        <v>0.9414042344026021</v>
       </c>
       <c r="K138" t="n">
         <v>448</v>
@@ -9431,13 +9431,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P138" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q138" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R138" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S138" t="b">
         <v>0</v>
@@ -9457,28 +9457,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D139" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F139" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G139" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H139" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9999689371540514</v>
+        <v>0.9613751743622</v>
       </c>
       <c r="K139" t="n">
         <v>448</v>
@@ -9496,13 +9496,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P139" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q139" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R139" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S139" t="b">
         <v>0</v>
@@ -9522,28 +9522,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C140" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D140" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F140" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G140" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H140" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9999838363130562</v>
+        <v>0.9872402961933252</v>
       </c>
       <c r="K140" t="n">
         <v>448</v>
@@ -9561,13 +9561,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P140" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q140" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R140" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S140" t="b">
         <v>0</v>
@@ -9587,28 +9587,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D141" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F141" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G141" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H141" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J141" t="n">
-        <v>0.9999951311904897</v>
+        <v>0.995271918287162</v>
       </c>
       <c r="K141" t="n">
         <v>448</v>
@@ -9626,13 +9626,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P141" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q141" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R141" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S141" t="b">
         <v>0</v>
@@ -9652,28 +9652,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D142" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F142" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G142" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H142" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5857864397954302</v>
+        <v>0.5838270068455098</v>
       </c>
       <c r="K142" t="n">
         <v>448</v>
@@ -9691,13 +9691,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P142" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q142" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R142" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S142" t="b">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C143" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D143" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F143" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G143" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H143" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J143" t="n">
-        <v>0.9999999990888448</v>
+        <v>0.9986960468323693</v>
       </c>
       <c r="K143" t="n">
         <v>448</v>
@@ -9756,13 +9756,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P143" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q143" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R143" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S143" t="b">
         <v>0</v>
@@ -9782,28 +9782,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C144" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D144" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F144" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G144" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H144" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9991517381272673</v>
       </c>
       <c r="K144" t="n">
         <v>448</v>
@@ -9821,13 +9821,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P144" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q144" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R144" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S144" t="b">
         <v>0</v>
@@ -9847,28 +9847,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D145" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F145" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G145" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H145" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J145" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9995187062251298</v>
       </c>
       <c r="K145" t="n">
         <v>448</v>
@@ -9886,13 +9886,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P145" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q145" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R145" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S145" t="b">
         <v>0</v>
@@ -9912,28 +9912,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C146" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D146" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F146" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G146" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H146" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9997515672653983</v>
       </c>
       <c r="K146" t="n">
         <v>448</v>
@@ -9951,13 +9951,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P146" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q146" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R146" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S146" t="b">
         <v>0</v>
@@ -9977,28 +9977,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C147" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D147" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F147" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G147" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H147" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9998396730254229</v>
       </c>
       <c r="K147" t="n">
         <v>448</v>
@@ -10016,13 +10016,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P147" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q147" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R147" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S147" t="b">
         <v>0</v>
@@ -10042,28 +10042,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C148" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D148" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F148" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G148" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H148" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999299196383606</v>
       </c>
       <c r="K148" t="n">
         <v>448</v>
@@ -10081,13 +10081,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P148" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q148" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R148" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S148" t="b">
         <v>0</v>
@@ -10107,28 +10107,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D149" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E149" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F149" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G149" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H149" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J149" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999364307416927</v>
       </c>
       <c r="K149" t="n">
         <v>448</v>
@@ -10146,13 +10146,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P149" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q149" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R149" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S149" t="b">
         <v>0</v>
@@ -10172,28 +10172,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D150" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F150" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G150" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H150" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J150" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999441284396167</v>
       </c>
       <c r="K150" t="n">
         <v>448</v>
@@ -10211,13 +10211,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P150" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q150" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R150" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S150" t="b">
         <v>0</v>
@@ -10237,28 +10237,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C151" t="n">
-        <v>-7.946089111316303</v>
+        <v>-7.929213485745082</v>
       </c>
       <c r="D151" t="n">
-        <v>113.3900576120834</v>
+        <v>113.3920304863052</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="F151" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="G151" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="H151" t="n">
-        <v>1.002750011926406</v>
+        <v>2.540665684408777</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1674605734605759</v>
+        <v>0.1733775405272815</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999681488926266</v>
       </c>
       <c r="K151" t="n">
         <v>448</v>
@@ -10276,13 +10276,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P151" t="n">
-        <v>-7.953795820988366</v>
+        <v>-7.950109955354322</v>
       </c>
       <c r="Q151" t="n">
-        <v>113.3853292206977</v>
+        <v>113.3826996574556</v>
       </c>
       <c r="R151" t="n">
-        <v>211.284446391355</v>
+        <v>203.8565841443264</v>
       </c>
       <c r="S151" t="b">
         <v>1</v>

--- a/output/ga_results/ga_prediction_data_for_lstm.xlsx
+++ b/output/ga_results/ga_prediction_data_for_lstm.xlsx
@@ -549,55 +549,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>45140.35833333333</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.123418571441711</v>
+        <v>-7.7480145570475</v>
       </c>
       <c r="D2" t="n">
-        <v>113.2883878823748</v>
+        <v>113.2968206556768</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.965241506325668</v>
+        <v>-7.85093839010313</v>
       </c>
       <c r="F2" t="n">
-        <v>113.5290296073224</v>
+        <v>113.1813027452584</v>
       </c>
       <c r="G2" t="n">
-        <v>56.43885942739092</v>
+        <v>228.0272368578504</v>
       </c>
       <c r="H2" t="n">
-        <v>31.80143088794345</v>
+        <v>17.11533229572005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.162682815959465</v>
+        <v>0.1599219715563081</v>
       </c>
       <c r="J2" t="n">
-        <v>0.893501070049649</v>
+        <v>0.8476711746059754</v>
       </c>
       <c r="K2" t="n">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>1106</v>
+        <v>1167</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>45140.35833333333</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.96676678729651</v>
+        <v>-7.84757356668564</v>
       </c>
       <c r="O2" t="n">
-        <v>113.530336586576</v>
+        <v>113.176403642278</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.965241506325668</v>
+        <v>-7.85093839010313</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.5290296073224</v>
+        <v>113.1813027452584</v>
       </c>
       <c r="R2" t="n">
-        <v>56.43885942739092</v>
+        <v>228.0272368578504</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -614,55 +614,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.985983099398696</v>
+        <v>-7.644360838877309</v>
       </c>
       <c r="D3" t="n">
-        <v>113.2316532261747</v>
+        <v>113.3039989901286</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.925461636791883</v>
+        <v>-7.895635743404903</v>
       </c>
       <c r="F3" t="n">
-        <v>113.5016326767669</v>
+        <v>113.3535891809129</v>
       </c>
       <c r="G3" t="n">
-        <v>77.26476828957485</v>
+        <v>168.9391994839989</v>
       </c>
       <c r="H3" t="n">
-        <v>30.48352272754391</v>
+        <v>28.46966056638901</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1642728369893018</v>
+        <v>0.1729606787797757</v>
       </c>
       <c r="J3" t="n">
-        <v>0.944671255851471</v>
+        <v>0.9515417028278146</v>
       </c>
       <c r="K3" t="n">
-        <v>1932</v>
+        <v>55</v>
       </c>
       <c r="L3" t="n">
-        <v>1106</v>
+        <v>448</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45108.22361111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N3" t="n">
-        <v>-7.96676678729651</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O3" t="n">
-        <v>113.530336586576</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.925461636791883</v>
+        <v>-7.895635743404903</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.5016326767669</v>
+        <v>113.3535891809129</v>
       </c>
       <c r="R3" t="n">
-        <v>77.26476828957485</v>
+        <v>168.9391994839989</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -679,55 +679,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.839934535787364</v>
+        <v>-7.644360838877309</v>
       </c>
       <c r="D4" t="n">
-        <v>113.5846768104069</v>
+        <v>113.3039989901286</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.895635743404903</v>
       </c>
       <c r="F4" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3535891809129</v>
       </c>
       <c r="G4" t="n">
-        <v>235.6268059196385</v>
+        <v>168.9391994839989</v>
       </c>
       <c r="H4" t="n">
-        <v>28.47439659677435</v>
+        <v>28.46966056638901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1684471195395173</v>
+        <v>0.1729606787797757</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9842855477916116</v>
+        <v>0.9723499353095543</v>
       </c>
       <c r="K4" t="n">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="L4" t="n">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>44877.10347222222</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.96386844576088</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O4" t="n">
-        <v>113.300380121246</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P4" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.895635743404903</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3535891809129</v>
       </c>
       <c r="R4" t="n">
-        <v>235.6268059196385</v>
+        <v>168.9391994839989</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -747,31 +747,31 @@
         <v>44877.10347222222</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.839934535787364</v>
+        <v>-7.92299592592753</v>
       </c>
       <c r="D5" t="n">
-        <v>113.5846768104069</v>
+        <v>113.4451167874278</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.98162221382425</v>
       </c>
       <c r="F5" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3708222295715</v>
       </c>
       <c r="G5" t="n">
-        <v>235.6268059196385</v>
+        <v>231.4481449483118</v>
       </c>
       <c r="H5" t="n">
-        <v>28.47439659677435</v>
+        <v>10.4612347758448</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1684471195395173</v>
+        <v>0.1735347387293763</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9914077842120059</v>
+        <v>0.9896038809366164</v>
       </c>
       <c r="K5" t="n">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="L5" t="n">
         <v>640</v>
@@ -786,13 +786,13 @@
         <v>113.300380121246</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.984456357712192</v>
+        <v>-7.98162221382425</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.3712482455571</v>
+        <v>113.3708222295715</v>
       </c>
       <c r="R5" t="n">
-        <v>235.6268059196385</v>
+        <v>231.4481449483118</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -809,55 +809,55 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.378334047427309</v>
+        <v>-7.656047483836351</v>
       </c>
       <c r="D6" t="n">
-        <v>113.3232112436799</v>
+        <v>113.3227418653066</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.979999728801901</v>
+        <v>-7.919075467202304</v>
       </c>
       <c r="F6" t="n">
-        <v>113.4214107858041</v>
+        <v>113.3585636238264</v>
       </c>
       <c r="G6" t="n">
-        <v>170.8185534311434</v>
+        <v>172.3176932767997</v>
       </c>
       <c r="H6" t="n">
-        <v>67.77168532677244</v>
+        <v>29.51243148965812</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1685775214384621</v>
+        <v>0.1736955074790425</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9943133435117989</v>
+        <v>0.9963547379688996</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="L6" t="n">
-        <v>1797</v>
+        <v>448</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>45488.02986111111</v>
+        <v>44785.47361111111</v>
       </c>
       <c r="N6" t="n">
-        <v>-7.98235949442294</v>
+        <v>-7.90590090675314</v>
       </c>
       <c r="O6" t="n">
-        <v>113.491685257373</v>
+        <v>113.40414682924</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.979999728801901</v>
+        <v>-7.919075467202304</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.4214107858041</v>
+        <v>113.3585636238264</v>
       </c>
       <c r="R6" t="n">
-        <v>170.8185534311434</v>
+        <v>172.3176932767997</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -877,31 +877,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.412122704826398</v>
+        <v>-7.656047483836351</v>
       </c>
       <c r="D7" t="n">
-        <v>113.335633489885</v>
+        <v>113.3227418653066</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.944576900386338</v>
+        <v>-7.919075467202304</v>
       </c>
       <c r="F7" t="n">
-        <v>113.4258869067473</v>
+        <v>113.3585636238264</v>
       </c>
       <c r="G7" t="n">
-        <v>170.4702081386448</v>
+        <v>172.3176932767997</v>
       </c>
       <c r="H7" t="n">
-        <v>60.03575365073047</v>
+        <v>29.51243148965812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1686965753514359</v>
+        <v>0.1736955074790425</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9957003638834764</v>
+        <v>0.9983018792415416</v>
       </c>
       <c r="K7" t="n">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="L7" t="n">
         <v>448</v>
@@ -916,13 +916,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.944576900386338</v>
+        <v>-7.919075467202304</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4258869067473</v>
+        <v>113.3585636238264</v>
       </c>
       <c r="R7" t="n">
-        <v>170.4702081386448</v>
+        <v>172.3176932767997</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -939,55 +939,55 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.729088468648059</v>
       </c>
       <c r="D8" t="n">
-        <v>113.4552080305066</v>
+        <v>113.4552058943883</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.94439234319406</v>
       </c>
       <c r="F8" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3515243719368</v>
       </c>
       <c r="G8" t="n">
-        <v>189.6294332462795</v>
+        <v>205.4969655351389</v>
       </c>
       <c r="H8" t="n">
-        <v>28.13366928028265</v>
+        <v>26.52546683612141</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1739610235625371</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9972072473165028</v>
+        <v>0.9987286401975555</v>
       </c>
       <c r="K8" t="n">
         <v>1364</v>
       </c>
       <c r="L8" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O8" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P8" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.94439234319406</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3515243719368</v>
       </c>
       <c r="R8" t="n">
-        <v>189.6294332462795</v>
+        <v>205.4969655351389</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.729088468648059</v>
       </c>
       <c r="D9" t="n">
-        <v>113.4552080305066</v>
+        <v>113.4552058943883</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.94439234319406</v>
       </c>
       <c r="F9" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3515243719368</v>
       </c>
       <c r="G9" t="n">
-        <v>189.6294332462795</v>
+        <v>205.4969655351389</v>
       </c>
       <c r="H9" t="n">
-        <v>28.13366928028265</v>
+        <v>26.52546683612141</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1739610235625371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9978650064925484</v>
+        <v>0.9990610275789917</v>
       </c>
       <c r="K9" t="n">
         <v>1364</v>
       </c>
       <c r="L9" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O9" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.94439234319406</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3515243719368</v>
       </c>
       <c r="R9" t="n">
-        <v>189.6294332462795</v>
+        <v>205.4969655351389</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1069,55 +1069,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.957733572307368</v>
       </c>
       <c r="D10" t="n">
-        <v>113.4552080305066</v>
+        <v>113.351384246134</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.950395057559551</v>
       </c>
       <c r="F10" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3566332192063</v>
       </c>
       <c r="G10" t="n">
-        <v>189.6294332462795</v>
+        <v>35.31344731241182</v>
       </c>
       <c r="H10" t="n">
-        <v>28.13366928028265</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1740968888339764</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9990495278145127</v>
+        <v>0.9990667892852086</v>
       </c>
       <c r="K10" t="n">
-        <v>1364</v>
+        <v>640</v>
       </c>
       <c r="L10" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O10" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P10" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.950395057559551</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3566332192063</v>
       </c>
       <c r="R10" t="n">
-        <v>189.6294332462795</v>
+        <v>35.31344731241182</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1134,55 +1134,55 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.721511387174121</v>
+        <v>-7.957733572307368</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4552080305066</v>
+        <v>113.351384246134</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.950395057559551</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3566332192063</v>
       </c>
       <c r="G11" t="n">
-        <v>189.6294332462795</v>
+        <v>35.31344731241182</v>
       </c>
       <c r="H11" t="n">
-        <v>28.13366928028265</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1690124411329649</v>
+        <v>0.1740968888339764</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9993682608015807</v>
+        <v>0.9991734379640266</v>
       </c>
       <c r="K11" t="n">
-        <v>1364</v>
+        <v>640</v>
       </c>
       <c r="L11" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N11" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O11" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P11" t="n">
-        <v>-7.970956528644989</v>
+        <v>-7.950395057559551</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4124726050466</v>
+        <v>113.3566332192063</v>
       </c>
       <c r="R11" t="n">
-        <v>189.6294332462795</v>
+        <v>35.31344731241182</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1199,55 +1199,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.945831688387732</v>
+        <v>-7.957733572307368</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4024489910476</v>
+        <v>113.351384246134</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.950395057559551</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3927678758242</v>
+        <v>113.3566332192063</v>
       </c>
       <c r="G12" t="n">
-        <v>212.1537392636762</v>
+        <v>35.31344731241182</v>
       </c>
       <c r="H12" t="n">
-        <v>2.003251299055409</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1690545638980567</v>
+        <v>0.1740968888339764</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5857862994667566</v>
+        <v>0.5857862200526154</v>
       </c>
       <c r="K12" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L12" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N12" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O12" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.950395057559551</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.3927678758242</v>
+        <v>113.3566332192063</v>
       </c>
       <c r="R12" t="n">
-        <v>212.1537392636762</v>
+        <v>35.31344731241182</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.945831688387732</v>
+        <v>-7.737574597585033</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4024489910476</v>
+        <v>113.4748318591779</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.945615267159458</v>
       </c>
       <c r="F13" t="n">
-        <v>113.3927678758242</v>
+        <v>113.366663490816</v>
       </c>
       <c r="G13" t="n">
-        <v>212.1537392636762</v>
+        <v>207.244579322962</v>
       </c>
       <c r="H13" t="n">
-        <v>2.003251299055409</v>
+        <v>26.02139623153461</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1690545638980567</v>
+        <v>0.1741073210340911</v>
       </c>
       <c r="J13" t="n">
-        <v>0.999671128866374</v>
+        <v>0.9998391908844187</v>
       </c>
       <c r="K13" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L13" t="n">
         <v>448</v>
@@ -1306,13 +1306,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.961084060854737</v>
+        <v>-7.945615267159458</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.3927678758242</v>
+        <v>113.366663490816</v>
       </c>
       <c r="R13" t="n">
-        <v>212.1537392636762</v>
+        <v>207.244579322962</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1329,55 +1329,55 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.974053600541414</v>
+        <v>-7.959332531514387</v>
       </c>
       <c r="D14" t="n">
-        <v>113.3922043800019</v>
+        <v>113.3546109352008</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.951762956623416</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3595139932309</v>
       </c>
       <c r="G14" t="n">
-        <v>32.84019137638025</v>
+        <v>32.68044392151181</v>
       </c>
       <c r="H14" t="n">
-        <v>1.087298443468895</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1690700500161219</v>
+        <v>0.1741242604149205</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9997301651490993</v>
+        <v>0.999900814686021</v>
       </c>
       <c r="K14" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L14" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O14" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.951762956623416</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3595139932309</v>
       </c>
       <c r="R14" t="n">
-        <v>32.84019137638025</v>
+        <v>32.68044392151181</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1394,55 +1394,55 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.974053600541414</v>
+        <v>-7.959332531514387</v>
       </c>
       <c r="D15" t="n">
-        <v>113.3922043800019</v>
+        <v>113.3546109352008</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.951762956623416</v>
       </c>
       <c r="F15" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3595139932309</v>
       </c>
       <c r="G15" t="n">
-        <v>32.84019137638025</v>
+        <v>32.68044392151181</v>
       </c>
       <c r="H15" t="n">
-        <v>1.087298443468895</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1690700500161219</v>
+        <v>0.1741242604149205</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9998042343560469</v>
+        <v>0.9999119984693431</v>
       </c>
       <c r="K15" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L15" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O15" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P15" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.951762956623416</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3595139932309</v>
       </c>
       <c r="R15" t="n">
-        <v>32.84019137638025</v>
+        <v>32.68044392151181</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1459,55 +1459,55 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.974053600541414</v>
+        <v>-7.957190831197082</v>
       </c>
       <c r="D16" t="n">
-        <v>113.3922043800019</v>
+        <v>113.3548130270445</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.949445776945777</v>
       </c>
       <c r="F16" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3598444651784</v>
       </c>
       <c r="G16" t="n">
-        <v>32.84019137638025</v>
+        <v>32.7569152466535</v>
       </c>
       <c r="H16" t="n">
-        <v>1.087298443468895</v>
+        <v>1.024059798271796</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1690700500161219</v>
+        <v>0.1741329057746171</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9998202597937714</v>
+        <v>0.999927103288068</v>
       </c>
       <c r="K16" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L16" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N16" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O16" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.965837963216316</v>
+        <v>-7.949445776945777</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3975588004978</v>
+        <v>113.3598444651784</v>
       </c>
       <c r="R16" t="n">
-        <v>32.84019137638025</v>
+        <v>32.7569152466535</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.947990806156594</v>
+        <v>-7.934145899006243</v>
       </c>
       <c r="D17" t="n">
-        <v>113.4013911869872</v>
+        <v>113.3597007878778</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.942833469464838</v>
       </c>
       <c r="F17" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3573536326135</v>
       </c>
       <c r="G17" t="n">
-        <v>191.1126782014585</v>
+        <v>194.9803593927288</v>
       </c>
       <c r="H17" t="n">
-        <v>1.142394737069206</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1690927632681842</v>
+        <v>0.1741347588359088</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9997900876558613</v>
+        <v>0.9999469816663398</v>
       </c>
       <c r="K17" t="n">
         <v>448</v>
@@ -1566,13 +1566,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.942833469464838</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3993917684213</v>
+        <v>113.3573536326135</v>
       </c>
       <c r="R17" t="n">
-        <v>191.1126782014585</v>
+        <v>194.9803593927288</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1589,55 +1589,55 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.947990806156594</v>
+        <v>-7.955881333889333</v>
       </c>
       <c r="D18" t="n">
-        <v>113.4013911869872</v>
+        <v>113.3518488656278</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.947938056986569</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3993917684213</v>
+        <v>113.356106711735</v>
       </c>
       <c r="G18" t="n">
-        <v>191.1126782014585</v>
+        <v>27.96310978107909</v>
       </c>
       <c r="H18" t="n">
-        <v>1.142394737069206</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1690927632681842</v>
+        <v>0.1741364513251785</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9998323032652979</v>
+        <v>0.9999559896877652</v>
       </c>
       <c r="K18" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L18" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N18" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O18" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P18" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.947938056986569</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3993917684213</v>
+        <v>113.356106711735</v>
       </c>
       <c r="R18" t="n">
-        <v>191.1126782014585</v>
+        <v>27.96310978107909</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1654,55 +1654,55 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.947990806156594</v>
+        <v>-7.955881333889333</v>
       </c>
       <c r="D19" t="n">
-        <v>113.4013911869872</v>
+        <v>113.3518488656278</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.947938056986569</v>
       </c>
       <c r="F19" t="n">
-        <v>113.3993917684213</v>
+        <v>113.356106711735</v>
       </c>
       <c r="G19" t="n">
-        <v>191.1126782014585</v>
+        <v>27.96310978107909</v>
       </c>
       <c r="H19" t="n">
-        <v>1.142394737069206</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1690927632681842</v>
+        <v>0.1741364513251785</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9998898154147892</v>
+        <v>0.9999688823151601</v>
       </c>
       <c r="K19" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="L19" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N19" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O19" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.958071970676858</v>
+        <v>-7.947938056986569</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3993917684213</v>
+        <v>113.356106711735</v>
       </c>
       <c r="R19" t="n">
-        <v>191.1126782014585</v>
+        <v>27.96310978107909</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1722,31 +1722,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.733740794821325</v>
+        <v>-7.934740590976966</v>
       </c>
       <c r="D20" t="n">
-        <v>113.4574494807383</v>
+        <v>113.362897033892</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.967360996895797</v>
+        <v>-7.944474616365325</v>
       </c>
       <c r="F20" t="n">
-        <v>113.4055656652612</v>
+        <v>113.3602377570302</v>
       </c>
       <c r="G20" t="n">
-        <v>192.404141867577</v>
+        <v>195.1401028247037</v>
       </c>
       <c r="H20" t="n">
-        <v>26.5986312656832</v>
+        <v>1.121295268592777</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1690937914280469</v>
+        <v>0.1741373544253546</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9999259320389413</v>
+        <v>0.999988772851429</v>
       </c>
       <c r="K20" t="n">
-        <v>1364</v>
+        <v>448</v>
       </c>
       <c r="L20" t="n">
         <v>448</v>
@@ -1761,13 +1761,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.967360996895797</v>
+        <v>-7.944474616365325</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.4055656652612</v>
+        <v>113.3602377570302</v>
       </c>
       <c r="R20" t="n">
-        <v>192.404141867577</v>
+        <v>195.1401028247037</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1784,55 +1784,55 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.951225420354709</v>
+        <v>-7.74136272195012</v>
       </c>
       <c r="D21" t="n">
-        <v>113.4032244098595</v>
+        <v>113.4676844263717</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.946289237852749</v>
       </c>
       <c r="F21" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3579124743613</v>
       </c>
       <c r="G21" t="n">
-        <v>190.9308486855389</v>
+        <v>207.9453263296212</v>
       </c>
       <c r="H21" t="n">
-        <v>1.058168034824086</v>
+        <v>25.79634016241713</v>
       </c>
       <c r="I21" t="n">
-        <v>0.169100043382313</v>
+        <v>0.1741398430298897</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9999226689787089</v>
+        <v>0.9999908682204335</v>
       </c>
       <c r="K21" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L21" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N21" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O21" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P21" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.946289237852749</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3579124743613</v>
       </c>
       <c r="R21" t="n">
-        <v>190.9308486855389</v>
+        <v>207.9453263296212</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -1852,31 +1852,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.951225420354709</v>
+        <v>-7.741233118776386</v>
       </c>
       <c r="D22" t="n">
-        <v>113.4032244098595</v>
+        <v>113.4679088106259</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.945324423876948</v>
       </c>
       <c r="F22" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3585151120425</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9308486855389</v>
+        <v>207.9603851737756</v>
       </c>
       <c r="H22" t="n">
-        <v>1.058168034824086</v>
+        <v>25.69478136964329</v>
       </c>
       <c r="I22" t="n">
-        <v>0.169100043382313</v>
+        <v>0.1741401021304063</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5857864382575663</v>
+        <v>0.58578643968224</v>
       </c>
       <c r="K22" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L22" t="n">
         <v>448</v>
@@ -1891,13 +1891,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P22" t="n">
-        <v>-7.960569093013889</v>
+        <v>-7.945324423876948</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.4014023252051</v>
+        <v>113.3585151120425</v>
       </c>
       <c r="R22" t="n">
-        <v>190.9308486855389</v>
+        <v>207.9603851737756</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -1917,31 +1917,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.951077127536545</v>
+        <v>-7.741233118776386</v>
       </c>
       <c r="D23" t="n">
-        <v>113.4062831328138</v>
+        <v>113.4679088106259</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.945324423876948</v>
       </c>
       <c r="F23" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3585151120425</v>
       </c>
       <c r="G23" t="n">
-        <v>191.1088833907678</v>
+        <v>207.9603851737756</v>
       </c>
       <c r="H23" t="n">
-        <v>1.154996329498191</v>
+        <v>25.69478136964329</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1691039977406381</v>
+        <v>0.1741401021304063</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9999606007511661</v>
+        <v>0.9999921930318105</v>
       </c>
       <c r="K23" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L23" t="n">
         <v>448</v>
@@ -1956,13 +1956,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P23" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.945324423876948</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3585151120425</v>
       </c>
       <c r="R23" t="n">
-        <v>191.1088833907678</v>
+        <v>207.9603851737756</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -1982,31 +1982,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.951077127536545</v>
+        <v>-7.741233118776386</v>
       </c>
       <c r="D24" t="n">
-        <v>113.4062831328138</v>
+        <v>113.4679088106259</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.945324423876948</v>
       </c>
       <c r="F24" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3585151120425</v>
       </c>
       <c r="G24" t="n">
-        <v>191.1088833907678</v>
+        <v>207.9603851737756</v>
       </c>
       <c r="H24" t="n">
-        <v>1.154996329498191</v>
+        <v>25.69478136964329</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1691039977406381</v>
+        <v>0.1741401021304063</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999705108773026</v>
+        <v>0.9999922237299962</v>
       </c>
       <c r="K24" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L24" t="n">
         <v>448</v>
@@ -2021,13 +2021,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.961269628458602</v>
+        <v>-7.945324423876948</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.4042623248089</v>
+        <v>113.3585151120425</v>
       </c>
       <c r="R24" t="n">
-        <v>191.1088833907678</v>
+        <v>207.9603851737756</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2044,55 +2044,55 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.951204331496024</v>
+        <v>-7.74087930157957</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4048965752525</v>
+        <v>113.4685300350197</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.963202229182353</v>
+        <v>-7.946067376535505</v>
       </c>
       <c r="F25" t="n">
-        <v>113.4025199285018</v>
+        <v>113.3584735509368</v>
       </c>
       <c r="G25" t="n">
-        <v>191.099237036366</v>
+        <v>207.9764913850331</v>
       </c>
       <c r="H25" t="n">
-        <v>1.35953591425721</v>
+        <v>25.83673132122466</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1691047997403729</v>
+        <v>0.1741406073979006</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9999810762413123</v>
+        <v>0.9999924753189945</v>
       </c>
       <c r="K25" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L25" t="n">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>44785.47361111111</v>
+        <v>44877.10347222222</v>
       </c>
       <c r="N25" t="n">
-        <v>-7.90590090675314</v>
+        <v>-7.96386844576088</v>
       </c>
       <c r="O25" t="n">
-        <v>113.40414682924</v>
+        <v>113.300380121246</v>
       </c>
       <c r="P25" t="n">
-        <v>-7.963202229182353</v>
+        <v>-7.946067376535505</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.4025199285018</v>
+        <v>113.3584735509368</v>
       </c>
       <c r="R25" t="n">
-        <v>191.099237036366</v>
+        <v>207.9764913850331</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -2112,31 +2112,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.950905683509085</v>
+        <v>-7.740570170220774</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4055594512814</v>
+        <v>113.4688050202059</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.945793515689498</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3587284171019</v>
       </c>
       <c r="G26" t="n">
-        <v>191.1048004977522</v>
+        <v>207.9767659720715</v>
       </c>
       <c r="H26" t="n">
-        <v>1.355705419672844</v>
+        <v>25.84123855338008</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1691050999013513</v>
+        <v>0.1741406156215104</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9999892557806809</v>
+        <v>0.9999921884038231</v>
       </c>
       <c r="K26" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L26" t="n">
         <v>448</v>
@@ -2151,13 +2151,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.945793515689498</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3587284171019</v>
       </c>
       <c r="R26" t="n">
-        <v>191.1048004977522</v>
+        <v>207.9767659720715</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -2177,31 +2177,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.950905683509085</v>
+        <v>-7.741273986884768</v>
       </c>
       <c r="D27" t="n">
-        <v>113.4055594512814</v>
+        <v>113.4685628413458</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.94612759870421</v>
       </c>
       <c r="F27" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3586819226163</v>
       </c>
       <c r="G27" t="n">
-        <v>191.1048004977522</v>
+        <v>207.9773176971345</v>
       </c>
       <c r="H27" t="n">
-        <v>1.355705419672844</v>
+        <v>25.79481150310057</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1691050999013513</v>
+        <v>0.1741406739149533</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999895799314991</v>
+        <v>0.9999926380861504</v>
       </c>
       <c r="K27" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L27" t="n">
         <v>448</v>
@@ -2216,13 +2216,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P27" t="n">
-        <v>-7.962869549151065</v>
+        <v>-7.94612759870421</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.4031883296397</v>
+        <v>113.3586819226163</v>
       </c>
       <c r="R27" t="n">
-        <v>191.1048004977522</v>
+        <v>207.9773176971345</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -2242,31 +2242,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.741478438888026</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4053365936689</v>
+        <v>113.4686973570652</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946106284001861</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589331746082</v>
       </c>
       <c r="G28" t="n">
-        <v>191.1068511525971</v>
+        <v>207.9782638592915</v>
       </c>
       <c r="H28" t="n">
-        <v>1.318008888930439</v>
+        <v>25.76660758681344</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1741406786643589</v>
       </c>
       <c r="J28" t="n">
-        <v>0.999990858020806</v>
+        <v>0.9999935475416366</v>
       </c>
       <c r="K28" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L28" t="n">
         <v>448</v>
@@ -2281,13 +2281,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P28" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946106284001861</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589331746082</v>
       </c>
       <c r="R28" t="n">
-        <v>191.1068511525971</v>
+        <v>207.9782638592915</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -2307,31 +2307,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.741478438888026</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4053365936689</v>
+        <v>113.4686973570652</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946106284001861</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589331746082</v>
       </c>
       <c r="G29" t="n">
-        <v>191.1068511525971</v>
+        <v>207.9782638592915</v>
       </c>
       <c r="H29" t="n">
-        <v>1.318008888930439</v>
+        <v>25.76660758681344</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1741406786643589</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9999916102890299</v>
+        <v>0.9999947672762431</v>
       </c>
       <c r="K29" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L29" t="n">
         <v>448</v>
@@ -2346,13 +2346,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946106284001861</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589331746082</v>
       </c>
       <c r="R29" t="n">
-        <v>191.1068511525971</v>
+        <v>207.9782638592915</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -2372,31 +2372,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.74141878047259</v>
       </c>
       <c r="D30" t="n">
-        <v>113.4053365936689</v>
+        <v>113.4686739240181</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946058100865732</v>
       </c>
       <c r="F30" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589063921014</v>
       </c>
       <c r="G30" t="n">
-        <v>191.1068511525971</v>
+        <v>207.97765985317</v>
       </c>
       <c r="H30" t="n">
-        <v>1.318008888930439</v>
+        <v>25.76790824169118</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.174140684356138</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999917832936677</v>
+        <v>0.999995007209846</v>
       </c>
       <c r="K30" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L30" t="n">
         <v>448</v>
@@ -2411,13 +2411,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P30" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946058100865732</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589063921014</v>
       </c>
       <c r="R30" t="n">
-        <v>191.1068511525971</v>
+        <v>207.97765985317</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -2437,31 +2437,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.951179047055369</v>
+        <v>-7.741543472692148</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4053365936689</v>
+        <v>113.4686959027511</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946172371146715</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589369482917</v>
       </c>
       <c r="G31" t="n">
-        <v>191.1068511525971</v>
+        <v>207.977007361365</v>
       </c>
       <c r="H31" t="n">
-        <v>1.318008888930439</v>
+        <v>25.76643989253495</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1691051338030654</v>
+        <v>0.1741406881183525</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9999920664825945</v>
+        <v>0.9999951308394057</v>
       </c>
       <c r="K31" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L31" t="n">
         <v>448</v>
@@ -2476,13 +2476,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P31" t="n">
-        <v>-7.962810165802256</v>
+        <v>-7.946172371146715</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4030309830541</v>
+        <v>113.3589369482917</v>
       </c>
       <c r="R31" t="n">
-        <v>191.1068511525971</v>
+        <v>207.977007361365</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2502,31 +2502,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.951023734943191</v>
+        <v>-7.74161592117656</v>
       </c>
       <c r="D32" t="n">
-        <v>113.4054298074241</v>
+        <v>113.4686233141907</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.962726965177824</v>
+        <v>-7.946177680795264</v>
       </c>
       <c r="F32" t="n">
-        <v>113.403109966885</v>
+        <v>113.3588991131681</v>
       </c>
       <c r="G32" t="n">
-        <v>191.1065518452235</v>
+        <v>207.977279779038</v>
       </c>
       <c r="H32" t="n">
-        <v>1.32617902431781</v>
+        <v>25.75805043470449</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1691051397724328</v>
+        <v>0.1741406926973668</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5857864397557262</v>
+        <v>0.5857864397085596</v>
       </c>
       <c r="K32" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L32" t="n">
         <v>448</v>
@@ -2541,13 +2541,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P32" t="n">
-        <v>-7.962726965177824</v>
+        <v>-7.946177680795264</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.403109966885</v>
+        <v>113.3588991131681</v>
       </c>
       <c r="R32" t="n">
-        <v>191.1065518452235</v>
+        <v>207.977279779038</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -2567,31 +2567,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.950974282129074</v>
+        <v>-7.741528517642624</v>
       </c>
       <c r="D33" t="n">
-        <v>113.4054904576493</v>
+        <v>113.4687037134142</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.946149582034624</v>
       </c>
       <c r="F33" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3589472638616</v>
       </c>
       <c r="G33" t="n">
-        <v>191.1070301184417</v>
+        <v>207.9773757385596</v>
       </c>
       <c r="H33" t="n">
-        <v>1.32588484856407</v>
+        <v>25.7655414234684</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1691051429829434</v>
+        <v>0.1741406929680745</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999995401917932</v>
+        <v>0.999998769048547</v>
       </c>
       <c r="K33" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L33" t="n">
         <v>448</v>
@@ -2606,13 +2606,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P33" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.946149582034624</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3589472638616</v>
       </c>
       <c r="R33" t="n">
-        <v>191.1070301184417</v>
+        <v>207.9773757385596</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -2632,31 +2632,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.950974282129074</v>
+        <v>-7.74153886959172</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4054904576493</v>
+        <v>113.4686921072612</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.946191808076234</v>
       </c>
       <c r="F34" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3589182547936</v>
       </c>
       <c r="G34" t="n">
-        <v>191.1070301184417</v>
+        <v>207.9774392147406</v>
       </c>
       <c r="H34" t="n">
-        <v>1.32588484856407</v>
+        <v>25.76957041328689</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1691051429829434</v>
+        <v>0.1741406938410643</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9999996306901939</v>
+        <v>0.9999988195625406</v>
       </c>
       <c r="K34" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L34" t="n">
         <v>448</v>
@@ -2671,13 +2671,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P34" t="n">
-        <v>-7.962674897155891</v>
+        <v>-7.946191808076234</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.4031710333757</v>
+        <v>113.3589182547936</v>
       </c>
       <c r="R34" t="n">
-        <v>191.1070301184417</v>
+        <v>207.9774392147406</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -2697,31 +2697,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.951046372895291</v>
+        <v>-7.741685211745148</v>
       </c>
       <c r="D35" t="n">
-        <v>113.4054760442229</v>
+        <v>113.468608895428</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.96266783883795</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="F35" t="n">
-        <v>113.4031723680219</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1067563780107</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="H35" t="n">
-        <v>1.31691462936161</v>
+        <v>25.75038571567362</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1691051442333481</v>
+        <v>0.1741406943370827</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9999997580055852</v>
+        <v>0.9999991987059503</v>
       </c>
       <c r="K35" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L35" t="n">
         <v>448</v>
@@ -2736,13 +2736,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P35" t="n">
-        <v>-7.96266783883795</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.4031723680219</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="R35" t="n">
-        <v>191.1067563780107</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -2762,31 +2762,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.95104495048012</v>
+        <v>-7.741685211745148</v>
       </c>
       <c r="D36" t="n">
-        <v>113.405473589229</v>
+        <v>113.468608895428</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.962675513590823</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="F36" t="n">
-        <v>113.4031680831597</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="G36" t="n">
-        <v>191.1068810064998</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="H36" t="n">
-        <v>1.317946060417118</v>
+        <v>25.75038571567362</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1691051451719836</v>
+        <v>0.1741406943370827</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8359544754416229</v>
+        <v>0.8811427020746936</v>
       </c>
       <c r="K36" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L36" t="n">
         <v>448</v>
@@ -2801,13 +2801,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P36" t="n">
-        <v>-7.962675513590823</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.4031680831597</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="R36" t="n">
-        <v>191.1068810064998</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -2827,31 +2827,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.951050679778569</v>
+        <v>-7.741685211745148</v>
       </c>
       <c r="D37" t="n">
-        <v>113.405414388891</v>
+        <v>113.468608895428</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.962641057071258</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="F37" t="n">
-        <v>113.4031168575626</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="G37" t="n">
-        <v>191.106840562707</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="H37" t="n">
-        <v>1.313392120443696</v>
+        <v>25.75038571567362</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1691051456433077</v>
+        <v>0.1741406943370827</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9142025000566898</v>
+        <v>0.9318446636659995</v>
       </c>
       <c r="K37" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L37" t="n">
         <v>448</v>
@@ -2866,13 +2866,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P37" t="n">
-        <v>-7.962641057071258</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.4031168575626</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="R37" t="n">
-        <v>191.106840562707</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -2892,31 +2892,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.951011990104142</v>
+        <v>-7.741685211745148</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4054711079762</v>
+        <v>113.468608895428</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.962653650226426</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="F38" t="n">
-        <v>113.4031634101664</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="G38" t="n">
-        <v>191.1068440297379</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="H38" t="n">
-        <v>1.319203379307432</v>
+        <v>25.75038571567362</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1691051457081586</v>
+        <v>0.1741406943370827</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9762703918081514</v>
+        <v>0.9744499560102824</v>
       </c>
       <c r="K38" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L38" t="n">
         <v>448</v>
@@ -2931,13 +2931,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P38" t="n">
-        <v>-7.962653650226426</v>
+        <v>-7.946185861650938</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.4031634101664</v>
+        <v>113.3589168802004</v>
       </c>
       <c r="R38" t="n">
-        <v>191.1068440297379</v>
+        <v>207.9774079867391</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -2957,31 +2957,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.951025446436135</v>
+        <v>-7.741581285667698</v>
       </c>
       <c r="D39" t="n">
-        <v>113.4054559443418</v>
+        <v>113.4686612376173</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.962664398975313</v>
+        <v>-7.946186534738768</v>
       </c>
       <c r="F39" t="n">
-        <v>113.4031487804718</v>
+        <v>113.3589132029845</v>
       </c>
       <c r="G39" t="n">
-        <v>191.1068567873871</v>
+        <v>207.9773884688959</v>
       </c>
       <c r="H39" t="n">
-        <v>1.318896620348548</v>
+        <v>25.76355290068661</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1691051458933296</v>
+        <v>0.1741406943512029</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9922794051275333</v>
+        <v>0.9861218133323044</v>
       </c>
       <c r="K39" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L39" t="n">
         <v>448</v>
@@ -2996,13 +2996,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P39" t="n">
-        <v>-7.962664398975313</v>
+        <v>-7.946186534738768</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.4031487804718</v>
+        <v>113.3589132029845</v>
       </c>
       <c r="R39" t="n">
-        <v>191.1068567873871</v>
+        <v>207.9773884688959</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.951019994381615</v>
+        <v>-7.74162884760312</v>
       </c>
       <c r="D40" t="n">
-        <v>113.4054586483464</v>
+        <v>113.4686390557579</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.94620317657097</v>
       </c>
       <c r="F40" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3589075654428</v>
       </c>
       <c r="G40" t="n">
-        <v>191.1068511616565</v>
+        <v>207.9773965758926</v>
       </c>
       <c r="H40" t="n">
-        <v>1.318752263059754</v>
+        <v>25.75966116940421</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1691051459663857</v>
+        <v>0.1741406944034666</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9307520809411161</v>
+        <v>0.9944408145600958</v>
       </c>
       <c r="K40" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L40" t="n">
         <v>448</v>
@@ -3061,13 +3061,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P40" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.94620317657097</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3589075654428</v>
       </c>
       <c r="R40" t="n">
-        <v>191.1068511616565</v>
+        <v>207.9773965758926</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -3087,31 +3087,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.951019994381615</v>
+        <v>-7.741605628582926</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4054586483464</v>
+        <v>113.4686412105878</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="F41" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="G41" t="n">
-        <v>191.1068511616565</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="H41" t="n">
-        <v>1.318752263059754</v>
+        <v>25.76109250101213</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1691051459663857</v>
+        <v>0.1741406945324551</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9817215341374347</v>
+        <v>0.9967589428252502</v>
       </c>
       <c r="K41" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L41" t="n">
         <v>448</v>
@@ -3126,13 +3126,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.962657673226698</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.4031517381942</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="R41" t="n">
-        <v>191.1068511616565</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.951038988526521</v>
+        <v>-7.741605628582926</v>
       </c>
       <c r="D42" t="n">
-        <v>113.4054447461643</v>
+        <v>113.4686412105878</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.962649162428923</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="F42" t="n">
-        <v>113.4031432885071</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="G42" t="n">
-        <v>191.1068502056624</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="H42" t="n">
-        <v>1.315635466675851</v>
+        <v>25.76109250101213</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1691051459938404</v>
+        <v>0.1741406945324551</v>
       </c>
       <c r="J42" t="n">
-        <v>0.585782473623943</v>
+        <v>0.5857848155804344</v>
       </c>
       <c r="K42" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L42" t="n">
         <v>448</v>
@@ -3191,13 +3191,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P42" t="n">
-        <v>-7.962649162428923</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.4031432885071</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="R42" t="n">
-        <v>191.1068502056624</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -3217,31 +3217,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.95104966601451</v>
+        <v>-7.741605628582926</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4054443863717</v>
+        <v>113.4686412105878</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.962656578982083</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="F43" t="n">
-        <v>113.4031435751587</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="G43" t="n">
-        <v>191.1068498386653</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="H43" t="n">
-        <v>1.315265943955156</v>
+        <v>25.76109250101213</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1691051460104448</v>
+        <v>0.1741406945324551</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9991160355064529</v>
+        <v>0.9999994052089179</v>
       </c>
       <c r="K43" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L43" t="n">
         <v>448</v>
@@ -3256,13 +3256,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P43" t="n">
-        <v>-7.962656578982083</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.4031435751587</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="R43" t="n">
-        <v>191.1068498386653</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3282,31 +3282,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.9510160886788</v>
+        <v>-7.741605628582926</v>
       </c>
       <c r="D44" t="n">
-        <v>113.405446776591</v>
+        <v>113.4686412105878</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.962656461151779</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="F44" t="n">
-        <v>113.4031393324532</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="G44" t="n">
-        <v>191.1068513522209</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="H44" t="n">
-        <v>1.319057499172082</v>
+        <v>25.76109250101213</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1691051460293912</v>
+        <v>0.1741406945324551</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9993951133248106</v>
+        <v>0.9999994671454039</v>
       </c>
       <c r="K44" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L44" t="n">
         <v>448</v>
@@ -3321,13 +3321,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P44" t="n">
-        <v>-7.962656461151779</v>
+        <v>-7.946191319488769</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.4031393324532</v>
+        <v>113.3589036177956</v>
       </c>
       <c r="R44" t="n">
-        <v>191.1068513522209</v>
+        <v>207.9773989220931</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -3347,31 +3347,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.95101357704295</v>
+        <v>-7.741617021085574</v>
       </c>
       <c r="D45" t="n">
-        <v>113.4054451631666</v>
+        <v>113.468633101241</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.962654349091318</v>
+        <v>-7.946185155886874</v>
       </c>
       <c r="F45" t="n">
-        <v>113.4031376399299</v>
+        <v>113.3589049295174</v>
       </c>
       <c r="G45" t="n">
-        <v>191.1068509004414</v>
+        <v>207.977398509632</v>
       </c>
       <c r="H45" t="n">
-        <v>1.319102776024732</v>
+        <v>25.75888161515294</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1691051460338124</v>
+        <v>0.1741406945354464</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9996749618772689</v>
+        <v>0.9999994671249555</v>
       </c>
       <c r="K45" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L45" t="n">
         <v>448</v>
@@ -3386,13 +3386,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.962654349091318</v>
+        <v>-7.946185155886874</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.4031376399299</v>
+        <v>113.3589049295174</v>
       </c>
       <c r="R45" t="n">
-        <v>191.1068509004414</v>
+        <v>207.977398509632</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3412,31 +3412,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.951019480926141</v>
+        <v>-7.741617021085574</v>
       </c>
       <c r="D46" t="n">
-        <v>113.405445250388</v>
+        <v>113.468633101241</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.962657083039216</v>
+        <v>-7.946185155886874</v>
       </c>
       <c r="F46" t="n">
-        <v>113.4031383554704</v>
+        <v>113.3589049295174</v>
       </c>
       <c r="G46" t="n">
-        <v>191.106851063431</v>
+        <v>207.977398509632</v>
       </c>
       <c r="H46" t="n">
-        <v>1.318743567534294</v>
+        <v>25.75888161515294</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1691051460343842</v>
+        <v>0.1741406945354464</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9998289802379188</v>
+        <v>0.9999994939725445</v>
       </c>
       <c r="K46" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L46" t="n">
         <v>448</v>
@@ -3451,13 +3451,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P46" t="n">
-        <v>-7.962657083039216</v>
+        <v>-7.946185155886874</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.4031383554704</v>
+        <v>113.3589049295174</v>
       </c>
       <c r="R46" t="n">
-        <v>191.106851063431</v>
+        <v>207.977398509632</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -3477,31 +3477,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.951020272873685</v>
+        <v>-7.741621323294107</v>
       </c>
       <c r="D47" t="n">
-        <v>113.4054453415666</v>
+        <v>113.4686321532796</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.962656703158181</v>
+        <v>-7.94618672685325</v>
       </c>
       <c r="F47" t="n">
-        <v>113.4031386789677</v>
+        <v>113.3589054461932</v>
       </c>
       <c r="G47" t="n">
-        <v>191.1068509341378</v>
+        <v>207.9773985191254</v>
       </c>
       <c r="H47" t="n">
-        <v>1.318610778233795</v>
+        <v>25.75853768092235</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1691051460359941</v>
+        <v>0.1741406945361783</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9998793811227935</v>
+        <v>0.9999994987212614</v>
       </c>
       <c r="K47" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L47" t="n">
         <v>448</v>
@@ -3516,13 +3516,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P47" t="n">
-        <v>-7.962656703158181</v>
+        <v>-7.94618672685325</v>
       </c>
       <c r="Q47" t="n">
-        <v>113.4031386789677</v>
+        <v>113.3589054461932</v>
       </c>
       <c r="R47" t="n">
-        <v>191.1068509341378</v>
+        <v>207.9773985191254</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -3542,31 +3542,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.951013563904604</v>
+        <v>-7.741620405231021</v>
       </c>
       <c r="D48" t="n">
-        <v>113.4054452757872</v>
+        <v>113.4686316264772</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.962656301018125</v>
+        <v>-7.946185892236975</v>
       </c>
       <c r="F48" t="n">
-        <v>113.4031373630103</v>
+        <v>113.3589048740605</v>
       </c>
       <c r="G48" t="n">
-        <v>191.1068508941854</v>
+        <v>207.977398690309</v>
       </c>
       <c r="H48" t="n">
-        <v>1.319325452319653</v>
+        <v>25.75854822983436</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1691051460364836</v>
+        <v>0.1741406945390233</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999921957267776</v>
+        <v>0.9999994923258378</v>
       </c>
       <c r="K48" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L48" t="n">
         <v>448</v>
@@ -3581,13 +3581,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.962656301018125</v>
+        <v>-7.946185892236975</v>
       </c>
       <c r="Q48" t="n">
-        <v>113.4031373630103</v>
+        <v>113.3589048740605</v>
       </c>
       <c r="R48" t="n">
-        <v>191.1068508941854</v>
+        <v>207.977398690309</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -3607,31 +3607,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.951015502238771</v>
+        <v>-7.741618479111765</v>
       </c>
       <c r="D49" t="n">
-        <v>113.4054450411377</v>
+        <v>113.4686319451644</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.94618661277421</v>
       </c>
       <c r="F49" t="n">
-        <v>113.4031373756184</v>
+        <v>113.3589037725496</v>
       </c>
       <c r="G49" t="n">
-        <v>191.1068509033859</v>
+        <v>207.9773987499893</v>
       </c>
       <c r="H49" t="n">
-        <v>1.319184103467129</v>
+        <v>25.75888152951461</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1691051460366504</v>
+        <v>0.1741406945408722</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999997829980016</v>
+        <v>0.9999994868240343</v>
       </c>
       <c r="K49" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L49" t="n">
         <v>448</v>
@@ -3646,13 +3646,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P49" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.94618661277421</v>
       </c>
       <c r="Q49" t="n">
-        <v>113.4031373756184</v>
+        <v>113.3589037725496</v>
       </c>
       <c r="R49" t="n">
-        <v>191.1068509033859</v>
+        <v>207.9773987499893</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -3672,31 +3672,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C50" t="n">
-        <v>-7.951015502238771</v>
+        <v>-7.741619526318807</v>
       </c>
       <c r="D50" t="n">
-        <v>113.4054450411377</v>
+        <v>113.4686321720697</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.946186588741551</v>
       </c>
       <c r="F50" t="n">
-        <v>113.4031373756184</v>
+        <v>113.3589045738612</v>
       </c>
       <c r="G50" t="n">
-        <v>191.1068509033859</v>
+        <v>207.9773988015459</v>
       </c>
       <c r="H50" t="n">
-        <v>1.319184103467129</v>
+        <v>25.75874664393237</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1691051460366504</v>
+        <v>0.174140694541072</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999998655681533</v>
+        <v>0.9999994840834751</v>
       </c>
       <c r="K50" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L50" t="n">
         <v>448</v>
@@ -3711,13 +3711,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P50" t="n">
-        <v>-7.962656991982197</v>
+        <v>-7.946186588741551</v>
       </c>
       <c r="Q50" t="n">
-        <v>113.4031373756184</v>
+        <v>113.3589045738612</v>
       </c>
       <c r="R50" t="n">
-        <v>191.1068509033859</v>
+        <v>207.9773988015459</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -3737,31 +3737,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.951017004732058</v>
+        <v>-7.741619526318807</v>
       </c>
       <c r="D51" t="n">
-        <v>113.4054458438939</v>
+        <v>113.4686321720697</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.962657460570039</v>
+        <v>-7.946186588741551</v>
       </c>
       <c r="F51" t="n">
-        <v>113.403138383325</v>
+        <v>113.3589045738612</v>
       </c>
       <c r="G51" t="n">
-        <v>191.1068508836991</v>
+        <v>207.9773988015459</v>
       </c>
       <c r="H51" t="n">
-        <v>1.319066943770447</v>
+        <v>25.75874664393237</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1691051460366962</v>
+        <v>0.174140694541072</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999999004889687</v>
+        <v>0.9999994837250407</v>
       </c>
       <c r="K51" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L51" t="n">
         <v>448</v>
@@ -3776,13 +3776,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P51" t="n">
-        <v>-7.962657460570039</v>
+        <v>-7.946186588741551</v>
       </c>
       <c r="Q51" t="n">
-        <v>113.403138383325</v>
+        <v>113.3589045738612</v>
       </c>
       <c r="R51" t="n">
-        <v>191.1068508836991</v>
+        <v>207.9773988015459</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -3802,31 +3802,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.951016649720363</v>
+        <v>-7.741619526318807</v>
       </c>
       <c r="D52" t="n">
-        <v>113.4054458320666</v>
+        <v>113.4686321720697</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.962657606784114</v>
+        <v>-7.946186588741551</v>
       </c>
       <c r="F52" t="n">
-        <v>113.4031382721368</v>
+        <v>113.3589045738612</v>
       </c>
       <c r="G52" t="n">
-        <v>191.1068508982592</v>
+        <v>207.9773988015459</v>
       </c>
       <c r="H52" t="n">
-        <v>1.319123741500718</v>
+        <v>25.75874664393237</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1691051460367351</v>
+        <v>0.174140694541072</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5857864397791805</v>
+        <v>0.5857864397168485</v>
       </c>
       <c r="K52" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L52" t="n">
         <v>448</v>
@@ -3841,13 +3841,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P52" t="n">
-        <v>-7.962657606784114</v>
+        <v>-7.946186588741551</v>
       </c>
       <c r="Q52" t="n">
-        <v>113.4031382721368</v>
+        <v>113.3589045738612</v>
       </c>
       <c r="R52" t="n">
-        <v>191.1068508982592</v>
+        <v>207.9773988015459</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -3867,31 +3867,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C53" t="n">
-        <v>-7.951015780474926</v>
+        <v>-7.741607009980425</v>
       </c>
       <c r="D53" t="n">
-        <v>113.4054456556488</v>
+        <v>113.4686392164851</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.946187413480254</v>
       </c>
       <c r="F53" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3589044616738</v>
       </c>
       <c r="G53" t="n">
-        <v>191.106850897399</v>
+        <v>207.9773987828781</v>
       </c>
       <c r="H53" t="n">
-        <v>1.319182309640055</v>
+        <v>25.76042664017423</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1691051460368422</v>
+        <v>0.1741406945410791</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999999800565547</v>
+        <v>0.9999999951057641</v>
       </c>
       <c r="K53" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L53" t="n">
         <v>448</v>
@@ -3906,13 +3906,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P53" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.946187413480254</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3589044616738</v>
       </c>
       <c r="R53" t="n">
-        <v>191.106850897399</v>
+        <v>207.9773987828781</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -3932,31 +3932,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.951015780474926</v>
+        <v>-7.741619849208009</v>
       </c>
       <c r="D54" t="n">
-        <v>113.4054456556488</v>
+        <v>113.4686320261252</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.946187062003898</v>
       </c>
       <c r="F54" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3589043471339</v>
       </c>
       <c r="G54" t="n">
-        <v>191.106850897399</v>
+        <v>207.9773987998522</v>
       </c>
       <c r="H54" t="n">
-        <v>1.319182309640055</v>
+        <v>25.75876557966152</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1691051460368422</v>
+        <v>0.1741406945412806</v>
       </c>
       <c r="J54" t="n">
-        <v>0.999999985283806</v>
+        <v>0.9999999951050358</v>
       </c>
       <c r="K54" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L54" t="n">
         <v>448</v>
@@ -3971,13 +3971,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P54" t="n">
-        <v>-7.962657254388495</v>
+        <v>-7.946187062003898</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.4031379932672</v>
+        <v>113.3589043471339</v>
       </c>
       <c r="R54" t="n">
-        <v>191.106850897399</v>
+        <v>207.9773987998522</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -3997,31 +3997,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C55" t="n">
-        <v>-7.951015981530507</v>
+        <v>-7.741619205156418</v>
       </c>
       <c r="D55" t="n">
-        <v>113.4054456941336</v>
+        <v>113.468631977035</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.96265705341721</v>
+        <v>-7.946187041451402</v>
       </c>
       <c r="F55" t="n">
-        <v>113.4031381114473</v>
+        <v>113.3589039636089</v>
       </c>
       <c r="G55" t="n">
-        <v>191.1068508912845</v>
+        <v>207.977398795667</v>
       </c>
       <c r="H55" t="n">
-        <v>1.319136752922133</v>
+        <v>25.75884409396563</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1691051460368768</v>
+        <v>0.1741406945414965</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999999901198734</v>
+        <v>0.9999999953478531</v>
       </c>
       <c r="K55" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L55" t="n">
         <v>448</v>
@@ -4036,13 +4036,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P55" t="n">
-        <v>-7.96265705341721</v>
+        <v>-7.946187041451402</v>
       </c>
       <c r="Q55" t="n">
-        <v>113.4031381114473</v>
+        <v>113.3589039636089</v>
       </c>
       <c r="R55" t="n">
-        <v>191.1068508912845</v>
+        <v>207.977398795667</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4062,31 +4062,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C56" t="n">
-        <v>-7.951015656701395</v>
+        <v>-7.741619826979663</v>
       </c>
       <c r="D56" t="n">
-        <v>113.4054456824208</v>
+        <v>113.4686315910002</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.962657258093533</v>
+        <v>-7.946186921026927</v>
       </c>
       <c r="F56" t="n">
-        <v>113.4031379947703</v>
+        <v>113.3589039757721</v>
       </c>
       <c r="G56" t="n">
-        <v>191.1068508933955</v>
+        <v>207.9773987942671</v>
       </c>
       <c r="H56" t="n">
-        <v>1.319196755177896</v>
+        <v>25.75875062464782</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1691051460368992</v>
+        <v>0.1741406945415178</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999999943159148</v>
+        <v>0.9999999953901124</v>
       </c>
       <c r="K56" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L56" t="n">
         <v>448</v>
@@ -4101,13 +4101,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P56" t="n">
-        <v>-7.962657258093533</v>
+        <v>-7.946186921026927</v>
       </c>
       <c r="Q56" t="n">
-        <v>113.4031379947703</v>
+        <v>113.3589039757721</v>
       </c>
       <c r="R56" t="n">
-        <v>191.1068508933955</v>
+        <v>207.9773987942671</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -4127,31 +4127,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C57" t="n">
-        <v>-7.951016032145662</v>
+        <v>-7.741619826979663</v>
       </c>
       <c r="D57" t="n">
-        <v>113.4054454616794</v>
+        <v>113.4686315910002</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.946186921026927</v>
       </c>
       <c r="F57" t="n">
-        <v>113.4031378404028</v>
+        <v>113.3589039757721</v>
       </c>
       <c r="G57" t="n">
-        <v>191.1068508912081</v>
+        <v>207.9773987942671</v>
       </c>
       <c r="H57" t="n">
-        <v>1.319158812463718</v>
+        <v>25.75875062464782</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1691051460369066</v>
+        <v>0.1741406945415178</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999999980668131</v>
+        <v>0.9999999965349784</v>
       </c>
       <c r="K57" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L57" t="n">
         <v>448</v>
@@ -4166,13 +4166,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P57" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.946186921026927</v>
       </c>
       <c r="Q57" t="n">
-        <v>113.4031378404028</v>
+        <v>113.3589039757721</v>
       </c>
       <c r="R57" t="n">
-        <v>191.1068508912081</v>
+        <v>207.9773987942671</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4192,31 +4192,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.951016032145662</v>
+        <v>-7.741619558617739</v>
       </c>
       <c r="D58" t="n">
-        <v>113.4054454616794</v>
+        <v>113.4686313472507</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.946187098461973</v>
       </c>
       <c r="F58" t="n">
-        <v>113.4031378404028</v>
+        <v>113.3589034928406</v>
       </c>
       <c r="G58" t="n">
-        <v>191.1068508912081</v>
+        <v>207.9773987939309</v>
       </c>
       <c r="H58" t="n">
-        <v>1.319158812463718</v>
+        <v>25.75880676243971</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1691051460369066</v>
+        <v>0.1741406945415548</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999992655688</v>
+        <v>0.9999999976623055</v>
       </c>
       <c r="K58" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L58" t="n">
         <v>448</v>
@@ -4231,13 +4231,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P58" t="n">
-        <v>-7.962657298702534</v>
+        <v>-7.946187098461973</v>
       </c>
       <c r="Q58" t="n">
-        <v>113.4031378404028</v>
+        <v>113.3589034928406</v>
       </c>
       <c r="R58" t="n">
-        <v>191.1068508912081</v>
+        <v>207.9773987939309</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -4257,31 +4257,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C59" t="n">
-        <v>-7.951015991273775</v>
+        <v>-7.741619558617739</v>
       </c>
       <c r="D59" t="n">
-        <v>113.4054454471842</v>
+        <v>113.4686313472507</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.946187098461973</v>
       </c>
       <c r="F59" t="n">
-        <v>113.4031378251206</v>
+        <v>113.3589034928406</v>
       </c>
       <c r="G59" t="n">
-        <v>191.1068508922204</v>
+        <v>207.9773987939309</v>
       </c>
       <c r="H59" t="n">
-        <v>1.319159262343363</v>
+        <v>25.75880676243971</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1691051460369198</v>
+        <v>0.1741406945415548</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999997513658</v>
+        <v>0.9999999983532599</v>
       </c>
       <c r="K59" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L59" t="n">
         <v>448</v>
@@ -4296,13 +4296,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.946187098461973</v>
       </c>
       <c r="Q59" t="n">
-        <v>113.4031378251206</v>
+        <v>113.3589034928406</v>
       </c>
       <c r="R59" t="n">
-        <v>191.1068508922204</v>
+        <v>207.9773987939309</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -4322,31 +4322,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C60" t="n">
-        <v>-7.951015991273775</v>
+        <v>-7.741620034983569</v>
       </c>
       <c r="D60" t="n">
-        <v>113.4054454471842</v>
+        <v>113.4686311845768</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.946186955398246</v>
       </c>
       <c r="F60" t="n">
-        <v>113.4031378251206</v>
+        <v>113.358903662486</v>
       </c>
       <c r="G60" t="n">
-        <v>191.1068508922204</v>
+        <v>207.9773987929815</v>
       </c>
       <c r="H60" t="n">
-        <v>1.319159262343363</v>
+        <v>25.7587287593349</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1691051460369198</v>
+        <v>0.1741406945415735</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9999999998694153</v>
+        <v>0.9999999990079815</v>
       </c>
       <c r="K60" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L60" t="n">
         <v>448</v>
@@ -4361,13 +4361,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P60" t="n">
-        <v>-7.962657261800685</v>
+        <v>-7.946186955398246</v>
       </c>
       <c r="Q60" t="n">
-        <v>113.4031378251206</v>
+        <v>113.358903662486</v>
       </c>
       <c r="R60" t="n">
-        <v>191.1068508922204</v>
+        <v>207.9773987929815</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -4387,31 +4387,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.951015998402637</v>
+        <v>-7.741620034983569</v>
       </c>
       <c r="D61" t="n">
-        <v>113.4054454750344</v>
+        <v>113.4686311845768</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.962657242972802</v>
+        <v>-7.946186955398246</v>
       </c>
       <c r="F61" t="n">
-        <v>113.4031378581163</v>
+        <v>113.358903662486</v>
       </c>
       <c r="G61" t="n">
-        <v>191.1068508921331</v>
+        <v>207.9773987929815</v>
       </c>
       <c r="H61" t="n">
-        <v>1.319156320988943</v>
+        <v>25.7587287593349</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1691051460369211</v>
+        <v>0.1741406945415735</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9999999999013711</v>
+        <v>0.9999999994415742</v>
       </c>
       <c r="K61" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L61" t="n">
         <v>448</v>
@@ -4426,13 +4426,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P61" t="n">
-        <v>-7.962657242972802</v>
+        <v>-7.946186955398246</v>
       </c>
       <c r="Q61" t="n">
-        <v>113.4031378581163</v>
+        <v>113.358903662486</v>
       </c>
       <c r="R61" t="n">
-        <v>191.1068508921331</v>
+        <v>207.9773987929815</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -4452,31 +4452,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.951016005499502</v>
+        <v>-7.741620034983569</v>
       </c>
       <c r="D62" t="n">
-        <v>113.4054455002914</v>
+        <v>113.4686311845768</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.9626572529413</v>
+        <v>-7.946186955398246</v>
       </c>
       <c r="F62" t="n">
-        <v>113.403137882804</v>
+        <v>113.358903662486</v>
       </c>
       <c r="G62" t="n">
-        <v>191.1068508921805</v>
+        <v>207.9773987929815</v>
       </c>
       <c r="H62" t="n">
-        <v>1.319156646395478</v>
+        <v>25.7587287593349</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1691051460369214</v>
+        <v>0.1741406945415735</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5857864397791814</v>
+        <v>0.585786439716945</v>
       </c>
       <c r="K62" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L62" t="n">
         <v>448</v>
@@ -4491,13 +4491,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P62" t="n">
-        <v>-7.9626572529413</v>
+        <v>-7.946186955398246</v>
       </c>
       <c r="Q62" t="n">
-        <v>113.403137882804</v>
+        <v>113.358903662486</v>
       </c>
       <c r="R62" t="n">
-        <v>191.1068508921805</v>
+        <v>207.9773987929815</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -4517,31 +4517,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.951015999763996</v>
+        <v>-7.741618937463575</v>
       </c>
       <c r="D63" t="n">
-        <v>113.4054455161057</v>
+        <v>113.4686318285763</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.962657258412793</v>
+        <v>-7.946186973044336</v>
       </c>
       <c r="F63" t="n">
-        <v>113.4031378963967</v>
+        <v>113.3589037082783</v>
       </c>
       <c r="G63" t="n">
-        <v>191.1068508921621</v>
+        <v>207.9773987932129</v>
       </c>
       <c r="H63" t="n">
-        <v>1.319157916344514</v>
+        <v>25.75886918880393</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1691051460369215</v>
+        <v>0.1741406945415746</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9999999999985925</v>
+        <v>0.9999999999990263</v>
       </c>
       <c r="K63" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L63" t="n">
         <v>448</v>
@@ -4556,13 +4556,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P63" t="n">
-        <v>-7.962657258412793</v>
+        <v>-7.946186973044336</v>
       </c>
       <c r="Q63" t="n">
-        <v>113.4031378963967</v>
+        <v>113.3589037082783</v>
       </c>
       <c r="R63" t="n">
-        <v>191.1068508921621</v>
+        <v>207.9773987932129</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -4582,31 +4582,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C64" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741618937463575</v>
       </c>
       <c r="D64" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686318285763</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186973044336</v>
       </c>
       <c r="F64" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589037082783</v>
       </c>
       <c r="G64" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987932129</v>
       </c>
       <c r="H64" t="n">
-        <v>1.319158609153208</v>
+        <v>25.75886918880393</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415746</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9999999999986917</v>
+        <v>0.9175144048436977</v>
       </c>
       <c r="K64" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L64" t="n">
         <v>448</v>
@@ -4621,13 +4621,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P64" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186973044336</v>
       </c>
       <c r="Q64" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589037082783</v>
       </c>
       <c r="R64" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987932129</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -4647,31 +4647,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.74161993443591</v>
       </c>
       <c r="D65" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686312434876</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186990181632</v>
       </c>
       <c r="F65" t="n">
-        <v>113.4031378835042</v>
+        <v>113.358903648791</v>
       </c>
       <c r="G65" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933515</v>
       </c>
       <c r="H65" t="n">
-        <v>1.319158609153208</v>
+        <v>25.75874580125024</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415773</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9999999999995062</v>
+        <v>0.9700022797508728</v>
       </c>
       <c r="K65" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L65" t="n">
         <v>448</v>
@@ -4686,13 +4686,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P65" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186990181632</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.4031378835042</v>
+        <v>113.358903648791</v>
       </c>
       <c r="R65" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933515</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -4712,31 +4712,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.74161993443591</v>
       </c>
       <c r="D66" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686312434876</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186990181632</v>
       </c>
       <c r="F66" t="n">
-        <v>113.4031378835042</v>
+        <v>113.358903648791</v>
       </c>
       <c r="G66" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933515</v>
       </c>
       <c r="H66" t="n">
-        <v>1.319158609153208</v>
+        <v>25.75874580125024</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415773</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7720970962677787</v>
+        <v>0.9611744481323141</v>
       </c>
       <c r="K66" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L66" t="n">
         <v>448</v>
@@ -4751,13 +4751,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P66" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186990181632</v>
       </c>
       <c r="Q66" t="n">
-        <v>113.4031378835042</v>
+        <v>113.358903648791</v>
       </c>
       <c r="R66" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933515</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -4777,31 +4777,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.74161993443591</v>
       </c>
       <c r="D67" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686312434876</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186990181632</v>
       </c>
       <c r="F67" t="n">
-        <v>113.4031378835042</v>
+        <v>113.358903648791</v>
       </c>
       <c r="G67" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933515</v>
       </c>
       <c r="H67" t="n">
-        <v>1.319158609153208</v>
+        <v>25.75874580125024</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415773</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9003891278503455</v>
+        <v>0.9520759347024987</v>
       </c>
       <c r="K67" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L67" t="n">
         <v>448</v>
@@ -4816,13 +4816,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P67" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186990181632</v>
       </c>
       <c r="Q67" t="n">
-        <v>113.4031378835042</v>
+        <v>113.358903648791</v>
       </c>
       <c r="R67" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933515</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -4842,31 +4842,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612672975</v>
       </c>
       <c r="D68" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313255196</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186943863853</v>
       </c>
       <c r="F68" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589035830804</v>
       </c>
       <c r="G68" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987932934</v>
       </c>
       <c r="H68" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587804871806</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415784</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9564758007200972</v>
+        <v>0.9800017952119457</v>
       </c>
       <c r="K68" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L68" t="n">
         <v>448</v>
@@ -4881,13 +4881,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P68" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186943863853</v>
       </c>
       <c r="Q68" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589035830804</v>
       </c>
       <c r="R68" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987932934</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -4907,31 +4907,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C69" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612672975</v>
       </c>
       <c r="D69" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313255196</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186943863853</v>
       </c>
       <c r="F69" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589035830804</v>
       </c>
       <c r="G69" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987932934</v>
       </c>
       <c r="H69" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587804871806</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415784</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9867790457380313</v>
+        <v>0.9950740692696961</v>
       </c>
       <c r="K69" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L69" t="n">
         <v>448</v>
@@ -4946,13 +4946,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P69" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.946186943863853</v>
       </c>
       <c r="Q69" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589035830804</v>
       </c>
       <c r="R69" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987932934</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -4972,31 +4972,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D70" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F70" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G70" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H70" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9597885425224485</v>
+        <v>0.9963961934366194</v>
       </c>
       <c r="K70" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L70" t="n">
         <v>448</v>
@@ -5011,13 +5011,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P70" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R70" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5037,31 +5037,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D71" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F71" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G71" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H71" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J71" t="n">
-        <v>0.980182818769033</v>
+        <v>0.9980969514236324</v>
       </c>
       <c r="K71" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L71" t="n">
         <v>448</v>
@@ -5076,13 +5076,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P71" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q71" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R71" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -5102,31 +5102,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D72" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F72" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G72" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H72" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5857754662461961</v>
+        <v>0.5358976702244181</v>
       </c>
       <c r="K72" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L72" t="n">
         <v>448</v>
@@ -5141,13 +5141,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P72" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q72" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R72" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5167,31 +5167,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D73" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F73" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G73" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H73" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9979511062996895</v>
+        <v>0.99902670008987</v>
       </c>
       <c r="K73" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L73" t="n">
         <v>448</v>
@@ -5206,13 +5206,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P73" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q73" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R73" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -5232,31 +5232,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D74" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F74" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G74" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H74" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9995039761576993</v>
+        <v>0.9991298644335886</v>
       </c>
       <c r="K74" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L74" t="n">
         <v>448</v>
@@ -5271,13 +5271,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P74" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q74" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R74" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -5297,31 +5297,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D75" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F75" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G75" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H75" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9997787725317366</v>
+        <v>0.9996340012210627</v>
       </c>
       <c r="K75" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L75" t="n">
         <v>448</v>
@@ -5336,13 +5336,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P75" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q75" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R75" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -5362,31 +5362,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D76" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F76" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G76" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H76" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9999692582933295</v>
+        <v>0.9998306244043693</v>
       </c>
       <c r="K76" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L76" t="n">
         <v>448</v>
@@ -5401,13 +5401,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P76" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q76" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R76" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -5427,31 +5427,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D77" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F77" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G77" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H77" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9999775609192811</v>
+        <v>0.9998311051618901</v>
       </c>
       <c r="K77" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L77" t="n">
         <v>448</v>
@@ -5466,13 +5466,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q77" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R77" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -5492,31 +5492,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D78" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F78" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G78" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H78" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9999906245492007</v>
+        <v>0.9998524631412544</v>
       </c>
       <c r="K78" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L78" t="n">
         <v>448</v>
@@ -5531,13 +5531,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P78" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q78" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R78" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -5557,31 +5557,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.95101598353852</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D79" t="n">
-        <v>113.4054455044251</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F79" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G79" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H79" t="n">
-        <v>1.319158609153208</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999943323718309</v>
+        <v>0.9998958852124913</v>
       </c>
       <c r="K79" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L79" t="n">
         <v>448</v>
@@ -5596,13 +5596,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P79" t="n">
-        <v>-7.962657248301186</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q79" t="n">
-        <v>113.4031378835042</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R79" t="n">
-        <v>191.106850892166</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -5622,31 +5622,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.951015983106257</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D80" t="n">
-        <v>113.405445504898</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F80" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G80" t="n">
-        <v>191.1068508921633</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H80" t="n">
-        <v>1.319158729028149</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9999973009487119</v>
+        <v>0.9999820542119129</v>
       </c>
       <c r="K80" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L80" t="n">
         <v>448</v>
@@ -5661,13 +5661,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P80" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q80" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R80" t="n">
-        <v>191.1068508921633</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -5687,31 +5687,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.951015983106257</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D81" t="n">
-        <v>113.405445504898</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F81" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G81" t="n">
-        <v>191.1068508921633</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H81" t="n">
-        <v>1.319158729028149</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9999991313357365</v>
+        <v>0.9999962144597219</v>
       </c>
       <c r="K81" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L81" t="n">
         <v>448</v>
@@ -5726,13 +5726,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P81" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q81" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R81" t="n">
-        <v>191.1068508921633</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -5752,31 +5752,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.951015983106257</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D82" t="n">
-        <v>113.405445504898</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F82" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G82" t="n">
-        <v>191.1068508921633</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H82" t="n">
-        <v>1.319158729028149</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5857864397791138</v>
+        <v>0.5857864397154506</v>
       </c>
       <c r="K82" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L82" t="n">
         <v>448</v>
@@ -5791,13 +5791,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P82" t="n">
-        <v>-7.962657248926789</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.4031378837674</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R82" t="n">
-        <v>191.1068508921633</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -5817,31 +5817,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D83" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F83" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G83" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H83" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9999999999999714</v>
+        <v>0.9999999999994469</v>
       </c>
       <c r="K83" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L83" t="n">
         <v>448</v>
@@ -5856,13 +5856,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P83" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q83" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R83" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -5882,31 +5882,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C84" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D84" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E84" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F84" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G84" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H84" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9999999999999787</v>
+        <v>0.9999999999999862</v>
       </c>
       <c r="K84" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L84" t="n">
         <v>448</v>
@@ -5921,13 +5921,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P84" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q84" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R84" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -5947,31 +5947,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D85" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F85" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G85" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H85" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999862</v>
       </c>
       <c r="K85" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L85" t="n">
         <v>448</v>
@@ -5986,13 +5986,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P85" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q85" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R85" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -6012,31 +6012,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D86" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F86" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G86" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H86" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999865</v>
       </c>
       <c r="K86" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L86" t="n">
         <v>448</v>
@@ -6051,13 +6051,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P86" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q86" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R86" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -6077,31 +6077,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D87" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F87" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G87" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H87" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999867</v>
       </c>
       <c r="K87" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L87" t="n">
         <v>448</v>
@@ -6116,13 +6116,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P87" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q87" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R87" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -6142,31 +6142,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D88" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F88" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G88" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H88" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9999999999999922</v>
+        <v>0.999999999999988</v>
       </c>
       <c r="K88" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L88" t="n">
         <v>448</v>
@@ -6181,13 +6181,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P88" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q88" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R88" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -6207,31 +6207,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D89" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F89" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G89" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H89" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9999999999999971</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="K89" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L89" t="n">
         <v>448</v>
@@ -6246,13 +6246,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P89" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q89" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R89" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -6272,31 +6272,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D90" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F90" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G90" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H90" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="K90" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L90" t="n">
         <v>448</v>
@@ -6311,13 +6311,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P90" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q90" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R90" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -6337,31 +6337,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D91" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E91" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F91" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G91" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H91" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="K91" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L91" t="n">
         <v>448</v>
@@ -6376,13 +6376,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P91" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q91" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R91" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -6402,31 +6402,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741619612610866</v>
       </c>
       <c r="D92" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686313484368</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="F92" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="G92" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="H92" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7587805152097</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.1741406945415789</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5857864397791813</v>
+        <v>0.585786439716945</v>
       </c>
       <c r="K92" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L92" t="n">
         <v>448</v>
@@ -6441,13 +6441,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P92" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.94618694402431</v>
       </c>
       <c r="Q92" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036058781</v>
       </c>
       <c r="R92" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933015</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -6467,31 +6467,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C93" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D93" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F93" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G93" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H93" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L93" t="n">
         <v>448</v>
@@ -6506,13 +6506,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P93" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q93" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R93" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -6532,31 +6532,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C94" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D94" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F94" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G94" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H94" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L94" t="n">
         <v>448</v>
@@ -6571,13 +6571,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P94" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q94" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R94" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -6597,31 +6597,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D95" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F95" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G95" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H95" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L95" t="n">
         <v>448</v>
@@ -6636,13 +6636,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P95" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q95" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R95" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -6662,31 +6662,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D96" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E96" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F96" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G96" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H96" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9614668834458446</v>
+        <v>0.9267361302456241</v>
       </c>
       <c r="K96" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L96" t="n">
         <v>448</v>
@@ -6701,13 +6701,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P96" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q96" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R96" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -6727,31 +6727,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C97" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D97" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F97" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G97" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H97" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9489445429277727</v>
+        <v>0.9077585911218635</v>
       </c>
       <c r="K97" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L97" t="n">
         <v>448</v>
@@ -6766,13 +6766,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P97" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q97" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R97" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -6792,31 +6792,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D98" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F98" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G98" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H98" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9523932083455569</v>
+        <v>0.9772398071820323</v>
       </c>
       <c r="K98" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L98" t="n">
         <v>448</v>
@@ -6831,13 +6831,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P98" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q98" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R98" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -6857,31 +6857,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D99" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F99" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G99" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H99" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9377061115663422</v>
+        <v>0.9916444993797259</v>
       </c>
       <c r="K99" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L99" t="n">
         <v>448</v>
@@ -6896,13 +6896,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P99" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q99" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R99" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S99" t="b">
         <v>0</v>
@@ -6922,31 +6922,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C100" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D100" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F100" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G100" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H100" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8868699877266605</v>
+        <v>0.9956470425236208</v>
       </c>
       <c r="K100" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L100" t="n">
         <v>448</v>
@@ -6961,13 +6961,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P100" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q100" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R100" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -6987,31 +6987,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C101" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D101" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F101" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G101" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H101" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9563755434215702</v>
+        <v>0.9970695400395795</v>
       </c>
       <c r="K101" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L101" t="n">
         <v>448</v>
@@ -7026,13 +7026,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P101" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q101" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R101" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -7052,31 +7052,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C102" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D102" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F102" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G102" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H102" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5856050858821248</v>
+        <v>0.5358974390285876</v>
       </c>
       <c r="K102" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L102" t="n">
         <v>448</v>
@@ -7091,13 +7091,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P102" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q102" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R102" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -7117,31 +7117,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D103" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F103" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G103" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H103" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J103" t="n">
-        <v>0.997239731021383</v>
+        <v>0.9984571901183076</v>
       </c>
       <c r="K103" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L103" t="n">
         <v>448</v>
@@ -7156,13 +7156,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P103" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R103" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S103" t="b">
         <v>0</v>
@@ -7182,31 +7182,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C104" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D104" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F104" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G104" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H104" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9991181708130191</v>
+        <v>0.9989059184374018</v>
       </c>
       <c r="K104" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L104" t="n">
         <v>448</v>
@@ -7221,13 +7221,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P104" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q104" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R104" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S104" t="b">
         <v>0</v>
@@ -7247,31 +7247,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D105" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F105" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G105" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H105" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J105" t="n">
-        <v>0.9994735033684392</v>
+        <v>0.9989059184374018</v>
       </c>
       <c r="K105" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L105" t="n">
         <v>448</v>
@@ -7286,13 +7286,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P105" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q105" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R105" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -7312,31 +7312,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D106" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F106" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G106" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H106" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J106" t="n">
-        <v>0.999704675117597</v>
+        <v>0.9989059184374018</v>
       </c>
       <c r="K106" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L106" t="n">
         <v>448</v>
@@ -7351,13 +7351,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P106" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q106" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R106" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S106" t="b">
         <v>0</v>
@@ -7377,31 +7377,31 @@
         <v>44785.47361111111</v>
       </c>
       <c r="C107" t="n">
-        <v>-7.951016005878953</v>
+        <v>-7.741618898159881</v>
       </c>
       <c r="D107" t="n">
-        <v>113.4054455000344</v>
+        <v>113.4686317549468</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="F107" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="G107" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="H107" t="n">
-        <v>1.31915645461616</v>
+        <v>25.7588708610677</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1691051460369216</v>
+        <v>0.174140694541579</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9998724009470785</v>
+        <v>0.9989629455308896</v>
       </c>
       <c r="K107" t="n">
-        <v>448</v>
+        <v>1364</v>
       </c>
       <c r="L107" t="n">
         <v>448</v>
@@ -7416,13 +7416,13 @@
         <v>113.40414682924</v>
       </c>
       <c r="P107" t="n">
-        <v>-7.962657251628346</v>
+        <v>-7.946186947020163</v>
       </c>
       <c r="Q107" t="n">
-        <v>113.4031378828824</v>
+        <v>113.3589036275319</v>
       </c>
       <c r="R107" t="n">
-        <v>191.1068508921616</v>
+        <v>207.9773987933</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -7442,31 +7442,31 @@
         <v>44785.47361111111</v>
  